--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_test_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
   <si>
     <t>Test ID</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Other (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average time external force (ms)</t>
   </si>
 </sst>
 </file>
@@ -760,24 +763,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$2,sheet_test_data!$J$7,sheet_test_data!$J$12,sheet_test_data!$J$22,sheet_test_data!$J$27)</c:f>
+              <c:f>(sheet_test_data!$K$2,sheet_test_data!$K$7,sheet_test_data!$K$12,sheet_test_data!$K$17,sheet_test_data!$K$22,sheet_test_data!$K$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5868.38</c:v>
+                  <c:v>6231.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3246.15</c:v>
+                  <c:v>4242.5200000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>792.95</c:v>
+                  <c:v>811.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250.36699999999999</c:v>
+                  <c:v>445.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>214.333</c:v>
+                  <c:v>261.16699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,27 +812,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$32,sheet_test_data!$J$37,sheet_test_data!$J$42,sheet_test_data!$J$47,sheet_test_data!$J$52,sheet_test_data!$J$57)</c:f>
+              <c:f>(sheet_test_data!$K$32,sheet_test_data!$K$37,sheet_test_data!$K$42,sheet_test_data!$K$47,sheet_test_data!$K$52,sheet_test_data!$K$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5946.73</c:v>
+                  <c:v>7930.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4135.38</c:v>
+                  <c:v>4511.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757.08299999999997</c:v>
+                  <c:v>696.48299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>427.5</c:v>
+                  <c:v>469.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249.767</c:v>
+                  <c:v>287.233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.15</c:v>
+                  <c:v>154.03299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,27 +861,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$92,sheet_test_data!$J$97,sheet_test_data!$J$102,sheet_test_data!$J$107,sheet_test_data!$J$112,sheet_test_data!$J$117)</c:f>
+              <c:f>(sheet_test_data!$K$92,sheet_test_data!$K$97,sheet_test_data!$K$102,sheet_test_data!$K$107,sheet_test_data!$K$112,sheet_test_data!$K$117)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5717.68</c:v>
+                  <c:v>6866.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800.51700000000005</c:v>
+                  <c:v>812.88300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395.7</c:v>
+                  <c:v>393.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277.95</c:v>
+                  <c:v>273.78300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.6</c:v>
+                  <c:v>150.483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.81699999999999</c:v>
+                  <c:v>129.63300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,27 +910,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$62,sheet_test_data!$J$67,sheet_test_data!$J$72,sheet_test_data!$J$77,sheet_test_data!$J$82,sheet_test_data!$J$87)</c:f>
+              <c:f>(sheet_test_data!$K$62,sheet_test_data!$K$67,sheet_test_data!$K$72,sheet_test_data!$K$77,sheet_test_data!$K$82,sheet_test_data!$K$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3232.47</c:v>
+                  <c:v>4209.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.93299999999999</c:v>
+                  <c:v>392.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.017</c:v>
+                  <c:v>164.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.733</c:v>
+                  <c:v>142.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.033299999999997</c:v>
+                  <c:v>97.433300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.216700000000003</c:v>
+                  <c:v>38.5167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1069,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="8000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1398,22 +1404,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13211400000000001</c:v>
+                  <c:v>0.12814700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50907199999999997</c:v>
+                  <c:v>0.49454199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0982099999999999</c:v>
+                  <c:v>1.0911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9861</c:v>
+                  <c:v>1.9540900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1303000000000001</c:v>
+                  <c:v>3.0775600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8597000000000001</c:v>
+                  <c:v>4.7986300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,24 +1863,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]flag_test_data!$J$27:$J$31</c:f>
+              <c:f>[1]flag_test_data!$K$27:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>116.717</c:v>
+                  <c:v>120.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118.95</c:v>
+                  <c:v>123.767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>799.15</c:v>
+                  <c:v>1740.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1678</c:v>
+                  <c:v>3995.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2115.33</c:v>
+                  <c:v>4248.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2024,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2200"/>
+          <c:max val="4400"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2360,7 +2366,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet_test_data!$H$1:$I$1</c:f>
+              <c:f>sheet_test_data!$I$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2374,15 +2380,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$27,sheet_test_data!$I$27)</c:f>
+              <c:f>sheet_test_data!$I$27:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.1927899999999996</c:v>
+                  <c:v>6.0320200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21390200000000001</c:v>
+                  <c:v>0.21052100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,6 +2625,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2677,16 +2698,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$L$1)</c:f>
+              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$H$1,sheet_test_data!$M$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v> Average time calcSpringForce (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> Average time external force (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v> Average time integrate (ms)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Other (ms)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2694,18 +2718,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$F$27,sheet_test_data!$G$27,sheet_test_data!$L$27)</c:f>
+              <c:f>(sheet_test_data!$F$27:$H$27,sheet_test_data!$M$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.8597000000000001</c:v>
+                  <c:v>4.7986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.448768</c:v>
+                  <c:v>0.347248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88432199999999916</c:v>
+                  <c:v>0.42016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46597199999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,27 +2956,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Verlet!$C$1,Verlet!$C$6,Verlet!$C$11,Verlet!$C$16,Verlet!$C$21,Verlet!$C$26)</c:f>
+              <c:f>(sheet_test_data!$K$32,sheet_test_data!$K$37,sheet_test_data!$K$42,sheet_test_data!$K$47,sheet_test_data!$K$52,sheet_test_data!$K$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5946.73</c:v>
+                  <c:v>7930.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4135.38</c:v>
+                  <c:v>4511.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757.08299999999997</c:v>
+                  <c:v>696.48299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>427.5</c:v>
+                  <c:v>469.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249.767</c:v>
+                  <c:v>287.233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.15</c:v>
+                  <c:v>154.03299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,27 +3005,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Verlet!$C$2,Verlet!$C$7,Verlet!$C$12,Verlet!$C$17,Verlet!$C$22,Verlet!$C$27)</c:f>
+              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$K$53,sheet_test_data!$K$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7728.73</c:v>
+                  <c:v>8568.4699999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7338.32</c:v>
+                  <c:v>7146.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4503.2700000000004</c:v>
+                  <c:v>6573.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4240.7700000000004</c:v>
+                  <c:v>4473.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1336.23</c:v>
+                  <c:v>1681.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152.75</c:v>
+                  <c:v>160.667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,27 +3054,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Verlet!$C$3,Verlet!$C$8,Verlet!$C$13,Verlet!$C$18,Verlet!$C$23,Verlet!$C$28)</c:f>
+              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$K$44,sheet_test_data!$K$49,sheet_test_data!$K$54,sheet_test_data!$K$59)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7877.3</c:v>
+                  <c:v>8488.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7749.9</c:v>
+                  <c:v>7828.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5581.87</c:v>
+                  <c:v>6507.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6159.02</c:v>
+                  <c:v>6331.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4819.45</c:v>
+                  <c:v>5351.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1487.2</c:v>
+                  <c:v>3475.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,27 +3103,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Verlet!$C$4,Verlet!$C$9,Verlet!$C$14,Verlet!$C$19,Verlet!$C$24,Verlet!$C$29)</c:f>
+              <c:f>(sheet_test_data!$K$35,sheet_test_data!$K$40,sheet_test_data!$K$45,sheet_test_data!$K$50,sheet_test_data!$K$55,sheet_test_data!$K$60)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7969.32</c:v>
+                  <c:v>8616.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8456</c:v>
+                  <c:v>8003.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5869.78</c:v>
+                  <c:v>6898.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6851.77</c:v>
+                  <c:v>6967.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5573.13</c:v>
+                  <c:v>5850.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2094.6</c:v>
+                  <c:v>4506.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,27 +3152,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Verlet!$C$5,Verlet!$C$10,Verlet!$C$15,Verlet!$C$20,Verlet!$C$25,Verlet!$C$30)</c:f>
+              <c:f>(sheet_test_data!$K$36,sheet_test_data!$K$41,sheet_test_data!$K$46,sheet_test_data!$K$51,sheet_test_data!$K$56,sheet_test_data!$K$61)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8199.35</c:v>
+                  <c:v>8368.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8447.4</c:v>
+                  <c:v>8006.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6042.53</c:v>
+                  <c:v>6985.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7034.87</c:v>
+                  <c:v>7234.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5736.7</c:v>
+                  <c:v>5835.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2427.23</c:v>
+                  <c:v>4544.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3311,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3610,27 +3637,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$32,sheet_test_data!$J$37,sheet_test_data!$J$42,sheet_test_data!$J$47,sheet_test_data!$J$52,sheet_test_data!$J$57)</c:f>
+              <c:f>(sheet_test_data!$K$32,sheet_test_data!$K$37,sheet_test_data!$K$42,sheet_test_data!$K$47,sheet_test_data!$K$52,sheet_test_data!$K$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5946.73</c:v>
+                  <c:v>7930.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4135.38</c:v>
+                  <c:v>4511.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757.08299999999997</c:v>
+                  <c:v>696.48299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>427.5</c:v>
+                  <c:v>469.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249.767</c:v>
+                  <c:v>287.233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.15</c:v>
+                  <c:v>154.03299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3779,7 +3806,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4073,27 +4100,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$32,sheet_test_data!$H$37,sheet_test_data!$H$42,sheet_test_data!$H$47,sheet_test_data!$H$52,sheet_test_data!$H$57)</c:f>
+              <c:f>(sheet_test_data!$I$32,sheet_test_data!$I$37,sheet_test_data!$I$42,sheet_test_data!$I$47,sheet_test_data!$I$52,sheet_test_data!$I$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15636900000000001</c:v>
+                  <c:v>0.15393299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60615399999999997</c:v>
+                  <c:v>0.60041900000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3624000000000001</c:v>
+                  <c:v>1.3474999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4596399999999998</c:v>
+                  <c:v>2.4142000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0198299999999998</c:v>
+                  <c:v>3.90415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4886400000000002</c:v>
+                  <c:v>6.2942400000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4548,22 +4575,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13217300000000001</c:v>
+                  <c:v>0.127856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51003699999999996</c:v>
+                  <c:v>0.50525600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14967</c:v>
+                  <c:v>1.13887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0659100000000001</c:v>
+                  <c:v>2.0401500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2952699999999999</c:v>
+                  <c:v>3.23821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1534500000000003</c:v>
+                  <c:v>5.0620099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,24 +5036,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>sheet_test_data!$J$57:$J$61</c:f>
+              <c:f>sheet_test_data!$K$57:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>213.15</c:v>
+                  <c:v>154.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.75</c:v>
+                  <c:v>160.667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1487.2</c:v>
+                  <c:v>3475.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2094.6</c:v>
+                  <c:v>4506.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2427.23</c:v>
+                  <c:v>4544.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,7 +5197,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2500"/>
+          <c:max val="4600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5289,7 +5316,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5512,7 +5539,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet_test_data!$H$1:$I$1</c:f>
+              <c:f>sheet_test_data!$I$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5526,15 +5553,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$57,sheet_test_data!$I$57)</c:f>
+              <c:f>sheet_test_data!$I$57:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.4886400000000002</c:v>
+                  <c:v>6.2942400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21810399999999999</c:v>
+                  <c:v>0.210758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,27 +5785,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$3,sheet_test_data!$J$8,sheet_test_data!$J$13,sheet_test_data!$J$18,sheet_test_data!$J$23,sheet_test_data!$J$28)</c:f>
+              <c:f>(sheet_test_data!$K$3,sheet_test_data!$K$8,sheet_test_data!$K$13,sheet_test_data!$K$18,sheet_test_data!$K$23,sheet_test_data!$K$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6547.93</c:v>
+                  <c:v>6921.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7320.63</c:v>
+                  <c:v>7267.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3291.15</c:v>
+                  <c:v>4048.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3540.95</c:v>
+                  <c:v>4626.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1882.63</c:v>
+                  <c:v>2203.2800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.38300000000001</c:v>
+                  <c:v>161.96700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5807,27 +5834,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$33,sheet_test_data!$J$38,sheet_test_data!$J$43,sheet_test_data!$J$48,sheet_test_data!$J$53,sheet_test_data!$J$58)</c:f>
+              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$K$53,sheet_test_data!$K$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7728.73</c:v>
+                  <c:v>8568.4699999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7338.32</c:v>
+                  <c:v>7146.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4503.2700000000004</c:v>
+                  <c:v>6573.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4240.7700000000004</c:v>
+                  <c:v>4473.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1336.23</c:v>
+                  <c:v>1681.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152.75</c:v>
+                  <c:v>160.667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,27 +5883,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$93,sheet_test_data!$J$98,sheet_test_data!$J$103,sheet_test_data!$J$108,sheet_test_data!$J$113,sheet_test_data!$J$118)</c:f>
+              <c:f>(sheet_test_data!$K$93,sheet_test_data!$K$98,sheet_test_data!$K$103,sheet_test_data!$K$108,sheet_test_data!$K$113,sheet_test_data!$K$118)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7676.92</c:v>
+                  <c:v>8303.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5072.8500000000004</c:v>
+                  <c:v>6465.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3043.25</c:v>
+                  <c:v>4409.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>533.83299999999997</c:v>
+                  <c:v>756.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.63300000000001</c:v>
+                  <c:v>136.38300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.7667</c:v>
+                  <c:v>85.533299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,27 +5932,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$63,sheet_test_data!$J$68,sheet_test_data!$J$73,sheet_test_data!$J$78,sheet_test_data!$J$83,sheet_test_data!$J$88)</c:f>
+              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$K$78,sheet_test_data!$K$83,sheet_test_data!$K$88)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5781.08</c:v>
+                  <c:v>7180.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3222.23</c:v>
+                  <c:v>5041.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170.733</c:v>
+                  <c:v>172.167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.85</c:v>
+                  <c:v>102.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.616700000000002</c:v>
+                  <c:v>64.366699999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.9833</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,7 +6091,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6393,6 +6420,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -6451,16 +6493,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$L$1)</c:f>
+              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$H$1,sheet_test_data!$M$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v> Average time calcSpringForce (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> Average time external force (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v> Average time integrate (ms)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Other (ms)</c:v>
                 </c:pt>
               </c:strCache>
@@ -6468,18 +6513,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$F$57,sheet_test_data!$G$57,sheet_test_data!$L$57)</c:f>
+              <c:f>(sheet_test_data!$F$57:$H$57,sheet_test_data!$M$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1534500000000003</c:v>
+                  <c:v>5.0620099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44876899999999997</c:v>
+                  <c:v>0.34651500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88642100000000035</c:v>
+                  <c:v>0.41843200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46728300000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6703,27 +6751,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('RK4'!$C$1,'RK4'!$C$6,'RK4'!$C$11,'RK4'!$C$16,'RK4'!$C$21,'RK4'!$C$26)</c:f>
+              <c:f>(sheet_test_data!$K$62,sheet_test_data!$K$67,sheet_test_data!$K$72,sheet_test_data!$K$77,sheet_test_data!$K$82,sheet_test_data!$K$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3232.47</c:v>
+                  <c:v>4209.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.93299999999999</c:v>
+                  <c:v>392.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.017</c:v>
+                  <c:v>164.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.733</c:v>
+                  <c:v>142.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.033299999999997</c:v>
+                  <c:v>97.433300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.216700000000003</c:v>
+                  <c:v>38.5167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,27 +6800,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('RK4'!$C$2,'RK4'!$C$7,'RK4'!$C$12,'RK4'!$C$17,'RK4'!$C$22,'RK4'!$C$27)</c:f>
+              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$K$78,sheet_test_data!$K$83,sheet_test_data!$K$88)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5781.08</c:v>
+                  <c:v>7180.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3222.23</c:v>
+                  <c:v>5041.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170.733</c:v>
+                  <c:v>172.167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.85</c:v>
+                  <c:v>102.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.616700000000002</c:v>
+                  <c:v>64.366699999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.9833</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6801,27 +6849,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('RK4'!$C$3,'RK4'!$C$8,'RK4'!$C$13,'RK4'!$C$18,'RK4'!$C$23,'RK4'!$C$28)</c:f>
+              <c:f>(sheet_test_data!$K$64,sheet_test_data!$K$69,sheet_test_data!$K$74,sheet_test_data!$K$79,sheet_test_data!$K$84,sheet_test_data!$K$89)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6291.13</c:v>
+                  <c:v>7983.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5381.33</c:v>
+                  <c:v>6510.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4070.77</c:v>
+                  <c:v>4217.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.2</c:v>
+                  <c:v>353.21699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.4833</c:v>
+                  <c:v>64.783299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>41.366700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6850,27 +6898,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('RK4'!$C$4,'RK4'!$C$9,'RK4'!$C$14,'RK4'!$C$19,'RK4'!$C$24,'RK4'!$C$29)</c:f>
+              <c:f>(sheet_test_data!$K$65,sheet_test_data!$K$70,sheet_test_data!$K$75,sheet_test_data!$K$80,sheet_test_data!$K$85,sheet_test_data!$K$90)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6454.08</c:v>
+                  <c:v>8302.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5917.78</c:v>
+                  <c:v>6953.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4098.05</c:v>
+                  <c:v>5910.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3106.6</c:v>
+                  <c:v>3002.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.5</c:v>
+                  <c:v>65.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.1</c:v>
+                  <c:v>41.7667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,27 +6947,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('RK4'!$C$5,'RK4'!$C$10,'RK4'!$C$15,'RK4'!$C$20,'RK4'!$C$25,'RK4'!$C$30)</c:f>
+              <c:f>(sheet_test_data!$K$66,sheet_test_data!$K$71,sheet_test_data!$K$76,sheet_test_data!$K$81,sheet_test_data!$K$86,sheet_test_data!$K$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6576.93</c:v>
+                  <c:v>8699.3700000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6190.52</c:v>
+                  <c:v>7362.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4616.25</c:v>
+                  <c:v>5783.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4197.32</c:v>
+                  <c:v>4266.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1686.77</c:v>
+                  <c:v>1943.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.533299999999997</c:v>
+                  <c:v>42.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7058,7 +7106,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7384,27 +7432,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$62,sheet_test_data!$J$67,sheet_test_data!$J$72,sheet_test_data!$J$77,sheet_test_data!$J$82,sheet_test_data!$J$87)</c:f>
+              <c:f>(sheet_test_data!$K$62,sheet_test_data!$K$67,sheet_test_data!$K$72,sheet_test_data!$K$77,sheet_test_data!$K$82,sheet_test_data!$K$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3232.47</c:v>
+                  <c:v>4209.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.93299999999999</c:v>
+                  <c:v>392.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.017</c:v>
+                  <c:v>164.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.733</c:v>
+                  <c:v>142.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.033299999999997</c:v>
+                  <c:v>97.433300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.216700000000003</c:v>
+                  <c:v>38.5167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7553,7 +7601,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500"/>
+          <c:max val="4500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7847,27 +7895,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$62,sheet_test_data!$H$67,sheet_test_data!$H$72,sheet_test_data!$H$77,sheet_test_data!$H$82,sheet_test_data!$H$87)</c:f>
+              <c:f>(sheet_test_data!$I$62,sheet_test_data!$I$67,sheet_test_data!$I$72,sheet_test_data!$I$77,sheet_test_data!$I$82,sheet_test_data!$I$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61651199999999995</c:v>
+                  <c:v>0.60983799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9002500000000002</c:v>
+                  <c:v>2.8908299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0399500000000002</c:v>
+                  <c:v>6.0208700000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.611800000000001</c:v>
+                  <c:v>10.443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.942599999999999</c:v>
+                  <c:v>16.384799999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.5761</c:v>
+                  <c:v>25.799900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8322,22 +8370,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.51666199999999995</c:v>
+                  <c:v>0.50944400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4779100000000001</c:v>
+                  <c:v>2.4761199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0449200000000003</c:v>
+                  <c:v>5.0483700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6510800000000003</c:v>
+                  <c:v>8.5633300000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.3446</c:v>
+                  <c:v>13.1669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.383600000000001</c:v>
+                  <c:v>20.086400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,24 +8826,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>sheet_test_data!$J$87:$J$91</c:f>
+              <c:f>sheet_test_data!$K$87:$K$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.216700000000003</c:v>
+                  <c:v>38.5167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.9833</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>41.366700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.1</c:v>
+                  <c:v>41.7667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.533299999999997</c:v>
+                  <c:v>42.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8939,8 +8987,8 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
-          <c:min val="37"/>
+          <c:max val="42.2"/>
+          <c:min val="38"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9281,7 +9329,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet_test_data!$H$1:$I$1</c:f>
+              <c:f>sheet_test_data!$I$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -9295,15 +9343,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$87,sheet_test_data!$I$87)</c:f>
+              <c:f>sheet_test_data!$I$87:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>26.5761</c:v>
+                  <c:v>25.799900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38511099999999998</c:v>
+                  <c:v>0.22121499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9540,6 +9588,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -9598,16 +9661,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$L$1)</c:f>
+              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$H$1,sheet_test_data!$M$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v> Average time calcSpringForce (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> Average time external force (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v> Average time integrate (ms)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Other (ms)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9615,18 +9681,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$F$87,sheet_test_data!$M$87,sheet_test_data!$L$87)</c:f>
+              <c:f>(sheet_test_data!$F$87,sheet_test_data!$G$87,sheet_test_data!$N$87,sheet_test_data!$M$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.383600000000001</c:v>
+                  <c:v>20.086400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0220999999999982</c:v>
+                  <c:v>1.37165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1704000000000008</c:v>
+                  <c:v>3.2433499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0985000000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9850,27 +9919,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Midpoint!$C$1,Midpoint!$C$6,Midpoint!$C$11,Midpoint!$C$16,Midpoint!$C$21,Midpoint!$C$26)</c:f>
+              <c:f>(sheet_test_data!$K$92,sheet_test_data!$K$97,sheet_test_data!$K$102,sheet_test_data!$K$107,sheet_test_data!$K$112,sheet_test_data!$K$117)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5717.68</c:v>
+                  <c:v>6866.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800.51700000000005</c:v>
+                  <c:v>812.88300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395.7</c:v>
+                  <c:v>393.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277.95</c:v>
+                  <c:v>273.78300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.6</c:v>
+                  <c:v>150.483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.81699999999999</c:v>
+                  <c:v>129.63300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9899,27 +9968,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Midpoint!$C$2,Midpoint!$C$7,Midpoint!$C$12,Midpoint!$C$17,Midpoint!$C$22,Midpoint!$C$27)</c:f>
+              <c:f>(sheet_test_data!$K$93,sheet_test_data!$K$98,sheet_test_data!$K$103,sheet_test_data!$K$108,sheet_test_data!$K$113,sheet_test_data!$K$118)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7676.92</c:v>
+                  <c:v>8303.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5072.8500000000004</c:v>
+                  <c:v>6465.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3043.25</c:v>
+                  <c:v>4409.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>533.83299999999997</c:v>
+                  <c:v>756.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.63300000000001</c:v>
+                  <c:v>136.38300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.7667</c:v>
+                  <c:v>85.533299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9948,27 +10017,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Midpoint!$C$3,Midpoint!$C$8,Midpoint!$C$13,Midpoint!$C$18,Midpoint!$C$23,Midpoint!$C$28)</c:f>
+              <c:f>(sheet_test_data!$K$94,sheet_test_data!$K$99,sheet_test_data!$K$104,sheet_test_data!$K$109,sheet_test_data!$K$114,sheet_test_data!$K$119)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8116.98</c:v>
+                  <c:v>8166.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5750.89</c:v>
+                  <c:v>7045.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2621.0300000000002</c:v>
+                  <c:v>3969.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2964.41</c:v>
+                  <c:v>3127.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1215.8699999999999</c:v>
+                  <c:v>2375.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.05</c:v>
+                  <c:v>86.916700000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9997,27 +10066,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Midpoint!$C$4,Midpoint!$C$9,Midpoint!$C$14,Midpoint!$C$19,Midpoint!$C$24,Midpoint!$C$29)</c:f>
+              <c:f>(sheet_test_data!$K$95,sheet_test_data!$K$100,sheet_test_data!$K$105,sheet_test_data!$K$110,sheet_test_data!$K$115,sheet_test_data!$K$120)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6664.57</c:v>
+                  <c:v>8544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4125.32</c:v>
+                  <c:v>5932.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5235.07</c:v>
+                  <c:v>6272.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3912.55</c:v>
+                  <c:v>3947.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2286.23</c:v>
+                  <c:v>4456.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>841.55</c:v>
+                  <c:v>2020.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10046,27 +10115,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Midpoint!$C$5,Midpoint!$C$10,Midpoint!$C$15,Midpoint!$C$20,Midpoint!$C$25,Midpoint!$C$30)</c:f>
+              <c:f>(sheet_test_data!$K$96,sheet_test_data!$K$101,sheet_test_data!$K$106,sheet_test_data!$K$111,sheet_test_data!$K$116,sheet_test_data!$K$121)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6604.92</c:v>
+                  <c:v>8524.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6349.93</c:v>
+                  <c:v>7901.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5515.33</c:v>
+                  <c:v>6050.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4304.25</c:v>
+                  <c:v>5711.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2817.65</c:v>
+                  <c:v>5159.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1468.38</c:v>
+                  <c:v>3361.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10205,7 +10274,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10531,27 +10600,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$92,sheet_test_data!$J$97,sheet_test_data!$J$102,sheet_test_data!$J$107,sheet_test_data!$J$112,sheet_test_data!$J$117)</c:f>
+              <c:f>(sheet_test_data!$K$92,sheet_test_data!$K$97,sheet_test_data!$K$102,sheet_test_data!$K$107,sheet_test_data!$K$112,sheet_test_data!$K$117)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5717.68</c:v>
+                  <c:v>6866.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800.51700000000005</c:v>
+                  <c:v>812.88300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395.7</c:v>
+                  <c:v>393.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277.95</c:v>
+                  <c:v>273.78300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.6</c:v>
+                  <c:v>150.483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.81699999999999</c:v>
+                  <c:v>129.63300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10700,7 +10769,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="7000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10985,27 +11054,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$4,sheet_test_data!$J$9,sheet_test_data!$J$14,sheet_test_data!$J$19,sheet_test_data!$J$24,sheet_test_data!$J$29)</c:f>
+              <c:f>(sheet_test_data!$K$4,sheet_test_data!$K$9,sheet_test_data!$K$14,sheet_test_data!$K$19,sheet_test_data!$K$24,sheet_test_data!$K$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6560.25</c:v>
+                  <c:v>7002.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8130</c:v>
+                  <c:v>8521.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5496.3</c:v>
+                  <c:v>6601.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6040.43</c:v>
+                  <c:v>6477.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5079.12</c:v>
+                  <c:v>5391.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1495.23</c:v>
+                  <c:v>3445.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11034,27 +11103,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$34,sheet_test_data!$J$39,sheet_test_data!$J$44,sheet_test_data!$J$49,sheet_test_data!$J$54,sheet_test_data!$J$59)</c:f>
+              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$K$44,sheet_test_data!$K$49,sheet_test_data!$K$54,sheet_test_data!$K$59)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7877.3</c:v>
+                  <c:v>8488.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7749.9</c:v>
+                  <c:v>7828.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5581.87</c:v>
+                  <c:v>6507.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6159.02</c:v>
+                  <c:v>6331.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4819.45</c:v>
+                  <c:v>5351.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1487.2</c:v>
+                  <c:v>3475.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11083,27 +11152,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$94,sheet_test_data!$J$99,sheet_test_data!$J$104,sheet_test_data!$J$109,sheet_test_data!$J$114,sheet_test_data!$J$119)</c:f>
+              <c:f>(sheet_test_data!$K$94,sheet_test_data!$K$99,sheet_test_data!$K$104,sheet_test_data!$K$109,sheet_test_data!$K$114,sheet_test_data!$K$119)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8116.98</c:v>
+                  <c:v>8166.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5750.89</c:v>
+                  <c:v>7045.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2621.0300000000002</c:v>
+                  <c:v>3969.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2964.41</c:v>
+                  <c:v>3127.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1215.8699999999999</c:v>
+                  <c:v>2375.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.05</c:v>
+                  <c:v>86.916700000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11132,27 +11201,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$64,sheet_test_data!$J$69,sheet_test_data!$J$74,sheet_test_data!$J$79,sheet_test_data!$J$84,sheet_test_data!$J$89)</c:f>
+              <c:f>(sheet_test_data!$K$64,sheet_test_data!$K$69,sheet_test_data!$K$74,sheet_test_data!$K$79,sheet_test_data!$K$84,sheet_test_data!$K$89)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6291.13</c:v>
+                  <c:v>7983.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5381.33</c:v>
+                  <c:v>6510.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4070.77</c:v>
+                  <c:v>4217.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.2</c:v>
+                  <c:v>353.21699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.4833</c:v>
+                  <c:v>64.783299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>41.366700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11291,7 +11360,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11616,27 +11685,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$92,sheet_test_data!$H$97,sheet_test_data!$H$102,sheet_test_data!$H$107,sheet_test_data!$H$112,sheet_test_data!$H$117)</c:f>
+              <c:f>(sheet_test_data!$I$92,sheet_test_data!$I$97,sheet_test_data!$I$102,sheet_test_data!$I$107,sheet_test_data!$I$112,sheet_test_data!$I$117)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29627700000000001</c:v>
+                  <c:v>0.29161100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2607999999999999</c:v>
+                  <c:v>1.2422899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6265200000000002</c:v>
+                  <c:v>2.57985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6673900000000001</c:v>
+                  <c:v>4.5704099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5742700000000003</c:v>
+                  <c:v>7.2707100000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.081799999999999</c:v>
+                  <c:v>11.615600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11785,7 +11854,7 @@
         <c:axId val="1316746351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12.5"/>
+          <c:max val="12"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12091,22 +12160,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25922899999999999</c:v>
+                  <c:v>0.25325500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.10301</c:v>
+                  <c:v>1.0874900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2702800000000001</c:v>
+                  <c:v>2.2325599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0089699999999997</c:v>
+                  <c:v>3.9375200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3554300000000001</c:v>
+                  <c:v>6.1886200000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8617299999999997</c:v>
+                  <c:v>9.6343099999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12547,24 +12616,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]flag_test_data!$J$117:$J$121</c:f>
+              <c:f>[1]flag_test_data!$K$117:$K$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60.433300000000003</c:v>
+                  <c:v>62.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.883299999999998</c:v>
+                  <c:v>64.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.2</c:v>
+                  <c:v>65.333299999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.333299999999994</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>387</c:v>
+                  <c:v>1961.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12708,7 +12777,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12827,7 +12896,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13050,7 +13119,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sheet_test_data!$H$1:$I$1</c:f>
+              <c:f>sheet_test_data!$I$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -13064,15 +13133,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$117,sheet_test_data!$I$117)</c:f>
+              <c:f>sheet_test_data!$I$117:$J$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12.081799999999999</c:v>
+                  <c:v>11.615600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24601500000000001</c:v>
+                  <c:v>0.22028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13309,6 +13378,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -13367,16 +13451,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$L$1)</c:f>
+              <c:f>(sheet_test_data!$F$1,sheet_test_data!$G$1,sheet_test_data!$H$1,sheet_test_data!$M$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v> Average time calcSpringForce (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> Average time external force (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v> Average time integrate (ms)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Other (ms)</c:v>
                 </c:pt>
               </c:strCache>
@@ -13384,18 +13471,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$F$117,sheet_test_data!$G$117,sheet_test_data!$L$117)</c:f>
+              <c:f>(sheet_test_data!$F$117,sheet_test_data!$G$117,sheet_test_data!$N$117,sheet_test_data!$M$117)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8617299999999997</c:v>
+                  <c:v>9.6343099999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.69228699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.081799999999999</c:v>
+                  <c:v>0.83060299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45840000000000103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13619,27 +13709,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$5,sheet_test_data!$J$10,sheet_test_data!$J$15,sheet_test_data!$J$20,sheet_test_data!$J$25,sheet_test_data!$J$30)</c:f>
+              <c:f>(sheet_test_data!$K$5,sheet_test_data!$K$10,sheet_test_data!$K$15,sheet_test_data!$K$20,sheet_test_data!$K$25,sheet_test_data!$K$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6642.32</c:v>
+                  <c:v>7034.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8063.28</c:v>
+                  <c:v>8010.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5775.13</c:v>
+                  <c:v>6951.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6685.77</c:v>
+                  <c:v>7173.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5703.2</c:v>
+                  <c:v>5867.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2110.15</c:v>
+                  <c:v>4472.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13668,27 +13758,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$35,sheet_test_data!$J$40,sheet_test_data!$J$45,sheet_test_data!$J$50,sheet_test_data!$J$55,sheet_test_data!$J$60)</c:f>
+              <c:f>(sheet_test_data!$K$35,sheet_test_data!$K$40,sheet_test_data!$K$45,sheet_test_data!$K$50,sheet_test_data!$K$55,sheet_test_data!$K$60)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7969.32</c:v>
+                  <c:v>8616.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8456</c:v>
+                  <c:v>8003.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5869.78</c:v>
+                  <c:v>6898.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6851.77</c:v>
+                  <c:v>6967.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5573.13</c:v>
+                  <c:v>5850.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2094.6</c:v>
+                  <c:v>4506.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13717,27 +13807,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$95,sheet_test_data!$J$100,sheet_test_data!$J$105,sheet_test_data!$J$110,sheet_test_data!$J$115,sheet_test_data!$J$120)</c:f>
+              <c:f>(sheet_test_data!$K$95,sheet_test_data!$K$100,sheet_test_data!$K$105,sheet_test_data!$K$110,sheet_test_data!$K$115,sheet_test_data!$K$120)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6664.57</c:v>
+                  <c:v>8544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4125.32</c:v>
+                  <c:v>5932.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5235.07</c:v>
+                  <c:v>6272.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3912.55</c:v>
+                  <c:v>3947.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2286.23</c:v>
+                  <c:v>4456.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>841.55</c:v>
+                  <c:v>2020.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13766,27 +13856,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$65,sheet_test_data!$J$70,sheet_test_data!$J$75,sheet_test_data!$J$80,sheet_test_data!$J$85,sheet_test_data!$J$90)</c:f>
+              <c:f>(sheet_test_data!$K$65,sheet_test_data!$K$70,sheet_test_data!$K$75,sheet_test_data!$K$80,sheet_test_data!$K$85,sheet_test_data!$K$90)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6454.08</c:v>
+                  <c:v>8302.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5917.78</c:v>
+                  <c:v>6953.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4098.05</c:v>
+                  <c:v>5910.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3106.6</c:v>
+                  <c:v>3002.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.5</c:v>
+                  <c:v>65.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.1</c:v>
+                  <c:v>41.7667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13925,7 +14015,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14241,27 +14331,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$6,sheet_test_data!$J$11,sheet_test_data!$J$16,sheet_test_data!$J$21,sheet_test_data!$J$26,sheet_test_data!$J$31)</c:f>
+              <c:f>(sheet_test_data!$K$6,sheet_test_data!$K$11,sheet_test_data!$K$16,sheet_test_data!$K$21,sheet_test_data!$K$26,sheet_test_data!$K$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6594.27</c:v>
+                  <c:v>7157.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8129.55</c:v>
+                  <c:v>8161.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5899.38</c:v>
+                  <c:v>7067.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7055.7</c:v>
+                  <c:v>7262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5735</c:v>
+                  <c:v>5847.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2437.98</c:v>
+                  <c:v>4590.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14290,27 +14380,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$36,sheet_test_data!$J$41,sheet_test_data!$J$46,sheet_test_data!$J$51,sheet_test_data!$J$56,sheet_test_data!$J$61)</c:f>
+              <c:f>(sheet_test_data!$K$36,sheet_test_data!$K$41,sheet_test_data!$K$46,sheet_test_data!$K$51,sheet_test_data!$K$56,sheet_test_data!$K$61)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8199.35</c:v>
+                  <c:v>8368.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8447.4</c:v>
+                  <c:v>8006.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6042.53</c:v>
+                  <c:v>6985.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7034.87</c:v>
+                  <c:v>7234.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5736.7</c:v>
+                  <c:v>5835.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2427.23</c:v>
+                  <c:v>4544.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14339,27 +14429,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$96,sheet_test_data!$J$101,sheet_test_data!$J$106,sheet_test_data!$J$111,sheet_test_data!$J$116,sheet_test_data!$J$121)</c:f>
+              <c:f>(sheet_test_data!$K$96,sheet_test_data!$K$101,sheet_test_data!$K$106,sheet_test_data!$K$111,sheet_test_data!$K$116,sheet_test_data!$K$121)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6604.92</c:v>
+                  <c:v>8524.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6349.93</c:v>
+                  <c:v>7901.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5515.33</c:v>
+                  <c:v>6050.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4304.25</c:v>
+                  <c:v>5711.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2817.65</c:v>
+                  <c:v>5159.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1468.38</c:v>
+                  <c:v>3361.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14388,27 +14478,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$66,sheet_test_data!$J$71,sheet_test_data!$J$76,sheet_test_data!$J$81,sheet_test_data!$J$86,sheet_test_data!$J$91)</c:f>
+              <c:f>(sheet_test_data!$K$66,sheet_test_data!$K$71,sheet_test_data!$K$76,sheet_test_data!$K$81,sheet_test_data!$K$86,sheet_test_data!$K$91)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6576.93</c:v>
+                  <c:v>8699.3700000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6190.52</c:v>
+                  <c:v>7362.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4616.25</c:v>
+                  <c:v>5783.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4197.32</c:v>
+                  <c:v>4266.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1686.77</c:v>
+                  <c:v>1943.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.533299999999997</c:v>
+                  <c:v>42.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14547,7 +14637,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14854,21 +14944,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$27,sheet_test_data!$H$57,sheet_test_data!$H$117,sheet_test_data!$H$87)</c:f>
+              <c:f>(sheet_test_data!$I$27,sheet_test_data!$I$57,sheet_test_data!$I$117,sheet_test_data!$I$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1927899999999996</c:v>
+                  <c:v>6.0320200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4886400000000002</c:v>
+                  <c:v>6.2942400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.081799999999999</c:v>
+                  <c:v>11.615600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5761</c:v>
+                  <c:v>25.799900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15002,7 +15092,7 @@
         <c:axId val="1464249695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="28"/>
+          <c:max val="26"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15287,27 +15377,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Explicit Euler'!$C$1,'Explicit Euler'!$C$6,'Explicit Euler'!$C$11,'Explicit Euler'!$C$16,'Explicit Euler'!$C$21,'Explicit Euler'!$C$26)</c:f>
+              <c:f>(sheet_test_data!$K$2,sheet_test_data!$K$7,sheet_test_data!$K$12,sheet_test_data!$K$17,sheet_test_data!$K$22,sheet_test_data!$K$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5868.38</c:v>
+                  <c:v>6231.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3246.15</c:v>
+                  <c:v>4242.5200000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>792.95</c:v>
+                  <c:v>811.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416.45</c:v>
+                  <c:v>445.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250.36699999999999</c:v>
+                  <c:v>261.16699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>214.333</c:v>
+                  <c:v>223.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15336,27 +15426,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('Explicit Euler'!$C$2,'Explicit Euler'!$C$7,'Explicit Euler'!$C$12,'Explicit Euler'!$C$17,'Explicit Euler'!$C$22,'Explicit Euler'!$C$27)</c:f>
+              <c:f>(sheet_test_data!$K$3,sheet_test_data!$K$8,sheet_test_data!$K$13,sheet_test_data!$K$18,sheet_test_data!$K$23,sheet_test_data!$K$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6547.93</c:v>
+                  <c:v>6921.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7320.63</c:v>
+                  <c:v>7267.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3291.15</c:v>
+                  <c:v>4048.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3540.95</c:v>
+                  <c:v>4626.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1882.63</c:v>
+                  <c:v>2203.2800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.38300000000001</c:v>
+                  <c:v>161.96700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15385,27 +15475,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('Explicit Euler'!$C$3,'Explicit Euler'!$C$8,'Explicit Euler'!$C$13,'Explicit Euler'!$C$18,'Explicit Euler'!$C$23,'Explicit Euler'!$C$28)</c:f>
+              <c:f>(sheet_test_data!$K$4,sheet_test_data!$K$9,sheet_test_data!$K$14,sheet_test_data!$K$19,sheet_test_data!$K$24,sheet_test_data!$K$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6560.25</c:v>
+                  <c:v>7002.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8130</c:v>
+                  <c:v>8521.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5496.3</c:v>
+                  <c:v>6601.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6040.43</c:v>
+                  <c:v>6477.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5079.12</c:v>
+                  <c:v>5391.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1495.23</c:v>
+                  <c:v>3445.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15434,27 +15524,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('Explicit Euler'!$C$4,'Explicit Euler'!$C$9,'Explicit Euler'!$C$14,'Explicit Euler'!$C$19,'Explicit Euler'!$C$24,'Explicit Euler'!$C$29)</c:f>
+              <c:f>(sheet_test_data!$K$5,sheet_test_data!$K$10,sheet_test_data!$K$15,sheet_test_data!$K$20,sheet_test_data!$K$25,sheet_test_data!$K$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6642.32</c:v>
+                  <c:v>7034.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8063.28</c:v>
+                  <c:v>8010.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5775.13</c:v>
+                  <c:v>6951.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6685.77</c:v>
+                  <c:v>7173.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5703.2</c:v>
+                  <c:v>5867.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2110.15</c:v>
+                  <c:v>4472.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15483,27 +15573,27 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>('Explicit Euler'!$C$5,'Explicit Euler'!$C$10,'Explicit Euler'!$C$15,'Explicit Euler'!$C$20,'Explicit Euler'!$C$25,'Explicit Euler'!$C$30)</c:f>
+              <c:f>(sheet_test_data!$K$6,sheet_test_data!$K$11,sheet_test_data!$K$16,sheet_test_data!$K$21,sheet_test_data!$K$26,sheet_test_data!$K$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6594.27</c:v>
+                  <c:v>7157.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8129.55</c:v>
+                  <c:v>8161.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5899.38</c:v>
+                  <c:v>7067.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7055.7</c:v>
+                  <c:v>7262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5735</c:v>
+                  <c:v>5847.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2437.98</c:v>
+                  <c:v>4590.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15642,7 +15732,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15972,27 +16062,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$J$2,sheet_test_data!$J$7,sheet_test_data!$J$12,sheet_test_data!$J$17,sheet_test_data!$J$22,sheet_test_data!$J$27)</c:f>
+              <c:f>(sheet_test_data!$K$2,sheet_test_data!$K$7,sheet_test_data!$K$12,sheet_test_data!$K$17,sheet_test_data!$K$22,sheet_test_data!$K$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5868.38</c:v>
+                  <c:v>6231.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3246.15</c:v>
+                  <c:v>4242.5200000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>792.95</c:v>
+                  <c:v>811.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416.45</c:v>
+                  <c:v>445.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250.36699999999999</c:v>
+                  <c:v>261.16699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>214.333</c:v>
+                  <c:v>223.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16141,7 +16231,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="6500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16435,27 +16525,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(sheet_test_data!$H$2,sheet_test_data!$H$7,sheet_test_data!$H$12,sheet_test_data!$H$17,sheet_test_data!$H$22,sheet_test_data!$H$27)</c:f>
+              <c:f>(sheet_test_data!$I$2,sheet_test_data!$I$7,sheet_test_data!$I$12,sheet_test_data!$I$17,sheet_test_data!$I$22,sheet_test_data!$I$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15728200000000001</c:v>
+                  <c:v>0.15293699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60592999999999997</c:v>
+                  <c:v>0.59037899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3120099999999999</c:v>
+                  <c:v>1.30118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3873799999999998</c:v>
+                  <c:v>2.3358099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8436400000000002</c:v>
+                  <c:v>3.7275499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1927899999999996</c:v>
+                  <c:v>6.0320200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36691,144 +36781,84 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v xml:space="preserve"> Average time calcSpringForce (ms)</v>
+        <row r="27">
+          <cell r="J27">
+            <v>0.213314</v>
           </cell>
-          <cell r="G1" t="str">
-            <v xml:space="preserve"> Average time integrate (ms)</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v xml:space="preserve"> Average time updating (ms)</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v xml:space="preserve"> Average rendering time (ms)</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Other (ms)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v xml:space="preserve"> Explicit Euler</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>8.3333700000000004</v>
-          </cell>
-          <cell r="J27">
-            <v>116.717</v>
+          <cell r="K27">
+            <v>120.4</v>
           </cell>
         </row>
         <row r="28">
           <cell r="J28">
-            <v>118.95</v>
+            <v>0.21102599999999999</v>
+          </cell>
+          <cell r="K28">
+            <v>123.767</v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29">
-            <v>799.15</v>
+            <v>0.12303</v>
+          </cell>
+          <cell r="K29">
+            <v>1740.75</v>
           </cell>
         </row>
         <row r="30">
           <cell r="J30">
-            <v>1678</v>
+            <v>0.117121</v>
+          </cell>
+          <cell r="K30">
+            <v>3995.25</v>
           </cell>
         </row>
         <row r="31">
           <cell r="J31">
-            <v>2115.33</v>
+            <v>0.141206</v>
           </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v xml:space="preserve"> Verlet</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>8.5276099999999992</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>20.817499999999999</v>
-          </cell>
-          <cell r="H87">
-            <v>35.4831</v>
-          </cell>
-          <cell r="I87">
-            <v>0.253029</v>
-          </cell>
-          <cell r="L87">
-            <v>1.178600000000003</v>
-          </cell>
-          <cell r="M87">
-            <v>13.486999999999998</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v xml:space="preserve"> Fourth Order Runge-Kutta</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v xml:space="preserve"> Midpoint</v>
+          <cell r="K31">
+            <v>4248.87</v>
           </cell>
         </row>
         <row r="117">
-          <cell r="H117">
-            <v>16.344100000000001</v>
+          <cell r="J117">
+            <v>0.221473</v>
           </cell>
-          <cell r="J117">
-            <v>60.433300000000003</v>
+          <cell r="K117">
+            <v>62.55</v>
           </cell>
         </row>
         <row r="118">
           <cell r="J118">
-            <v>61.883299999999998</v>
+            <v>0.222886</v>
+          </cell>
+          <cell r="K118">
+            <v>64.45</v>
           </cell>
         </row>
         <row r="119">
           <cell r="J119">
-            <v>62.2</v>
+            <v>0.223221</v>
+          </cell>
+          <cell r="K119">
+            <v>65.333299999999994</v>
           </cell>
         </row>
         <row r="120">
           <cell r="J120">
-            <v>73.333299999999994</v>
+            <v>0.219334</v>
+          </cell>
+          <cell r="K120">
+            <v>93.7</v>
           </cell>
         </row>
         <row r="121">
           <cell r="J121">
-            <v>387</v>
+            <v>0.117608</v>
+          </cell>
+          <cell r="K121">
+            <v>1961.62</v>
           </cell>
         </row>
       </sheetData>
@@ -37138,10 +37168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="V152" sqref="V152"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R241" sqref="R241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37151,7 +37181,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37171,25 +37201,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37206,29 +37239,32 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.13211400000000001</v>
+        <v>0.12814700000000001</v>
       </c>
       <c r="G2">
-        <v>8.9047399999999995E-3</v>
+        <v>5.1688599999999999E-3</v>
       </c>
       <c r="H2">
-        <v>0.15728200000000001</v>
+        <v>8.7727199999999995E-3</v>
       </c>
       <c r="I2">
-        <v>0.14297799999999999</v>
+        <v>0.15293699999999999</v>
       </c>
       <c r="J2">
-        <v>5868.38</v>
+        <v>0.135098</v>
       </c>
       <c r="K2">
-        <v>55516</v>
+        <v>6231.77</v>
       </c>
       <c r="L2">
-        <f>H2-(F2 + G2)</f>
-        <v>1.6263260000000002E-2</v>
+        <v>55850</v>
+      </c>
+      <c r="M2">
+        <f>I2-(H2+G2+F2)</f>
+        <v>1.084841999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37245,29 +37281,32 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.129805</v>
+        <v>0.124519</v>
       </c>
       <c r="G3">
-        <v>8.96104E-3</v>
+        <v>5.1845499999999996E-3</v>
       </c>
       <c r="H3">
-        <v>0.16755500000000001</v>
+        <v>8.7986699999999998E-3</v>
       </c>
       <c r="I3">
-        <v>0.147371</v>
+        <v>0.16095499999999999</v>
       </c>
       <c r="J3">
-        <v>6547.93</v>
+        <v>0.139547</v>
       </c>
       <c r="K3">
-        <v>11833</v>
+        <v>6921.67</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">H3-(F3 + G3)</f>
-        <v>2.8788960000000002E-2</v>
+        <v>11844</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">I3-(H3+G3+F3)</f>
+        <v>2.2452779999999978E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37284,29 +37323,32 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0.125972</v>
+        <v>0.119824</v>
       </c>
       <c r="G4">
-        <v>8.9689000000000001E-3</v>
+        <v>5.176E-3</v>
       </c>
       <c r="H4">
-        <v>0.175432</v>
+        <v>8.7808299999999999E-3</v>
       </c>
       <c r="I4">
-        <v>0.14959500000000001</v>
+        <v>0.167185</v>
       </c>
       <c r="J4">
-        <v>6560.25</v>
+        <v>0.140154</v>
       </c>
       <c r="K4">
-        <v>5960</v>
+        <v>7002.17</v>
       </c>
       <c r="L4">
+        <v>5965</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
-        <v>4.0491100000000002E-2</v>
+        <v>3.3404170000000011E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37323,29 +37365,32 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.126059</v>
+        <v>0.11942800000000001</v>
       </c>
       <c r="G5">
-        <v>8.97213E-3</v>
+        <v>5.18462E-3</v>
       </c>
       <c r="H5">
-        <v>0.18751799999999999</v>
+        <v>8.7989499999999998E-3</v>
       </c>
       <c r="I5">
-        <v>0.14821899999999999</v>
+        <v>0.17785400000000001</v>
       </c>
       <c r="J5">
-        <v>6642.32</v>
+        <v>0.14018</v>
       </c>
       <c r="K5">
-        <v>3984</v>
+        <v>7034.08</v>
       </c>
       <c r="L5">
+        <v>3987</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="0"/>
-        <v>5.2486869999999991E-2</v>
+        <v>4.4442430000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37362,29 +37407,32 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.12302</v>
+        <v>0.115619</v>
       </c>
       <c r="G6">
-        <v>8.9473599999999997E-3</v>
+        <v>5.2300100000000002E-3</v>
       </c>
       <c r="H6">
-        <v>0.19600699999999999</v>
+        <v>8.7978899999999992E-3</v>
       </c>
       <c r="I6">
-        <v>0.14983399999999999</v>
+        <v>0.185643</v>
       </c>
       <c r="J6">
-        <v>6594.27</v>
+        <v>0.13808999999999999</v>
       </c>
       <c r="K6">
-        <v>2991</v>
+        <v>7157.73</v>
       </c>
       <c r="L6">
+        <v>2992</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>6.4039639999999981E-2</v>
+        <v>5.5996099999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37401,29 +37449,32 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.50907199999999997</v>
+        <v>0.49454199999999998</v>
       </c>
       <c r="G7">
-        <v>3.7651900000000002E-2</v>
+        <v>2.5101800000000001E-2</v>
       </c>
       <c r="H7">
-        <v>0.60592999999999997</v>
+        <v>3.7306600000000002E-2</v>
       </c>
       <c r="I7">
-        <v>0.13830600000000001</v>
+        <v>0.59037899999999999</v>
       </c>
       <c r="J7">
-        <v>3246.15</v>
+        <v>0.10556699999999999</v>
       </c>
       <c r="K7">
-        <v>55181</v>
+        <v>4242.5200000000004</v>
       </c>
       <c r="L7">
+        <v>56426</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>5.9206100000000039E-2</v>
+        <v>3.3428600000000031E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37440,29 +37491,32 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.48314099999999999</v>
+        <v>0.47568899999999997</v>
       </c>
       <c r="G8">
-        <v>3.7673199999999997E-2</v>
+        <v>2.49821E-2</v>
       </c>
       <c r="H8">
-        <v>0.59250400000000003</v>
+        <v>3.6940300000000002E-2</v>
       </c>
       <c r="I8">
-        <v>0.119127</v>
+        <v>0.58192999999999995</v>
       </c>
       <c r="J8">
-        <v>7320.63</v>
+        <v>0.120322</v>
       </c>
       <c r="K8">
-        <v>11859</v>
+        <v>7267.59</v>
       </c>
       <c r="L8">
+        <v>11860</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>7.1689800000000026E-2</v>
+        <v>4.4318599999999986E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37479,29 +37533,32 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.47097499999999998</v>
+        <v>0.46489399999999997</v>
       </c>
       <c r="G9">
-        <v>3.7662599999999997E-2</v>
+        <v>2.5035499999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.59486399999999995</v>
+        <v>3.7133699999999999E-2</v>
       </c>
       <c r="I9">
-        <v>0.11540599999999999</v>
+        <v>0.58567400000000003</v>
       </c>
       <c r="J9">
-        <v>8130</v>
+        <v>0.11017299999999999</v>
       </c>
       <c r="K9">
-        <v>5965</v>
+        <v>8521.17</v>
       </c>
       <c r="L9">
+        <v>5969</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>8.6226399999999925E-2</v>
+        <v>5.8610800000000074E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37518,29 +37575,32 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.47465200000000002</v>
+        <v>0.464972</v>
       </c>
       <c r="G10">
-        <v>3.8134000000000001E-2</v>
+        <v>2.5154900000000001E-2</v>
       </c>
       <c r="H10">
-        <v>0.61736199999999997</v>
+        <v>3.70891E-2</v>
       </c>
       <c r="I10">
-        <v>0.118631</v>
+        <v>0.59622900000000001</v>
       </c>
       <c r="J10">
-        <v>8063.28</v>
+        <v>0.11951100000000001</v>
       </c>
       <c r="K10">
-        <v>3986</v>
+        <v>8010.6</v>
       </c>
       <c r="L10">
+        <v>3984</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.104576</v>
+        <v>6.9012999999999991E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37557,29 +37617,32 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.47455999999999998</v>
+        <v>0.46483600000000003</v>
       </c>
       <c r="G11">
-        <v>3.8077699999999999E-2</v>
+        <v>2.5091499999999999E-2</v>
       </c>
       <c r="H11">
-        <v>0.63483299999999998</v>
+        <v>3.7055299999999999E-2</v>
       </c>
       <c r="I11">
-        <v>0.118699</v>
+        <v>0.608375</v>
       </c>
       <c r="J11">
-        <v>8129.55</v>
+        <v>0.118505</v>
       </c>
       <c r="K11">
+        <v>8161.3</v>
+      </c>
+      <c r="L11">
         <v>2994</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>0.12219530000000001</v>
+        <v>8.1392199999999915E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37596,29 +37659,32 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0982099999999999</v>
+        <v>1.0911</v>
       </c>
       <c r="G12">
-        <v>8.3903900000000003E-2</v>
+        <v>5.6610300000000002E-2</v>
       </c>
       <c r="H12">
-        <v>1.3120099999999999</v>
+        <v>8.2820699999999997E-2</v>
       </c>
       <c r="I12">
-        <v>0.108197</v>
+        <v>1.30118</v>
       </c>
       <c r="J12">
-        <v>792.95</v>
+        <v>9.3453599999999998E-2</v>
       </c>
       <c r="K12">
-        <v>42244</v>
+        <v>811.85</v>
       </c>
       <c r="L12">
+        <v>43019</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>0.12989610000000007</v>
+        <v>7.0648999999999962E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37635,29 +37701,32 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.11063</v>
+        <v>1.0788500000000001</v>
       </c>
       <c r="G13">
-        <v>8.5888999999999993E-2</v>
+        <v>5.7054399999999998E-2</v>
       </c>
       <c r="H13">
-        <v>1.33847</v>
+        <v>8.3292900000000003E-2</v>
       </c>
       <c r="I13">
-        <v>0.22328999999999999</v>
+        <v>1.29836</v>
       </c>
       <c r="J13">
-        <v>3291.15</v>
+        <v>0.18271899999999999</v>
       </c>
       <c r="K13">
-        <v>11590</v>
+        <v>4048.42</v>
       </c>
       <c r="L13">
+        <v>11695</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>0.14195100000000016</v>
+        <v>7.9162699999999919E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37674,29 +37743,32 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1.10276</v>
+        <v>1.0663499999999999</v>
       </c>
       <c r="G14">
-        <v>8.7154899999999993E-2</v>
+        <v>5.6689000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>1.3511299999999999</v>
+        <v>8.2989300000000002E-2</v>
       </c>
       <c r="I14">
-        <v>0.15678500000000001</v>
+        <v>1.2995099999999999</v>
       </c>
       <c r="J14">
-        <v>5496.3</v>
+        <v>0.13131899999999999</v>
       </c>
       <c r="K14">
-        <v>5950</v>
+        <v>6601.9</v>
       </c>
       <c r="L14">
+        <v>5953</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.16121509999999994</v>
+        <v>9.3481700000000112E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37713,29 +37785,32 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1.1106</v>
+        <v>1.0684400000000001</v>
       </c>
       <c r="G15">
-        <v>9.1063599999999995E-2</v>
+        <v>5.6940299999999999E-2</v>
       </c>
       <c r="H15">
-        <v>1.38673</v>
+        <v>8.3101099999999997E-2</v>
       </c>
       <c r="I15">
-        <v>0.15689700000000001</v>
+        <v>1.3134999999999999</v>
       </c>
       <c r="J15">
-        <v>5775.13</v>
+        <v>0.13101199999999999</v>
       </c>
       <c r="K15">
+        <v>6951.28</v>
+      </c>
+      <c r="L15">
         <v>3979</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.18506639999999996</v>
+        <v>0.10501859999999974</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -37752,29 +37827,32 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.1209</v>
+        <v>1.0700099999999999</v>
       </c>
       <c r="G16">
-        <v>9.2976100000000006E-2</v>
+        <v>5.6775399999999997E-2</v>
       </c>
       <c r="H16">
-        <v>1.41456</v>
+        <v>8.3037700000000006E-2</v>
       </c>
       <c r="I16">
-        <v>0.157246</v>
+        <v>1.3253299999999999</v>
       </c>
       <c r="J16">
-        <v>5899.38</v>
+        <v>0.13181000000000001</v>
       </c>
       <c r="K16">
-        <v>2989</v>
+        <v>7067.38</v>
       </c>
       <c r="L16">
+        <v>2990</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.20068390000000003</v>
+        <v>0.11550689999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -37791,29 +37869,32 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.9861</v>
+        <v>1.9540900000000001</v>
       </c>
       <c r="G17">
-        <v>0.15354799999999999</v>
+        <v>0.10212300000000001</v>
       </c>
       <c r="H17">
-        <v>2.3873799999999998</v>
+        <v>0.147864</v>
       </c>
       <c r="I17">
-        <v>0.201511</v>
+        <v>2.3358099999999999</v>
       </c>
       <c r="J17">
-        <v>416.45</v>
+        <v>0.12336</v>
       </c>
       <c r="K17">
-        <v>23175</v>
+        <v>445.05</v>
       </c>
       <c r="L17">
+        <v>24397</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.24773200000000006</v>
+        <v>0.13173299999999966</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -37830,29 +37911,32 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.97915</v>
+        <v>1.93496</v>
       </c>
       <c r="G18">
-        <v>0.155057</v>
+        <v>0.103626</v>
       </c>
       <c r="H18">
-        <v>2.3944800000000002</v>
+        <v>0.148337</v>
       </c>
       <c r="I18">
-        <v>0.148725</v>
+        <v>2.3330199999999999</v>
       </c>
       <c r="J18">
-        <v>3540.95</v>
+        <v>0.115676</v>
       </c>
       <c r="K18">
-        <v>11753</v>
+        <v>4626.63</v>
       </c>
       <c r="L18">
+        <v>11839</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.2602730000000002</v>
+        <v>0.1460969999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -37869,29 +37953,32 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1.9827900000000001</v>
+        <v>1.94045</v>
       </c>
       <c r="G19">
-        <v>0.15385099999999999</v>
+        <v>0.102672</v>
       </c>
       <c r="H19">
-        <v>2.4117000000000002</v>
+        <v>0.14788699999999999</v>
       </c>
       <c r="I19">
-        <v>0.125056</v>
+        <v>2.34734</v>
       </c>
       <c r="J19">
-        <v>6040.43</v>
+        <v>0.117579</v>
       </c>
       <c r="K19">
-        <v>5950</v>
+        <v>6477.72</v>
       </c>
       <c r="L19">
+        <v>5954</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.27505900000000016</v>
+        <v>0.15633099999999978</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -37908,29 +37995,32 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1.99891</v>
+        <v>1.9459500000000001</v>
       </c>
       <c r="G20">
-        <v>0.15886800000000001</v>
+        <v>0.107601</v>
       </c>
       <c r="H20">
-        <v>2.4612099999999999</v>
+        <v>0.15001500000000001</v>
       </c>
       <c r="I20">
-        <v>0.124596</v>
+        <v>2.3789199999999999</v>
       </c>
       <c r="J20">
-        <v>6685.77</v>
+        <v>0.11679</v>
       </c>
       <c r="K20">
-        <v>3979</v>
+        <v>7173.23</v>
       </c>
       <c r="L20">
+        <v>3980</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.30343199999999992</v>
+        <v>0.17535400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -37947,29 +38037,32 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2.0062000000000002</v>
+        <v>1.94862</v>
       </c>
       <c r="G21">
-        <v>0.15689</v>
+        <v>0.11003300000000001</v>
       </c>
       <c r="H21">
-        <v>2.4755600000000002</v>
+        <v>0.15154799999999999</v>
       </c>
       <c r="I21">
-        <v>0.123725</v>
+        <v>2.3970400000000001</v>
       </c>
       <c r="J21">
-        <v>7055.7</v>
+        <v>0.120753</v>
       </c>
       <c r="K21">
-        <v>2991</v>
+        <v>7262</v>
       </c>
       <c r="L21">
+        <v>2992</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.3124699999999998</v>
+        <v>0.18683899999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -37986,29 +38079,32 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3.1303000000000001</v>
+        <v>3.0775600000000001</v>
       </c>
       <c r="G22">
-        <v>0.25722600000000001</v>
+        <v>0.17765700000000001</v>
       </c>
       <c r="H22">
-        <v>3.8436400000000002</v>
+        <v>0.24008599999999999</v>
       </c>
       <c r="I22">
-        <v>0.194712</v>
+        <v>3.7275499999999999</v>
       </c>
       <c r="J22">
-        <v>250.36699999999999</v>
+        <v>0.18224899999999999</v>
       </c>
       <c r="K22">
-        <v>14857</v>
+        <v>261.16699999999997</v>
       </c>
       <c r="L22">
+        <v>15346</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.45611399999999991</v>
+        <v>0.23224700000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38025,29 +38121,32 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.1280399999999999</v>
+        <v>3.0600999999999998</v>
       </c>
       <c r="G23">
-        <v>0.26120300000000002</v>
+        <v>0.18978</v>
       </c>
       <c r="H23">
-        <v>3.8619400000000002</v>
+        <v>0.24728</v>
       </c>
       <c r="I23">
-        <v>0.12887399999999999</v>
+        <v>3.7471800000000002</v>
       </c>
       <c r="J23">
-        <v>1882.63</v>
+        <v>0.11995699999999999</v>
       </c>
       <c r="K23">
-        <v>11757</v>
+        <v>2203.2800000000002</v>
       </c>
       <c r="L23">
+        <v>11766</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.47269700000000014</v>
+        <v>0.25002000000000013</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38064,29 +38163,32 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>3.1781999999999999</v>
+        <v>3.0887600000000002</v>
       </c>
       <c r="G24">
-        <v>0.27356200000000003</v>
+        <v>0.19522900000000001</v>
       </c>
       <c r="H24">
-        <v>3.9734699999999998</v>
+        <v>0.25541900000000001</v>
       </c>
       <c r="I24">
-        <v>0.11878</v>
+        <v>3.81793</v>
       </c>
       <c r="J24">
-        <v>5079.12</v>
+        <v>0.11469699999999999</v>
       </c>
       <c r="K24">
+        <v>5391.5</v>
+      </c>
+      <c r="L24">
         <v>5945</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.52170799999999984</v>
+        <v>0.27852199999999971</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38103,29 +38205,32 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>3.2096499999999999</v>
+        <v>3.1031200000000001</v>
       </c>
       <c r="G25">
-        <v>0.26776800000000001</v>
+        <v>0.206867</v>
       </c>
       <c r="H25">
-        <v>4.0208399999999997</v>
+        <v>0.25824200000000003</v>
       </c>
       <c r="I25">
-        <v>0.12812399999999999</v>
+        <v>3.8627600000000002</v>
       </c>
       <c r="J25">
-        <v>5703.2</v>
+        <v>0.126328</v>
       </c>
       <c r="K25">
-        <v>3974</v>
+        <v>5867.33</v>
       </c>
       <c r="L25">
+        <v>3973</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.54342199999999963</v>
+        <v>0.2945310000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38142,29 +38247,32 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3.2126299999999999</v>
+        <v>3.1004399999999999</v>
       </c>
       <c r="G26">
-        <v>0.286908</v>
+        <v>0.20680799999999999</v>
       </c>
       <c r="H26">
-        <v>4.0796200000000002</v>
+        <v>0.266567</v>
       </c>
       <c r="I26">
-        <v>0.13865</v>
+        <v>3.8935900000000001</v>
       </c>
       <c r="J26">
-        <v>5735</v>
+        <v>0.13753000000000001</v>
       </c>
       <c r="K26">
+        <v>5847.53</v>
+      </c>
+      <c r="L26">
         <v>2985</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.58008200000000043</v>
+        <v>0.31977500000000036</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38181,29 +38289,32 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4.8597000000000001</v>
+        <v>4.7986300000000002</v>
       </c>
       <c r="G27">
-        <v>0.448768</v>
+        <v>0.347248</v>
       </c>
       <c r="H27">
-        <v>6.1927899999999996</v>
+        <v>0.42016999999999999</v>
       </c>
       <c r="I27">
-        <v>0.21390200000000001</v>
+        <v>6.0320200000000002</v>
       </c>
       <c r="J27">
-        <v>214.333</v>
+        <v>0.21052100000000001</v>
       </c>
       <c r="K27">
-        <v>9365</v>
+        <v>223.55</v>
       </c>
       <c r="L27">
+        <v>9612</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.88432199999999916</v>
+        <v>0.46597199999999983</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38220,29 +38331,32 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>4.8110999999999997</v>
+        <v>4.7105300000000003</v>
       </c>
       <c r="G28">
-        <v>0.45760299999999998</v>
+        <v>0.34486800000000001</v>
       </c>
       <c r="H28">
-        <v>6.1759000000000004</v>
+        <v>0.41725299999999999</v>
       </c>
       <c r="I28">
-        <v>0.28194200000000003</v>
+        <v>5.9388399999999999</v>
       </c>
       <c r="J28">
-        <v>154.38300000000001</v>
+        <v>0.227405</v>
       </c>
       <c r="K28">
-        <v>9291</v>
+        <v>161.96700000000001</v>
       </c>
       <c r="L28">
+        <v>9730</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
-        <v>0.90719700000000092</v>
+        <v>0.46618899999999908</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38259,29 +38373,32 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>4.8416399999999999</v>
+        <v>4.73217</v>
       </c>
       <c r="G29">
-        <v>0.47509000000000001</v>
+        <v>0.35905399999999998</v>
       </c>
       <c r="H29">
-        <v>6.2787899999999999</v>
+        <v>0.42731400000000003</v>
       </c>
       <c r="I29">
-        <v>0.25236900000000001</v>
+        <v>6.0078100000000001</v>
       </c>
       <c r="J29">
-        <v>1495.23</v>
+        <v>0.115714</v>
       </c>
       <c r="K29">
-        <v>5904</v>
+        <v>3445.92</v>
       </c>
       <c r="L29">
+        <v>5946</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
-        <v>0.96206000000000014</v>
+        <v>0.4892720000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38298,29 +38415,32 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>4.8452299999999999</v>
+        <v>4.7442000000000002</v>
       </c>
       <c r="G30">
-        <v>0.47132299999999999</v>
+        <v>0.37176199999999998</v>
       </c>
       <c r="H30">
-        <v>6.2730399999999999</v>
+        <v>0.446073</v>
       </c>
       <c r="I30">
-        <v>0.27484799999999998</v>
+        <v>6.0990500000000001</v>
       </c>
       <c r="J30">
-        <v>2110.15</v>
+        <v>0.13183600000000001</v>
       </c>
       <c r="K30">
-        <v>3955</v>
+        <v>4472.05</v>
       </c>
       <c r="L30">
+        <v>3968</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.95648700000000009</v>
+        <v>0.53701500000000024</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38337,29 +38457,32 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>4.8529099999999996</v>
+        <v>4.73597</v>
       </c>
       <c r="G31">
-        <v>0.46582800000000002</v>
+        <v>0.36897400000000002</v>
       </c>
       <c r="H31">
-        <v>6.2626600000000003</v>
+        <v>0.44414100000000001</v>
       </c>
       <c r="I31">
-        <v>0.28110099999999999</v>
+        <v>6.0955700000000004</v>
       </c>
       <c r="J31">
-        <v>2437.98</v>
+        <v>0.15151200000000001</v>
       </c>
       <c r="K31">
-        <v>2976</v>
+        <v>4590.88</v>
       </c>
       <c r="L31">
+        <v>2980</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>0.94392200000000059</v>
+        <v>0.54648500000000055</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38376,29 +38499,32 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.13217300000000001</v>
+        <v>0.127856</v>
       </c>
       <c r="G32">
-        <v>8.5132599999999999E-3</v>
+        <v>5.1211499999999997E-3</v>
       </c>
       <c r="H32">
-        <v>0.15636900000000001</v>
+        <v>8.5438800000000002E-3</v>
       </c>
       <c r="I32">
-        <v>0.143346</v>
+        <v>0.15393299999999999</v>
       </c>
       <c r="J32">
-        <v>5946.73</v>
+        <v>0.107237</v>
       </c>
       <c r="K32">
-        <v>55593</v>
+        <v>7930.33</v>
       </c>
       <c r="L32">
+        <v>56695</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>1.5682740000000001E-2</v>
+        <v>1.2411969999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38415,29 +38541,32 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>0.13000999999999999</v>
+        <v>0.127497</v>
       </c>
       <c r="G33">
-        <v>8.4353999999999991E-3</v>
+        <v>5.1193499999999999E-3</v>
       </c>
       <c r="H33">
-        <v>0.16894300000000001</v>
+        <v>8.5420800000000005E-3</v>
       </c>
       <c r="I33">
-        <v>0.124641</v>
+        <v>0.16511999999999999</v>
       </c>
       <c r="J33">
-        <v>7728.73</v>
+        <v>0.112451</v>
       </c>
       <c r="K33">
-        <v>11860</v>
+        <v>8568.4699999999993</v>
       </c>
       <c r="L33">
+        <v>11881</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>3.0497600000000014E-2</v>
+        <v>2.3961569999999988E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -38454,29 +38583,32 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0.12998899999999999</v>
+        <v>0.127716</v>
       </c>
       <c r="G34">
-        <v>8.4450900000000006E-3</v>
+        <v>5.1396499999999999E-3</v>
       </c>
       <c r="H34">
-        <v>0.18398700000000001</v>
+        <v>8.5463899999999992E-3</v>
       </c>
       <c r="I34">
-        <v>0.124309</v>
+        <v>0.17751900000000001</v>
       </c>
       <c r="J34">
-        <v>7877.3</v>
+        <v>0.11525299999999999</v>
       </c>
       <c r="K34">
-        <v>5970</v>
+        <v>8488.07</v>
       </c>
       <c r="L34">
+        <v>5974</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="0"/>
-        <v>4.555291000000003E-2</v>
+        <v>3.6116960000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38493,29 +38625,32 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>0.130743</v>
+        <v>0.12792999999999999</v>
       </c>
       <c r="G35">
-        <v>8.45921E-3</v>
+        <v>5.13629E-3</v>
       </c>
       <c r="H35">
-        <v>0.200465</v>
+        <v>8.54654E-3</v>
       </c>
       <c r="I35">
-        <v>0.123695</v>
+        <v>0.19043199999999999</v>
       </c>
       <c r="J35">
-        <v>7969.32</v>
+        <v>0.11441999999999999</v>
       </c>
       <c r="K35">
-        <v>3989</v>
+        <v>8616.3799999999992</v>
       </c>
       <c r="L35">
+        <v>3990</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="0"/>
-        <v>6.1262790000000011E-2</v>
+        <v>4.8819169999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -38532,29 +38667,32 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>0.130574</v>
+        <v>0.12794900000000001</v>
       </c>
       <c r="G36">
-        <v>8.4852699999999996E-3</v>
+        <v>5.1283099999999996E-3</v>
       </c>
       <c r="H36">
-        <v>0.21091199999999999</v>
+        <v>8.5321400000000006E-3</v>
       </c>
       <c r="I36">
-        <v>0.120545</v>
+        <v>0.201548</v>
       </c>
       <c r="J36">
-        <v>8199.35</v>
+        <v>0.117989</v>
       </c>
       <c r="K36">
-        <v>2995</v>
+        <v>8368.0499999999993</v>
       </c>
       <c r="L36">
+        <v>2996</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="0"/>
-        <v>7.1852730000000004E-2</v>
+        <v>5.9938550000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38571,29 +38709,32 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.51003699999999996</v>
+        <v>0.50525600000000004</v>
       </c>
       <c r="G37">
-        <v>3.69098E-2</v>
+        <v>2.4916399999999998E-2</v>
       </c>
       <c r="H37">
-        <v>0.60615399999999997</v>
+        <v>3.6267800000000003E-2</v>
       </c>
       <c r="I37">
-        <v>0.103245</v>
+        <v>0.60041900000000004</v>
       </c>
       <c r="J37">
-        <v>4135.38</v>
+        <v>9.5159599999999997E-2</v>
       </c>
       <c r="K37">
-        <v>56647</v>
+        <v>4511.4799999999996</v>
       </c>
       <c r="L37">
+        <v>57097</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="0"/>
-        <v>5.9207200000000015E-2</v>
+        <v>3.3978799999999976E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38610,29 +38751,32 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>0.51128600000000002</v>
+        <v>0.50457799999999997</v>
       </c>
       <c r="G38">
-        <v>3.7020299999999999E-2</v>
+        <v>2.4934999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>0.62119500000000005</v>
+        <v>3.62414E-2</v>
       </c>
       <c r="I38">
-        <v>0.11906899999999999</v>
+        <v>0.60981399999999997</v>
       </c>
       <c r="J38">
-        <v>7338.32</v>
+        <v>0.12237199999999999</v>
       </c>
       <c r="K38">
-        <v>11864</v>
+        <v>7146.73</v>
       </c>
       <c r="L38">
+        <v>11858</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="0"/>
-        <v>7.2888700000000028E-2</v>
+        <v>4.4059599999999977E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38649,29 +38793,32 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.51499799999999996</v>
+        <v>0.50508399999999998</v>
       </c>
       <c r="G39">
-        <v>3.7380400000000001E-2</v>
+        <v>2.4932200000000002E-2</v>
       </c>
       <c r="H39">
-        <v>0.63850399999999996</v>
+        <v>3.6244400000000003E-2</v>
       </c>
       <c r="I39">
-        <v>0.120435</v>
+        <v>0.62255000000000005</v>
       </c>
       <c r="J39">
-        <v>7749.9</v>
+        <v>0.11945500000000001</v>
       </c>
       <c r="K39">
-        <v>5970</v>
+        <v>7828.52</v>
       </c>
       <c r="L39">
+        <v>5971</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="0"/>
-        <v>8.6125600000000024E-2</v>
+        <v>5.6289400000000045E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38688,29 +38835,32 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>0.47498099999999999</v>
+        <v>0.463758</v>
       </c>
       <c r="G40">
-        <v>3.7441799999999997E-2</v>
+        <v>2.5022699999999998E-2</v>
       </c>
       <c r="H40">
-        <v>0.61478100000000002</v>
+        <v>3.6313600000000001E-2</v>
       </c>
       <c r="I40">
-        <v>0.11304699999999999</v>
+        <v>0.59398399999999996</v>
       </c>
       <c r="J40">
-        <v>8456</v>
+        <v>0.11966400000000001</v>
       </c>
       <c r="K40">
+        <v>8003.37</v>
+      </c>
+      <c r="L40">
         <v>3984</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="0"/>
-        <v>0.10235820000000007</v>
+        <v>6.8889699999999943E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38727,29 +38877,32 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>0.47599900000000001</v>
+        <v>0.46336300000000002</v>
       </c>
       <c r="G41">
-        <v>3.7179900000000002E-2</v>
+        <v>2.4974099999999999E-2</v>
       </c>
       <c r="H41">
-        <v>0.62755000000000005</v>
+        <v>3.6252800000000002E-2</v>
       </c>
       <c r="I41">
-        <v>0.11440599999999999</v>
+        <v>0.60503700000000005</v>
       </c>
       <c r="J41">
-        <v>8447.4</v>
+        <v>0.120769</v>
       </c>
       <c r="K41">
-        <v>2993</v>
+        <v>8006.18</v>
       </c>
       <c r="L41">
+        <v>2992</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="0"/>
-        <v>0.11437110000000006</v>
+        <v>8.0447099999999994E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -38766,29 +38919,32 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.14967</v>
+        <v>1.13887</v>
       </c>
       <c r="G42">
-        <v>8.3481899999999998E-2</v>
+        <v>5.6490100000000001E-2</v>
       </c>
       <c r="H42">
-        <v>1.3624000000000001</v>
+        <v>8.1689999999999999E-2</v>
       </c>
       <c r="I42">
-        <v>0.12612599999999999</v>
+        <v>1.3474999999999999</v>
       </c>
       <c r="J42">
-        <v>757.08299999999997</v>
+        <v>9.2998700000000004E-2</v>
       </c>
       <c r="K42">
-        <v>40305</v>
+        <v>696.48299999999995</v>
       </c>
       <c r="L42">
+        <v>41649</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="0"/>
-        <v>0.12924810000000009</v>
+        <v>7.0449899999999843E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -38805,29 +38961,32 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>1.1634800000000001</v>
+        <v>1.1371</v>
       </c>
       <c r="G43">
-        <v>8.5317599999999993E-2</v>
+        <v>5.6599099999999999E-2</v>
       </c>
       <c r="H43">
-        <v>1.3947400000000001</v>
+        <v>8.1713900000000006E-2</v>
       </c>
       <c r="I43">
-        <v>0.158918</v>
+        <v>1.35731</v>
       </c>
       <c r="J43">
-        <v>4503.2700000000004</v>
+        <v>0.110883</v>
       </c>
       <c r="K43">
-        <v>11806</v>
+        <v>6573.23</v>
       </c>
       <c r="L43">
+        <v>11878</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="0"/>
-        <v>0.14594240000000003</v>
+        <v>8.1897000000000109E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -38844,29 +39003,32 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>1.1031</v>
+        <v>1.0643899999999999</v>
       </c>
       <c r="G44">
-        <v>8.7469699999999997E-2</v>
+        <v>5.6545699999999997E-2</v>
       </c>
       <c r="H44">
-        <v>1.3562700000000001</v>
+        <v>8.1781000000000006E-2</v>
       </c>
       <c r="I44">
-        <v>0.153833</v>
+        <v>1.2959400000000001</v>
       </c>
       <c r="J44">
-        <v>5581.87</v>
+        <v>0.133544</v>
       </c>
       <c r="K44">
-        <v>5947</v>
+        <v>6507.67</v>
       </c>
       <c r="L44">
+        <v>5948</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="0"/>
-        <v>0.16570030000000013</v>
+        <v>9.3223300000000231E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -38883,29 +39045,32 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1.11005</v>
+        <v>1.06501</v>
       </c>
       <c r="G45">
-        <v>8.8645100000000004E-2</v>
+        <v>5.6597500000000002E-2</v>
       </c>
       <c r="H45">
-        <v>1.3788</v>
+        <v>8.1811999999999996E-2</v>
       </c>
       <c r="I45">
-        <v>0.154421</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="J45">
-        <v>5869.78</v>
+        <v>0.132018</v>
       </c>
       <c r="K45">
-        <v>3976</v>
+        <v>6898.08</v>
       </c>
       <c r="L45">
+        <v>3977</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.18010490000000012</v>
+        <v>0.10408050000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -38922,29 +39087,32 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.10666</v>
+        <v>1.0670200000000001</v>
       </c>
       <c r="G46">
-        <v>8.6488800000000005E-2</v>
+        <v>5.7532199999999999E-2</v>
       </c>
       <c r="H46">
-        <v>1.37737</v>
+        <v>8.2187399999999994E-2</v>
       </c>
       <c r="I46">
-        <v>0.15373899999999999</v>
+        <v>1.3221700000000001</v>
       </c>
       <c r="J46">
-        <v>6042.53</v>
+        <v>0.133357</v>
       </c>
       <c r="K46">
+        <v>6985.1</v>
+      </c>
+      <c r="L46">
         <v>2990</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.18422120000000008</v>
+        <v>0.11543039999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -38961,29 +39129,32 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.0659100000000001</v>
+        <v>2.0401500000000001</v>
       </c>
       <c r="G47">
-        <v>0.15140400000000001</v>
+        <v>0.102053</v>
       </c>
       <c r="H47">
-        <v>2.4596399999999998</v>
+        <v>0.145755</v>
       </c>
       <c r="I47">
-        <v>0.146869</v>
+        <v>2.4142000000000001</v>
       </c>
       <c r="J47">
-        <v>427.5</v>
+        <v>0.12523999999999999</v>
       </c>
       <c r="K47">
-        <v>23018</v>
+        <v>469.35</v>
       </c>
       <c r="L47">
+        <v>23626</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.24232599999999982</v>
+        <v>0.12624199999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39000,29 +39171,32 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2.0861399999999999</v>
+        <v>2.0482900000000002</v>
       </c>
       <c r="G48">
-        <v>0.15268000000000001</v>
+        <v>0.10519100000000001</v>
       </c>
       <c r="H48">
-        <v>2.4969800000000002</v>
+        <v>0.14707100000000001</v>
       </c>
       <c r="I48">
-        <v>0.118286</v>
+        <v>2.4397000000000002</v>
       </c>
       <c r="J48">
-        <v>4240.7700000000004</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="K48">
-        <v>11860</v>
+        <v>4473.97</v>
       </c>
       <c r="L48">
+        <v>11866</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="0"/>
-        <v>0.25816000000000017</v>
+        <v>0.13914800000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -39039,29 +39213,32 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1.9892700000000001</v>
+        <v>1.9446399999999999</v>
       </c>
       <c r="G49">
-        <v>0.154998</v>
+        <v>0.10631699999999999</v>
       </c>
       <c r="H49">
-        <v>2.4264199999999998</v>
+        <v>0.14802599999999999</v>
       </c>
       <c r="I49">
-        <v>0.122211</v>
+        <v>2.3541099999999999</v>
       </c>
       <c r="J49">
-        <v>6159.02</v>
+        <v>0.11978999999999999</v>
       </c>
       <c r="K49">
-        <v>5944</v>
+        <v>6331.18</v>
       </c>
       <c r="L49">
+        <v>5945</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="0"/>
-        <v>0.28215199999999951</v>
+        <v>0.15512699999999979</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -39078,29 +39255,32 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>2.0014099999999999</v>
+        <v>1.9519500000000001</v>
       </c>
       <c r="G50">
-        <v>0.15163699999999999</v>
+        <v>0.103966</v>
       </c>
       <c r="H50">
-        <v>2.4380099999999998</v>
+        <v>0.14679400000000001</v>
       </c>
       <c r="I50">
-        <v>0.121833</v>
+        <v>2.36686</v>
       </c>
       <c r="J50">
-        <v>6851.77</v>
+        <v>0.12066300000000001</v>
       </c>
       <c r="K50">
-        <v>3979</v>
+        <v>6967.55</v>
       </c>
       <c r="L50">
+        <v>3980</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="0"/>
-        <v>0.28496299999999986</v>
+        <v>0.1641499999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -39117,29 +39297,32 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>2.0081199999999999</v>
+        <v>1.95686</v>
       </c>
       <c r="G51">
-        <v>0.15359300000000001</v>
+        <v>0.109929</v>
       </c>
       <c r="H51">
-        <v>2.4665300000000001</v>
+        <v>0.150002</v>
       </c>
       <c r="I51">
-        <v>0.124142</v>
+        <v>2.4008699999999998</v>
       </c>
       <c r="J51">
-        <v>7034.87</v>
+        <v>0.121307</v>
       </c>
       <c r="K51">
-        <v>2991</v>
+        <v>7234.63</v>
       </c>
       <c r="L51">
+        <v>2990</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="0"/>
-        <v>0.30481700000000034</v>
+        <v>0.18407899999999966</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -39156,29 +39339,32 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>3.2952699999999999</v>
+        <v>3.23821</v>
       </c>
       <c r="G52">
-        <v>0.26014799999999999</v>
+        <v>0.18243300000000001</v>
       </c>
       <c r="H52">
-        <v>4.0198299999999998</v>
+        <v>0.24335000000000001</v>
       </c>
       <c r="I52">
-        <v>0.19525100000000001</v>
+        <v>3.90415</v>
       </c>
       <c r="J52">
-        <v>249.767</v>
+        <v>0.18296399999999999</v>
       </c>
       <c r="K52">
-        <v>14234</v>
+        <v>287.233</v>
       </c>
       <c r="L52">
+        <v>14680</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="0"/>
-        <v>0.46441199999999982</v>
+        <v>0.24015699999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -39195,29 +39381,32 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>3.4788800000000002</v>
+        <v>3.38219</v>
       </c>
       <c r="G53">
-        <v>0.26700200000000002</v>
+        <v>0.18856600000000001</v>
       </c>
       <c r="H53">
-        <v>4.2354799999999999</v>
+        <v>0.24711</v>
       </c>
       <c r="I53">
-        <v>0.1216</v>
+        <v>4.0678999999999998</v>
       </c>
       <c r="J53">
-        <v>1336.23</v>
+        <v>0.11439299999999999</v>
       </c>
       <c r="K53">
-        <v>11853</v>
+        <v>1681.63</v>
       </c>
       <c r="L53">
+        <v>11889</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="0"/>
-        <v>0.48959799999999953</v>
+        <v>0.25003399999999987</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -39234,29 +39423,32 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>3.1876500000000001</v>
+        <v>3.09016</v>
       </c>
       <c r="G54">
-        <v>0.267872</v>
+        <v>0.19645799999999999</v>
       </c>
       <c r="H54">
-        <v>3.9702000000000002</v>
+        <v>0.25236599999999998</v>
       </c>
       <c r="I54">
-        <v>0.125221</v>
+        <v>3.8142999999999998</v>
       </c>
       <c r="J54">
-        <v>4819.45</v>
+        <v>0.11508400000000001</v>
       </c>
       <c r="K54">
-        <v>5934</v>
+        <v>5351.13</v>
       </c>
       <c r="L54">
+        <v>5939</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="0"/>
-        <v>0.51467799999999997</v>
+        <v>0.27531599999999967</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -39273,29 +39465,32 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>3.2183899999999999</v>
+        <v>3.09287</v>
       </c>
       <c r="G55">
-        <v>0.28114400000000001</v>
+        <v>0.20258599999999999</v>
       </c>
       <c r="H55">
-        <v>4.0566599999999999</v>
+        <v>0.26055899999999999</v>
       </c>
       <c r="I55">
-        <v>0.13057099999999999</v>
+        <v>3.8593099999999998</v>
       </c>
       <c r="J55">
-        <v>5573.13</v>
+        <v>0.12651399999999999</v>
       </c>
       <c r="K55">
-        <v>3975</v>
+        <v>5850.95</v>
       </c>
       <c r="L55">
+        <v>3972</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="0"/>
-        <v>0.55712600000000023</v>
+        <v>0.30329499999999987</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -39312,29 +39507,32 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>3.2364299999999999</v>
+        <v>3.1088800000000001</v>
       </c>
       <c r="G56">
-        <v>0.273864</v>
+        <v>0.21321599999999999</v>
       </c>
       <c r="H56">
-        <v>4.0788700000000002</v>
+        <v>0.25029000000000001</v>
       </c>
       <c r="I56">
-        <v>0.138516</v>
+        <v>3.8632200000000001</v>
       </c>
       <c r="J56">
-        <v>5736.7</v>
+        <v>0.13807800000000001</v>
       </c>
       <c r="K56">
+        <v>5835.53</v>
+      </c>
+      <c r="L56">
         <v>2980</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="0"/>
-        <v>0.56857600000000019</v>
+        <v>0.29083400000000026</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -39351,29 +39549,32 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5.1534500000000003</v>
+        <v>5.0620099999999999</v>
       </c>
       <c r="G57">
-        <v>0.44876899999999997</v>
+        <v>0.34651500000000002</v>
       </c>
       <c r="H57">
-        <v>6.4886400000000002</v>
+        <v>0.41843200000000003</v>
       </c>
       <c r="I57">
-        <v>0.21810399999999999</v>
+        <v>6.2942400000000003</v>
       </c>
       <c r="J57">
-        <v>213.15</v>
+        <v>0.210758</v>
       </c>
       <c r="K57">
-        <v>8946</v>
+        <v>154.03299999999999</v>
       </c>
       <c r="L57">
+        <v>9224</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="0"/>
-        <v>0.88642100000000035</v>
+        <v>0.46728300000000011</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -39390,29 +39591,32 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4.82036</v>
+        <v>4.7214099999999997</v>
       </c>
       <c r="G58">
-        <v>0.45612999999999998</v>
+        <v>0.34224500000000002</v>
       </c>
       <c r="H58">
-        <v>6.1841299999999997</v>
+        <v>0.41616500000000001</v>
       </c>
       <c r="I58">
-        <v>0.33745700000000001</v>
+        <v>5.9429600000000002</v>
       </c>
       <c r="J58">
-        <v>152.75</v>
+        <v>0.29266500000000001</v>
       </c>
       <c r="K58">
-        <v>9200</v>
+        <v>160.667</v>
       </c>
       <c r="L58">
+        <v>9621</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="0"/>
-        <v>0.90763999999999978</v>
+        <v>0.46314000000000011</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -39429,29 +39633,32 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>4.8342799999999997</v>
+        <v>4.7269100000000002</v>
       </c>
       <c r="G59">
-        <v>0.46978300000000001</v>
+        <v>0.362676</v>
       </c>
       <c r="H59">
-        <v>6.2628500000000003</v>
+        <v>0.42816799999999999</v>
       </c>
       <c r="I59">
-        <v>0.25495099999999998</v>
+        <v>6.0071300000000001</v>
       </c>
       <c r="J59">
-        <v>1487.2</v>
+        <v>0.116287</v>
       </c>
       <c r="K59">
-        <v>5895</v>
+        <v>3475.88</v>
       </c>
       <c r="L59">
+        <v>5934</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="0"/>
-        <v>0.95878700000000094</v>
+        <v>0.48937600000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -39468,29 +39675,32 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>4.8345799999999999</v>
+        <v>4.7379899999999999</v>
       </c>
       <c r="G60">
-        <v>0.480319</v>
+        <v>0.38117699999999999</v>
       </c>
       <c r="H60">
-        <v>6.3229100000000003</v>
+        <v>0.45099699999999998</v>
       </c>
       <c r="I60">
-        <v>0.27538800000000002</v>
+        <v>6.1090600000000004</v>
       </c>
       <c r="J60">
-        <v>2094.6</v>
+        <v>0.131692</v>
       </c>
       <c r="K60">
-        <v>3955</v>
+        <v>4506.42</v>
       </c>
       <c r="L60">
+        <v>3964</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="0"/>
-        <v>1.0080110000000007</v>
+        <v>0.53889600000000026</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -39507,29 +39717,32 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>4.8293100000000004</v>
+        <v>4.7495599999999998</v>
       </c>
       <c r="G61">
-        <v>0.490624</v>
+        <v>0.37858599999999998</v>
       </c>
       <c r="H61">
-        <v>6.3741300000000001</v>
+        <v>0.450571</v>
       </c>
       <c r="I61">
-        <v>0.281358</v>
+        <v>6.1285999999999996</v>
       </c>
       <c r="J61">
-        <v>2427.23</v>
+        <v>0.152666</v>
       </c>
       <c r="K61">
-        <v>2974</v>
+        <v>4544.75</v>
       </c>
       <c r="L61">
+        <v>2977</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="0"/>
-        <v>1.0541959999999992</v>
+        <v>0.54988300000000034</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -39546,29 +39759,32 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.51666199999999995</v>
+        <v>0.50944400000000001</v>
       </c>
       <c r="G62">
-        <v>0.59609900000000005</v>
+        <v>2.03459E-2</v>
       </c>
       <c r="H62">
-        <v>0.61651199999999995</v>
+        <v>0.59067099999999995</v>
       </c>
       <c r="I62">
-        <v>0.13522100000000001</v>
+        <v>0.60983799999999999</v>
       </c>
       <c r="J62">
-        <v>3232.47</v>
+        <v>9.9508200000000005E-2</v>
       </c>
       <c r="K62">
-        <v>54680</v>
+        <v>4209.68</v>
       </c>
       <c r="L62">
-        <f>H62-G62</f>
-        <v>2.0412999999999903E-2</v>
+        <v>57101</v>
+      </c>
+      <c r="M62">
+        <f>I62-H62</f>
+        <v>1.9167000000000045E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -39585,29 +39801,32 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.65706399999999998</v>
+        <v>0.64998599999999995</v>
       </c>
       <c r="G63">
-        <v>0.73635200000000001</v>
+        <v>2.0413500000000001E-2</v>
       </c>
       <c r="H63">
-        <v>0.77008699999999997</v>
+        <v>0.73151999999999995</v>
       </c>
       <c r="I63">
-        <v>0.146096</v>
+        <v>0.76261199999999996</v>
       </c>
       <c r="J63">
-        <v>5781.08</v>
+        <v>0.117105</v>
       </c>
       <c r="K63">
-        <v>11830</v>
+        <v>7180.98</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L121" si="1">H63-G63</f>
-        <v>3.3734999999999959E-2</v>
+        <v>11868</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:M121" si="1">I63-H63</f>
+        <v>3.1092000000000009E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -39624,29 +39843,32 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.58226</v>
+        <v>0.57536699999999996</v>
       </c>
       <c r="G64">
-        <v>0.66190199999999999</v>
+        <v>2.04201E-2</v>
       </c>
       <c r="H64">
-        <v>0.70942300000000003</v>
+        <v>0.65695000000000003</v>
       </c>
       <c r="I64">
-        <v>0.14719099999999999</v>
+        <v>0.70100300000000004</v>
       </c>
       <c r="J64">
-        <v>6291.13</v>
+        <v>0.116204</v>
       </c>
       <c r="K64">
-        <v>5960</v>
+        <v>7983.33</v>
       </c>
       <c r="L64">
+        <v>5972</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="1"/>
-        <v>4.7521000000000035E-2</v>
+        <v>4.4053000000000009E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -39663,29 +39885,32 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.56257100000000004</v>
+        <v>0.55518900000000004</v>
       </c>
       <c r="G65">
-        <v>0.64242999999999995</v>
+        <v>2.0412699999999999E-2</v>
       </c>
       <c r="H65">
-        <v>0.70336299999999996</v>
+        <v>0.63678100000000004</v>
       </c>
       <c r="I65">
-        <v>0.14716499999999999</v>
+        <v>0.69381199999999998</v>
       </c>
       <c r="J65">
-        <v>6454.08</v>
+        <v>0.11457299999999999</v>
       </c>
       <c r="K65">
-        <v>3984</v>
+        <v>8302.0300000000007</v>
       </c>
       <c r="L65">
+        <v>3990</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="1"/>
-        <v>6.0933000000000015E-2</v>
+        <v>5.7030999999999943E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -39702,29 +39927,32 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>0.46016299999999999</v>
+        <v>0.45246700000000001</v>
       </c>
       <c r="G66">
-        <v>0.54035599999999995</v>
+        <v>2.0421100000000001E-2</v>
       </c>
       <c r="H66">
-        <v>0.61477700000000002</v>
+        <v>0.53408500000000003</v>
       </c>
       <c r="I66">
-        <v>0.14702000000000001</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="J66">
-        <v>6576.93</v>
+        <v>0.111092</v>
       </c>
       <c r="K66">
-        <v>2992</v>
+        <v>8699.3700000000008</v>
       </c>
       <c r="L66">
+        <v>2996</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="1"/>
-        <v>7.442100000000007E-2</v>
+        <v>7.201499999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -39741,29 +39969,32 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2.4779100000000001</v>
+        <v>2.4761199999999999</v>
       </c>
       <c r="G67">
-        <v>2.8346200000000001</v>
+        <v>9.9685899999999994E-2</v>
       </c>
       <c r="H67">
-        <v>2.9002500000000002</v>
+        <v>2.82545</v>
       </c>
       <c r="I67">
-        <v>0.149614</v>
+        <v>2.8908299999999998</v>
       </c>
       <c r="J67">
-        <v>415.93299999999999</v>
+        <v>9.2526999999999998E-2</v>
       </c>
       <c r="K67">
-        <v>19673</v>
+        <v>392.56700000000001</v>
       </c>
       <c r="L67">
+        <v>20111</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="1"/>
-        <v>6.5630000000000077E-2</v>
+        <v>6.5379999999999772E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -39780,29 +40011,32 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.1272500000000001</v>
+        <v>2.1214499999999998</v>
       </c>
       <c r="G68">
-        <v>2.4880800000000001</v>
+        <v>9.96388E-2</v>
       </c>
       <c r="H68">
-        <v>2.5744199999999999</v>
+        <v>2.4718599999999999</v>
       </c>
       <c r="I68">
-        <v>0.15077199999999999</v>
+        <v>2.54454</v>
       </c>
       <c r="J68">
-        <v>3222.23</v>
+        <v>9.7464499999999996E-2</v>
       </c>
       <c r="K68">
-        <v>11810</v>
+        <v>5041.95</v>
       </c>
       <c r="L68">
+        <v>11889</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="1"/>
-        <v>8.6339999999999861E-2</v>
+        <v>7.2680000000000078E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -39819,29 +40053,32 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>1.8721399999999999</v>
+        <v>1.85964</v>
       </c>
       <c r="G69">
-        <v>2.2350099999999999</v>
+        <v>9.9823200000000001E-2</v>
       </c>
       <c r="H69">
-        <v>2.3351899999999999</v>
+        <v>2.21157</v>
       </c>
       <c r="I69">
-        <v>0.14130999999999999</v>
+        <v>2.29691</v>
       </c>
       <c r="J69">
-        <v>5381.33</v>
+        <v>0.117745</v>
       </c>
       <c r="K69">
-        <v>5961</v>
+        <v>6510.03</v>
       </c>
       <c r="L69">
+        <v>5970</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="1"/>
-        <v>0.10017999999999994</v>
+        <v>8.5339999999999971E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -39858,29 +40095,32 @@
         <v>15</v>
       </c>
       <c r="F70">
-        <v>1.8685499999999999</v>
+        <v>1.8587400000000001</v>
       </c>
       <c r="G70">
-        <v>2.2319800000000001</v>
+        <v>9.9760799999999997E-2</v>
       </c>
       <c r="H70">
-        <v>2.3494600000000001</v>
+        <v>2.2106300000000001</v>
       </c>
       <c r="I70">
-        <v>0.14228099999999999</v>
+        <v>2.3094700000000001</v>
       </c>
       <c r="J70">
-        <v>5917.78</v>
+        <v>0.121207</v>
       </c>
       <c r="K70">
-        <v>3983</v>
+        <v>6953.95</v>
       </c>
       <c r="L70">
+        <v>3987</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="1"/>
-        <v>0.11748000000000003</v>
+        <v>9.8840000000000039E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -39897,29 +40137,32 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>1.8648899999999999</v>
+        <v>1.8584400000000001</v>
       </c>
       <c r="G71">
-        <v>2.2282999999999999</v>
+        <v>9.9762699999999996E-2</v>
       </c>
       <c r="H71">
-        <v>2.3633099999999998</v>
+        <v>2.2110400000000001</v>
       </c>
       <c r="I71">
-        <v>0.142154</v>
+        <v>2.3241800000000001</v>
       </c>
       <c r="J71">
-        <v>6190.52</v>
+        <v>0.11958000000000001</v>
       </c>
       <c r="K71">
-        <v>2991</v>
+        <v>7362.93</v>
       </c>
       <c r="L71">
+        <v>2993</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="1"/>
-        <v>0.13500999999999985</v>
+        <v>0.11314000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -39936,29 +40179,32 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5.0449200000000003</v>
+        <v>5.0483700000000002</v>
       </c>
       <c r="G72">
-        <v>5.87399</v>
+        <v>0.22637599999999999</v>
       </c>
       <c r="H72">
-        <v>6.0399500000000002</v>
+        <v>5.8634599999999999</v>
       </c>
       <c r="I72">
-        <v>0.165598</v>
+        <v>6.0208700000000004</v>
       </c>
       <c r="J72">
-        <v>206.017</v>
+        <v>0.15034600000000001</v>
       </c>
       <c r="K72">
-        <v>9669</v>
+        <v>164.03299999999999</v>
       </c>
       <c r="L72">
+        <v>9723</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="1"/>
-        <v>0.16596000000000011</v>
+        <v>0.15741000000000049</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -39975,29 +40221,32 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>4.6934699999999996</v>
+        <v>4.6973500000000001</v>
       </c>
       <c r="G73">
-        <v>5.52332</v>
+        <v>0.22633400000000001</v>
       </c>
       <c r="H73">
-        <v>5.6816199999999997</v>
+        <v>5.5089800000000002</v>
       </c>
       <c r="I73">
-        <v>0.170459</v>
+        <v>5.6575199999999999</v>
       </c>
       <c r="J73">
-        <v>170.733</v>
+        <v>0.15523000000000001</v>
       </c>
       <c r="K73">
-        <v>10253</v>
+        <v>172.167</v>
       </c>
       <c r="L73">
+        <v>10322</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="1"/>
-        <v>0.15829999999999966</v>
+        <v>0.14853999999999967</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -40014,29 +40263,32 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>4.2776100000000001</v>
+        <v>4.2561999999999998</v>
       </c>
       <c r="G74">
-        <v>5.1183300000000003</v>
+        <v>0.22661500000000001</v>
       </c>
       <c r="H74">
-        <v>5.32097</v>
+        <v>5.0791300000000001</v>
       </c>
       <c r="I74">
-        <v>0.115937</v>
+        <v>5.2514799999999999</v>
       </c>
       <c r="J74">
-        <v>4070.77</v>
+        <v>0.113108</v>
       </c>
       <c r="K74">
-        <v>5922</v>
+        <v>4217.63</v>
       </c>
       <c r="L74">
+        <v>5959</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="1"/>
-        <v>0.20263999999999971</v>
+        <v>0.17234999999999978</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -40053,29 +40305,32 @@
         <v>15</v>
       </c>
       <c r="F75">
-        <v>4.29284</v>
+        <v>4.2538200000000002</v>
       </c>
       <c r="G75">
-        <v>5.1382599999999998</v>
+        <v>0.22659699999999999</v>
       </c>
       <c r="H75">
-        <v>5.3835499999999996</v>
+        <v>5.0741500000000004</v>
       </c>
       <c r="I75">
-        <v>0.155779</v>
+        <v>5.26769</v>
       </c>
       <c r="J75">
-        <v>4098.05</v>
+        <v>0.109498</v>
       </c>
       <c r="K75">
-        <v>3979</v>
+        <v>5910.22</v>
       </c>
       <c r="L75">
+        <v>3984</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="1"/>
-        <v>0.24528999999999979</v>
+        <v>0.1935399999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -40092,29 +40347,32 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>4.2940899999999997</v>
+        <v>4.2597800000000001</v>
       </c>
       <c r="G76">
-        <v>5.1420199999999996</v>
+        <v>0.22667999999999999</v>
       </c>
       <c r="H76">
-        <v>5.4030500000000004</v>
+        <v>5.0783399999999999</v>
       </c>
       <c r="I76">
-        <v>0.15748899999999999</v>
+        <v>5.2856399999999999</v>
       </c>
       <c r="J76">
-        <v>4616.25</v>
+        <v>0.12697800000000001</v>
       </c>
       <c r="K76">
-        <v>2988</v>
+        <v>5783.68</v>
       </c>
       <c r="L76">
+        <v>2990</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="1"/>
-        <v>0.26103000000000076</v>
+        <v>0.20730000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -40131,29 +40389,32 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8.6510800000000003</v>
+        <v>8.5633300000000006</v>
       </c>
       <c r="G77">
-        <v>10.2759</v>
+        <v>0.40813300000000002</v>
       </c>
       <c r="H77">
-        <v>10.611800000000001</v>
+        <v>10.1471</v>
       </c>
       <c r="I77">
-        <v>0.26367499999999999</v>
+        <v>10.443</v>
       </c>
       <c r="J77">
-        <v>145.733</v>
+        <v>0.203322</v>
       </c>
       <c r="K77">
-        <v>5517</v>
+        <v>142.93299999999999</v>
       </c>
       <c r="L77">
+        <v>5636</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="1"/>
-        <v>0.33590000000000053</v>
+        <v>0.29589999999999961</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -40170,29 +40431,32 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>7.7688499999999996</v>
+        <v>7.7024900000000001</v>
       </c>
       <c r="G78">
-        <v>9.3858800000000002</v>
+        <v>0.40810400000000002</v>
       </c>
       <c r="H78">
-        <v>9.7151200000000006</v>
+        <v>9.2837800000000001</v>
       </c>
       <c r="I78">
-        <v>0.26447399999999999</v>
+        <v>9.5758899999999993</v>
       </c>
       <c r="J78">
-        <v>99.85</v>
+        <v>0.203456</v>
       </c>
       <c r="K78">
-        <v>6013</v>
+        <v>102.3</v>
       </c>
       <c r="L78">
+        <v>6135</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="1"/>
-        <v>0.32924000000000042</v>
+        <v>0.2921099999999992</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -40209,29 +40473,32 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>7.7543699999999998</v>
+        <v>7.7050900000000002</v>
       </c>
       <c r="G79">
-        <v>9.3930900000000008</v>
+        <v>0.40896500000000002</v>
       </c>
       <c r="H79">
-        <v>9.7219099999999994</v>
+        <v>9.2805700000000009</v>
       </c>
       <c r="I79">
-        <v>0.21531900000000001</v>
+        <v>9.5827299999999997</v>
       </c>
       <c r="J79">
-        <v>202.2</v>
+        <v>0.13606799999999999</v>
       </c>
       <c r="K79">
-        <v>5901</v>
+        <v>353.21699999999998</v>
       </c>
       <c r="L79">
+        <v>5958</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="1"/>
-        <v>0.32881999999999856</v>
+        <v>0.30215999999999887</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -40248,29 +40515,32 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>7.7599299999999998</v>
+        <v>7.7144199999999996</v>
       </c>
       <c r="G80">
-        <v>9.3828099999999992</v>
+        <v>0.409495</v>
       </c>
       <c r="H80">
-        <v>9.78383</v>
+        <v>9.2791700000000006</v>
       </c>
       <c r="I80">
-        <v>0.110966</v>
+        <v>9.6383600000000005</v>
       </c>
       <c r="J80">
-        <v>3106.6</v>
+        <v>0.11894100000000001</v>
       </c>
       <c r="K80">
-        <v>3979</v>
+        <v>3002.75</v>
       </c>
       <c r="L80">
+        <v>3978</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="1"/>
-        <v>0.40102000000000082</v>
+        <v>0.3591899999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -40287,29 +40557,32 @@
         <v>20</v>
       </c>
       <c r="F81">
-        <v>7.7804099999999998</v>
+        <v>7.7123999999999997</v>
       </c>
       <c r="G81">
-        <v>9.3938600000000001</v>
+        <v>0.40798899999999999</v>
       </c>
       <c r="H81">
-        <v>9.8449899999999992</v>
+        <v>9.2745999999999995</v>
       </c>
       <c r="I81">
-        <v>0.12113500000000001</v>
+        <v>9.6521799999999995</v>
       </c>
       <c r="J81">
-        <v>4197.32</v>
+        <v>0.120503</v>
       </c>
       <c r="K81">
-        <v>2989</v>
+        <v>4266.93</v>
       </c>
       <c r="L81">
+        <v>2988</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="1"/>
-        <v>0.45112999999999914</v>
+        <v>0.37758000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -40326,29 +40599,32 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>13.3446</v>
+        <v>13.1669</v>
       </c>
       <c r="G82">
-        <v>16.237400000000001</v>
+        <v>0.70542400000000005</v>
       </c>
       <c r="H82">
-        <v>16.942599999999999</v>
+        <v>15.7887</v>
       </c>
       <c r="I82">
-        <v>0.21614800000000001</v>
+        <v>16.384799999999998</v>
       </c>
       <c r="J82">
-        <v>65.033299999999997</v>
+        <v>0.21445600000000001</v>
       </c>
       <c r="K82">
-        <v>3497</v>
+        <v>97.433300000000003</v>
       </c>
       <c r="L82">
+        <v>3615</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="1"/>
-        <v>0.70519999999999783</v>
+        <v>0.59609999999999808</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -40365,29 +40641,32 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>12.309699999999999</v>
+        <v>12.152699999999999</v>
       </c>
       <c r="G83">
-        <v>15.1427</v>
+        <v>0.69969499999999996</v>
       </c>
       <c r="H83">
-        <v>15.817600000000001</v>
+        <v>14.777900000000001</v>
       </c>
       <c r="I83">
-        <v>0.22141</v>
+        <v>15.3764</v>
       </c>
       <c r="J83">
-        <v>62.616700000000002</v>
+        <v>0.209809</v>
       </c>
       <c r="K83">
-        <v>3741</v>
+        <v>64.366699999999994</v>
       </c>
       <c r="L83">
+        <v>3850</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="1"/>
-        <v>0.67490000000000094</v>
+        <v>0.59849999999999959</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -40404,29 +40683,32 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>12.2843</v>
+        <v>12.1578</v>
       </c>
       <c r="G84">
-        <v>15.101800000000001</v>
+        <v>0.71670199999999995</v>
       </c>
       <c r="H84">
-        <v>15.775499999999999</v>
+        <v>14.796799999999999</v>
       </c>
       <c r="I84">
-        <v>0.21897800000000001</v>
+        <v>15.4032</v>
       </c>
       <c r="J84">
-        <v>63.4833</v>
+        <v>0.21354799999999999</v>
       </c>
       <c r="K84">
-        <v>3751</v>
+        <v>64.783299999999997</v>
       </c>
       <c r="L84">
+        <v>3842</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="1"/>
-        <v>0.67369999999999841</v>
+        <v>0.60640000000000072</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -40443,29 +40725,32 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>12.317399999999999</v>
+        <v>12.15</v>
       </c>
       <c r="G85">
-        <v>15.1867</v>
+        <v>0.70060199999999995</v>
       </c>
       <c r="H85">
-        <v>15.9101</v>
+        <v>14.763</v>
       </c>
       <c r="I85">
-        <v>0.211704</v>
+        <v>15.3652</v>
       </c>
       <c r="J85">
-        <v>63.5</v>
+        <v>0.212225</v>
       </c>
       <c r="K85">
-        <v>3721</v>
+        <v>65.459000000000003</v>
       </c>
       <c r="L85">
+        <v>3851</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="1"/>
-        <v>0.72339999999999982</v>
+        <v>0.60219999999999985</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -40482,29 +40767,32 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>12.3337</v>
+        <v>12.1996</v>
       </c>
       <c r="G86">
-        <v>15.155200000000001</v>
+        <v>0.72396300000000002</v>
       </c>
       <c r="H86">
-        <v>15.9206</v>
+        <v>14.853</v>
       </c>
       <c r="I86">
-        <v>0.12214700000000001</v>
+        <v>15.5526</v>
       </c>
       <c r="J86">
-        <v>1686.77</v>
+        <v>0.11563900000000001</v>
       </c>
       <c r="K86">
-        <v>2987</v>
+        <v>1943.13</v>
       </c>
       <c r="L86">
+        <v>2989</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="1"/>
-        <v>0.76539999999999964</v>
+        <v>0.69960000000000022</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -40521,33 +40809,36 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>20.383600000000001</v>
+        <v>20.086400000000001</v>
       </c>
       <c r="G87">
-        <v>25.4057</v>
+        <v>1.37165</v>
       </c>
       <c r="H87">
-        <v>26.5761</v>
+        <v>24.7014</v>
       </c>
       <c r="I87">
-        <v>0.38511099999999998</v>
+        <v>25.799900000000001</v>
       </c>
       <c r="J87">
-        <v>37.216700000000003</v>
+        <v>0.22121499999999999</v>
       </c>
       <c r="K87">
-        <v>2226</v>
+        <v>38.5167</v>
       </c>
       <c r="L87">
+        <v>2306</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="1"/>
-        <v>1.1704000000000008</v>
-      </c>
-      <c r="M87">
-        <f>G87-F87</f>
-        <v>5.0220999999999982</v>
+        <v>1.0985000000000014</v>
+      </c>
+      <c r="N87">
+        <f>H87-(G87+F87)</f>
+        <v>3.2433499999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -40564,29 +40855,32 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>19.140999999999998</v>
+        <v>18.786200000000001</v>
       </c>
       <c r="G88">
-        <v>24.2087</v>
+        <v>1.3667100000000001</v>
       </c>
       <c r="H88">
-        <v>25.375399999999999</v>
+        <v>23.405899999999999</v>
       </c>
       <c r="I88">
-        <v>0.249002</v>
+        <v>24.5106</v>
       </c>
       <c r="J88">
-        <v>38.9833</v>
+        <v>0.21565699999999999</v>
       </c>
       <c r="K88">
-        <v>2342</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="L88">
+        <v>2427</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="1"/>
-        <v>1.1666999999999987</v>
+        <v>1.1047000000000011</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -40603,29 +40897,32 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>19.168199999999999</v>
+        <v>18.812100000000001</v>
       </c>
       <c r="G89">
-        <v>24.227</v>
+        <v>1.3746499999999999</v>
       </c>
       <c r="H89">
-        <v>25.393699999999999</v>
+        <v>23.426500000000001</v>
       </c>
       <c r="I89">
-        <v>0.25231799999999999</v>
+        <v>24.53</v>
       </c>
       <c r="J89">
-        <v>39</v>
+        <v>0.21360599999999999</v>
       </c>
       <c r="K89">
-        <v>2340</v>
+        <v>41.366700000000002</v>
       </c>
       <c r="L89">
+        <v>2425</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="1"/>
-        <v>1.1666999999999987</v>
+        <v>1.1035000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -40642,29 +40939,32 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>19.155899999999999</v>
+        <v>18.8033</v>
       </c>
       <c r="G90">
-        <v>24.229399999999998</v>
+        <v>1.36039</v>
       </c>
       <c r="H90">
-        <v>25.398599999999998</v>
+        <v>23.402000000000001</v>
       </c>
       <c r="I90">
-        <v>0.25074400000000002</v>
+        <v>24.499600000000001</v>
       </c>
       <c r="J90">
-        <v>39.1</v>
+        <v>0.21760199999999999</v>
       </c>
       <c r="K90">
-        <v>2340</v>
+        <v>41.7667</v>
       </c>
       <c r="L90">
+        <v>2427</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="1"/>
-        <v>1.1692</v>
+        <v>1.0975999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -40681,29 +40981,32 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>19.126300000000001</v>
+        <v>18.805</v>
       </c>
       <c r="G91">
-        <v>24.218399999999999</v>
+        <v>1.3780399999999999</v>
       </c>
       <c r="H91">
-        <v>25.385200000000001</v>
+        <v>23.4298</v>
       </c>
       <c r="I91">
-        <v>0.25105100000000002</v>
+        <v>24.5307</v>
       </c>
       <c r="J91">
-        <v>39.533299999999997</v>
+        <v>0.21312300000000001</v>
       </c>
       <c r="K91">
-        <v>2341</v>
+        <v>42.15</v>
       </c>
       <c r="L91">
+        <v>2424</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="1"/>
-        <v>1.1668000000000021</v>
+        <v>1.1008999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -40720,29 +41023,32 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.25922899999999999</v>
+        <v>0.25325500000000001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1.01704E-2</v>
       </c>
       <c r="H92">
-        <v>0.29627700000000001</v>
+        <v>0.28076499999999999</v>
       </c>
       <c r="I92">
-        <v>0.12388</v>
+        <v>0.29161100000000001</v>
       </c>
       <c r="J92">
-        <v>5717.68</v>
+        <v>0.10406700000000001</v>
       </c>
       <c r="K92">
-        <v>56187</v>
+        <v>6866.8</v>
       </c>
       <c r="L92">
-        <f>H92-G92</f>
-        <v>0.29627700000000001</v>
+        <v>57014</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>1.0846000000000022E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -40759,29 +41065,32 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.29033999999999999</v>
+        <v>0.28417799999999999</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1.0175999999999999E-2</v>
       </c>
       <c r="H93">
-        <v>0.34265000000000001</v>
+        <v>0.31169999999999998</v>
       </c>
       <c r="I93">
-        <v>0.12106699999999999</v>
+        <v>0.335256</v>
       </c>
       <c r="J93">
-        <v>7676.92</v>
+        <v>0.111744</v>
       </c>
       <c r="K93">
-        <v>11863</v>
+        <v>8303.35</v>
       </c>
       <c r="L93">
+        <v>11877</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="1"/>
-        <v>0.34265000000000001</v>
+        <v>2.3556000000000021E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -40798,29 +41107,32 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.25043100000000001</v>
+        <v>0.24520400000000001</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1.0189999999999999E-2</v>
       </c>
       <c r="H94">
-        <v>0.31747399999999998</v>
+        <v>0.272754</v>
       </c>
       <c r="I94">
-        <v>0.119003</v>
+        <v>0.30803799999999998</v>
       </c>
       <c r="J94">
-        <v>8116.98</v>
+        <v>0.118327</v>
       </c>
       <c r="K94">
-        <v>5971</v>
+        <v>8166.62</v>
       </c>
       <c r="L94">
+        <v>5972</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="1"/>
-        <v>0.31747399999999998</v>
+        <v>3.5283999999999982E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -40837,29 +41149,32 @@
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.25054399999999999</v>
+        <v>0.238043</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1.0187699999999999E-2</v>
       </c>
       <c r="H95">
-        <v>0.32385399999999998</v>
+        <v>0.26560099999999998</v>
       </c>
       <c r="I95">
-        <v>0.146672</v>
+        <v>0.31418699999999999</v>
       </c>
       <c r="J95">
-        <v>6664.57</v>
+        <v>0.11430999999999999</v>
       </c>
       <c r="K95">
-        <v>3984</v>
+        <v>8544</v>
       </c>
       <c r="L95">
+        <v>3990</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="1"/>
-        <v>0.32385399999999998</v>
+        <v>4.8586000000000018E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -40876,29 +41191,32 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.24825700000000001</v>
+        <v>0.23521</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1.0194699999999999E-2</v>
       </c>
       <c r="H96">
-        <v>0.33345799999999998</v>
+        <v>0.26277299999999998</v>
       </c>
       <c r="I96">
-        <v>0.148671</v>
+        <v>0.32377099999999998</v>
       </c>
       <c r="J96">
-        <v>6604.92</v>
+        <v>0.115165</v>
       </c>
       <c r="K96">
-        <v>2992</v>
+        <v>8524.65</v>
       </c>
       <c r="L96">
+        <v>2996</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="1"/>
-        <v>0.33345799999999998</v>
+        <v>6.0997999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -40915,29 +41233,32 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.10301</v>
+        <v>1.0874900000000001</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4.9762899999999999E-2</v>
       </c>
       <c r="H97">
-        <v>1.2607999999999999</v>
+        <v>1.2098800000000001</v>
       </c>
       <c r="I97">
-        <v>0.132219</v>
+        <v>1.2422899999999999</v>
       </c>
       <c r="J97">
-        <v>800.51700000000005</v>
+        <v>8.6266399999999993E-2</v>
       </c>
       <c r="K97">
-        <v>43068</v>
+        <v>812.88300000000004</v>
       </c>
       <c r="L97">
+        <v>45158</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="1"/>
-        <v>1.2607999999999999</v>
+        <v>3.2409999999999828E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -40954,29 +41275,32 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.96944900000000001</v>
+        <v>0.94547800000000004</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>4.9806499999999997E-2</v>
       </c>
       <c r="H98">
-        <v>1.1395900000000001</v>
+        <v>1.06806</v>
       </c>
       <c r="I98">
-        <v>0.15076800000000001</v>
+        <v>1.1110800000000001</v>
       </c>
       <c r="J98">
-        <v>5072.8500000000004</v>
+        <v>0.119577</v>
       </c>
       <c r="K98">
-        <v>11817</v>
+        <v>6465.23</v>
       </c>
       <c r="L98">
+        <v>11860</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="1"/>
-        <v>1.1395900000000001</v>
+        <v>4.3020000000000058E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -40993,29 +41317,32 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.97102599999999994</v>
+        <v>0.94309799999999999</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4.9844300000000001E-2</v>
       </c>
       <c r="H99">
-        <v>1.1536599999999999</v>
+        <v>1.0657000000000001</v>
       </c>
       <c r="I99">
-        <v>0.153139</v>
+        <v>1.11978</v>
       </c>
       <c r="J99">
-        <v>5750.89</v>
+        <v>0.12565899999999999</v>
       </c>
       <c r="K99">
-        <v>5959</v>
+        <v>7045.52</v>
       </c>
       <c r="L99">
+        <v>5968</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="1"/>
-        <v>1.1536599999999999</v>
+        <v>5.4079999999999906E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -41032,29 +41359,32 @@
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.97372199999999998</v>
+        <v>0.93917700000000004</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4.98959E-2</v>
       </c>
       <c r="H100">
-        <v>1.1581999999999999</v>
+        <v>1.06202</v>
       </c>
       <c r="I100">
-        <v>0.22370000000000001</v>
+        <v>1.12201</v>
       </c>
       <c r="J100">
-        <v>4125.32</v>
+        <v>0.15620400000000001</v>
       </c>
       <c r="K100">
-        <v>3970</v>
+        <v>5932.65</v>
       </c>
       <c r="L100">
+        <v>3982</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="1"/>
-        <v>1.1581999999999999</v>
+        <v>5.9989999999999988E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -41071,29 +41401,32 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>0.95781700000000003</v>
+        <v>0.92255399999999999</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>4.9903999999999997E-2</v>
       </c>
       <c r="H101">
-        <v>1.16517</v>
+        <v>1.04535</v>
       </c>
       <c r="I101">
-        <v>0.148011</v>
+        <v>1.1248100000000001</v>
       </c>
       <c r="J101">
-        <v>6349.93</v>
+        <v>0.11927</v>
       </c>
       <c r="K101">
-        <v>2991</v>
+        <v>7901.2</v>
       </c>
       <c r="L101">
+        <v>2994</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="1"/>
-        <v>1.16517</v>
+        <v>7.9460000000000086E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -41110,29 +41443,32 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2702800000000001</v>
+        <v>2.2325599999999999</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.11297599999999999</v>
       </c>
       <c r="H102">
-        <v>2.6265200000000002</v>
+        <v>2.5092099999999999</v>
       </c>
       <c r="I102">
-        <v>0.172984</v>
+        <v>2.57985</v>
       </c>
       <c r="J102">
-        <v>395.7</v>
+        <v>0.101176</v>
       </c>
       <c r="K102">
-        <v>21432</v>
+        <v>393.25</v>
       </c>
       <c r="L102">
+        <v>22379</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="1"/>
-        <v>2.6265200000000002</v>
+        <v>7.0640000000000036E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -41149,29 +41485,32 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>2.20356</v>
+        <v>2.1450100000000001</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.113025</v>
       </c>
       <c r="H103">
-        <v>2.5733899999999998</v>
+        <v>2.4218899999999999</v>
       </c>
       <c r="I103">
-        <v>0.16112799999999999</v>
+        <v>2.50149</v>
       </c>
       <c r="J103">
-        <v>3043.25</v>
+        <v>0.114082</v>
       </c>
       <c r="K103">
-        <v>11800</v>
+        <v>4409.5</v>
       </c>
       <c r="L103">
+        <v>11863</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="1"/>
-        <v>2.5733899999999998</v>
+        <v>7.9600000000000115E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -41188,29 +41527,32 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>2.2101500000000001</v>
+        <v>2.1400899999999998</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.11364</v>
       </c>
       <c r="H104">
-        <v>2.5838800000000002</v>
+        <v>2.4178999999999999</v>
       </c>
       <c r="I104">
-        <v>0.28387800000000002</v>
+        <v>2.5034700000000001</v>
       </c>
       <c r="J104">
-        <v>2621.0300000000002</v>
+        <v>0.189141</v>
       </c>
       <c r="K104">
-        <v>5906</v>
+        <v>3969.08</v>
       </c>
       <c r="L104">
+        <v>5926</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="1"/>
-        <v>2.5838800000000002</v>
+        <v>8.5570000000000146E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -41227,29 +41569,32 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <v>2.18147</v>
+        <v>2.1179299999999999</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.113897</v>
       </c>
       <c r="H105">
-        <v>2.5762100000000001</v>
+        <v>2.3960400000000002</v>
       </c>
       <c r="I105">
-        <v>0.15781899999999999</v>
+        <v>2.4979100000000001</v>
       </c>
       <c r="J105">
-        <v>5235.07</v>
+        <v>0.13255500000000001</v>
       </c>
       <c r="K105">
-        <v>3978</v>
+        <v>6272.03</v>
       </c>
       <c r="L105">
+        <v>3980</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="1"/>
-        <v>2.5762100000000001</v>
+        <v>0.10186999999999991</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -41266,29 +41611,32 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2.1781000000000001</v>
+        <v>2.1276999999999999</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.11347500000000001</v>
       </c>
       <c r="H106">
-        <v>2.5832899999999999</v>
+        <v>2.4057900000000001</v>
       </c>
       <c r="I106">
-        <v>0.15750800000000001</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="J106">
-        <v>5515.33</v>
+        <v>0.144428</v>
       </c>
       <c r="K106">
-        <v>2988</v>
+        <v>6050.77</v>
       </c>
       <c r="L106">
+        <v>2972</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="1"/>
-        <v>2.5832899999999999</v>
+        <v>0.1122099999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -41305,29 +41653,32 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>4.0089699999999997</v>
+        <v>3.9375200000000001</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.20664099999999999</v>
       </c>
       <c r="H107">
-        <v>4.6673900000000001</v>
+        <v>4.4374399999999996</v>
       </c>
       <c r="I107">
-        <v>0.23330500000000001</v>
+        <v>4.5704099999999999</v>
       </c>
       <c r="J107">
-        <v>277.95</v>
+        <v>0.17777000000000001</v>
       </c>
       <c r="K107">
-        <v>12243</v>
+        <v>273.78300000000002</v>
       </c>
       <c r="L107">
+        <v>12637</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="1"/>
-        <v>4.6673900000000001</v>
+        <v>0.13297000000000025</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -41344,29 +41695,32 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3.9491499999999999</v>
+        <v>3.8689</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.20758599999999999</v>
       </c>
       <c r="H108">
-        <v>4.6072100000000002</v>
+        <v>4.3703099999999999</v>
       </c>
       <c r="I108">
-        <v>0.19473699999999999</v>
+        <v>4.5061900000000001</v>
       </c>
       <c r="J108">
-        <v>533.83299999999997</v>
+        <v>0.15987899999999999</v>
       </c>
       <c r="K108">
-        <v>11649</v>
+        <v>756.75</v>
       </c>
       <c r="L108">
+        <v>11687</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="1"/>
-        <v>4.6072100000000002</v>
+        <v>0.13588000000000022</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -41383,29 +41737,32 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>3.9492699999999998</v>
+        <v>3.86151</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.21012500000000001</v>
       </c>
       <c r="H109">
-        <v>4.6328199999999997</v>
+        <v>4.36538</v>
       </c>
       <c r="I109">
-        <v>0.17952199999999999</v>
+        <v>4.5106099999999998</v>
       </c>
       <c r="J109">
-        <v>2964.41</v>
+        <v>0.174402</v>
       </c>
       <c r="K109">
-        <v>5939</v>
+        <v>3127.33</v>
       </c>
       <c r="L109">
+        <v>5941</v>
+      </c>
+      <c r="M109">
         <f t="shared" si="1"/>
-        <v>4.6328199999999997</v>
+        <v>0.14522999999999975</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -41422,29 +41779,32 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>3.9502799999999998</v>
+        <v>3.8641999999999999</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.21409</v>
       </c>
       <c r="H110">
-        <v>4.64276</v>
+        <v>4.3754</v>
       </c>
       <c r="I110">
-        <v>0.17652799999999999</v>
+        <v>4.5310600000000001</v>
       </c>
       <c r="J110">
-        <v>3912.55</v>
+        <v>0.175848</v>
       </c>
       <c r="K110">
-        <v>3974</v>
+        <v>3947.72</v>
       </c>
       <c r="L110">
+        <v>3975</v>
+      </c>
+      <c r="M110">
         <f t="shared" si="1"/>
-        <v>4.64276</v>
+        <v>0.15566000000000013</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -41461,29 +41821,32 @@
         <v>20</v>
       </c>
       <c r="F111">
-        <v>3.9608400000000001</v>
+        <v>3.8581300000000001</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.206731</v>
       </c>
       <c r="H111">
-        <v>4.6712600000000002</v>
+        <v>4.35785</v>
       </c>
       <c r="I111">
-        <v>0.17780799999999999</v>
+        <v>4.5262900000000004</v>
       </c>
       <c r="J111">
-        <v>4304.25</v>
+        <v>0.13530400000000001</v>
       </c>
       <c r="K111">
-        <v>2985</v>
+        <v>5711.42</v>
       </c>
       <c r="L111">
+        <v>2986</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="1"/>
-        <v>4.6712600000000002</v>
+        <v>0.16844000000000037</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -41500,29 +41863,32 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6.3554300000000001</v>
+        <v>6.1886200000000002</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.36070099999999999</v>
       </c>
       <c r="H112">
-        <v>7.5742700000000003</v>
+        <v>7.0321899999999999</v>
       </c>
       <c r="I112">
-        <v>0.23345399999999999</v>
+        <v>7.2707100000000002</v>
       </c>
       <c r="J112">
-        <v>148.6</v>
+        <v>0.19897400000000001</v>
       </c>
       <c r="K112">
-        <v>7685</v>
+        <v>150.483</v>
       </c>
       <c r="L112">
+        <v>8033</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="1"/>
-        <v>7.5742700000000003</v>
+        <v>0.23852000000000029</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -41539,29 +41905,32 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>6.2808599999999997</v>
+        <v>6.0855300000000003</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.35087200000000002</v>
       </c>
       <c r="H113">
-        <v>7.5298299999999996</v>
+        <v>6.9115000000000002</v>
       </c>
       <c r="I113">
-        <v>0.23239799999999999</v>
+        <v>7.1454899999999997</v>
       </c>
       <c r="J113">
-        <v>128.63300000000001</v>
+        <v>0.20064599999999999</v>
       </c>
       <c r="K113">
-        <v>7730</v>
+        <v>136.38300000000001</v>
       </c>
       <c r="L113">
+        <v>8167</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="1"/>
-        <v>7.5298299999999996</v>
+        <v>0.23398999999999948</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -41578,29 +41947,32 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>6.2418500000000003</v>
+        <v>6.0807599999999997</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.36583500000000002</v>
       </c>
       <c r="H114">
-        <v>7.4775200000000002</v>
+        <v>6.9337299999999997</v>
       </c>
       <c r="I114">
-        <v>0.21549699999999999</v>
+        <v>7.1865699999999997</v>
       </c>
       <c r="J114">
-        <v>1215.8699999999999</v>
+        <v>0.121239</v>
       </c>
       <c r="K114">
-        <v>5903</v>
+        <v>2375.17</v>
       </c>
       <c r="L114">
+        <v>5930</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="1"/>
-        <v>7.4775200000000002</v>
+        <v>0.25283999999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -41617,29 +41989,32 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>6.2627899999999999</v>
+        <v>6.1000800000000002</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.37442599999999998</v>
       </c>
       <c r="H115">
-        <v>7.51349</v>
+        <v>6.9679000000000002</v>
       </c>
       <c r="I115">
-        <v>0.21812000000000001</v>
+        <v>7.2317</v>
       </c>
       <c r="J115">
-        <v>2286.23</v>
+        <v>0.115949</v>
       </c>
       <c r="K115">
-        <v>3964</v>
+        <v>4456.95</v>
       </c>
       <c r="L115">
+        <v>3975</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="1"/>
-        <v>7.51349</v>
+        <v>0.26379999999999981</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -41656,29 +42031,32 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <v>6.27135</v>
+        <v>6.1197499999999998</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.38077899999999998</v>
       </c>
       <c r="H116">
-        <v>7.5585399999999998</v>
+        <v>7.00061</v>
       </c>
       <c r="I116">
-        <v>0.220133</v>
+        <v>7.2766999999999999</v>
       </c>
       <c r="J116">
-        <v>2817.65</v>
+        <v>0.122902</v>
       </c>
       <c r="K116">
-        <v>2981</v>
+        <v>5159.6000000000004</v>
       </c>
       <c r="L116">
+        <v>2984</v>
+      </c>
+      <c r="M116">
         <f t="shared" si="1"/>
-        <v>7.5585399999999998</v>
+        <v>0.27608999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -41695,29 +42073,36 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>9.8617299999999997</v>
+        <v>9.6343099999999993</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.69228699999999999</v>
       </c>
       <c r="H117">
-        <v>12.081799999999999</v>
+        <v>11.1572</v>
       </c>
       <c r="I117">
-        <v>0.24601500000000001</v>
+        <v>11.615600000000001</v>
       </c>
       <c r="J117">
-        <v>106.81699999999999</v>
+        <v>0.22028</v>
       </c>
       <c r="K117">
-        <v>4867</v>
+        <v>129.63300000000001</v>
       </c>
       <c r="L117">
+        <v>5070</v>
+      </c>
+      <c r="M117">
         <f t="shared" si="1"/>
-        <v>12.081799999999999</v>
+        <v>0.45840000000000103</v>
+      </c>
+      <c r="N117">
+        <f>H117-(G117+F117)</f>
+        <v>0.83060299999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -41734,29 +42119,32 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>9.7040500000000005</v>
+        <v>9.4999900000000004</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.69838199999999995</v>
       </c>
       <c r="H118">
-        <v>11.903</v>
+        <v>11.033899999999999</v>
       </c>
       <c r="I118">
-        <v>0.28975400000000001</v>
+        <v>11.4947</v>
       </c>
       <c r="J118">
-        <v>81.7667</v>
+        <v>0.21820500000000001</v>
       </c>
       <c r="K118">
-        <v>4921</v>
+        <v>85.533299999999997</v>
       </c>
       <c r="L118">
+        <v>5122</v>
+      </c>
+      <c r="M118">
         <f t="shared" si="1"/>
-        <v>11.903</v>
+        <v>0.46080000000000076</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -41773,29 +42161,32 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>9.6054499999999994</v>
+        <v>9.38565</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.69694999999999996</v>
       </c>
       <c r="H119">
-        <v>11.8469</v>
+        <v>10.9185</v>
       </c>
       <c r="I119">
-        <v>0.30727900000000002</v>
+        <v>11.3841</v>
       </c>
       <c r="J119">
-        <v>82.05</v>
+        <v>0.216805</v>
       </c>
       <c r="K119">
-        <v>4937</v>
+        <v>86.916700000000006</v>
       </c>
       <c r="L119">
+        <v>5171</v>
+      </c>
+      <c r="M119">
         <f t="shared" si="1"/>
-        <v>11.8469</v>
+        <v>0.46560000000000024</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -41812,29 +42203,32 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>9.6364900000000002</v>
+        <v>9.4213699999999996</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.703905</v>
       </c>
       <c r="H120">
-        <v>11.8626</v>
+        <v>10.968</v>
       </c>
       <c r="I120">
-        <v>0.25670799999999999</v>
+        <v>11.445499999999999</v>
       </c>
       <c r="J120">
-        <v>841.55</v>
+        <v>0.11823699999999999</v>
       </c>
       <c r="K120">
-        <v>3951</v>
+        <v>2020.8</v>
       </c>
       <c r="L120">
+        <v>3970</v>
+      </c>
+      <c r="M120">
         <f t="shared" si="1"/>
-        <v>11.8626</v>
+        <v>0.47749999999999915</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -41851,26 +42245,29 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>9.6547199999999993</v>
+        <v>9.4240899999999996</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.71077699999999999</v>
       </c>
       <c r="H121">
-        <v>11.950900000000001</v>
+        <v>10.991</v>
       </c>
       <c r="I121">
-        <v>0.27281300000000003</v>
+        <v>11.478899999999999</v>
       </c>
       <c r="J121">
-        <v>1468.38</v>
+        <v>0.12567900000000001</v>
       </c>
       <c r="K121">
-        <v>2976</v>
+        <v>3361.31</v>
       </c>
       <c r="L121">
+        <v>2980</v>
+      </c>
+      <c r="M121">
         <f t="shared" si="1"/>
-        <v>11.950900000000001</v>
+        <v>0.48789999999999978</v>
       </c>
     </row>
   </sheetData>
@@ -41883,8 +42280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="AI37" workbookViewId="0">
+      <selection activeCell="BD65" sqref="BD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42262,7 +42659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AN25" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -42608,8 +43005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI25" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42954,8 +43351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="AN22" workbookViewId="0">
+      <selection activeCell="BL44" sqref="BL44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_test_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="25">
   <si>
     <t>Test ID</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Average time external force (ms)</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -2639,6 +2645,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EA4D-467B-9C99-7BB99012A91C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6434,6 +6445,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FD2B-45F2-B06E-7FEB0D9C00DC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9602,6 +9618,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0C83-4D87-8FF3-6E1541FEFE00}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -13392,6 +13413,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-83CD-4FDD-B52D-8D1D2B56552C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -36782,81 +36808,51 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="27">
-          <cell r="J27">
-            <v>0.213314</v>
-          </cell>
           <cell r="K27">
             <v>120.4</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="J28">
-            <v>0.21102599999999999</v>
-          </cell>
           <cell r="K28">
             <v>123.767</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="J29">
-            <v>0.12303</v>
-          </cell>
           <cell r="K29">
             <v>1740.75</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="J30">
-            <v>0.117121</v>
-          </cell>
           <cell r="K30">
             <v>3995.25</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="J31">
-            <v>0.141206</v>
-          </cell>
           <cell r="K31">
             <v>4248.87</v>
           </cell>
         </row>
         <row r="117">
-          <cell r="J117">
-            <v>0.221473</v>
-          </cell>
           <cell r="K117">
             <v>62.55</v>
           </cell>
         </row>
         <row r="118">
-          <cell r="J118">
-            <v>0.222886</v>
-          </cell>
           <cell r="K118">
             <v>64.45</v>
           </cell>
         </row>
         <row r="119">
-          <cell r="J119">
-            <v>0.223221</v>
-          </cell>
           <cell r="K119">
             <v>65.333299999999994</v>
           </cell>
         </row>
         <row r="120">
-          <cell r="J120">
-            <v>0.219334</v>
-          </cell>
           <cell r="K120">
             <v>93.7</v>
           </cell>
         </row>
         <row r="121">
-          <cell r="J121">
-            <v>0.117608</v>
-          </cell>
           <cell r="K121">
             <v>1961.62</v>
           </cell>
@@ -37168,10 +37164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R241" sqref="R241"/>
+    <sheetView tabSelected="1" topLeftCell="G111" workbookViewId="0">
+      <selection activeCell="O121" sqref="O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37181,7 +37177,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37221,8 +37217,11 @@
       <c r="M1" t="s">
         <v>21</v>
       </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37263,8 +37262,11 @@
         <f>I2-(H2+G2+F2)</f>
         <v>1.084841999999997E-2</v>
       </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37302,11 +37304,14 @@
         <v>11844</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">I3-(H3+G3+F3)</f>
+        <f t="shared" ref="M3:M61" si="0">I3-(H3+G3+F3)</f>
         <v>2.2452779999999978E-2</v>
       </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37347,8 +37352,11 @@
         <f t="shared" si="0"/>
         <v>3.3404170000000011E-2</v>
       </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37389,8 +37397,11 @@
         <f t="shared" si="0"/>
         <v>4.4442430000000005E-2</v>
       </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37431,8 +37442,11 @@
         <f t="shared" si="0"/>
         <v>5.5996099999999993E-2</v>
       </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37473,8 +37487,11 @@
         <f t="shared" si="0"/>
         <v>3.3428600000000031E-2</v>
       </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37515,8 +37532,11 @@
         <f t="shared" si="0"/>
         <v>4.4318599999999986E-2</v>
       </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37557,8 +37577,11 @@
         <f t="shared" si="0"/>
         <v>5.8610800000000074E-2</v>
       </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37599,8 +37622,11 @@
         <f t="shared" si="0"/>
         <v>6.9012999999999991E-2</v>
       </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37641,8 +37667,11 @@
         <f t="shared" si="0"/>
         <v>8.1392199999999915E-2</v>
       </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37683,8 +37712,11 @@
         <f t="shared" si="0"/>
         <v>7.0648999999999962E-2</v>
       </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37725,8 +37757,11 @@
         <f t="shared" si="0"/>
         <v>7.9162699999999919E-2</v>
       </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37767,8 +37802,11 @@
         <f t="shared" si="0"/>
         <v>9.3481700000000112E-2</v>
       </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37809,8 +37847,11 @@
         <f t="shared" si="0"/>
         <v>0.10501859999999974</v>
       </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -37851,8 +37892,11 @@
         <f t="shared" si="0"/>
         <v>0.11550689999999997</v>
       </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -37893,8 +37937,11 @@
         <f t="shared" si="0"/>
         <v>0.13173299999999966</v>
       </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -37935,8 +37982,11 @@
         <f t="shared" si="0"/>
         <v>0.1460969999999997</v>
       </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -37977,8 +38027,11 @@
         <f t="shared" si="0"/>
         <v>0.15633099999999978</v>
       </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38019,8 +38072,11 @@
         <f t="shared" si="0"/>
         <v>0.17535400000000001</v>
       </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38061,8 +38117,11 @@
         <f t="shared" si="0"/>
         <v>0.18683899999999998</v>
       </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38103,8 +38162,11 @@
         <f t="shared" si="0"/>
         <v>0.23224700000000009</v>
       </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38145,8 +38207,11 @@
         <f t="shared" si="0"/>
         <v>0.25002000000000013</v>
       </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38187,8 +38252,11 @@
         <f t="shared" si="0"/>
         <v>0.27852199999999971</v>
       </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38229,8 +38297,11 @@
         <f t="shared" si="0"/>
         <v>0.2945310000000001</v>
       </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38271,8 +38342,11 @@
         <f t="shared" si="0"/>
         <v>0.31977500000000036</v>
       </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38313,8 +38387,11 @@
         <f t="shared" si="0"/>
         <v>0.46597199999999983</v>
       </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38355,8 +38432,11 @@
         <f t="shared" si="0"/>
         <v>0.46618899999999908</v>
       </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38397,8 +38477,11 @@
         <f t="shared" si="0"/>
         <v>0.4892720000000006</v>
       </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38439,8 +38522,11 @@
         <f t="shared" si="0"/>
         <v>0.53701500000000024</v>
       </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38481,8 +38567,11 @@
         <f t="shared" si="0"/>
         <v>0.54648500000000055</v>
       </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38523,8 +38612,11 @@
         <f t="shared" si="0"/>
         <v>1.2411969999999994E-2</v>
       </c>
+      <c r="O32" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38565,8 +38657,11 @@
         <f t="shared" si="0"/>
         <v>2.3961569999999988E-2</v>
       </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -38607,8 +38702,11 @@
         <f t="shared" si="0"/>
         <v>3.6116960000000004E-2</v>
       </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38649,8 +38747,11 @@
         <f t="shared" si="0"/>
         <v>4.8819169999999995E-2</v>
       </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -38691,8 +38792,11 @@
         <f t="shared" si="0"/>
         <v>5.9938550000000007E-2</v>
       </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38733,8 +38837,11 @@
         <f t="shared" si="0"/>
         <v>3.3978799999999976E-2</v>
       </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38775,8 +38882,11 @@
         <f t="shared" si="0"/>
         <v>4.4059599999999977E-2</v>
       </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38817,8 +38927,11 @@
         <f t="shared" si="0"/>
         <v>5.6289400000000045E-2</v>
       </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38859,8 +38972,11 @@
         <f t="shared" si="0"/>
         <v>6.8889699999999943E-2</v>
       </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38901,8 +39017,11 @@
         <f t="shared" si="0"/>
         <v>8.0447099999999994E-2</v>
       </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -38943,8 +39062,11 @@
         <f t="shared" si="0"/>
         <v>7.0449899999999843E-2</v>
       </c>
+      <c r="O42" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -38985,8 +39107,11 @@
         <f t="shared" si="0"/>
         <v>8.1897000000000109E-2</v>
       </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39027,8 +39152,11 @@
         <f t="shared" si="0"/>
         <v>9.3223300000000231E-2</v>
       </c>
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39069,8 +39197,11 @@
         <f t="shared" si="0"/>
         <v>0.10408050000000002</v>
       </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39111,8 +39242,11 @@
         <f t="shared" si="0"/>
         <v>0.11543039999999993</v>
       </c>
+      <c r="O46" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39153,8 +39287,11 @@
         <f t="shared" si="0"/>
         <v>0.12624199999999997</v>
       </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39195,8 +39332,11 @@
         <f t="shared" si="0"/>
         <v>0.13914800000000005</v>
       </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -39237,8 +39377,11 @@
         <f t="shared" si="0"/>
         <v>0.15512699999999979</v>
       </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -39279,8 +39422,11 @@
         <f t="shared" si="0"/>
         <v>0.1641499999999998</v>
       </c>
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -39321,8 +39467,11 @@
         <f t="shared" si="0"/>
         <v>0.18407899999999966</v>
       </c>
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -39363,8 +39512,11 @@
         <f t="shared" si="0"/>
         <v>0.24015699999999995</v>
       </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -39405,8 +39557,11 @@
         <f t="shared" si="0"/>
         <v>0.25003399999999987</v>
       </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -39447,8 +39602,11 @@
         <f t="shared" si="0"/>
         <v>0.27531599999999967</v>
       </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -39489,8 +39647,11 @@
         <f t="shared" si="0"/>
         <v>0.30329499999999987</v>
       </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -39531,8 +39692,11 @@
         <f t="shared" si="0"/>
         <v>0.29083400000000026</v>
       </c>
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -39573,8 +39737,11 @@
         <f t="shared" si="0"/>
         <v>0.46728300000000011</v>
       </c>
+      <c r="O57" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -39615,8 +39782,11 @@
         <f t="shared" si="0"/>
         <v>0.46314000000000011</v>
       </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -39657,8 +39827,11 @@
         <f t="shared" si="0"/>
         <v>0.48937600000000003</v>
       </c>
+      <c r="O59" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -39699,8 +39872,11 @@
         <f t="shared" si="0"/>
         <v>0.53889600000000026</v>
       </c>
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -39741,8 +39917,11 @@
         <f t="shared" si="0"/>
         <v>0.54988300000000034</v>
       </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -39783,8 +39962,11 @@
         <f>I62-H62</f>
         <v>1.9167000000000045E-2</v>
       </c>
+      <c r="O62" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -39825,8 +40007,11 @@
         <f t="shared" ref="M63:M121" si="1">I63-H63</f>
         <v>3.1092000000000009E-2</v>
       </c>
+      <c r="O63" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -39867,8 +40052,11 @@
         <f t="shared" si="1"/>
         <v>4.4053000000000009E-2</v>
       </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -39909,8 +40097,11 @@
         <f t="shared" si="1"/>
         <v>5.7030999999999943E-2</v>
       </c>
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -39951,8 +40142,11 @@
         <f t="shared" si="1"/>
         <v>7.201499999999994E-2</v>
       </c>
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -39993,8 +40187,11 @@
         <f t="shared" si="1"/>
         <v>6.5379999999999772E-2</v>
       </c>
+      <c r="O67" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40035,8 +40232,11 @@
         <f t="shared" si="1"/>
         <v>7.2680000000000078E-2</v>
       </c>
+      <c r="O68" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40077,8 +40277,11 @@
         <f t="shared" si="1"/>
         <v>8.5339999999999971E-2</v>
       </c>
+      <c r="O69" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40119,8 +40322,11 @@
         <f t="shared" si="1"/>
         <v>9.8840000000000039E-2</v>
       </c>
+      <c r="O70" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -40161,8 +40367,11 @@
         <f t="shared" si="1"/>
         <v>0.11314000000000002</v>
       </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -40203,8 +40412,11 @@
         <f t="shared" si="1"/>
         <v>0.15741000000000049</v>
       </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -40245,8 +40457,11 @@
         <f t="shared" si="1"/>
         <v>0.14853999999999967</v>
       </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -40287,8 +40502,11 @@
         <f t="shared" si="1"/>
         <v>0.17234999999999978</v>
       </c>
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -40329,8 +40547,11 @@
         <f t="shared" si="1"/>
         <v>0.1935399999999996</v>
       </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -40371,8 +40592,11 @@
         <f t="shared" si="1"/>
         <v>0.20730000000000004</v>
       </c>
+      <c r="O76" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -40413,8 +40637,11 @@
         <f t="shared" si="1"/>
         <v>0.29589999999999961</v>
       </c>
+      <c r="O77" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -40455,8 +40682,11 @@
         <f t="shared" si="1"/>
         <v>0.2921099999999992</v>
       </c>
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -40497,8 +40727,11 @@
         <f t="shared" si="1"/>
         <v>0.30215999999999887</v>
       </c>
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -40539,8 +40772,11 @@
         <f t="shared" si="1"/>
         <v>0.3591899999999999</v>
       </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -40581,8 +40817,11 @@
         <f t="shared" si="1"/>
         <v>0.37758000000000003</v>
       </c>
+      <c r="O81" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -40623,8 +40862,11 @@
         <f t="shared" si="1"/>
         <v>0.59609999999999808</v>
       </c>
+      <c r="O82" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -40665,8 +40907,11 @@
         <f t="shared" si="1"/>
         <v>0.59849999999999959</v>
       </c>
+      <c r="O83" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -40707,8 +40952,11 @@
         <f t="shared" si="1"/>
         <v>0.60640000000000072</v>
       </c>
+      <c r="O84" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -40749,8 +40997,11 @@
         <f t="shared" si="1"/>
         <v>0.60219999999999985</v>
       </c>
+      <c r="O85" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -40791,8 +41042,11 @@
         <f t="shared" si="1"/>
         <v>0.69960000000000022</v>
       </c>
+      <c r="O86" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -40837,8 +41091,11 @@
         <f>H87-(G87+F87)</f>
         <v>3.2433499999999995</v>
       </c>
+      <c r="O87" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -40879,8 +41136,11 @@
         <f t="shared" si="1"/>
         <v>1.1047000000000011</v>
       </c>
+      <c r="O88" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -40921,8 +41181,11 @@
         <f t="shared" si="1"/>
         <v>1.1035000000000004</v>
       </c>
+      <c r="O89" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -40963,8 +41226,11 @@
         <f t="shared" si="1"/>
         <v>1.0975999999999999</v>
       </c>
+      <c r="O90" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -41005,8 +41271,11 @@
         <f t="shared" si="1"/>
         <v>1.1008999999999993</v>
       </c>
+      <c r="O91" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -41047,8 +41316,11 @@
         <f t="shared" si="1"/>
         <v>1.0846000000000022E-2</v>
       </c>
+      <c r="O92" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -41089,8 +41361,11 @@
         <f t="shared" si="1"/>
         <v>2.3556000000000021E-2</v>
       </c>
+      <c r="O93" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -41131,8 +41406,11 @@
         <f t="shared" si="1"/>
         <v>3.5283999999999982E-2</v>
       </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -41173,8 +41451,11 @@
         <f t="shared" si="1"/>
         <v>4.8586000000000018E-2</v>
       </c>
+      <c r="O95" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -41215,8 +41496,11 @@
         <f t="shared" si="1"/>
         <v>6.0997999999999997E-2</v>
       </c>
+      <c r="O96" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -41257,8 +41541,11 @@
         <f t="shared" si="1"/>
         <v>3.2409999999999828E-2</v>
       </c>
+      <c r="O97" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -41299,8 +41586,11 @@
         <f t="shared" si="1"/>
         <v>4.3020000000000058E-2</v>
       </c>
+      <c r="O98" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -41341,8 +41631,11 @@
         <f t="shared" si="1"/>
         <v>5.4079999999999906E-2</v>
       </c>
+      <c r="O99" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -41383,8 +41676,11 @@
         <f t="shared" si="1"/>
         <v>5.9989999999999988E-2</v>
       </c>
+      <c r="O100" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -41425,8 +41721,11 @@
         <f t="shared" si="1"/>
         <v>7.9460000000000086E-2</v>
       </c>
+      <c r="O101" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -41467,8 +41766,11 @@
         <f t="shared" si="1"/>
         <v>7.0640000000000036E-2</v>
       </c>
+      <c r="O102" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -41509,8 +41811,11 @@
         <f t="shared" si="1"/>
         <v>7.9600000000000115E-2</v>
       </c>
+      <c r="O103" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -41551,8 +41856,11 @@
         <f t="shared" si="1"/>
         <v>8.5570000000000146E-2</v>
       </c>
+      <c r="O104" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -41593,8 +41901,11 @@
         <f t="shared" si="1"/>
         <v>0.10186999999999991</v>
       </c>
+      <c r="O105" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -41635,8 +41946,11 @@
         <f t="shared" si="1"/>
         <v>0.1122099999999997</v>
       </c>
+      <c r="O106" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -41677,8 +41991,11 @@
         <f t="shared" si="1"/>
         <v>0.13297000000000025</v>
       </c>
+      <c r="O107" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -41719,8 +42036,11 @@
         <f t="shared" si="1"/>
         <v>0.13588000000000022</v>
       </c>
+      <c r="O108" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -41761,8 +42081,11 @@
         <f t="shared" si="1"/>
         <v>0.14522999999999975</v>
       </c>
+      <c r="O109" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -41803,8 +42126,11 @@
         <f t="shared" si="1"/>
         <v>0.15566000000000013</v>
       </c>
+      <c r="O110" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -41845,8 +42171,11 @@
         <f t="shared" si="1"/>
         <v>0.16844000000000037</v>
       </c>
+      <c r="O111" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -41887,8 +42216,11 @@
         <f t="shared" si="1"/>
         <v>0.23852000000000029</v>
       </c>
+      <c r="O112" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -41929,8 +42261,11 @@
         <f t="shared" si="1"/>
         <v>0.23398999999999948</v>
       </c>
+      <c r="O113" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -41971,8 +42306,11 @@
         <f t="shared" si="1"/>
         <v>0.25283999999999995</v>
       </c>
+      <c r="O114" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -42013,8 +42351,11 @@
         <f t="shared" si="1"/>
         <v>0.26379999999999981</v>
       </c>
+      <c r="O115" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -42055,8 +42396,11 @@
         <f t="shared" si="1"/>
         <v>0.27608999999999995</v>
       </c>
+      <c r="O116" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -42101,8 +42445,11 @@
         <f>H117-(G117+F117)</f>
         <v>0.83060299999999998</v>
       </c>
+      <c r="O117" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -42143,8 +42490,11 @@
         <f t="shared" si="1"/>
         <v>0.46080000000000076</v>
       </c>
+      <c r="O118" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -42185,8 +42535,11 @@
         <f t="shared" si="1"/>
         <v>0.46560000000000024</v>
       </c>
+      <c r="O119" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -42227,8 +42580,11 @@
         <f t="shared" si="1"/>
         <v>0.47749999999999915</v>
       </c>
+      <c r="O120" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -42268,6 +42624,9 @@
       <c r="M121">
         <f t="shared" si="1"/>
         <v>0.48789999999999978</v>
+      </c>
+      <c r="O121" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -43351,7 +43710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN22" workbookViewId="0">
+    <sheetView topLeftCell="AN22" workbookViewId="0">
       <selection activeCell="BL44" sqref="BL44"/>
     </sheetView>
   </sheetViews>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -774,22 +774,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6231.77</c:v>
+                  <c:v>6237.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4242.5200000000004</c:v>
+                  <c:v>4355.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>811.85</c:v>
+                  <c:v>803.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445.05</c:v>
+                  <c:v>425.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.16699999999997</c:v>
+                  <c:v>339.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.55</c:v>
+                  <c:v>174.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,22 +823,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7930.33</c:v>
+                  <c:v>6188.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4511.4799999999996</c:v>
+                  <c:v>4126.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>696.48299999999995</c:v>
+                  <c:v>709.11699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469.35</c:v>
+                  <c:v>461.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>287.233</c:v>
+                  <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.03299999999999</c:v>
+                  <c:v>192.267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,22 +872,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6866.8</c:v>
+                  <c:v>6957.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>812.88300000000004</c:v>
+                  <c:v>829.63300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393.25</c:v>
+                  <c:v>408.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.78300000000002</c:v>
+                  <c:v>285.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.483</c:v>
+                  <c:v>155.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.63300000000001</c:v>
+                  <c:v>131.43299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,22 +921,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4209.68</c:v>
+                  <c:v>3458.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.56700000000001</c:v>
+                  <c:v>427.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.03299999999999</c:v>
+                  <c:v>209.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.93299999999999</c:v>
+                  <c:v>176.78299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.433300000000003</c:v>
+                  <c:v>64.966700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.5167</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1075,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1410,22 +1410,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12814700000000001</c:v>
+                  <c:v>0.128195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49454199999999998</c:v>
+                  <c:v>0.494008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0911</c:v>
+                  <c:v>1.07968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9540900000000001</c:v>
+                  <c:v>1.9441900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0775600000000001</c:v>
+                  <c:v>3.0827300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7986300000000002</c:v>
+                  <c:v>4.7920199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,19 +1874,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>120.4</c:v>
+                  <c:v>119.583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.767</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1740.75</c:v>
+                  <c:v>891.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3995.25</c:v>
+                  <c:v>1775.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4248.87</c:v>
+                  <c:v>2207.5700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2030,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4400"/>
+          <c:max val="2300"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2149,7 +2149,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2391,10 +2391,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0320200000000002</c:v>
+                  <c:v>6.0637400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21052100000000001</c:v>
+                  <c:v>0.23036100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,16 +2734,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.7986300000000002</c:v>
+                  <c:v>4.7920199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.347248</c:v>
+                  <c:v>0.36239900000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42016999999999999</c:v>
+                  <c:v>0.43077399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46597199999999983</c:v>
+                  <c:v>0.47854699999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,22 +2972,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7930.33</c:v>
+                  <c:v>6188.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4511.4799999999996</c:v>
+                  <c:v>4126.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>696.48299999999995</c:v>
+                  <c:v>709.11699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469.35</c:v>
+                  <c:v>461.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>287.233</c:v>
+                  <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.03299999999999</c:v>
+                  <c:v>192.267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,22 +3021,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8568.4699999999993</c:v>
+                  <c:v>7569.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7146.73</c:v>
+                  <c:v>6133.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6573.23</c:v>
+                  <c:v>4610.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4473.97</c:v>
+                  <c:v>2891.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1681.63</c:v>
+                  <c:v>884.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.667</c:v>
+                  <c:v>156.81700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,22 +3070,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8488.07</c:v>
+                  <c:v>8101.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7828.52</c:v>
+                  <c:v>6426.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6507.67</c:v>
+                  <c:v>5852.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6331.18</c:v>
+                  <c:v>4357.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5351.13</c:v>
+                  <c:v>2906.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3475.88</c:v>
+                  <c:v>1581.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,22 +3119,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8616.3799999999992</c:v>
+                  <c:v>8180.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8003.37</c:v>
+                  <c:v>7323.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6898.08</c:v>
+                  <c:v>6152.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6967.55</c:v>
+                  <c:v>4775.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5850.95</c:v>
+                  <c:v>3468.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4506.42</c:v>
+                  <c:v>2204.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,22 +3168,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8368.0499999999993</c:v>
+                  <c:v>7941.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8006.18</c:v>
+                  <c:v>7427.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6985.1</c:v>
+                  <c:v>6297.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7234.63</c:v>
+                  <c:v>4961.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5835.53</c:v>
+                  <c:v>3722.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4544.75</c:v>
+                  <c:v>2525.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,22 +3653,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7930.33</c:v>
+                  <c:v>6188.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4511.4799999999996</c:v>
+                  <c:v>4126.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>696.48299999999995</c:v>
+                  <c:v>709.11699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469.35</c:v>
+                  <c:v>461.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>287.233</c:v>
+                  <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.03299999999999</c:v>
+                  <c:v>192.267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3817,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="6500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4116,22 +4116,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15393299999999999</c:v>
+                  <c:v>0.15251300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60041900000000004</c:v>
+                  <c:v>0.60048100000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3474999999999999</c:v>
+                  <c:v>1.3480799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4142000000000001</c:v>
+                  <c:v>2.42197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.90415</c:v>
+                  <c:v>3.93458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2942400000000003</c:v>
+                  <c:v>6.3273299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,22 +4586,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.127856</c:v>
+                  <c:v>0.128746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50525600000000004</c:v>
+                  <c:v>0.50561100000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13887</c:v>
+                  <c:v>1.1392100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0401500000000001</c:v>
+                  <c:v>2.0425900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.23821</c:v>
+                  <c:v>3.2438600000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0620099999999999</c:v>
+                  <c:v>5.0709099999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,19 +5052,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>154.03299999999999</c:v>
+                  <c:v>192.267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.667</c:v>
+                  <c:v>156.81700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3475.88</c:v>
+                  <c:v>1581.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4506.42</c:v>
+                  <c:v>2204.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4544.75</c:v>
+                  <c:v>2525.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,7 +5208,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4600"/>
+          <c:max val="2600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5327,7 +5327,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5569,10 +5569,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.2942400000000003</c:v>
+                  <c:v>6.3273299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210758</c:v>
+                  <c:v>0.27427299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,22 +5801,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6921.67</c:v>
+                  <c:v>6899.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7267.59</c:v>
+                  <c:v>7694.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4048.42</c:v>
+                  <c:v>3841.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4626.63</c:v>
+                  <c:v>4675.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2203.2800000000002</c:v>
+                  <c:v>2167.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.96700000000001</c:v>
+                  <c:v>159.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,22 +5850,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8568.4699999999993</c:v>
+                  <c:v>7569.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7146.73</c:v>
+                  <c:v>6133.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6573.23</c:v>
+                  <c:v>4610.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4473.97</c:v>
+                  <c:v>2891.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1681.63</c:v>
+                  <c:v>884.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.667</c:v>
+                  <c:v>156.81700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,22 +5899,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8303.35</c:v>
+                  <c:v>7803.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6465.23</c:v>
+                  <c:v>6376.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4409.5</c:v>
+                  <c:v>4361.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>756.75</c:v>
+                  <c:v>1052.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.38300000000001</c:v>
+                  <c:v>135.833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.533299999999997</c:v>
+                  <c:v>85.616699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5948,22 +5948,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7180.98</c:v>
+                  <c:v>6089.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5041.95</c:v>
+                  <c:v>3503.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.167</c:v>
+                  <c:v>171.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.3</c:v>
+                  <c:v>101.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.366699999999994</c:v>
+                  <c:v>64.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>40.666699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6534,16 +6534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0620099999999999</c:v>
+                  <c:v>5.0709099999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34651500000000002</c:v>
+                  <c:v>0.35525899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41843200000000003</c:v>
+                  <c:v>0.425481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46728300000000011</c:v>
+                  <c:v>0.47568000000000055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6772,22 +6772,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4209.68</c:v>
+                  <c:v>3458.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.56700000000001</c:v>
+                  <c:v>427.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.03299999999999</c:v>
+                  <c:v>209.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.93299999999999</c:v>
+                  <c:v>176.78299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.433300000000003</c:v>
+                  <c:v>64.966700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.5167</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6821,22 +6821,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7180.98</c:v>
+                  <c:v>6089.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5041.95</c:v>
+                  <c:v>3503.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.167</c:v>
+                  <c:v>171.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.3</c:v>
+                  <c:v>101.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.366699999999994</c:v>
+                  <c:v>64.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>40.666699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,22 +6870,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7983.33</c:v>
+                  <c:v>6651.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6510.03</c:v>
+                  <c:v>5529.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4217.63</c:v>
+                  <c:v>4606.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>353.21699999999998</c:v>
+                  <c:v>343.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.783299999999997</c:v>
+                  <c:v>64.933300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.366700000000002</c:v>
+                  <c:v>41.2333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6919,22 +6919,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8302.0300000000007</c:v>
+                  <c:v>6828.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6953.95</c:v>
+                  <c:v>6842.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5910.22</c:v>
+                  <c:v>5363.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3002.75</c:v>
+                  <c:v>3343.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.459000000000003</c:v>
+                  <c:v>65.416700000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.7667</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6968,22 +6968,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8699.3700000000008</c:v>
+                  <c:v>7071.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7362.93</c:v>
+                  <c:v>7081.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5783.68</c:v>
+                  <c:v>5546.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4266.93</c:v>
+                  <c:v>4121.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1943.13</c:v>
+                  <c:v>1915.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.15</c:v>
+                  <c:v>41.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7122,7 +7122,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="7500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7453,22 +7453,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4209.68</c:v>
+                  <c:v>3458.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.56700000000001</c:v>
+                  <c:v>427.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.03299999999999</c:v>
+                  <c:v>209.13300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.93299999999999</c:v>
+                  <c:v>176.78299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.433300000000003</c:v>
+                  <c:v>64.966700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.5167</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7617,7 +7617,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500"/>
+          <c:max val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7916,22 +7916,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.60983799999999999</c:v>
+                  <c:v>0.61111700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8908299999999998</c:v>
+                  <c:v>2.8833000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0208700000000004</c:v>
+                  <c:v>6.0126299999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.443</c:v>
+                  <c:v>10.456799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.384799999999998</c:v>
+                  <c:v>16.633700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.799900000000001</c:v>
+                  <c:v>25.9069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8386,22 +8386,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.50944400000000001</c:v>
+                  <c:v>0.51068000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4761199999999999</c:v>
+                  <c:v>2.4673400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0483700000000002</c:v>
+                  <c:v>5.0496699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5633300000000006</c:v>
+                  <c:v>8.5655800000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.1669</c:v>
+                  <c:v>13.2395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.086400000000001</c:v>
+                  <c:v>20.0976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8847,19 +8847,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>38.5167</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>40.666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.366700000000002</c:v>
+                  <c:v>41.2333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.7667</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.15</c:v>
+                  <c:v>41.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9364,10 +9364,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.799900000000001</c:v>
+                  <c:v>25.9069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22121499999999999</c:v>
+                  <c:v>0.219219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9707,16 +9707,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.086400000000001</c:v>
+                  <c:v>20.0976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.37165</c:v>
+                  <c:v>1.40358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2433499999999995</c:v>
+                  <c:v>3.2975199999999987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0985000000000014</c:v>
+                  <c:v>1.1082000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9945,22 +9945,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6866.8</c:v>
+                  <c:v>6957.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>812.88300000000004</c:v>
+                  <c:v>829.63300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393.25</c:v>
+                  <c:v>408.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.78300000000002</c:v>
+                  <c:v>285.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.483</c:v>
+                  <c:v>155.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.63300000000001</c:v>
+                  <c:v>131.43299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9994,22 +9994,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8303.35</c:v>
+                  <c:v>7803.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6465.23</c:v>
+                  <c:v>6376.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4409.5</c:v>
+                  <c:v>4361.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>756.75</c:v>
+                  <c:v>1052.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.38300000000001</c:v>
+                  <c:v>135.833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.533299999999997</c:v>
+                  <c:v>85.616699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10043,22 +10043,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8166.62</c:v>
+                  <c:v>8368.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7045.52</c:v>
+                  <c:v>6885.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3969.08</c:v>
+                  <c:v>3752.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3127.33</c:v>
+                  <c:v>4546.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2375.17</c:v>
+                  <c:v>2385.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.916700000000006</c:v>
+                  <c:v>87.0167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10092,22 +10092,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8544</c:v>
+                  <c:v>8497.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5932.65</c:v>
+                  <c:v>5757.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6272.03</c:v>
+                  <c:v>6388.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3947.72</c:v>
+                  <c:v>5711.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4456.95</c:v>
+                  <c:v>4426.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020.8</c:v>
+                  <c:v>1680.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10141,22 +10141,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8524.65</c:v>
+                  <c:v>7994.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7901.2</c:v>
+                  <c:v>8551.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6050.77</c:v>
+                  <c:v>6434.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5711.42</c:v>
+                  <c:v>6312.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5159.6000000000004</c:v>
+                  <c:v>5165.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3361.31</c:v>
+                  <c:v>3368.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10626,22 +10626,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6866.8</c:v>
+                  <c:v>6957.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>812.88300000000004</c:v>
+                  <c:v>829.63300000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393.25</c:v>
+                  <c:v>408.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.78300000000002</c:v>
+                  <c:v>285.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.483</c:v>
+                  <c:v>155.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.63300000000001</c:v>
+                  <c:v>131.43299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11080,22 +11080,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7002.17</c:v>
+                  <c:v>7007.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8521.17</c:v>
+                  <c:v>8446.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6601.9</c:v>
+                  <c:v>6503.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6477.72</c:v>
+                  <c:v>6348.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5391.5</c:v>
+                  <c:v>5286.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3445.92</c:v>
+                  <c:v>1597.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11129,22 +11129,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8488.07</c:v>
+                  <c:v>8101.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7828.52</c:v>
+                  <c:v>6426.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6507.67</c:v>
+                  <c:v>5852.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6331.18</c:v>
+                  <c:v>4357.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5351.13</c:v>
+                  <c:v>2906.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3475.88</c:v>
+                  <c:v>1581.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11178,22 +11178,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8166.62</c:v>
+                  <c:v>8368.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7045.52</c:v>
+                  <c:v>6885.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3969.08</c:v>
+                  <c:v>3752.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3127.33</c:v>
+                  <c:v>4546.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2375.17</c:v>
+                  <c:v>2385.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.916700000000006</c:v>
+                  <c:v>87.0167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11227,22 +11227,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7983.33</c:v>
+                  <c:v>6651.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6510.03</c:v>
+                  <c:v>5529.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4217.63</c:v>
+                  <c:v>4606.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>353.21699999999998</c:v>
+                  <c:v>343.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.783299999999997</c:v>
+                  <c:v>64.933300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.366700000000002</c:v>
+                  <c:v>41.2333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11711,22 +11711,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.29161100000000001</c:v>
+                  <c:v>0.293464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2422899999999999</c:v>
+                  <c:v>1.24214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.57985</c:v>
+                  <c:v>2.5865900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5704099999999999</c:v>
+                  <c:v>4.5756100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2707100000000002</c:v>
+                  <c:v>7.2591999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.615600000000001</c:v>
+                  <c:v>11.6144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12181,22 +12181,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25325500000000001</c:v>
+                  <c:v>0.25656299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0874900000000001</c:v>
+                  <c:v>1.0865499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2325599999999999</c:v>
+                  <c:v>2.2388599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9375200000000001</c:v>
+                  <c:v>3.9445299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1886200000000002</c:v>
+                  <c:v>6.1826499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6343099999999993</c:v>
+                  <c:v>9.6228800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12642,19 +12642,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62.55</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.45</c:v>
+                  <c:v>63.633299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.333299999999994</c:v>
+                  <c:v>65.366699999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.7</c:v>
+                  <c:v>90.683300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1961.62</c:v>
+                  <c:v>1927.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13159,10 +13159,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11.615600000000001</c:v>
+                  <c:v>11.6144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22028</c:v>
+                  <c:v>0.22037200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13502,16 +13502,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6343099999999993</c:v>
+                  <c:v>9.6228800000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69228699999999999</c:v>
+                  <c:v>0.69130800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83060299999999998</c:v>
+                  <c:v>0.83581200000000067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45840000000000103</c:v>
+                  <c:v>0.46439999999999948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13740,22 +13740,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7034.08</c:v>
+                  <c:v>7029.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8010.6</c:v>
+                  <c:v>7986.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6951.28</c:v>
+                  <c:v>7047.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7173.23</c:v>
+                  <c:v>6968.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5867.33</c:v>
+                  <c:v>5889.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4472.05</c:v>
+                  <c:v>2211.8000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13789,22 +13789,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8616.3799999999992</c:v>
+                  <c:v>8180.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8003.37</c:v>
+                  <c:v>7323.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6898.08</c:v>
+                  <c:v>6152.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6967.55</c:v>
+                  <c:v>4775.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5850.95</c:v>
+                  <c:v>3468.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4506.42</c:v>
+                  <c:v>2204.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13838,22 +13838,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8544</c:v>
+                  <c:v>8497.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5932.65</c:v>
+                  <c:v>5757.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6272.03</c:v>
+                  <c:v>6388.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3947.72</c:v>
+                  <c:v>5711.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4456.95</c:v>
+                  <c:v>4426.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020.8</c:v>
+                  <c:v>1680.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13887,22 +13887,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8302.0300000000007</c:v>
+                  <c:v>6828.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6953.95</c:v>
+                  <c:v>6842.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5910.22</c:v>
+                  <c:v>5363.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3002.75</c:v>
+                  <c:v>3343.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.459000000000003</c:v>
+                  <c:v>65.416700000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.7667</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14362,22 +14362,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7157.73</c:v>
+                  <c:v>7232.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8161.3</c:v>
+                  <c:v>8237.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7067.38</c:v>
+                  <c:v>6883.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7262</c:v>
+                  <c:v>7243.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5847.53</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4590.88</c:v>
+                  <c:v>2534.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14411,22 +14411,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8368.0499999999993</c:v>
+                  <c:v>7941.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8006.18</c:v>
+                  <c:v>7427.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6985.1</c:v>
+                  <c:v>6297.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7234.63</c:v>
+                  <c:v>4961.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5835.53</c:v>
+                  <c:v>3722.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4544.75</c:v>
+                  <c:v>2525.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14460,22 +14460,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8524.65</c:v>
+                  <c:v>7994.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7901.2</c:v>
+                  <c:v>8551.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6050.77</c:v>
+                  <c:v>6434.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5711.42</c:v>
+                  <c:v>6312.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5159.6000000000004</c:v>
+                  <c:v>5165.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3361.31</c:v>
+                  <c:v>3368.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14509,22 +14509,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8699.3700000000008</c:v>
+                  <c:v>7071.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7362.93</c:v>
+                  <c:v>7081.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5783.68</c:v>
+                  <c:v>5546.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4266.93</c:v>
+                  <c:v>4121.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1943.13</c:v>
+                  <c:v>1915.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.15</c:v>
+                  <c:v>41.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14975,16 +14975,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0320200000000002</c:v>
+                  <c:v>6.0637400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2942400000000003</c:v>
+                  <c:v>6.3273299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.615600000000001</c:v>
+                  <c:v>11.6144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.799900000000001</c:v>
+                  <c:v>25.9069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15408,22 +15408,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6231.77</c:v>
+                  <c:v>6237.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4242.5200000000004</c:v>
+                  <c:v>4355.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>811.85</c:v>
+                  <c:v>803.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445.05</c:v>
+                  <c:v>425.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.16699999999997</c:v>
+                  <c:v>339.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.55</c:v>
+                  <c:v>174.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15457,22 +15457,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6921.67</c:v>
+                  <c:v>6899.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7267.59</c:v>
+                  <c:v>7694.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4048.42</c:v>
+                  <c:v>3841.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4626.63</c:v>
+                  <c:v>4675.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2203.2800000000002</c:v>
+                  <c:v>2167.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161.96700000000001</c:v>
+                  <c:v>159.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15506,22 +15506,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7002.17</c:v>
+                  <c:v>7007.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8521.17</c:v>
+                  <c:v>8446.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6601.9</c:v>
+                  <c:v>6503.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6477.72</c:v>
+                  <c:v>6348.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5391.5</c:v>
+                  <c:v>5286.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3445.92</c:v>
+                  <c:v>1597.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15555,22 +15555,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7034.08</c:v>
+                  <c:v>7029.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8010.6</c:v>
+                  <c:v>7986.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6951.28</c:v>
+                  <c:v>7047.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7173.23</c:v>
+                  <c:v>6968.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5867.33</c:v>
+                  <c:v>5889.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4472.05</c:v>
+                  <c:v>2211.8000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15604,22 +15604,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7157.73</c:v>
+                  <c:v>7232.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8161.3</c:v>
+                  <c:v>8237.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7067.38</c:v>
+                  <c:v>6883.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7262</c:v>
+                  <c:v>7243.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5847.53</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4590.88</c:v>
+                  <c:v>2534.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16093,22 +16093,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6231.77</c:v>
+                  <c:v>6237.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4242.5200000000004</c:v>
+                  <c:v>4355.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>811.85</c:v>
+                  <c:v>803.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445.05</c:v>
+                  <c:v>425.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.16699999999997</c:v>
+                  <c:v>339.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.55</c:v>
+                  <c:v>174.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16556,22 +16556,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15293699999999999</c:v>
+                  <c:v>0.15288399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59037899999999999</c:v>
+                  <c:v>0.58996700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.30118</c:v>
+                  <c:v>1.2900400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3358099999999999</c:v>
+                  <c:v>2.32247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7275499999999999</c:v>
+                  <c:v>3.7453599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0320200000000002</c:v>
+                  <c:v>6.0637400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36044,13 +36044,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>514351</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:colOff>428626</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -36076,15 +36076,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
+      <xdr:colOff>342902</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>219077</xdr:colOff>
+      <xdr:colOff>257177</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36809,52 +36809,52 @@
       <sheetData sheetId="0">
         <row r="27">
           <cell r="K27">
-            <v>120.4</v>
+            <v>119.583</v>
           </cell>
         </row>
         <row r="28">
           <cell r="K28">
-            <v>123.767</v>
+            <v>121.5</v>
           </cell>
         </row>
         <row r="29">
           <cell r="K29">
-            <v>1740.75</v>
+            <v>891.1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="K30">
-            <v>3995.25</v>
+            <v>1775.88</v>
           </cell>
         </row>
         <row r="31">
           <cell r="K31">
-            <v>4248.87</v>
+            <v>2207.5700000000002</v>
           </cell>
         </row>
         <row r="117">
           <cell r="K117">
-            <v>62.55</v>
+            <v>62.4</v>
           </cell>
         </row>
         <row r="118">
           <cell r="K118">
-            <v>64.45</v>
+            <v>63.633299999999998</v>
           </cell>
         </row>
         <row r="119">
           <cell r="K119">
-            <v>65.333299999999994</v>
+            <v>65.366699999999994</v>
           </cell>
         </row>
         <row r="120">
           <cell r="K120">
-            <v>93.7</v>
+            <v>90.683300000000003</v>
           </cell>
         </row>
         <row r="121">
           <cell r="K121">
-            <v>1961.62</v>
+            <v>1927.35</v>
           </cell>
         </row>
       </sheetData>
@@ -37164,10 +37164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G111" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37177,7 +37177,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37221,7 +37221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37238,35 +37238,43 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.12814700000000001</v>
+        <v>0.128195</v>
       </c>
       <c r="G2">
-        <v>5.1688599999999999E-3</v>
+        <v>5.1448800000000001E-3</v>
       </c>
       <c r="H2">
-        <v>8.7727199999999995E-3</v>
+        <v>8.7077200000000004E-3</v>
       </c>
       <c r="I2">
-        <v>0.15293699999999999</v>
+        <v>0.15288399999999999</v>
       </c>
       <c r="J2">
-        <v>0.135098</v>
+        <v>0.13500699999999999</v>
       </c>
       <c r="K2">
-        <v>6231.77</v>
+        <v>6237.64</v>
       </c>
       <c r="L2">
-        <v>55850</v>
+        <v>55824</v>
       </c>
       <c r="M2">
         <f>I2-(H2+G2+F2)</f>
-        <v>1.084841999999997E-2</v>
+        <v>1.0836399999999996E-2</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
+      <c r="P2">
+        <f>I7/I2</f>
+        <v>3.8589191805551923</v>
+      </c>
+      <c r="Q2">
+        <f>K2/K7</f>
+        <v>1.4320966112590687</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37283,35 +37291,43 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.124519</v>
+        <v>0.12439500000000001</v>
       </c>
       <c r="G3">
-        <v>5.1845499999999996E-3</v>
+        <v>5.11963E-3</v>
       </c>
       <c r="H3">
-        <v>8.7986699999999998E-3</v>
+        <v>8.7405299999999998E-3</v>
       </c>
       <c r="I3">
-        <v>0.16095499999999999</v>
+        <v>0.160498</v>
       </c>
       <c r="J3">
-        <v>0.139547</v>
+        <v>0.140042</v>
       </c>
       <c r="K3">
-        <v>6921.67</v>
+        <v>6899.77</v>
       </c>
       <c r="L3">
-        <v>11844</v>
+        <v>11842</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M61" si="0">I3-(H3+G3+F3)</f>
-        <v>2.2452779999999978E-2</v>
+        <v>2.2242839999999986E-2</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="1">I8/I3</f>
+        <v>3.6233722538598609</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="2">K3/K8</f>
+        <v>0.89667141875041434</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37328,35 +37344,43 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0.119824</v>
+        <v>0.120058</v>
       </c>
       <c r="G4">
-        <v>5.176E-3</v>
+        <v>5.1391099999999997E-3</v>
       </c>
       <c r="H4">
-        <v>8.7808299999999999E-3</v>
+        <v>8.7593399999999991E-3</v>
       </c>
       <c r="I4">
-        <v>0.167185</v>
+        <v>0.16719999999999999</v>
       </c>
       <c r="J4">
-        <v>0.140154</v>
+        <v>0.14006399999999999</v>
       </c>
       <c r="K4">
-        <v>7002.17</v>
+        <v>7007.4</v>
       </c>
       <c r="L4">
         <v>5965</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>3.3404170000000011E-2</v>
+        <v>3.3243549999999983E-2</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>3.495209330143541</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>0.82962861232497032</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37373,35 +37397,43 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.11942800000000001</v>
+        <v>0.119375</v>
       </c>
       <c r="G5">
-        <v>5.18462E-3</v>
+        <v>5.1658499999999996E-3</v>
       </c>
       <c r="H5">
-        <v>8.7989499999999998E-3</v>
+        <v>8.76562E-3</v>
       </c>
       <c r="I5">
-        <v>0.17785400000000001</v>
+        <v>0.177422</v>
       </c>
       <c r="J5">
-        <v>0.14018</v>
+        <v>0.14033300000000001</v>
       </c>
       <c r="K5">
-        <v>7034.08</v>
+        <v>7029.55</v>
       </c>
       <c r="L5">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4.4442430000000005E-2</v>
+        <v>4.4115530000000014E-2</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>3.3478655409137534</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0.88022313770175675</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37418,35 +37450,43 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.115619</v>
+        <v>0.115108</v>
       </c>
       <c r="G6">
-        <v>5.2300100000000002E-3</v>
+        <v>5.1925799999999996E-3</v>
       </c>
       <c r="H6">
-        <v>8.7978899999999992E-3</v>
+        <v>8.7463599999999999E-3</v>
       </c>
       <c r="I6">
-        <v>0.185643</v>
+        <v>0.185422</v>
       </c>
       <c r="J6">
-        <v>0.13808999999999999</v>
+        <v>0.136659</v>
       </c>
       <c r="K6">
-        <v>7157.73</v>
+        <v>7232.75</v>
       </c>
       <c r="L6">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>5.5996099999999993E-2</v>
+        <v>5.6375060000000005E-2</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
       </c>
+      <c r="P6">
+        <f>I11/I6</f>
+        <v>3.2756684751539726</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0.87798148321240888</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37463,35 +37503,43 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.49454199999999998</v>
+        <v>0.494008</v>
       </c>
       <c r="G7">
-        <v>2.5101800000000001E-2</v>
+        <v>2.4864299999999999E-2</v>
       </c>
       <c r="H7">
-        <v>3.7306600000000002E-2</v>
+        <v>3.7046700000000002E-2</v>
       </c>
       <c r="I7">
-        <v>0.59037899999999999</v>
+        <v>0.58996700000000002</v>
       </c>
       <c r="J7">
-        <v>0.10556699999999999</v>
+        <v>0.103023</v>
       </c>
       <c r="K7">
-        <v>4242.5200000000004</v>
+        <v>4355.6000000000004</v>
       </c>
       <c r="L7">
-        <v>56426</v>
+        <v>56345</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3.3428600000000031E-2</v>
+        <v>3.4047999999999967E-2</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
       </c>
+      <c r="P7">
+        <f>I12/I7</f>
+        <v>2.1866307776536655</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>5.4177498600659248</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37508,35 +37556,43 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.47568899999999997</v>
+        <v>0.47416399999999997</v>
       </c>
       <c r="G8">
-        <v>2.49821E-2</v>
+        <v>2.4895299999999999E-2</v>
       </c>
       <c r="H8">
-        <v>3.6940300000000002E-2</v>
+        <v>3.7001899999999997E-2</v>
       </c>
       <c r="I8">
-        <v>0.58192999999999995</v>
+        <v>0.58154399999999995</v>
       </c>
       <c r="J8">
-        <v>0.120322</v>
+        <v>0.113658</v>
       </c>
       <c r="K8">
-        <v>7267.59</v>
+        <v>7694.87</v>
       </c>
       <c r="L8">
-        <v>11860</v>
+        <v>11867</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.4318599999999986E-2</v>
+        <v>4.5482799999999934E-2</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2.2150000687824138</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>2.0029439478575033</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37553,35 +37609,43 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.46489399999999997</v>
+        <v>0.46377600000000002</v>
       </c>
       <c r="G9">
-        <v>2.5035499999999999E-2</v>
+        <v>2.4988099999999999E-2</v>
       </c>
       <c r="H9">
-        <v>3.7133699999999999E-2</v>
+        <v>3.7156799999999997E-2</v>
       </c>
       <c r="I9">
-        <v>0.58567400000000003</v>
+        <v>0.584399</v>
       </c>
       <c r="J9">
-        <v>0.11017299999999999</v>
+        <v>0.111234</v>
       </c>
       <c r="K9">
-        <v>8521.17</v>
+        <v>8446.43</v>
       </c>
       <c r="L9">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>5.8610800000000074E-2</v>
+        <v>5.8478099999999977E-2</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>2.2269545293540887</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>1.2987873885953638</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37598,35 +37662,43 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.464972</v>
+        <v>0.463117</v>
       </c>
       <c r="G10">
-        <v>2.5154900000000001E-2</v>
+        <v>2.5027000000000001E-2</v>
       </c>
       <c r="H10">
-        <v>3.70891E-2</v>
+        <v>3.7067700000000002E-2</v>
       </c>
       <c r="I10">
-        <v>0.59622900000000001</v>
+        <v>0.59398499999999999</v>
       </c>
       <c r="J10">
-        <v>0.11951100000000001</v>
+        <v>0.11994</v>
       </c>
       <c r="K10">
-        <v>8010.6</v>
+        <v>7986.1</v>
       </c>
       <c r="L10">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>6.9012999999999991E-2</v>
+        <v>6.8773299999999926E-2</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>2.2292145424547756</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>1.1332109227337486</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37643,35 +37715,43 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.46483600000000003</v>
+        <v>0.46368300000000001</v>
       </c>
       <c r="G11">
-        <v>2.5091499999999999E-2</v>
+        <v>2.5016500000000001E-2</v>
       </c>
       <c r="H11">
-        <v>3.7055299999999999E-2</v>
+        <v>3.7092E-2</v>
       </c>
       <c r="I11">
-        <v>0.608375</v>
+        <v>0.60738099999999995</v>
       </c>
       <c r="J11">
-        <v>0.118505</v>
+        <v>0.117399</v>
       </c>
       <c r="K11">
-        <v>8161.3</v>
+        <v>8237.93</v>
       </c>
       <c r="L11">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.1392199999999915E-2</v>
+        <v>8.1589499999999981E-2</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>2.1789124124725672</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.1967682044547236</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37688,35 +37768,43 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0911</v>
+        <v>1.07968</v>
       </c>
       <c r="G12">
-        <v>5.6610300000000002E-2</v>
+        <v>5.6652599999999997E-2</v>
       </c>
       <c r="H12">
-        <v>8.2820699999999997E-2</v>
+        <v>8.2513199999999995E-2</v>
       </c>
       <c r="I12">
-        <v>1.30118</v>
+        <v>1.2900400000000001</v>
       </c>
       <c r="J12">
-        <v>9.3453599999999998E-2</v>
+        <v>9.2062599999999994E-2</v>
       </c>
       <c r="K12">
-        <v>811.85</v>
+        <v>803.95</v>
       </c>
       <c r="L12">
-        <v>43019</v>
+        <v>43409</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.0648999999999962E-2</v>
+        <v>7.1194200000000096E-2</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>1.8003085175653468</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1.88927768234191</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37733,35 +37821,43 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.0788500000000001</v>
+        <v>1.0693699999999999</v>
       </c>
       <c r="G13">
-        <v>5.7054399999999998E-2</v>
+        <v>5.7040800000000003E-2</v>
       </c>
       <c r="H13">
-        <v>8.3292900000000003E-2</v>
+        <v>8.2892199999999999E-2</v>
       </c>
       <c r="I13">
-        <v>1.29836</v>
+        <v>1.2881199999999999</v>
       </c>
       <c r="J13">
-        <v>0.18271899999999999</v>
+        <v>0.19354099999999999</v>
       </c>
       <c r="K13">
-        <v>4048.42</v>
+        <v>3841.78</v>
       </c>
       <c r="L13">
-        <v>11695</v>
+        <v>11667</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>7.9162699999999919E-2</v>
+        <v>7.8816999999999915E-2</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1.7957643697792132</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0.82172718036468639</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37778,35 +37874,43 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1.0663499999999999</v>
+        <v>1.0668</v>
       </c>
       <c r="G14">
-        <v>5.6689000000000003E-2</v>
+        <v>5.7029299999999998E-2</v>
       </c>
       <c r="H14">
-        <v>8.2989300000000002E-2</v>
+        <v>8.3384899999999998E-2</v>
       </c>
       <c r="I14">
-        <v>1.2995099999999999</v>
+        <v>1.3014300000000001</v>
       </c>
       <c r="J14">
-        <v>0.13131899999999999</v>
+        <v>0.13342200000000001</v>
       </c>
       <c r="K14">
-        <v>6601.9</v>
+        <v>6503.32</v>
       </c>
       <c r="L14">
-        <v>5953</v>
+        <v>5952</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>9.3481700000000112E-2</v>
+        <v>9.4215800000000183E-2</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1.7950177881253697</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1.0244594796827371</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37823,35 +37927,43 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1.0684400000000001</v>
+        <v>1.0746800000000001</v>
       </c>
       <c r="G15">
-        <v>5.6940299999999999E-2</v>
+        <v>5.7959900000000002E-2</v>
       </c>
       <c r="H15">
-        <v>8.3101099999999997E-2</v>
+        <v>8.3966100000000002E-2</v>
       </c>
       <c r="I15">
-        <v>1.3134999999999999</v>
+        <v>1.32412</v>
       </c>
       <c r="J15">
-        <v>0.13101199999999999</v>
+        <v>0.12897900000000001</v>
       </c>
       <c r="K15">
-        <v>6951.28</v>
+        <v>7047.32</v>
       </c>
       <c r="L15">
         <v>3979</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.10501859999999974</v>
+        <v>0.10751399999999989</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>1.7907818022535722</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>1.0113108990457056</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -37868,35 +37980,43 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.0700099999999999</v>
+        <v>1.0659400000000001</v>
       </c>
       <c r="G16">
-        <v>5.6775399999999997E-2</v>
+        <v>5.7898600000000001E-2</v>
       </c>
       <c r="H16">
-        <v>8.3037700000000006E-2</v>
+        <v>8.33589E-2</v>
       </c>
       <c r="I16">
-        <v>1.3253299999999999</v>
+        <v>1.3234300000000001</v>
       </c>
       <c r="J16">
-        <v>0.13181000000000001</v>
+        <v>0.13541400000000001</v>
       </c>
       <c r="K16">
-        <v>7067.38</v>
+        <v>6883.48</v>
       </c>
       <c r="L16">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.11550689999999997</v>
+        <v>0.11623249999999996</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1.8151847849905169</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0.95030406781298959</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -37913,35 +38033,43 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.9540900000000001</v>
+        <v>1.9441900000000001</v>
       </c>
       <c r="G17">
-        <v>0.10212300000000001</v>
+        <v>0.102701</v>
       </c>
       <c r="H17">
-        <v>0.147864</v>
+        <v>0.14780299999999999</v>
       </c>
       <c r="I17">
-        <v>2.3358099999999999</v>
+        <v>2.32247</v>
       </c>
       <c r="J17">
-        <v>0.12336</v>
+        <v>0.12438399999999999</v>
       </c>
       <c r="K17">
-        <v>445.05</v>
+        <v>425.53300000000002</v>
       </c>
       <c r="L17">
-        <v>24397</v>
+        <v>24520</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.13173299999999966</v>
+        <v>0.12777599999999989</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>1.6126623809995391</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>1.25316358774557</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -37958,35 +38086,43 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.93496</v>
+        <v>1.92073</v>
       </c>
       <c r="G18">
-        <v>0.103626</v>
+        <v>0.10424</v>
       </c>
       <c r="H18">
-        <v>0.148337</v>
+        <v>0.148287</v>
       </c>
       <c r="I18">
-        <v>2.3330199999999999</v>
+        <v>2.3131599999999999</v>
       </c>
       <c r="J18">
-        <v>0.115676</v>
+        <v>0.115728</v>
       </c>
       <c r="K18">
-        <v>4626.63</v>
+        <v>4675.25</v>
       </c>
       <c r="L18">
-        <v>11839</v>
+        <v>11834</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.1460969999999997</v>
+        <v>0.13990299999999989</v>
       </c>
       <c r="O18" t="s">
         <v>24</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1.6157377786231821</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>2.1572269004498787</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38003,35 +38139,43 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1.94045</v>
+        <v>1.93024</v>
       </c>
       <c r="G19">
-        <v>0.102672</v>
+        <v>0.10374800000000001</v>
       </c>
       <c r="H19">
-        <v>0.14788699999999999</v>
+        <v>0.148117</v>
       </c>
       <c r="I19">
-        <v>2.34734</v>
+        <v>2.33609</v>
       </c>
       <c r="J19">
-        <v>0.117579</v>
+        <v>0.120436</v>
       </c>
       <c r="K19">
-        <v>6477.72</v>
+        <v>6348.05</v>
       </c>
       <c r="L19">
-        <v>5954</v>
+        <v>5953</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.15633099999999978</v>
+        <v>0.15398500000000004</v>
       </c>
       <c r="O19" t="s">
         <v>24</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.63048512685727</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>1.2007357948097148</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38048,35 +38192,43 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1.9459500000000001</v>
+        <v>1.9501299999999999</v>
       </c>
       <c r="G20">
-        <v>0.107601</v>
+        <v>0.104648</v>
       </c>
       <c r="H20">
-        <v>0.15001500000000001</v>
+        <v>0.14904800000000001</v>
       </c>
       <c r="I20">
-        <v>2.3789199999999999</v>
+        <v>2.37121</v>
       </c>
       <c r="J20">
-        <v>0.11679</v>
+        <v>0.120479</v>
       </c>
       <c r="K20">
-        <v>7173.23</v>
+        <v>6968.5</v>
       </c>
       <c r="L20">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.17535400000000001</v>
+        <v>0.1673840000000002</v>
       </c>
       <c r="O20" t="s">
         <v>24</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1.6304840144904922</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>1.1831411093359232</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38093,35 +38245,43 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>1.94862</v>
+        <v>1.95451</v>
       </c>
       <c r="G21">
-        <v>0.11003300000000001</v>
+        <v>0.110517</v>
       </c>
       <c r="H21">
-        <v>0.15154799999999999</v>
+        <v>0.15218100000000001</v>
       </c>
       <c r="I21">
-        <v>2.3970400000000001</v>
+        <v>2.4022700000000001</v>
       </c>
       <c r="J21">
-        <v>0.120753</v>
+        <v>0.121104</v>
       </c>
       <c r="K21">
-        <v>7262</v>
+        <v>7243.45</v>
       </c>
       <c r="L21">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.18683899999999998</v>
+        <v>0.18506200000000028</v>
       </c>
       <c r="O21" t="s">
         <v>24</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>1.6053191356508634</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>1.2411668951336532</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38138,35 +38298,43 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3.0775600000000001</v>
+        <v>3.0827300000000002</v>
       </c>
       <c r="G22">
-        <v>0.17765700000000001</v>
+        <v>0.18096100000000001</v>
       </c>
       <c r="H22">
-        <v>0.24008599999999999</v>
+        <v>0.243561</v>
       </c>
       <c r="I22">
-        <v>3.7275499999999999</v>
+        <v>3.7453599999999998</v>
       </c>
       <c r="J22">
-        <v>0.18224899999999999</v>
+        <v>0.18413199999999999</v>
       </c>
       <c r="K22">
-        <v>261.16699999999997</v>
+        <v>339.56700000000001</v>
       </c>
       <c r="L22">
-        <v>15346</v>
+        <v>15269</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.23224700000000009</v>
+        <v>0.23810799999999954</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1.6190005767135871</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>1.945385276425093</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38183,35 +38351,43 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.0600999999999998</v>
+        <v>3.0604900000000002</v>
       </c>
       <c r="G23">
-        <v>0.18978</v>
+        <v>0.185639</v>
       </c>
       <c r="H23">
-        <v>0.24728</v>
+        <v>0.24550900000000001</v>
       </c>
       <c r="I23">
-        <v>3.7471800000000002</v>
+        <v>3.73746</v>
       </c>
       <c r="J23">
-        <v>0.11995699999999999</v>
+        <v>0.121471</v>
       </c>
       <c r="K23">
-        <v>2203.2800000000002</v>
+        <v>2167.25</v>
       </c>
       <c r="L23">
         <v>11766</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.25002000000000013</v>
+        <v>0.24582199999999998</v>
       </c>
       <c r="O23" t="s">
         <v>24</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>1.6045710188202684</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>13.609105180533753</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38228,35 +38404,43 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>3.0887600000000002</v>
+        <v>3.0833400000000002</v>
       </c>
       <c r="G24">
-        <v>0.19522900000000001</v>
+        <v>0.193548</v>
       </c>
       <c r="H24">
-        <v>0.25541900000000001</v>
+        <v>0.254133</v>
       </c>
       <c r="I24">
-        <v>3.81793</v>
+        <v>3.8089599999999999</v>
       </c>
       <c r="J24">
-        <v>0.11469699999999999</v>
+        <v>0.115852</v>
       </c>
       <c r="K24">
-        <v>5391.5</v>
+        <v>5286.8</v>
       </c>
       <c r="L24">
-        <v>5945</v>
+        <v>5944</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.27852199999999971</v>
+        <v>0.27793899999999994</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>1.5858055742249852</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>3.3086546464981512</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38273,35 +38457,43 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>3.1031200000000001</v>
+        <v>3.09815</v>
       </c>
       <c r="G25">
-        <v>0.206867</v>
+        <v>0.20081199999999999</v>
       </c>
       <c r="H25">
-        <v>0.25824200000000003</v>
+        <v>0.26136100000000001</v>
       </c>
       <c r="I25">
-        <v>3.8627600000000002</v>
+        <v>3.8662200000000002</v>
       </c>
       <c r="J25">
-        <v>0.126328</v>
+        <v>0.126023</v>
       </c>
       <c r="K25">
-        <v>5867.33</v>
+        <v>5889.83</v>
       </c>
       <c r="L25">
         <v>3973</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.2945310000000001</v>
+        <v>0.30589700000000031</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1.5719902126624972</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>2.6629125599059589</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38318,35 +38510,43 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3.1004399999999999</v>
+        <v>3.1103800000000001</v>
       </c>
       <c r="G26">
-        <v>0.20680799999999999</v>
+        <v>0.208509</v>
       </c>
       <c r="H26">
-        <v>0.266567</v>
+        <v>0.24937200000000001</v>
       </c>
       <c r="I26">
-        <v>3.8935900000000001</v>
+        <v>3.8564099999999999</v>
       </c>
       <c r="J26">
-        <v>0.13753000000000001</v>
+        <v>0.13817499999999999</v>
       </c>
       <c r="K26">
-        <v>5847.53</v>
+        <v>5836</v>
       </c>
       <c r="L26">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.31977500000000036</v>
+        <v>0.28814899999999977</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1.5746795594866729</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>2.3021877884638142</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38363,35 +38563,43 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4.7986300000000002</v>
+        <v>4.7920199999999999</v>
       </c>
       <c r="G27">
-        <v>0.347248</v>
+        <v>0.36239900000000003</v>
       </c>
       <c r="H27">
-        <v>0.42016999999999999</v>
+        <v>0.43077399999999999</v>
       </c>
       <c r="I27">
-        <v>6.0320200000000002</v>
+        <v>6.0637400000000001</v>
       </c>
       <c r="J27">
-        <v>0.21052100000000001</v>
+        <v>0.23036100000000001</v>
       </c>
       <c r="K27">
-        <v>223.55</v>
+        <v>174.55</v>
       </c>
       <c r="L27">
-        <v>9612</v>
+        <v>9533</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.46597199999999983</v>
+        <v>0.47854699999999983</v>
       </c>
       <c r="O27" t="s">
         <v>23</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>2.5151639087427891E-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>2.8206135056565787E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -38408,35 +38616,43 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>4.7105300000000003</v>
+        <v>4.7296500000000004</v>
       </c>
       <c r="G28">
-        <v>0.34486800000000001</v>
+        <v>0.35767599999999999</v>
       </c>
       <c r="H28">
-        <v>0.41725299999999999</v>
+        <v>0.42936400000000002</v>
       </c>
       <c r="I28">
-        <v>5.9388399999999999</v>
+        <v>5.99702</v>
       </c>
       <c r="J28">
-        <v>0.227405</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="K28">
-        <v>161.96700000000001</v>
+        <v>159.25</v>
       </c>
       <c r="L28">
-        <v>9730</v>
+        <v>9570</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>0.46618899999999908</v>
+        <v>0.48032999999999948</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>2.734674888527969E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>2.1038044181874389E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -38453,35 +38669,43 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>4.73217</v>
+        <v>4.7293799999999999</v>
       </c>
       <c r="G29">
-        <v>0.35905399999999998</v>
+        <v>0.37846600000000002</v>
       </c>
       <c r="H29">
-        <v>0.42731400000000003</v>
+        <v>0.43801000000000001</v>
       </c>
       <c r="I29">
-        <v>6.0078100000000001</v>
+        <v>6.0402699999999996</v>
       </c>
       <c r="J29">
-        <v>0.115714</v>
+        <v>0.25185600000000002</v>
       </c>
       <c r="K29">
-        <v>3445.92</v>
+        <v>1597.87</v>
       </c>
       <c r="L29">
-        <v>5946</v>
+        <v>5905</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>0.4892720000000006</v>
+        <v>0.49441399999999991</v>
       </c>
       <c r="O29" t="s">
         <v>24</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>2.9050688131490813E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>0.19722042224402767</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -38498,35 +38722,43 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>4.7442000000000002</v>
+        <v>4.7316399999999996</v>
       </c>
       <c r="G30">
-        <v>0.37176199999999998</v>
+        <v>0.39013900000000001</v>
       </c>
       <c r="H30">
-        <v>0.446073</v>
+        <v>0.44545200000000001</v>
       </c>
       <c r="I30">
-        <v>6.0990500000000001</v>
+        <v>6.0776599999999998</v>
       </c>
       <c r="J30">
-        <v>0.13183600000000001</v>
+        <v>0.26905600000000002</v>
       </c>
       <c r="K30">
-        <v>4472.05</v>
+        <v>2211.8000000000002</v>
       </c>
       <c r="L30">
-        <v>3968</v>
+        <v>3958</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.53701500000000024</v>
+        <v>0.51042900000000024</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>3.0911567938976516E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>0.2703829345068916</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -38543,35 +38775,43 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>4.73597</v>
+        <v>4.7473200000000002</v>
       </c>
       <c r="G31">
-        <v>0.36897400000000002</v>
+        <v>0.37479299999999999</v>
       </c>
       <c r="H31">
-        <v>0.44414100000000001</v>
+        <v>0.44071900000000003</v>
       </c>
       <c r="I31">
-        <v>6.0955700000000004</v>
+        <v>6.0726100000000001</v>
       </c>
       <c r="J31">
-        <v>0.15151200000000001</v>
+        <v>0.27439400000000003</v>
       </c>
       <c r="K31">
-        <v>4590.88</v>
+        <v>2534.98</v>
       </c>
       <c r="L31">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0.54648500000000055</v>
+        <v>0.50977799999999984</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>3.2684957538850673E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>0.31918740666685136</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -38588,35 +38828,43 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.127856</v>
+        <v>0.128746</v>
       </c>
       <c r="G32">
-        <v>5.1211499999999997E-3</v>
+        <v>4.6126500000000003E-3</v>
       </c>
       <c r="H32">
-        <v>8.5438800000000002E-3</v>
+        <v>8.3425900000000004E-3</v>
       </c>
       <c r="I32">
-        <v>0.15393299999999999</v>
+        <v>0.15251300000000001</v>
       </c>
       <c r="J32">
-        <v>0.107237</v>
+        <v>0.137352</v>
       </c>
       <c r="K32">
-        <v>7930.33</v>
+        <v>6188.37</v>
       </c>
       <c r="L32">
-        <v>56695</v>
+        <v>55706</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>1.2411969999999994E-2</v>
+        <v>1.0811760000000004E-2</v>
       </c>
       <c r="O32" t="s">
         <v>23</v>
       </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>3.9372446938949466</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>1.4996728446521008</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -38633,35 +38881,43 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>0.127497</v>
+        <v>0.12811900000000001</v>
       </c>
       <c r="G33">
-        <v>5.1193499999999999E-3</v>
+        <v>4.5932600000000001E-3</v>
       </c>
       <c r="H33">
-        <v>8.5420800000000005E-3</v>
+        <v>8.3787400000000008E-3</v>
       </c>
       <c r="I33">
-        <v>0.16511999999999999</v>
+        <v>0.16399900000000001</v>
       </c>
       <c r="J33">
-        <v>0.112451</v>
+        <v>0.12710299999999999</v>
       </c>
       <c r="K33">
-        <v>8568.4699999999993</v>
+        <v>7569.62</v>
       </c>
       <c r="L33">
-        <v>11881</v>
+        <v>11832</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>2.3961569999999988E-2</v>
+        <v>2.2907999999999984E-2</v>
       </c>
       <c r="O33" t="s">
         <v>23</v>
       </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>3.7264251611290309</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>1.2342100414630606</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -38678,35 +38934,43 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0.127716</v>
+        <v>0.127389</v>
       </c>
       <c r="G34">
-        <v>5.1396499999999999E-3</v>
+        <v>4.5897000000000004E-3</v>
       </c>
       <c r="H34">
-        <v>8.5463899999999992E-3</v>
+        <v>8.3638700000000007E-3</v>
       </c>
       <c r="I34">
-        <v>0.17751900000000001</v>
+        <v>0.17547399999999999</v>
       </c>
       <c r="J34">
-        <v>0.11525299999999999</v>
+        <v>0.12099699999999999</v>
       </c>
       <c r="K34">
-        <v>8488.07</v>
+        <v>8101.95</v>
       </c>
       <c r="L34">
-        <v>5974</v>
+        <v>5970</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>3.6116960000000004E-2</v>
+        <v>3.5131429999999991E-2</v>
       </c>
       <c r="O34" t="s">
         <v>23</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>3.548833445410716</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>1.2607821503766652</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -38723,35 +38987,43 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>0.12792999999999999</v>
+        <v>0.12772500000000001</v>
       </c>
       <c r="G35">
-        <v>5.13629E-3</v>
+        <v>4.5822500000000004E-3</v>
       </c>
       <c r="H35">
-        <v>8.54654E-3</v>
+        <v>8.3687399999999995E-3</v>
       </c>
       <c r="I35">
-        <v>0.19043199999999999</v>
+        <v>0.18787000000000001</v>
       </c>
       <c r="J35">
-        <v>0.11441999999999999</v>
+        <v>0.12041200000000001</v>
       </c>
       <c r="K35">
-        <v>8616.3799999999992</v>
+        <v>8180.25</v>
       </c>
       <c r="L35">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>4.8819169999999995E-2</v>
+        <v>4.7194010000000008E-2</v>
       </c>
       <c r="O35" t="s">
         <v>23</v>
       </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>3.1730771278011392</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>1.1169986154010012</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -38768,35 +39040,43 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>0.12794900000000001</v>
+        <v>0.12786500000000001</v>
       </c>
       <c r="G36">
-        <v>5.1283099999999996E-3</v>
+        <v>4.5962299999999998E-3</v>
       </c>
       <c r="H36">
-        <v>8.5321400000000006E-3</v>
+        <v>8.3660399999999999E-3</v>
       </c>
       <c r="I36">
-        <v>0.201548</v>
+        <v>0.19848299999999999</v>
       </c>
       <c r="J36">
-        <v>0.117989</v>
+        <v>0.124547</v>
       </c>
       <c r="K36">
-        <v>8368.0499999999993</v>
+        <v>7941.98</v>
       </c>
       <c r="L36">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>5.9938550000000007E-2</v>
+        <v>5.7655729999999988E-2</v>
       </c>
       <c r="O36" t="s">
         <v>23</v>
       </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>3.0676833784253561</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>1.0692352431163263</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -38813,35 +39093,43 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.50525600000000004</v>
+        <v>0.50561100000000003</v>
       </c>
       <c r="G37">
-        <v>2.4916399999999998E-2</v>
+        <v>2.4907700000000001E-2</v>
       </c>
       <c r="H37">
-        <v>3.6267800000000003E-2</v>
+        <v>3.6442500000000003E-2</v>
       </c>
       <c r="I37">
-        <v>0.60041900000000004</v>
+        <v>0.60048100000000004</v>
       </c>
       <c r="J37">
-        <v>9.5159599999999997E-2</v>
+        <v>0.10656400000000001</v>
       </c>
       <c r="K37">
-        <v>4511.4799999999996</v>
+        <v>4126.4799999999996</v>
       </c>
       <c r="L37">
-        <v>57097</v>
+        <v>56339</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>3.3978799999999976E-2</v>
+        <v>3.3519799999999988E-2</v>
       </c>
       <c r="O37" t="s">
         <v>23</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>2.2450002581264017</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>5.8191807557850108</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -38858,35 +39146,43 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>0.50457799999999997</v>
+        <v>0.50675999999999999</v>
       </c>
       <c r="G38">
-        <v>2.4934999999999999E-2</v>
+        <v>2.4950799999999999E-2</v>
       </c>
       <c r="H38">
-        <v>3.62414E-2</v>
+        <v>3.6625600000000001E-2</v>
       </c>
       <c r="I38">
-        <v>0.60981399999999997</v>
+        <v>0.61112999999999995</v>
       </c>
       <c r="J38">
-        <v>0.12237199999999999</v>
+        <v>0.14208799999999999</v>
       </c>
       <c r="K38">
-        <v>7146.73</v>
+        <v>6133.17</v>
       </c>
       <c r="L38">
-        <v>11858</v>
+        <v>11829</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>4.4059599999999977E-2</v>
+        <v>4.2793599999999987E-2</v>
       </c>
       <c r="O38" t="s">
         <v>23</v>
       </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>2.2275620571727783</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>1.3303190681734376</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -38903,35 +39199,43 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.50508399999999998</v>
+        <v>0.50827299999999997</v>
       </c>
       <c r="G39">
-        <v>2.4932200000000002E-2</v>
+        <v>2.49476E-2</v>
       </c>
       <c r="H39">
-        <v>3.6244400000000003E-2</v>
+        <v>3.6647699999999998E-2</v>
       </c>
       <c r="I39">
-        <v>0.62255000000000005</v>
+        <v>0.62272799999999995</v>
       </c>
       <c r="J39">
-        <v>0.11945500000000001</v>
+        <v>0.14557300000000001</v>
       </c>
       <c r="K39">
-        <v>7828.52</v>
+        <v>6426.13</v>
       </c>
       <c r="L39">
-        <v>5971</v>
+        <v>5960</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>5.6289400000000045E-2</v>
+        <v>5.2859699999999954E-2</v>
       </c>
       <c r="O39" t="s">
         <v>23</v>
       </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>2.0983800310890151</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>1.0979957625670642</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -38948,35 +39252,43 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>0.463758</v>
+        <v>0.46732899999999999</v>
       </c>
       <c r="G40">
-        <v>2.5022699999999998E-2</v>
+        <v>2.4969100000000001E-2</v>
       </c>
       <c r="H40">
-        <v>3.6313600000000001E-2</v>
+        <v>3.6623500000000003E-2</v>
       </c>
       <c r="I40">
-        <v>0.59398399999999996</v>
+        <v>0.59612600000000004</v>
       </c>
       <c r="J40">
-        <v>0.11966400000000001</v>
+        <v>0.13055</v>
       </c>
       <c r="K40">
-        <v>8003.37</v>
+        <v>7323.42</v>
       </c>
       <c r="L40">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>6.8889699999999943E-2</v>
+        <v>6.7204400000000053E-2</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>2.2302332057316741</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>1.1903896542980306</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -38993,35 +39305,43 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>0.46336300000000002</v>
+        <v>0.46820200000000001</v>
       </c>
       <c r="G41">
-        <v>2.4974099999999999E-2</v>
+        <v>2.5100999999999998E-2</v>
       </c>
       <c r="H41">
-        <v>3.6252800000000002E-2</v>
+        <v>3.6711300000000002E-2</v>
       </c>
       <c r="I41">
-        <v>0.60503700000000005</v>
+        <v>0.60888299999999995</v>
       </c>
       <c r="J41">
-        <v>0.120769</v>
+        <v>0.13025700000000001</v>
       </c>
       <c r="K41">
-        <v>8006.18</v>
+        <v>7427.72</v>
       </c>
       <c r="L41">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>8.0447099999999994E-2</v>
+        <v>7.8868699999999903E-2</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>2.2152531767186803</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>1.1793963067054098</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -39038,35 +39358,43 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.13887</v>
+        <v>1.1392100000000001</v>
       </c>
       <c r="G42">
-        <v>5.6490100000000001E-2</v>
+        <v>5.6536400000000001E-2</v>
       </c>
       <c r="H42">
-        <v>8.1689999999999999E-2</v>
+        <v>8.2111799999999999E-2</v>
       </c>
       <c r="I42">
-        <v>1.3474999999999999</v>
+        <v>1.3480799999999999</v>
       </c>
       <c r="J42">
-        <v>9.2998700000000004E-2</v>
+        <v>0.110953</v>
       </c>
       <c r="K42">
-        <v>696.48299999999995</v>
+        <v>709.11699999999996</v>
       </c>
       <c r="L42">
-        <v>41649</v>
+        <v>41120</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>7.0449899999999843E-2</v>
+        <v>7.022179999999989E-2</v>
       </c>
       <c r="O42" t="s">
         <v>23</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>1.7966070262892411</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>1.5375477016478751</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39083,35 +39411,43 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>1.1371</v>
+        <v>1.1413899999999999</v>
       </c>
       <c r="G43">
-        <v>5.6599099999999999E-2</v>
+        <v>5.7115800000000001E-2</v>
       </c>
       <c r="H43">
-        <v>8.1713900000000006E-2</v>
+        <v>8.2544500000000007E-2</v>
       </c>
       <c r="I43">
-        <v>1.35731</v>
+        <v>1.3613299999999999</v>
       </c>
       <c r="J43">
-        <v>0.110883</v>
+        <v>0.15792300000000001</v>
       </c>
       <c r="K43">
-        <v>6573.23</v>
+        <v>4610.3</v>
       </c>
       <c r="L43">
-        <v>11878</v>
+        <v>11810</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>8.1897000000000109E-2</v>
+        <v>8.0279699999999954E-2</v>
       </c>
       <c r="O43" t="s">
         <v>23</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>1.8025019649901202</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>1.5943933572419136</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39128,35 +39464,43 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>1.0643899999999999</v>
+        <v>1.0726599999999999</v>
       </c>
       <c r="G44">
-        <v>5.6545699999999997E-2</v>
+        <v>5.8335499999999998E-2</v>
       </c>
       <c r="H44">
-        <v>8.1781000000000006E-2</v>
+        <v>8.3244600000000002E-2</v>
       </c>
       <c r="I44">
-        <v>1.2959400000000001</v>
+        <v>1.3067200000000001</v>
       </c>
       <c r="J44">
-        <v>0.133544</v>
+        <v>0.14815200000000001</v>
       </c>
       <c r="K44">
-        <v>6507.67</v>
+        <v>5852.6</v>
       </c>
       <c r="L44">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>9.3223300000000231E-2</v>
+        <v>9.2479900000000059E-2</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>1.8014111668911472</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>1.3431311575860083</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39173,35 +39517,43 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1.06501</v>
+        <v>1.0797099999999999</v>
       </c>
       <c r="G45">
-        <v>5.6597500000000002E-2</v>
+        <v>5.9701999999999998E-2</v>
       </c>
       <c r="H45">
-        <v>8.1811999999999996E-2</v>
+        <v>8.4115899999999993E-2</v>
       </c>
       <c r="I45">
-        <v>1.3075000000000001</v>
+        <v>1.3294999999999999</v>
       </c>
       <c r="J45">
-        <v>0.132018</v>
+        <v>0.14779500000000001</v>
       </c>
       <c r="K45">
-        <v>6898.08</v>
+        <v>6152.12</v>
       </c>
       <c r="L45">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.10408050000000002</v>
+        <v>0.10597210000000001</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
       </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>1.7965550959007148</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>1.2882402211240471</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39218,35 +39570,43 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.0670200000000001</v>
+        <v>1.08325</v>
       </c>
       <c r="G46">
-        <v>5.7532199999999999E-2</v>
+        <v>6.1504200000000002E-2</v>
       </c>
       <c r="H46">
-        <v>8.2187399999999994E-2</v>
+        <v>8.5089799999999993E-2</v>
       </c>
       <c r="I46">
-        <v>1.3221700000000001</v>
+        <v>1.34883</v>
       </c>
       <c r="J46">
-        <v>0.133357</v>
+        <v>0.14771599999999999</v>
       </c>
       <c r="K46">
-        <v>6985.1</v>
+        <v>6297.9</v>
       </c>
       <c r="L46">
         <v>2990</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.11543039999999993</v>
+        <v>0.11898600000000004</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>1.7898697389589495</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>1.2693975204229511</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39263,35 +39623,43 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.0401500000000001</v>
+        <v>2.0425900000000001</v>
       </c>
       <c r="G47">
-        <v>0.102053</v>
+        <v>0.10302600000000001</v>
       </c>
       <c r="H47">
-        <v>0.145755</v>
+        <v>0.14681900000000001</v>
       </c>
       <c r="I47">
-        <v>2.4142000000000001</v>
+        <v>2.42197</v>
       </c>
       <c r="J47">
-        <v>0.12523999999999999</v>
+        <v>0.17207900000000001</v>
       </c>
       <c r="K47">
-        <v>469.35</v>
+        <v>461.2</v>
       </c>
       <c r="L47">
-        <v>23626</v>
+        <v>23129</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.12624199999999997</v>
+        <v>0.12953499999999973</v>
       </c>
       <c r="O47" t="s">
         <v>23</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>1.6245370504176353</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>1.7582920320243993</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39308,35 +39676,43 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2.0482900000000002</v>
+        <v>2.05389</v>
       </c>
       <c r="G48">
-        <v>0.10519100000000001</v>
+        <v>0.108445</v>
       </c>
       <c r="H48">
-        <v>0.14707100000000001</v>
+        <v>0.14931700000000001</v>
       </c>
       <c r="I48">
-        <v>2.4397000000000002</v>
+        <v>2.4538000000000002</v>
       </c>
       <c r="J48">
-        <v>0.11409999999999999</v>
+        <v>0.176373</v>
       </c>
       <c r="K48">
-        <v>4473.97</v>
+        <v>2891.57</v>
       </c>
       <c r="L48">
-        <v>11866</v>
+        <v>11804</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>0.13914800000000005</v>
+        <v>0.14214800000000016</v>
       </c>
       <c r="O48" t="s">
         <v>23</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>1.667747982720678</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>3.2682967629782098</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -39353,35 +39729,43 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1.9446399999999999</v>
+        <v>1.9463299999999999</v>
       </c>
       <c r="G49">
-        <v>0.10631699999999999</v>
+        <v>0.107614</v>
       </c>
       <c r="H49">
-        <v>0.14802599999999999</v>
+        <v>0.148675</v>
       </c>
       <c r="I49">
-        <v>2.3541099999999999</v>
+        <v>2.3539400000000001</v>
       </c>
       <c r="J49">
-        <v>0.11978999999999999</v>
+        <v>0.17400499999999999</v>
       </c>
       <c r="K49">
-        <v>6331.18</v>
+        <v>4357.43</v>
       </c>
       <c r="L49">
-        <v>5945</v>
+        <v>5938</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>0.15512699999999979</v>
+        <v>0.15132100000000026</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
       </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>1.6210226258953073</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>1.4989851801907175</v>
+      </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -39398,35 +39782,43 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>1.9519500000000001</v>
+        <v>1.95739</v>
       </c>
       <c r="G50">
-        <v>0.103966</v>
+        <v>0.113077</v>
       </c>
       <c r="H50">
-        <v>0.14679400000000001</v>
+        <v>0.15168999999999999</v>
       </c>
       <c r="I50">
-        <v>2.36686</v>
+        <v>2.3885200000000002</v>
       </c>
       <c r="J50">
-        <v>0.12066300000000001</v>
+        <v>0.17595</v>
       </c>
       <c r="K50">
-        <v>6967.55</v>
+        <v>4775.6000000000004</v>
       </c>
       <c r="L50">
-        <v>3980</v>
+        <v>3974</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>0.1641499999999998</v>
+        <v>0.16636300000000004</v>
       </c>
       <c r="O50" t="s">
         <v>24</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>1.607602197176494</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>1.3767019231046422</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -39443,35 +39835,43 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>1.95686</v>
+        <v>1.9631799999999999</v>
       </c>
       <c r="G51">
-        <v>0.109929</v>
+        <v>0.11651599999999999</v>
       </c>
       <c r="H51">
-        <v>0.150002</v>
+        <v>0.15414800000000001</v>
       </c>
       <c r="I51">
-        <v>2.4008699999999998</v>
+        <v>2.4142299999999999</v>
       </c>
       <c r="J51">
-        <v>0.121307</v>
+        <v>0.176982</v>
       </c>
       <c r="K51">
-        <v>7234.63</v>
+        <v>4961.33</v>
       </c>
       <c r="L51">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>0.18407899999999966</v>
+        <v>0.18038599999999994</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
       </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>1.6014671344486648</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>1.3326627037742387</v>
+      </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -39488,35 +39888,43 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>3.23821</v>
+        <v>3.2438600000000002</v>
       </c>
       <c r="G52">
-        <v>0.18243300000000001</v>
+        <v>0.19028700000000001</v>
       </c>
       <c r="H52">
-        <v>0.24335000000000001</v>
+        <v>0.24878800000000001</v>
       </c>
       <c r="I52">
-        <v>3.90415</v>
+        <v>3.93458</v>
       </c>
       <c r="J52">
-        <v>0.18296399999999999</v>
+        <v>0.23861399999999999</v>
       </c>
       <c r="K52">
-        <v>287.233</v>
+        <v>262.3</v>
       </c>
       <c r="L52">
-        <v>14680</v>
+        <v>14377</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>0.24015699999999995</v>
+        <v>0.2516449999999999</v>
       </c>
       <c r="O52" t="s">
         <v>23</v>
       </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>1.6081335237814456</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>1.3642486750196343</v>
+      </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -39533,35 +39941,43 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>3.38219</v>
+        <v>3.3896600000000001</v>
       </c>
       <c r="G53">
-        <v>0.18856600000000001</v>
+        <v>0.192605</v>
       </c>
       <c r="H53">
-        <v>0.24711</v>
+        <v>0.25092900000000001</v>
       </c>
       <c r="I53">
-        <v>4.0678999999999998</v>
+        <v>4.09232</v>
       </c>
       <c r="J53">
-        <v>0.11439299999999999</v>
+        <v>0.26655699999999999</v>
       </c>
       <c r="K53">
-        <v>1681.63</v>
+        <v>884.73299999999995</v>
       </c>
       <c r="L53">
-        <v>11889</v>
+        <v>11184</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>0.25003399999999987</v>
+        <v>0.25912599999999975</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
       </c>
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>1.4634339445595652</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>5.6418181702238908</v>
+      </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -39578,35 +39994,43 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>3.09016</v>
+        <v>3.08256</v>
       </c>
       <c r="G54">
-        <v>0.19645799999999999</v>
+        <v>0.19867499999999999</v>
       </c>
       <c r="H54">
-        <v>0.25236599999999998</v>
+        <v>0.257324</v>
       </c>
       <c r="I54">
-        <v>3.8142999999999998</v>
+        <v>3.8157899999999998</v>
       </c>
       <c r="J54">
-        <v>0.11508400000000001</v>
+        <v>0.21284800000000001</v>
       </c>
       <c r="K54">
-        <v>5351.13</v>
+        <v>2906.92</v>
       </c>
       <c r="L54">
-        <v>5939</v>
+        <v>5917</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>0.27531599999999967</v>
+        <v>0.27723100000000001</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
       </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>1.582283092098884</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>1.8384032582436347</v>
+      </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -39623,35 +40047,43 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>3.09287</v>
+        <v>3.09131</v>
       </c>
       <c r="G55">
-        <v>0.20258599999999999</v>
+        <v>0.20116000000000001</v>
       </c>
       <c r="H55">
-        <v>0.26055899999999999</v>
+        <v>0.25959199999999999</v>
       </c>
       <c r="I55">
-        <v>3.8593099999999998</v>
+        <v>3.8397899999999998</v>
       </c>
       <c r="J55">
-        <v>0.12651399999999999</v>
+        <v>0.21410599999999999</v>
       </c>
       <c r="K55">
-        <v>5850.95</v>
+        <v>3468.87</v>
       </c>
       <c r="L55">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>0.30329499999999987</v>
+        <v>0.28772799999999998</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
       </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>1.5827011373017796</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>1.5734762472840753</v>
+      </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -39668,35 +40100,43 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>3.1088800000000001</v>
+        <v>3.09693</v>
       </c>
       <c r="G56">
-        <v>0.21321599999999999</v>
+        <v>0.208037</v>
       </c>
       <c r="H56">
-        <v>0.25029000000000001</v>
+        <v>0.26278200000000002</v>
       </c>
       <c r="I56">
-        <v>3.8632200000000001</v>
+        <v>3.8663099999999999</v>
       </c>
       <c r="J56">
-        <v>0.13807800000000001</v>
+        <v>0.21625800000000001</v>
       </c>
       <c r="K56">
-        <v>5835.53</v>
+        <v>3722.87</v>
       </c>
       <c r="L56">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>0.29083400000000026</v>
+        <v>0.29856099999999985</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>1.5665686403832078</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>1.4740653632036997</v>
+      </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -39713,35 +40153,43 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5.0620099999999999</v>
+        <v>5.0709099999999996</v>
       </c>
       <c r="G57">
-        <v>0.34651500000000002</v>
+        <v>0.35525899999999999</v>
       </c>
       <c r="H57">
-        <v>0.41843200000000003</v>
+        <v>0.425481</v>
       </c>
       <c r="I57">
-        <v>6.2942400000000003</v>
+        <v>6.3273299999999999</v>
       </c>
       <c r="J57">
-        <v>0.210758</v>
+        <v>0.27427299999999999</v>
       </c>
       <c r="K57">
-        <v>154.03299999999999</v>
+        <v>192.267</v>
       </c>
       <c r="L57">
-        <v>9224</v>
+        <v>9089</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>0.46728300000000011</v>
+        <v>0.47568000000000055</v>
       </c>
       <c r="O57" t="s">
         <v>23</v>
       </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>9.6583709084242492E-2</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>5.5586490424646126E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -39758,35 +40206,43 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4.7214099999999997</v>
+        <v>4.7233700000000001</v>
       </c>
       <c r="G58">
-        <v>0.34224500000000002</v>
+        <v>0.35980499999999999</v>
       </c>
       <c r="H58">
-        <v>0.41616500000000001</v>
+        <v>0.42857499999999998</v>
       </c>
       <c r="I58">
-        <v>5.9429600000000002</v>
+        <v>5.9888399999999997</v>
       </c>
       <c r="J58">
-        <v>0.29266500000000001</v>
+        <v>0.36450399999999999</v>
       </c>
       <c r="K58">
-        <v>160.667</v>
+        <v>156.81700000000001</v>
       </c>
       <c r="L58">
-        <v>9621</v>
+        <v>9444</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>0.46314000000000011</v>
+        <v>0.47708999999999957</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
       </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>0.12696482123416222</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>2.5753427807073872E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -39803,35 +40259,43 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>4.7269100000000002</v>
+        <v>4.7311899999999998</v>
       </c>
       <c r="G59">
-        <v>0.362676</v>
+        <v>0.374585</v>
       </c>
       <c r="H59">
-        <v>0.42816799999999999</v>
+        <v>0.43761299999999997</v>
       </c>
       <c r="I59">
-        <v>6.0071300000000001</v>
+        <v>6.0376599999999998</v>
       </c>
       <c r="J59">
-        <v>0.116287</v>
+        <v>0.253334</v>
       </c>
       <c r="K59">
-        <v>3475.88</v>
+        <v>1581.22</v>
       </c>
       <c r="L59">
-        <v>5934</v>
+        <v>5897</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>0.48937600000000003</v>
+        <v>0.4942719999999996</v>
       </c>
       <c r="O59" t="s">
         <v>24</v>
       </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>0.11546294425323719</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>0.2377077398356873</v>
+      </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -39848,35 +40312,43 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>4.7379899999999999</v>
+        <v>4.7398600000000002</v>
       </c>
       <c r="G60">
-        <v>0.38117699999999999</v>
+        <v>0.38445499999999999</v>
       </c>
       <c r="H60">
-        <v>0.45099699999999998</v>
+        <v>0.443467</v>
       </c>
       <c r="I60">
-        <v>6.1090600000000004</v>
+        <v>6.0772399999999998</v>
       </c>
       <c r="J60">
-        <v>0.131692</v>
+        <v>0.26888099999999998</v>
       </c>
       <c r="K60">
-        <v>4506.42</v>
+        <v>2204.59</v>
       </c>
       <c r="L60">
-        <v>3964</v>
+        <v>3956</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>0.53889600000000026</v>
+        <v>0.50945799999999952</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
       </c>
+      <c r="P60">
+        <f t="shared" si="1"/>
+        <v>0.11336313852999058</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>0.32284419321535007</v>
+      </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -39893,35 +40365,43 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>4.7495599999999998</v>
+        <v>4.7392799999999999</v>
       </c>
       <c r="G61">
-        <v>0.37858599999999998</v>
+        <v>0.371695</v>
       </c>
       <c r="H61">
-        <v>0.450571</v>
+        <v>0.43931999999999999</v>
       </c>
       <c r="I61">
-        <v>6.1285999999999996</v>
+        <v>6.0568400000000002</v>
       </c>
       <c r="J61">
-        <v>0.152666</v>
+        <v>0.27656900000000001</v>
       </c>
       <c r="K61">
-        <v>4544.75</v>
+        <v>2525.58</v>
       </c>
       <c r="L61">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>0.54988300000000034</v>
+        <v>0.50654500000000002</v>
       </c>
       <c r="O61" t="s">
         <v>24</v>
       </c>
+      <c r="P61">
+        <f t="shared" si="1"/>
+        <v>9.8916596773234888E-2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>0.35714911970586155</v>
+      </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -39938,35 +40418,43 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.50944400000000001</v>
+        <v>0.51068000000000002</v>
       </c>
       <c r="G62">
-        <v>2.03459E-2</v>
+        <v>2.0445700000000001E-2</v>
       </c>
       <c r="H62">
-        <v>0.59067099999999995</v>
+        <v>0.59206899999999996</v>
       </c>
       <c r="I62">
-        <v>0.60983799999999999</v>
+        <v>0.61111700000000002</v>
       </c>
       <c r="J62">
-        <v>9.9508200000000005E-2</v>
+        <v>0.12787200000000001</v>
       </c>
       <c r="K62">
-        <v>4209.68</v>
+        <v>3458.88</v>
       </c>
       <c r="L62">
-        <v>57101</v>
+        <v>54640</v>
       </c>
       <c r="M62">
         <f>I62-H62</f>
-        <v>1.9167000000000045E-2</v>
+        <v>1.9048000000000065E-2</v>
       </c>
       <c r="O62" t="s">
         <v>23</v>
       </c>
+      <c r="P62">
+        <f t="shared" si="1"/>
+        <v>4.7180818075753086</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>8.0937872937872939</v>
+      </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -39983,35 +40471,43 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.64998599999999995</v>
+        <v>0.64866299999999999</v>
       </c>
       <c r="G63">
-        <v>2.0413500000000001E-2</v>
+        <v>2.03886E-2</v>
       </c>
       <c r="H63">
-        <v>0.73151999999999995</v>
+        <v>0.72994599999999998</v>
       </c>
       <c r="I63">
-        <v>0.76261199999999996</v>
+        <v>0.76037200000000005</v>
       </c>
       <c r="J63">
-        <v>0.117105</v>
+        <v>0.13889000000000001</v>
       </c>
       <c r="K63">
-        <v>7180.98</v>
+        <v>6089.17</v>
       </c>
       <c r="L63">
-        <v>11868</v>
+        <v>11840</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63:M121" si="1">I63-H63</f>
-        <v>3.1092000000000009E-2</v>
+        <f t="shared" ref="M63:M121" si="3">I63-H63</f>
+        <v>3.0426000000000064E-2</v>
       </c>
       <c r="O63" t="s">
         <v>23</v>
       </c>
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>3.3528457123618436</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>1.7382629845105082</v>
+      </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -40028,35 +40524,43 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.57536699999999996</v>
+        <v>0.57366600000000001</v>
       </c>
       <c r="G64">
-        <v>2.04201E-2</v>
+        <v>2.03932E-2</v>
       </c>
       <c r="H64">
-        <v>0.65695000000000003</v>
+        <v>0.65498299999999998</v>
       </c>
       <c r="I64">
-        <v>0.70100300000000004</v>
+        <v>0.69712600000000002</v>
       </c>
       <c r="J64">
-        <v>0.116204</v>
+        <v>0.139515</v>
       </c>
       <c r="K64">
-        <v>7983.33</v>
+        <v>6651.95</v>
       </c>
       <c r="L64">
-        <v>5972</v>
+        <v>5964</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
-        <v>4.4053000000000009E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2143000000000042E-2</v>
       </c>
       <c r="O64" t="s">
         <v>23</v>
       </c>
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>3.29868632069382</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>1.2030300235290714</v>
+      </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -40073,35 +40577,43 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.55518900000000004</v>
+        <v>0.55372900000000003</v>
       </c>
       <c r="G65">
-        <v>2.0412699999999999E-2</v>
+        <v>2.0394200000000001E-2</v>
       </c>
       <c r="H65">
-        <v>0.63678100000000004</v>
+        <v>0.63506200000000002</v>
       </c>
       <c r="I65">
-        <v>0.69381199999999998</v>
+        <v>0.68893499999999996</v>
       </c>
       <c r="J65">
-        <v>0.11457299999999999</v>
+        <v>0.139401</v>
       </c>
       <c r="K65">
-        <v>8302.0300000000007</v>
+        <v>6828.65</v>
       </c>
       <c r="L65">
-        <v>3990</v>
+        <v>3985</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
-        <v>5.7030999999999943E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.3872999999999949E-2</v>
       </c>
       <c r="O65" t="s">
         <v>23</v>
       </c>
+      <c r="P65">
+        <f t="shared" si="1"/>
+        <v>3.3506934616473254</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>0.99804152264306745</v>
+      </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -40118,35 +40630,43 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>0.45246700000000001</v>
+        <v>0.451156</v>
       </c>
       <c r="G66">
-        <v>2.0421100000000001E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="H66">
-        <v>0.53408500000000003</v>
+        <v>0.53259299999999998</v>
       </c>
       <c r="I66">
-        <v>0.60609999999999997</v>
+        <v>0.59912200000000004</v>
       </c>
       <c r="J66">
-        <v>0.111092</v>
+        <v>0.136827</v>
       </c>
       <c r="K66">
-        <v>8699.3700000000008</v>
+        <v>7071.5</v>
       </c>
       <c r="L66">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
-        <v>7.201499999999994E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.652900000000006E-2</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
       </c>
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>3.8825481287617545</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>0.99861184269056802</v>
+      </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -40163,35 +40683,43 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2.4761199999999999</v>
+        <v>2.4673400000000001</v>
       </c>
       <c r="G67">
-        <v>9.9685899999999994E-2</v>
+        <v>9.9452600000000002E-2</v>
       </c>
       <c r="H67">
-        <v>2.82545</v>
+        <v>2.81833</v>
       </c>
       <c r="I67">
-        <v>2.8908299999999998</v>
+        <v>2.8833000000000002</v>
       </c>
       <c r="J67">
-        <v>9.2526999999999998E-2</v>
+        <v>0.12947800000000001</v>
       </c>
       <c r="K67">
-        <v>392.56700000000001</v>
+        <v>427.35</v>
       </c>
       <c r="L67">
-        <v>20111</v>
+        <v>19915</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
-        <v>6.5379999999999772E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4970000000000194E-2</v>
       </c>
       <c r="O67" t="s">
         <v>23</v>
       </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P121" si="4">I72/I67</f>
+        <v>2.0853293101654353</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q121" si="5">K67/K72</f>
+        <v>2.0434364734403467</v>
+      </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40208,35 +40736,43 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.1214499999999998</v>
+        <v>2.1182500000000002</v>
       </c>
       <c r="G68">
-        <v>9.96388E-2</v>
+        <v>9.9540400000000001E-2</v>
       </c>
       <c r="H68">
-        <v>2.4718599999999999</v>
+        <v>2.4708199999999998</v>
       </c>
       <c r="I68">
-        <v>2.54454</v>
+        <v>2.54941</v>
       </c>
       <c r="J68">
-        <v>9.7464499999999996E-2</v>
+        <v>0.139874</v>
       </c>
       <c r="K68">
-        <v>5041.95</v>
+        <v>3503.02</v>
       </c>
       <c r="L68">
-        <v>11889</v>
+        <v>11831</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
-        <v>7.2680000000000078E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.859000000000016E-2</v>
       </c>
       <c r="O68" t="s">
         <v>23</v>
       </c>
+      <c r="P68">
+        <f t="shared" si="4"/>
+        <v>2.2216042143084085</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="5"/>
+        <v>20.417795963093134</v>
+      </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40253,35 +40789,43 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>1.85964</v>
+        <v>1.8536300000000001</v>
       </c>
       <c r="G69">
-        <v>9.9823200000000001E-2</v>
+        <v>9.9611699999999997E-2</v>
       </c>
       <c r="H69">
-        <v>2.21157</v>
+        <v>2.2078099999999998</v>
       </c>
       <c r="I69">
-        <v>2.29691</v>
+        <v>2.2995999999999999</v>
       </c>
       <c r="J69">
-        <v>0.117745</v>
+        <v>0.13801099999999999</v>
       </c>
       <c r="K69">
-        <v>6510.03</v>
+        <v>5529.33</v>
       </c>
       <c r="L69">
-        <v>5970</v>
+        <v>5962</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
-        <v>8.5339999999999971E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.1790000000000038E-2</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="4"/>
+        <v>2.2817881370673163</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="5"/>
+        <v>1.2002591832038865</v>
+      </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40298,35 +40842,43 @@
         <v>15</v>
       </c>
       <c r="F70">
-        <v>1.8587400000000001</v>
+        <v>1.85653</v>
       </c>
       <c r="G70">
-        <v>9.9760799999999997E-2</v>
+        <v>9.9848500000000007E-2</v>
       </c>
       <c r="H70">
-        <v>2.2106300000000001</v>
+        <v>2.2096900000000002</v>
       </c>
       <c r="I70">
-        <v>2.3094700000000001</v>
+        <v>2.3084099999999999</v>
       </c>
       <c r="J70">
-        <v>0.121207</v>
+        <v>0.123459</v>
       </c>
       <c r="K70">
-        <v>6953.95</v>
+        <v>6842.05</v>
       </c>
       <c r="L70">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
-        <v>9.8840000000000039E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.8719999999999697E-2</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
       </c>
+      <c r="P70">
+        <f t="shared" si="4"/>
+        <v>2.2841869511915132</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="5"/>
+        <v>1.2757164432345758</v>
+      </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -40343,35 +40895,43 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>1.8584400000000001</v>
+        <v>1.86019</v>
       </c>
       <c r="G71">
-        <v>9.9762699999999996E-2</v>
+        <v>9.99004E-2</v>
       </c>
       <c r="H71">
-        <v>2.2110400000000001</v>
+        <v>2.2145199999999998</v>
       </c>
       <c r="I71">
-        <v>2.3241800000000001</v>
+        <v>2.32612</v>
       </c>
       <c r="J71">
-        <v>0.11958000000000001</v>
+        <v>0.124527</v>
       </c>
       <c r="K71">
-        <v>7362.93</v>
+        <v>7081.33</v>
       </c>
       <c r="L71">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="M71">
-        <f t="shared" si="1"/>
-        <v>0.11314000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.11160000000000014</v>
       </c>
       <c r="O71" t="s">
         <v>24</v>
       </c>
+      <c r="P71">
+        <f t="shared" si="4"/>
+        <v>2.2745086238027272</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="5"/>
+        <v>1.2767480771241781</v>
+      </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -40388,35 +40948,43 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5.0483700000000002</v>
+        <v>5.0496699999999999</v>
       </c>
       <c r="G72">
-        <v>0.22637599999999999</v>
+        <v>0.22634599999999999</v>
       </c>
       <c r="H72">
-        <v>5.8634599999999999</v>
+        <v>5.8607800000000001</v>
       </c>
       <c r="I72">
-        <v>6.0208700000000004</v>
+        <v>6.0126299999999997</v>
       </c>
       <c r="J72">
-        <v>0.15034600000000001</v>
+        <v>0.15812999999999999</v>
       </c>
       <c r="K72">
-        <v>164.03299999999999</v>
+        <v>209.13300000000001</v>
       </c>
       <c r="L72">
-        <v>9723</v>
+        <v>9724</v>
       </c>
       <c r="M72">
-        <f t="shared" si="1"/>
-        <v>0.15741000000000049</v>
+        <f t="shared" si="3"/>
+        <v>0.1518499999999996</v>
       </c>
       <c r="O72" t="s">
         <v>23</v>
       </c>
+      <c r="P72">
+        <f t="shared" si="4"/>
+        <v>1.7391391121688844</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="5"/>
+        <v>1.1829927085749197</v>
+      </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -40433,35 +41001,43 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>4.6973500000000001</v>
+        <v>4.6990299999999996</v>
       </c>
       <c r="G73">
-        <v>0.22633400000000001</v>
+        <v>0.22643199999999999</v>
       </c>
       <c r="H73">
-        <v>5.5089800000000002</v>
+        <v>5.5110599999999996</v>
       </c>
       <c r="I73">
-        <v>5.6575199999999999</v>
+        <v>5.66378</v>
       </c>
       <c r="J73">
-        <v>0.15523000000000001</v>
+        <v>0.15883900000000001</v>
       </c>
       <c r="K73">
-        <v>172.167</v>
+        <v>171.56700000000001</v>
       </c>
       <c r="L73">
-        <v>10322</v>
+        <v>10305</v>
       </c>
       <c r="M73">
-        <f t="shared" si="1"/>
-        <v>0.14853999999999967</v>
+        <f t="shared" si="3"/>
+        <v>0.15272000000000041</v>
       </c>
       <c r="O73" t="s">
         <v>23</v>
       </c>
+      <c r="P73">
+        <f t="shared" si="4"/>
+        <v>1.6922903078862526</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="5"/>
+        <v>1.6823097967308276</v>
+      </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -40478,35 +41054,43 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>4.2561999999999998</v>
+        <v>4.2505100000000002</v>
       </c>
       <c r="G74">
-        <v>0.22661500000000001</v>
+        <v>0.226406</v>
       </c>
       <c r="H74">
-        <v>5.0791300000000001</v>
+        <v>5.0688199999999997</v>
       </c>
       <c r="I74">
-        <v>5.2514799999999999</v>
+        <v>5.2472000000000003</v>
       </c>
       <c r="J74">
-        <v>0.113108</v>
+        <v>0.10295</v>
       </c>
       <c r="K74">
-        <v>4217.63</v>
+        <v>4606.78</v>
       </c>
       <c r="L74">
-        <v>5959</v>
+        <v>5962</v>
       </c>
       <c r="M74">
-        <f t="shared" si="1"/>
-        <v>0.17234999999999978</v>
+        <f t="shared" si="3"/>
+        <v>0.17838000000000065</v>
       </c>
       <c r="O74" t="s">
         <v>24</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="4"/>
+        <v>1.8282302942521724</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="5"/>
+        <v>13.41910865132537</v>
+      </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -40523,35 +41107,43 @@
         <v>15</v>
       </c>
       <c r="F75">
-        <v>4.2538200000000002</v>
+        <v>4.2560200000000004</v>
       </c>
       <c r="G75">
-        <v>0.22659699999999999</v>
+        <v>0.226581</v>
       </c>
       <c r="H75">
-        <v>5.0741500000000004</v>
+        <v>5.0771499999999996</v>
       </c>
       <c r="I75">
-        <v>5.26769</v>
+        <v>5.2728400000000004</v>
       </c>
       <c r="J75">
-        <v>0.109498</v>
+        <v>0.120421</v>
       </c>
       <c r="K75">
-        <v>5910.22</v>
+        <v>5363.3</v>
       </c>
       <c r="L75">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="M75">
-        <f t="shared" si="1"/>
-        <v>0.1935399999999996</v>
+        <f t="shared" si="3"/>
+        <v>0.19569000000000081</v>
       </c>
       <c r="O75" t="s">
         <v>24</v>
       </c>
+      <c r="P75">
+        <f t="shared" si="4"/>
+        <v>1.8298070868829699</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="5"/>
+        <v>1.6040015551634419</v>
+      </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -40568,35 +41160,43 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>4.2597800000000001</v>
+        <v>4.25847</v>
       </c>
       <c r="G76">
-        <v>0.22667999999999999</v>
+        <v>0.22676499999999999</v>
       </c>
       <c r="H76">
-        <v>5.0783399999999999</v>
+        <v>5.0826900000000004</v>
       </c>
       <c r="I76">
-        <v>5.2856399999999999</v>
+        <v>5.2907799999999998</v>
       </c>
       <c r="J76">
-        <v>0.12697800000000001</v>
+        <v>0.13222800000000001</v>
       </c>
       <c r="K76">
-        <v>5783.68</v>
+        <v>5546.38</v>
       </c>
       <c r="L76">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="M76">
-        <f t="shared" si="1"/>
-        <v>0.20730000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.20808999999999944</v>
       </c>
       <c r="O76" t="s">
         <v>24</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="4"/>
+        <v>1.8243548210282794</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="5"/>
+        <v>1.3458330805721705</v>
+      </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -40613,35 +41213,43 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8.5633300000000006</v>
+        <v>8.5655800000000006</v>
       </c>
       <c r="G77">
-        <v>0.40813300000000002</v>
+        <v>0.408445</v>
       </c>
       <c r="H77">
-        <v>10.1471</v>
+        <v>10.1609</v>
       </c>
       <c r="I77">
-        <v>10.443</v>
+        <v>10.456799999999999</v>
       </c>
       <c r="J77">
-        <v>0.203322</v>
+        <v>0.203102</v>
       </c>
       <c r="K77">
-        <v>142.93299999999999</v>
+        <v>176.78299999999999</v>
       </c>
       <c r="L77">
-        <v>5636</v>
+        <v>5629</v>
       </c>
       <c r="M77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.29589999999999961</v>
       </c>
       <c r="O77" t="s">
         <v>23</v>
       </c>
+      <c r="P77">
+        <f t="shared" si="4"/>
+        <v>1.5907065258970241</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="5"/>
+        <v>2.7211325186595592</v>
+      </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -40658,35 +41266,43 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>7.7024900000000001</v>
+        <v>7.7092900000000002</v>
       </c>
       <c r="G78">
-        <v>0.40810400000000002</v>
+        <v>0.40895399999999998</v>
       </c>
       <c r="H78">
-        <v>9.2837800000000001</v>
+        <v>9.2865300000000008</v>
       </c>
       <c r="I78">
-        <v>9.5758899999999993</v>
+        <v>9.5847599999999993</v>
       </c>
       <c r="J78">
-        <v>0.203456</v>
+        <v>0.20094600000000001</v>
       </c>
       <c r="K78">
-        <v>102.3</v>
+        <v>101.983</v>
       </c>
       <c r="L78">
-        <v>6135</v>
+        <v>6131</v>
       </c>
       <c r="M78">
-        <f t="shared" si="1"/>
-        <v>0.2921099999999992</v>
+        <f t="shared" si="3"/>
+        <v>0.29822999999999844</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
       </c>
+      <c r="P78">
+        <f t="shared" si="4"/>
+        <v>1.606873828869998</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="5"/>
+        <v>1.5860497667185072</v>
+      </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -40703,35 +41319,43 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>7.7050900000000002</v>
+        <v>7.7084299999999999</v>
       </c>
       <c r="G79">
-        <v>0.40896500000000002</v>
+        <v>0.408246</v>
       </c>
       <c r="H79">
-        <v>9.2805700000000009</v>
+        <v>9.2888199999999994</v>
       </c>
       <c r="I79">
-        <v>9.5827299999999997</v>
+        <v>9.5930900000000001</v>
       </c>
       <c r="J79">
-        <v>0.13606799999999999</v>
+        <v>0.13486500000000001</v>
       </c>
       <c r="K79">
-        <v>353.21699999999998</v>
+        <v>343.3</v>
       </c>
       <c r="L79">
-        <v>5958</v>
+        <v>5962</v>
       </c>
       <c r="M79">
-        <f t="shared" si="1"/>
-        <v>0.30215999999999887</v>
+        <f t="shared" si="3"/>
+        <v>0.30427000000000071</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
       </c>
+      <c r="P79">
+        <f t="shared" si="4"/>
+        <v>1.6081054175453373</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="5"/>
+        <v>5.2869636996733567</v>
+      </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -40748,35 +41372,43 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>7.7144199999999996</v>
+        <v>7.71509</v>
       </c>
       <c r="G80">
-        <v>0.409495</v>
+        <v>0.41087899999999999</v>
       </c>
       <c r="H80">
-        <v>9.2791700000000006</v>
+        <v>9.2996400000000001</v>
       </c>
       <c r="I80">
-        <v>9.6383600000000005</v>
+        <v>9.6482799999999997</v>
       </c>
       <c r="J80">
-        <v>0.11894100000000001</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="K80">
-        <v>3002.75</v>
+        <v>3343.7</v>
       </c>
       <c r="L80">
-        <v>3978</v>
+        <v>3980</v>
       </c>
       <c r="M80">
-        <f t="shared" si="1"/>
-        <v>0.3591899999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34863999999999962</v>
       </c>
       <c r="O80" t="s">
         <v>24</v>
       </c>
+      <c r="P80">
+        <f t="shared" si="4"/>
+        <v>1.5976526386050156</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="5"/>
+        <v>51.113859305039838</v>
+      </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -40793,35 +41425,43 @@
         <v>20</v>
       </c>
       <c r="F81">
-        <v>7.7123999999999997</v>
+        <v>7.6848700000000001</v>
       </c>
       <c r="G81">
-        <v>0.40798899999999999</v>
+        <v>0.41434599999999999</v>
       </c>
       <c r="H81">
-        <v>9.2745999999999995</v>
+        <v>9.2755500000000008</v>
       </c>
       <c r="I81">
-        <v>9.6521799999999995</v>
+        <v>9.6522600000000001</v>
       </c>
       <c r="J81">
-        <v>0.120503</v>
+        <v>0.124183</v>
       </c>
       <c r="K81">
-        <v>4266.93</v>
+        <v>4121.1499999999996</v>
       </c>
       <c r="L81">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="M81">
-        <f t="shared" si="1"/>
-        <v>0.37758000000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.37670999999999921</v>
       </c>
       <c r="O81" t="s">
         <v>24</v>
       </c>
+      <c r="P81">
+        <f t="shared" si="4"/>
+        <v>1.6049194696371627</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="5"/>
+        <v>2.1516433027906126</v>
+      </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -40838,35 +41478,43 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>13.1669</v>
+        <v>13.2395</v>
       </c>
       <c r="G82">
-        <v>0.70542400000000005</v>
+        <v>0.76579699999999995</v>
       </c>
       <c r="H82">
-        <v>15.7887</v>
+        <v>15.9468</v>
       </c>
       <c r="I82">
-        <v>16.384799999999998</v>
+        <v>16.633700000000001</v>
       </c>
       <c r="J82">
-        <v>0.21445600000000001</v>
+        <v>0.20593800000000001</v>
       </c>
       <c r="K82">
-        <v>97.433300000000003</v>
+        <v>64.966700000000003</v>
       </c>
       <c r="L82">
-        <v>3615</v>
+        <v>3563</v>
       </c>
       <c r="M82">
-        <f t="shared" si="1"/>
-        <v>0.59609999999999808</v>
+        <f t="shared" si="3"/>
+        <v>0.6869000000000014</v>
       </c>
       <c r="O82" t="s">
         <v>23</v>
       </c>
+      <c r="P82">
+        <f t="shared" si="4"/>
+        <v>1.5574947245651898</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="5"/>
+        <v>1.6918411458333336</v>
+      </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -40883,35 +41531,43 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>12.152699999999999</v>
+        <v>12.142799999999999</v>
       </c>
       <c r="G83">
-        <v>0.69969499999999996</v>
+        <v>0.70653100000000002</v>
       </c>
       <c r="H83">
-        <v>14.777900000000001</v>
+        <v>14.796099999999999</v>
       </c>
       <c r="I83">
-        <v>15.3764</v>
+        <v>15.4015</v>
       </c>
       <c r="J83">
-        <v>0.209809</v>
+        <v>0.217887</v>
       </c>
       <c r="K83">
-        <v>64.366699999999994</v>
+        <v>64.3</v>
       </c>
       <c r="L83">
-        <v>3850</v>
+        <v>3842</v>
       </c>
       <c r="M83">
-        <f t="shared" si="1"/>
-        <v>0.59849999999999959</v>
+        <f t="shared" si="3"/>
+        <v>0.60540000000000127</v>
       </c>
       <c r="O83" t="s">
         <v>24</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="4"/>
+        <v>1.596493848001818</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="5"/>
+        <v>1.5811462449620943</v>
+      </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -40928,35 +41584,43 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>12.1578</v>
+        <v>12.155900000000001</v>
       </c>
       <c r="G84">
-        <v>0.71670199999999995</v>
+        <v>0.72119699999999998</v>
       </c>
       <c r="H84">
-        <v>14.796799999999999</v>
+        <v>14.816000000000001</v>
       </c>
       <c r="I84">
-        <v>15.4032</v>
+        <v>15.4267</v>
       </c>
       <c r="J84">
-        <v>0.21354799999999999</v>
+        <v>0.21654300000000001</v>
       </c>
       <c r="K84">
-        <v>64.783299999999997</v>
+        <v>64.933300000000003</v>
       </c>
       <c r="L84">
-        <v>3842</v>
+        <v>3835</v>
       </c>
       <c r="M84">
-        <f t="shared" si="1"/>
-        <v>0.60640000000000072</v>
+        <f t="shared" si="3"/>
+        <v>0.61069999999999958</v>
       </c>
       <c r="O84" t="s">
         <v>24</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="4"/>
+        <v>1.5929265494240503</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="5"/>
+        <v>1.5747781526096627</v>
+      </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -40973,35 +41637,43 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>12.15</v>
+        <v>12.1526</v>
       </c>
       <c r="G85">
-        <v>0.70060199999999995</v>
+        <v>0.71535199999999999</v>
       </c>
       <c r="H85">
-        <v>14.763</v>
+        <v>14.8108</v>
       </c>
       <c r="I85">
-        <v>15.3652</v>
+        <v>15.4146</v>
       </c>
       <c r="J85">
-        <v>0.212225</v>
+        <v>0.21762300000000001</v>
       </c>
       <c r="K85">
-        <v>65.459000000000003</v>
+        <v>65.416700000000006</v>
       </c>
       <c r="L85">
-        <v>3851</v>
+        <v>3837</v>
       </c>
       <c r="M85">
-        <f t="shared" si="1"/>
-        <v>0.60219999999999985</v>
+        <f t="shared" si="3"/>
+        <v>0.60379999999999967</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
       </c>
+      <c r="P85">
+        <f t="shared" si="4"/>
+        <v>1.5932038457047213</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="5"/>
+        <v>1.5725168269230769</v>
+      </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -41018,35 +41690,43 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>12.1996</v>
+        <v>12.1509</v>
       </c>
       <c r="G86">
-        <v>0.72396300000000002</v>
+        <v>0.71873100000000001</v>
       </c>
       <c r="H86">
-        <v>14.853</v>
+        <v>14.799799999999999</v>
       </c>
       <c r="I86">
-        <v>15.5526</v>
+        <v>15.491099999999999</v>
       </c>
       <c r="J86">
-        <v>0.11563900000000001</v>
+        <v>0.11842</v>
       </c>
       <c r="K86">
-        <v>1943.13</v>
+        <v>1915.35</v>
       </c>
       <c r="L86">
         <v>2989</v>
       </c>
       <c r="M86">
-        <f t="shared" si="1"/>
-        <v>0.69960000000000022</v>
+        <f t="shared" si="3"/>
+        <v>0.69130000000000003</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
       </c>
+      <c r="P86">
+        <f t="shared" si="4"/>
+        <v>1.5910748752509507</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="5"/>
+        <v>45.767025089605731</v>
+      </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -41063,39 +41743,47 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>20.086400000000001</v>
+        <v>20.0976</v>
       </c>
       <c r="G87">
-        <v>1.37165</v>
+        <v>1.40358</v>
       </c>
       <c r="H87">
-        <v>24.7014</v>
+        <v>24.7987</v>
       </c>
       <c r="I87">
-        <v>25.799900000000001</v>
+        <v>25.9069</v>
       </c>
       <c r="J87">
-        <v>0.22121499999999999</v>
+        <v>0.219219</v>
       </c>
       <c r="K87">
-        <v>38.5167</v>
+        <v>38.4</v>
       </c>
       <c r="L87">
-        <v>2306</v>
+        <v>2297</v>
       </c>
       <c r="M87">
-        <f t="shared" si="1"/>
-        <v>1.0985000000000014</v>
+        <f t="shared" si="3"/>
+        <v>1.1082000000000001</v>
       </c>
       <c r="N87">
         <f>H87-(G87+F87)</f>
-        <v>3.2433499999999995</v>
+        <v>3.2975199999999987</v>
       </c>
       <c r="O87" t="s">
         <v>23</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="4"/>
+        <v>1.1327638582771386E-2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="5"/>
+        <v>5.5189700222196035E-3</v>
+      </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -41112,35 +41800,43 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>18.786200000000001</v>
+        <v>18.8291</v>
       </c>
       <c r="G88">
-        <v>1.3667100000000001</v>
+        <v>1.3758900000000001</v>
       </c>
       <c r="H88">
-        <v>23.405899999999999</v>
+        <v>23.486000000000001</v>
       </c>
       <c r="I88">
-        <v>24.5106</v>
+        <v>24.5884</v>
       </c>
       <c r="J88">
-        <v>0.21565699999999999</v>
+        <v>0.221696</v>
       </c>
       <c r="K88">
-        <v>40.799999999999997</v>
+        <v>40.666699999999999</v>
       </c>
       <c r="L88">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="M88">
-        <f t="shared" si="1"/>
-        <v>1.1047000000000011</v>
+        <f t="shared" si="3"/>
+        <v>1.1023999999999994</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="4"/>
+        <v>1.3722893722243008E-2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="5"/>
+        <v>5.2116082069946553E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -41157,35 +41853,43 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>18.812100000000001</v>
+        <v>18.808800000000002</v>
       </c>
       <c r="G89">
-        <v>1.3746499999999999</v>
+        <v>1.38436</v>
       </c>
       <c r="H89">
-        <v>23.426500000000001</v>
+        <v>23.463100000000001</v>
       </c>
       <c r="I89">
-        <v>24.53</v>
+        <v>24.573599999999999</v>
       </c>
       <c r="J89">
-        <v>0.21360599999999999</v>
+        <v>0.22115499999999999</v>
       </c>
       <c r="K89">
-        <v>41.366700000000002</v>
+        <v>41.2333</v>
       </c>
       <c r="L89">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="M89">
-        <f t="shared" si="1"/>
-        <v>1.1035000000000004</v>
+        <f t="shared" si="3"/>
+        <v>1.1104999999999983</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
       </c>
+      <c r="P89">
+        <f t="shared" si="4"/>
+        <v>1.2626639971351369E-2</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="5"/>
+        <v>4.9273091851172041E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -41202,35 +41906,43 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>18.8033</v>
+        <v>18.793900000000001</v>
       </c>
       <c r="G90">
-        <v>1.36039</v>
+        <v>1.3814900000000001</v>
       </c>
       <c r="H90">
-        <v>23.402000000000001</v>
+        <v>23.447800000000001</v>
       </c>
       <c r="I90">
-        <v>24.499600000000001</v>
+        <v>24.558599999999998</v>
       </c>
       <c r="J90">
-        <v>0.21760199999999999</v>
+        <v>0.220416</v>
       </c>
       <c r="K90">
-        <v>41.7667</v>
+        <v>41.6</v>
       </c>
       <c r="L90">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="M90">
-        <f t="shared" si="1"/>
-        <v>1.0975999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.1107999999999976</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="4"/>
+        <v>1.2858346974176052E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="5"/>
+        <v>4.8957879747207871E-3</v>
+      </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -41247,35 +41959,43 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>18.805</v>
+        <v>18.844799999999999</v>
       </c>
       <c r="G91">
-        <v>1.3780399999999999</v>
+        <v>1.40065</v>
       </c>
       <c r="H91">
-        <v>23.4298</v>
+        <v>23.5396</v>
       </c>
       <c r="I91">
-        <v>24.5307</v>
+        <v>24.647500000000001</v>
       </c>
       <c r="J91">
-        <v>0.21312300000000001</v>
+        <v>0.21726100000000001</v>
       </c>
       <c r="K91">
-        <v>42.15</v>
+        <v>41.85</v>
       </c>
       <c r="L91">
-        <v>2424</v>
+        <v>2413</v>
       </c>
       <c r="M91">
-        <f t="shared" si="1"/>
-        <v>1.1008999999999993</v>
+        <f t="shared" si="3"/>
+        <v>1.1079000000000008</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="4"/>
+        <v>1.3116705548230044E-2</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="5"/>
+        <v>5.2347703830826235E-3</v>
+      </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -41292,35 +42012,43 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.25325500000000001</v>
+        <v>0.25656299999999999</v>
       </c>
       <c r="G92">
-        <v>1.01704E-2</v>
+        <v>9.0779299999999997E-3</v>
       </c>
       <c r="H92">
-        <v>0.28076499999999999</v>
+        <v>0.28254200000000002</v>
       </c>
       <c r="I92">
-        <v>0.29161100000000001</v>
+        <v>0.293464</v>
       </c>
       <c r="J92">
-        <v>0.10406700000000001</v>
+        <v>0.10206999999999999</v>
       </c>
       <c r="K92">
-        <v>6866.8</v>
+        <v>6957.82</v>
       </c>
       <c r="L92">
-        <v>57014</v>
+        <v>56869</v>
       </c>
       <c r="M92">
-        <f t="shared" si="1"/>
-        <v>1.0846000000000022E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0921999999999987E-2</v>
       </c>
       <c r="O92" t="s">
         <v>23</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="4"/>
+        <v>4.2326827140637349</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="5"/>
+        <v>8.3866239650544276</v>
+      </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -41337,35 +42065,43 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.28417799999999999</v>
+        <v>0.28825600000000001</v>
       </c>
       <c r="G93">
-        <v>1.0175999999999999E-2</v>
+        <v>9.0940799999999992E-3</v>
       </c>
       <c r="H93">
-        <v>0.31169999999999998</v>
+        <v>0.31427300000000002</v>
       </c>
       <c r="I93">
-        <v>0.335256</v>
+        <v>0.337424</v>
       </c>
       <c r="J93">
-        <v>0.111744</v>
+        <v>0.118835</v>
       </c>
       <c r="K93">
-        <v>8303.35</v>
+        <v>7803.1</v>
       </c>
       <c r="L93">
-        <v>11877</v>
+        <v>11864</v>
       </c>
       <c r="M93">
-        <f t="shared" si="1"/>
-        <v>2.3556000000000021E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.3150999999999977E-2</v>
       </c>
       <c r="O93" t="s">
         <v>23</v>
       </c>
+      <c r="P93">
+        <f t="shared" si="4"/>
+        <v>3.2939862013371899</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="5"/>
+        <v>1.2237565378312043</v>
+      </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -41382,35 +42118,43 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.24520400000000001</v>
+        <v>0.24843399999999999</v>
       </c>
       <c r="G94">
-        <v>1.0189999999999999E-2</v>
+        <v>9.0622700000000007E-3</v>
       </c>
       <c r="H94">
-        <v>0.272754</v>
+        <v>0.27438899999999999</v>
       </c>
       <c r="I94">
-        <v>0.30803799999999998</v>
+        <v>0.310282</v>
       </c>
       <c r="J94">
-        <v>0.118327</v>
+        <v>0.115581</v>
       </c>
       <c r="K94">
-        <v>8166.62</v>
+        <v>8368.32</v>
       </c>
       <c r="L94">
         <v>5972</v>
       </c>
       <c r="M94">
-        <f t="shared" si="1"/>
-        <v>3.5283999999999982E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5893000000000008E-2</v>
       </c>
       <c r="O94" t="s">
         <v>23</v>
       </c>
+      <c r="P94">
+        <f t="shared" si="4"/>
+        <v>3.6056232717334553</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="5"/>
+        <v>1.2154334391180892</v>
+      </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -41427,35 +42171,43 @@
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.238043</v>
+        <v>0.24130199999999999</v>
       </c>
       <c r="G95">
-        <v>1.0187699999999999E-2</v>
+        <v>9.0853400000000008E-3</v>
       </c>
       <c r="H95">
-        <v>0.26560099999999998</v>
+        <v>0.26729000000000003</v>
       </c>
       <c r="I95">
-        <v>0.31418699999999999</v>
+        <v>0.31578299999999998</v>
       </c>
       <c r="J95">
-        <v>0.11430999999999999</v>
+        <v>0.11502800000000001</v>
       </c>
       <c r="K95">
-        <v>8544</v>
+        <v>8497.1</v>
       </c>
       <c r="L95">
         <v>3990</v>
       </c>
       <c r="M95">
-        <f t="shared" si="1"/>
-        <v>4.8586000000000018E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.8492999999999953E-2</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
       </c>
+      <c r="P95">
+        <f t="shared" si="4"/>
+        <v>3.553452845783339</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="5"/>
+        <v>1.4757366873513991</v>
+      </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -41472,35 +42224,43 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.23521</v>
+        <v>0.23897599999999999</v>
       </c>
       <c r="G96">
-        <v>1.0194699999999999E-2</v>
+        <v>9.1094899999999996E-3</v>
       </c>
       <c r="H96">
-        <v>0.26277299999999998</v>
+        <v>0.26503900000000002</v>
       </c>
       <c r="I96">
-        <v>0.32377099999999998</v>
+        <v>0.32329400000000003</v>
       </c>
       <c r="J96">
-        <v>0.115165</v>
+        <v>0.12279900000000001</v>
       </c>
       <c r="K96">
-        <v>8524.65</v>
+        <v>7994.62</v>
       </c>
       <c r="L96">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="M96">
-        <f t="shared" si="1"/>
-        <v>6.0997999999999997E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8255000000000001E-2</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
       </c>
+      <c r="P96">
+        <f t="shared" si="4"/>
+        <v>3.5007454515085334</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="5"/>
+        <v>0.93482678865011382</v>
+      </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -41517,35 +42277,43 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.0874900000000001</v>
+        <v>1.0865499999999999</v>
       </c>
       <c r="G97">
-        <v>4.9762899999999999E-2</v>
+        <v>5.0017699999999998E-2</v>
       </c>
       <c r="H97">
-        <v>1.2098800000000001</v>
+        <v>1.20983</v>
       </c>
       <c r="I97">
-        <v>1.2422899999999999</v>
+        <v>1.24214</v>
       </c>
       <c r="J97">
-        <v>8.6266399999999993E-2</v>
+        <v>8.8563199999999995E-2</v>
       </c>
       <c r="K97">
-        <v>812.88300000000004</v>
+        <v>829.63300000000004</v>
       </c>
       <c r="L97">
-        <v>45158</v>
+        <v>45085</v>
       </c>
       <c r="M97">
-        <f t="shared" si="1"/>
-        <v>3.2409999999999828E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.2310000000000061E-2</v>
       </c>
       <c r="O97" t="s">
         <v>23</v>
       </c>
+      <c r="P97">
+        <f t="shared" si="4"/>
+        <v>2.0823659168853754</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="5"/>
+        <v>2.032169014084507</v>
+      </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -41562,35 +42330,43 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.94547800000000004</v>
+        <v>0.94501199999999996</v>
       </c>
       <c r="G98">
-        <v>4.9806499999999997E-2</v>
+        <v>5.0173000000000002E-2</v>
       </c>
       <c r="H98">
-        <v>1.06806</v>
+        <v>1.0687800000000001</v>
       </c>
       <c r="I98">
-        <v>1.1110800000000001</v>
+        <v>1.11147</v>
       </c>
       <c r="J98">
-        <v>0.119577</v>
+        <v>0.120925</v>
       </c>
       <c r="K98">
-        <v>6465.23</v>
+        <v>6376.35</v>
       </c>
       <c r="L98">
-        <v>11860</v>
+        <v>11856</v>
       </c>
       <c r="M98">
-        <f t="shared" si="1"/>
-        <v>4.3020000000000058E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2689999999999895E-2</v>
       </c>
       <c r="O98" t="s">
         <v>24</v>
       </c>
+      <c r="P98">
+        <f t="shared" si="4"/>
+        <v>2.2557423952063487</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="5"/>
+        <v>1.4619358122515236</v>
+      </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -41607,35 +42383,43 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.94309799999999999</v>
+        <v>0.94132000000000005</v>
       </c>
       <c r="G99">
-        <v>4.9844300000000001E-2</v>
+        <v>5.0164599999999997E-2</v>
       </c>
       <c r="H99">
-        <v>1.0657000000000001</v>
+        <v>1.0651600000000001</v>
       </c>
       <c r="I99">
-        <v>1.11978</v>
+        <v>1.11876</v>
       </c>
       <c r="J99">
-        <v>0.12565899999999999</v>
+        <v>0.128472</v>
       </c>
       <c r="K99">
-        <v>7045.52</v>
+        <v>6885.05</v>
       </c>
       <c r="L99">
         <v>5968</v>
       </c>
       <c r="M99">
-        <f t="shared" si="1"/>
-        <v>5.4079999999999906E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.359999999999987E-2</v>
       </c>
       <c r="O99" t="s">
         <v>24</v>
       </c>
+      <c r="P99">
+        <f t="shared" si="4"/>
+        <v>2.2426436411741575</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="5"/>
+        <v>1.8346581325261075</v>
+      </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -41652,35 +42436,43 @@
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.93917700000000004</v>
+        <v>0.93856499999999998</v>
       </c>
       <c r="G100">
-        <v>4.98959E-2</v>
+        <v>5.0398400000000003E-2</v>
       </c>
       <c r="H100">
-        <v>1.06202</v>
+        <v>1.0628200000000001</v>
       </c>
       <c r="I100">
-        <v>1.12201</v>
+        <v>1.12212</v>
       </c>
       <c r="J100">
-        <v>0.15620400000000001</v>
+        <v>0.16084300000000001</v>
       </c>
       <c r="K100">
-        <v>5932.65</v>
+        <v>5757.87</v>
       </c>
       <c r="L100">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="M100">
-        <f t="shared" si="1"/>
-        <v>5.9989999999999988E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9299999999999908E-2</v>
       </c>
       <c r="O100" t="s">
         <v>24</v>
       </c>
+      <c r="P100">
+        <f t="shared" si="4"/>
+        <v>2.2338787295476417</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="5"/>
+        <v>0.90125141850909796</v>
+      </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -41697,35 +42489,43 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>0.92255399999999999</v>
+        <v>0.92530299999999999</v>
       </c>
       <c r="G101">
-        <v>4.9903999999999997E-2</v>
+        <v>4.9997899999999998E-2</v>
       </c>
       <c r="H101">
-        <v>1.04535</v>
+        <v>1.04853</v>
       </c>
       <c r="I101">
-        <v>1.1248100000000001</v>
+        <v>1.1317699999999999</v>
       </c>
       <c r="J101">
-        <v>0.11927</v>
+        <v>0.11002199999999999</v>
       </c>
       <c r="K101">
-        <v>7901.2</v>
+        <v>8551.98</v>
       </c>
       <c r="L101">
         <v>2994</v>
       </c>
       <c r="M101">
-        <f t="shared" si="1"/>
-        <v>7.9460000000000086E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3239999999999981E-2</v>
       </c>
       <c r="O101" t="s">
         <v>24</v>
       </c>
+      <c r="P101">
+        <f t="shared" si="4"/>
+        <v>2.2238617386924906</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="5"/>
+        <v>1.3291649181703733</v>
+      </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -41742,35 +42542,43 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2325599999999999</v>
+        <v>2.2388599999999999</v>
       </c>
       <c r="G102">
-        <v>0.11297599999999999</v>
+        <v>0.113151</v>
       </c>
       <c r="H102">
-        <v>2.5092099999999999</v>
+        <v>2.5164200000000001</v>
       </c>
       <c r="I102">
-        <v>2.57985</v>
+        <v>2.5865900000000002</v>
       </c>
       <c r="J102">
-        <v>0.101176</v>
+        <v>0.102196</v>
       </c>
       <c r="K102">
-        <v>393.25</v>
+        <v>408.25</v>
       </c>
       <c r="L102">
-        <v>22379</v>
+        <v>22314</v>
       </c>
       <c r="M102">
-        <f t="shared" si="1"/>
-        <v>7.0640000000000036E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.0170000000000066E-2</v>
       </c>
       <c r="O102" t="s">
         <v>23</v>
       </c>
+      <c r="P102">
+        <f t="shared" si="4"/>
+        <v>1.7689738226777341</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="5"/>
+        <v>1.4276971498513726</v>
+      </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -41787,35 +42595,43 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>2.1450100000000001</v>
+        <v>2.1502400000000002</v>
       </c>
       <c r="G103">
-        <v>0.113025</v>
+        <v>0.113303</v>
       </c>
       <c r="H103">
-        <v>2.4218899999999999</v>
+        <v>2.42835</v>
       </c>
       <c r="I103">
-        <v>2.50149</v>
+        <v>2.50719</v>
       </c>
       <c r="J103">
-        <v>0.114082</v>
+        <v>0.114928</v>
       </c>
       <c r="K103">
-        <v>4409.5</v>
+        <v>4361.58</v>
       </c>
       <c r="L103">
-        <v>11863</v>
+        <v>11861</v>
       </c>
       <c r="M103">
-        <f t="shared" si="1"/>
-        <v>7.9600000000000115E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.8840000000000021E-2</v>
       </c>
       <c r="O103" t="s">
         <v>24</v>
       </c>
+      <c r="P103">
+        <f t="shared" si="4"/>
+        <v>1.7883726402865359</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="5"/>
+        <v>4.1441371250486947</v>
+      </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -41832,35 +42648,43 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>2.1400899999999998</v>
+        <v>2.1459199999999998</v>
       </c>
       <c r="G104">
-        <v>0.11364</v>
+        <v>0.11357299999999999</v>
       </c>
       <c r="H104">
-        <v>2.4178999999999999</v>
+        <v>2.4243399999999999</v>
       </c>
       <c r="I104">
-        <v>2.5034700000000001</v>
+        <v>2.5089800000000002</v>
       </c>
       <c r="J104">
-        <v>0.189141</v>
+        <v>0.20012199999999999</v>
       </c>
       <c r="K104">
-        <v>3969.08</v>
+        <v>3752.77</v>
       </c>
       <c r="L104">
-        <v>5926</v>
+        <v>5919</v>
       </c>
       <c r="M104">
-        <f t="shared" si="1"/>
-        <v>8.5570000000000146E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.4640000000000271E-2</v>
       </c>
       <c r="O104" t="s">
         <v>24</v>
       </c>
+      <c r="P104">
+        <f t="shared" si="4"/>
+        <v>1.7944184489314381</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="5"/>
+        <v>0.82543770895653712</v>
+      </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -41877,35 +42701,43 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <v>2.1179299999999999</v>
+        <v>2.1248499999999999</v>
       </c>
       <c r="G105">
-        <v>0.113897</v>
+        <v>0.11430899999999999</v>
       </c>
       <c r="H105">
-        <v>2.3960400000000002</v>
+        <v>2.4044300000000001</v>
       </c>
       <c r="I105">
-        <v>2.4979100000000001</v>
+        <v>2.5066799999999998</v>
       </c>
       <c r="J105">
-        <v>0.13255500000000001</v>
+        <v>0.130105</v>
       </c>
       <c r="K105">
-        <v>6272.03</v>
+        <v>6388.75</v>
       </c>
       <c r="L105">
         <v>3980</v>
       </c>
       <c r="M105">
-        <f t="shared" si="1"/>
-        <v>0.10186999999999991</v>
+        <f t="shared" si="3"/>
+        <v>0.10224999999999973</v>
       </c>
       <c r="O105" t="s">
         <v>24</v>
       </c>
+      <c r="P105">
+        <f t="shared" si="4"/>
+        <v>1.8010236647677407</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="5"/>
+        <v>1.1185745976107895</v>
+      </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -41922,35 +42754,43 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2.1276999999999999</v>
+        <v>2.1240999999999999</v>
       </c>
       <c r="G106">
-        <v>0.11347500000000001</v>
+        <v>0.11462600000000001</v>
       </c>
       <c r="H106">
-        <v>2.4057900000000001</v>
+        <v>2.40469</v>
       </c>
       <c r="I106">
-        <v>2.5179999999999998</v>
+        <v>2.5169000000000001</v>
       </c>
       <c r="J106">
-        <v>0.144428</v>
+        <v>0.135522</v>
       </c>
       <c r="K106">
-        <v>6050.77</v>
+        <v>6434.1</v>
       </c>
       <c r="L106">
-        <v>2972</v>
+        <v>2988</v>
       </c>
       <c r="M106">
-        <f t="shared" si="1"/>
-        <v>0.1122099999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.11221000000000014</v>
       </c>
       <c r="O106" t="s">
         <v>24</v>
       </c>
+      <c r="P106">
+        <f t="shared" si="4"/>
+        <v>1.8015376057848942</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="5"/>
+        <v>1.0192036268765237</v>
+      </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -41967,35 +42807,43 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3.9375200000000001</v>
+        <v>3.9445299999999999</v>
       </c>
       <c r="G107">
-        <v>0.20664099999999999</v>
+        <v>0.20474500000000001</v>
       </c>
       <c r="H107">
-        <v>4.4374399999999996</v>
+        <v>4.4440799999999996</v>
       </c>
       <c r="I107">
-        <v>4.5704099999999999</v>
+        <v>4.5756100000000002</v>
       </c>
       <c r="J107">
-        <v>0.17777000000000001</v>
+        <v>0.15506800000000001</v>
       </c>
       <c r="K107">
-        <v>273.78300000000002</v>
+        <v>285.95</v>
       </c>
       <c r="L107">
-        <v>12637</v>
+        <v>12683</v>
       </c>
       <c r="M107">
-        <f t="shared" si="1"/>
-        <v>0.13297000000000025</v>
+        <f t="shared" si="3"/>
+        <v>0.13153000000000059</v>
       </c>
       <c r="O107" t="s">
         <v>23</v>
       </c>
+      <c r="P107">
+        <f t="shared" si="4"/>
+        <v>1.58649884933375</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="5"/>
+        <v>1.8383156541305044</v>
+      </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -42012,35 +42860,43 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3.8689</v>
+        <v>3.8495499999999998</v>
       </c>
       <c r="G108">
-        <v>0.20758599999999999</v>
+        <v>0.20605299999999999</v>
       </c>
       <c r="H108">
-        <v>4.3703099999999999</v>
+        <v>4.35025</v>
       </c>
       <c r="I108">
-        <v>4.5061900000000001</v>
+        <v>4.4837899999999999</v>
       </c>
       <c r="J108">
-        <v>0.15987899999999999</v>
+        <v>0.105419</v>
       </c>
       <c r="K108">
-        <v>756.75</v>
+        <v>1052.47</v>
       </c>
       <c r="L108">
-        <v>11687</v>
+        <v>11878</v>
       </c>
       <c r="M108">
-        <f t="shared" si="1"/>
-        <v>0.13588000000000022</v>
+        <f t="shared" si="3"/>
+        <v>0.13353999999999999</v>
       </c>
       <c r="O108" t="s">
         <v>24</v>
       </c>
+      <c r="P108">
+        <f t="shared" si="4"/>
+        <v>1.6000637853244688</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="5"/>
+        <v>7.7482644129188047</v>
+      </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -42057,35 +42913,43 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>3.86151</v>
+        <v>3.8466399999999998</v>
       </c>
       <c r="G109">
-        <v>0.21012500000000001</v>
+        <v>0.20910799999999999</v>
       </c>
       <c r="H109">
-        <v>4.36538</v>
+        <v>4.3521799999999997</v>
       </c>
       <c r="I109">
-        <v>4.5106099999999998</v>
+        <v>4.5021599999999999</v>
       </c>
       <c r="J109">
-        <v>0.174402</v>
+        <v>0.119751</v>
       </c>
       <c r="K109">
-        <v>3127.33</v>
+        <v>4546.3999999999996</v>
       </c>
       <c r="L109">
-        <v>5941</v>
+        <v>5958</v>
       </c>
       <c r="M109">
-        <f t="shared" si="1"/>
-        <v>0.14522999999999975</v>
+        <f t="shared" si="3"/>
+        <v>0.14998000000000022</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
       </c>
+      <c r="P109">
+        <f t="shared" si="4"/>
+        <v>1.5896725127494358</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="5"/>
+        <v>1.9060635661969703</v>
+      </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -42102,35 +42966,43 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>3.8641999999999999</v>
+        <v>3.8399000000000001</v>
       </c>
       <c r="G110">
-        <v>0.21409</v>
+        <v>0.21232799999999999</v>
       </c>
       <c r="H110">
-        <v>4.3754</v>
+        <v>4.3506799999999997</v>
       </c>
       <c r="I110">
-        <v>4.5310600000000001</v>
+        <v>4.5145900000000001</v>
       </c>
       <c r="J110">
-        <v>0.175848</v>
+        <v>0.121527</v>
       </c>
       <c r="K110">
-        <v>3947.72</v>
+        <v>5711.51</v>
       </c>
       <c r="L110">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="M110">
-        <f t="shared" si="1"/>
-        <v>0.15566000000000013</v>
+        <f t="shared" si="3"/>
+        <v>0.16391000000000044</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
       </c>
+      <c r="P110">
+        <f t="shared" si="4"/>
+        <v>1.6136747744534941</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="5"/>
+        <v>1.2902614404185577</v>
+      </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -42147,35 +43019,43 @@
         <v>20</v>
       </c>
       <c r="F111">
-        <v>3.8581300000000001</v>
+        <v>3.84578</v>
       </c>
       <c r="G111">
-        <v>0.206731</v>
+        <v>0.213642</v>
       </c>
       <c r="H111">
-        <v>4.35785</v>
+        <v>4.35853</v>
       </c>
       <c r="I111">
-        <v>4.5262900000000004</v>
+        <v>4.5342900000000004</v>
       </c>
       <c r="J111">
-        <v>0.13530400000000001</v>
+        <v>0.122335</v>
       </c>
       <c r="K111">
-        <v>5711.42</v>
+        <v>6312.87</v>
       </c>
       <c r="L111">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="M111">
-        <f t="shared" si="1"/>
-        <v>0.16844000000000037</v>
+        <f t="shared" si="3"/>
+        <v>0.17576000000000036</v>
       </c>
       <c r="O111" t="s">
         <v>24</v>
       </c>
+      <c r="P111">
+        <f t="shared" si="4"/>
+        <v>1.6066065470007431</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="5"/>
+        <v>1.2220673554366954</v>
+      </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -42192,35 +43072,43 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6.1886200000000002</v>
+        <v>6.1826499999999998</v>
       </c>
       <c r="G112">
-        <v>0.36070099999999999</v>
+        <v>0.356321</v>
       </c>
       <c r="H112">
-        <v>7.0321899999999999</v>
+        <v>7.0222199999999999</v>
       </c>
       <c r="I112">
-        <v>7.2707100000000002</v>
+        <v>7.2591999999999999</v>
       </c>
       <c r="J112">
-        <v>0.19897400000000001</v>
+        <v>0.202012</v>
       </c>
       <c r="K112">
-        <v>150.483</v>
+        <v>155.55000000000001</v>
       </c>
       <c r="L112">
-        <v>8033</v>
+        <v>8042</v>
       </c>
       <c r="M112">
-        <f t="shared" si="1"/>
-        <v>0.23852000000000029</v>
+        <f t="shared" si="3"/>
+        <v>0.23697999999999997</v>
       </c>
       <c r="O112" t="s">
         <v>23</v>
       </c>
+      <c r="P112">
+        <f t="shared" si="4"/>
+        <v>1.599955918007494</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="5"/>
+        <v>1.1834927301362672</v>
+      </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -42237,35 +43125,43 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>6.0855300000000003</v>
+        <v>6.07707</v>
       </c>
       <c r="G113">
-        <v>0.35087200000000002</v>
+        <v>0.36355799999999999</v>
       </c>
       <c r="H113">
-        <v>6.9115000000000002</v>
+        <v>6.9307400000000001</v>
       </c>
       <c r="I113">
-        <v>7.1454899999999997</v>
+        <v>7.1743499999999996</v>
       </c>
       <c r="J113">
-        <v>0.20064599999999999</v>
+        <v>0.19983200000000001</v>
       </c>
       <c r="K113">
-        <v>136.38300000000001</v>
+        <v>135.833</v>
       </c>
       <c r="L113">
-        <v>8167</v>
+        <v>8136</v>
       </c>
       <c r="M113">
-        <f t="shared" si="1"/>
-        <v>0.23398999999999948</v>
+        <f t="shared" si="3"/>
+        <v>0.24360999999999944</v>
       </c>
       <c r="O113" t="s">
         <v>24</v>
       </c>
+      <c r="P113">
+        <f t="shared" si="4"/>
+        <v>1.5991274470857988</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="5"/>
+        <v>1.5865245915808481</v>
+      </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -42282,35 +43178,43 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>6.0807599999999997</v>
+        <v>6.0501699999999996</v>
       </c>
       <c r="G114">
-        <v>0.36583500000000002</v>
+        <v>0.36616100000000001</v>
       </c>
       <c r="H114">
-        <v>6.9337299999999997</v>
+        <v>6.9064399999999999</v>
       </c>
       <c r="I114">
-        <v>7.1865699999999997</v>
+        <v>7.1569599999999998</v>
       </c>
       <c r="J114">
-        <v>0.121239</v>
+        <v>0.121951</v>
       </c>
       <c r="K114">
-        <v>2375.17</v>
+        <v>2385.23</v>
       </c>
       <c r="L114">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="M114">
-        <f t="shared" si="1"/>
-        <v>0.25283999999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.25051999999999985</v>
       </c>
       <c r="O114" t="s">
         <v>24</v>
       </c>
+      <c r="P114">
+        <f t="shared" si="4"/>
+        <v>1.5874617155887416</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="5"/>
+        <v>27.411175096274622</v>
+      </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -42327,35 +43231,43 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>6.1000800000000002</v>
+        <v>6.1182100000000004</v>
       </c>
       <c r="G115">
-        <v>0.37442599999999998</v>
+        <v>0.41272300000000001</v>
       </c>
       <c r="H115">
-        <v>6.9679000000000002</v>
+        <v>7.0253500000000004</v>
       </c>
       <c r="I115">
-        <v>7.2317</v>
+        <v>7.2850799999999998</v>
       </c>
       <c r="J115">
-        <v>0.115949</v>
+        <v>0.11590499999999999</v>
       </c>
       <c r="K115">
-        <v>4456.95</v>
+        <v>4426.63</v>
       </c>
       <c r="L115">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="M115">
-        <f t="shared" si="1"/>
-        <v>0.26379999999999981</v>
+        <f t="shared" si="3"/>
+        <v>0.25972999999999935</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
       </c>
+      <c r="P115">
+        <f t="shared" si="4"/>
+        <v>1.6359737985032423</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="5"/>
+        <v>2.6344283758852587</v>
+      </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -42372,35 +43284,43 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <v>6.1197499999999998</v>
+        <v>6.1136600000000003</v>
       </c>
       <c r="G116">
-        <v>0.38077899999999998</v>
+        <v>0.39471400000000001</v>
       </c>
       <c r="H116">
-        <v>7.00061</v>
+        <v>7.0100800000000003</v>
       </c>
       <c r="I116">
-        <v>7.2766999999999999</v>
+        <v>7.2848199999999999</v>
       </c>
       <c r="J116">
-        <v>0.122902</v>
+        <v>0.12267400000000001</v>
       </c>
       <c r="K116">
-        <v>5159.6000000000004</v>
+        <v>5165.7299999999996</v>
       </c>
       <c r="L116">
         <v>2984</v>
       </c>
       <c r="M116">
-        <f t="shared" si="1"/>
-        <v>0.27608999999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.27473999999999954</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
       </c>
+      <c r="P116">
+        <f t="shared" si="4"/>
+        <v>1.5825922946620508</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="5"/>
+        <v>1.5333717240499039</v>
+      </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -42417,39 +43337,47 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>9.6343099999999993</v>
+        <v>9.6228800000000003</v>
       </c>
       <c r="G117">
-        <v>0.69228699999999999</v>
+        <v>0.69130800000000003</v>
       </c>
       <c r="H117">
-        <v>11.1572</v>
+        <v>11.15</v>
       </c>
       <c r="I117">
-        <v>11.615600000000001</v>
+        <v>11.6144</v>
       </c>
       <c r="J117">
-        <v>0.22028</v>
+        <v>0.22037200000000001</v>
       </c>
       <c r="K117">
-        <v>129.63300000000001</v>
+        <v>131.43299999999999</v>
       </c>
       <c r="L117">
         <v>5070</v>
       </c>
       <c r="M117">
-        <f t="shared" si="1"/>
-        <v>0.45840000000000103</v>
+        <f t="shared" si="3"/>
+        <v>0.46439999999999948</v>
       </c>
       <c r="N117">
         <f>H117-(G117+F117)</f>
-        <v>0.83060299999999998</v>
+        <v>0.83581200000000067</v>
       </c>
       <c r="O117" t="s">
         <v>23</v>
       </c>
+      <c r="P117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -42466,35 +43394,43 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>9.4999900000000004</v>
+        <v>9.4774200000000004</v>
       </c>
       <c r="G118">
-        <v>0.69838199999999995</v>
+        <v>0.696025</v>
       </c>
       <c r="H118">
-        <v>11.033899999999999</v>
+        <v>11.0107</v>
       </c>
       <c r="I118">
-        <v>11.4947</v>
+        <v>11.4727</v>
       </c>
       <c r="J118">
-        <v>0.21820500000000001</v>
+        <v>0.217002</v>
       </c>
       <c r="K118">
-        <v>85.533299999999997</v>
+        <v>85.616699999999994</v>
       </c>
       <c r="L118">
-        <v>5122</v>
+        <v>5133</v>
       </c>
       <c r="M118">
-        <f t="shared" si="1"/>
-        <v>0.46080000000000076</v>
+        <f t="shared" si="3"/>
+        <v>0.46199999999999974</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
       </c>
+      <c r="P118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q118" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -42511,35 +43447,43 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>9.38565</v>
+        <v>9.3773900000000001</v>
       </c>
       <c r="G119">
-        <v>0.69694999999999996</v>
+        <v>0.68903700000000001</v>
       </c>
       <c r="H119">
-        <v>10.9185</v>
+        <v>10.8979</v>
       </c>
       <c r="I119">
-        <v>11.3841</v>
+        <v>11.3614</v>
       </c>
       <c r="J119">
-        <v>0.216805</v>
+        <v>0.21559400000000001</v>
       </c>
       <c r="K119">
-        <v>86.916700000000006</v>
+        <v>87.0167</v>
       </c>
       <c r="L119">
-        <v>5171</v>
+        <v>5182</v>
       </c>
       <c r="M119">
-        <f t="shared" si="1"/>
-        <v>0.46560000000000024</v>
+        <f t="shared" si="3"/>
+        <v>0.4634999999999998</v>
       </c>
       <c r="O119" t="s">
         <v>24</v>
       </c>
+      <c r="P119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -42556,35 +43500,43 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>9.4213699999999996</v>
+        <v>9.9124999999999996</v>
       </c>
       <c r="G120">
-        <v>0.703905</v>
+        <v>0.686581</v>
       </c>
       <c r="H120">
-        <v>10.968</v>
+        <v>11.440099999999999</v>
       </c>
       <c r="I120">
-        <v>11.445499999999999</v>
+        <v>11.918200000000001</v>
       </c>
       <c r="J120">
-        <v>0.11823699999999999</v>
+        <v>0.123752</v>
       </c>
       <c r="K120">
-        <v>2020.8</v>
+        <v>1680.3</v>
       </c>
       <c r="L120">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="M120">
-        <f t="shared" si="1"/>
-        <v>0.47749999999999915</v>
+        <f t="shared" si="3"/>
+        <v>0.4781000000000013</v>
       </c>
       <c r="O120" t="s">
         <v>24</v>
       </c>
+      <c r="P120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -42601,32 +43553,40 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>9.4240899999999996</v>
+        <v>9.4396299999999993</v>
       </c>
       <c r="G121">
-        <v>0.71077699999999999</v>
+        <v>0.72722799999999999</v>
       </c>
       <c r="H121">
-        <v>10.991</v>
+        <v>11.036899999999999</v>
       </c>
       <c r="I121">
-        <v>11.478899999999999</v>
+        <v>11.5289</v>
       </c>
       <c r="J121">
-        <v>0.12567900000000001</v>
+        <v>0.124614</v>
       </c>
       <c r="K121">
-        <v>3361.31</v>
+        <v>3368.87</v>
       </c>
       <c r="L121">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="M121">
-        <f t="shared" si="1"/>
-        <v>0.48789999999999978</v>
+        <f t="shared" si="3"/>
+        <v>0.49200000000000088</v>
       </c>
       <c r="O121" t="s">
         <v>24</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -42639,8 +43599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="AI37" workbookViewId="0">
-      <selection activeCell="BD65" sqref="BD65"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AY67" sqref="AY67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43018,8 +43978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AN25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43364,8 +44324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView topLeftCell="AI19" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43710,8 +44670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AN22" workbookViewId="0">
-      <selection activeCell="BL44" sqref="BL44"/>
+    <sheetView topLeftCell="AI25" workbookViewId="0">
+      <selection activeCell="AX60" sqref="AX60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -1869,24 +1869,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]flag_test_data!$K$27:$K$31</c:f>
+              <c:f>sheet_test_data!$K$27:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>119.583</c:v>
+                  <c:v>174.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.5</c:v>
+                  <c:v>159.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>891.1</c:v>
+                  <c:v>1597.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1775.88</c:v>
+                  <c:v>2211.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2207.5700000000002</c:v>
+                  <c:v>2534.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2030,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2300"/>
+          <c:max val="2600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12637,24 +12637,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]flag_test_data!$K$117:$K$121</c:f>
+              <c:f>sheet_test_data!$K$117:$K$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62.4</c:v>
+                  <c:v>131.43299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.633299999999998</c:v>
+                  <c:v>85.616699999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.366699999999994</c:v>
+                  <c:v>87.0167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.683300000000003</c:v>
+                  <c:v>1680.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1927.35</c:v>
+                  <c:v>3368.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12798,7 +12798,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="3400"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12917,7 +12917,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -37166,8 +37166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43599,8 +43599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AY67" sqref="AY67"/>
+    <sheetView topLeftCell="AM25" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43978,8 +43978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+    <sheetView topLeftCell="AX22" workbookViewId="0">
+      <selection activeCell="AV59" sqref="AV59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44324,7 +44324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AI19" workbookViewId="0">
+    <sheetView topLeftCell="AD16" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
@@ -44670,8 +44670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AI25" workbookViewId="0">
-      <selection activeCell="AX60" sqref="AX60"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -18,9 +18,6 @@
     <sheet name="RK4" sheetId="4" r:id="rId4"/>
     <sheet name="Midpoint" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -774,22 +771,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6237.64</c:v>
+                  <c:v>7467.9083333333328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4355.6000000000004</c:v>
+                  <c:v>5239.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>803.95</c:v>
+                  <c:v>771.46383333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.53300000000002</c:v>
+                  <c:v>474.61933333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.56700000000001</c:v>
+                  <c:v>332.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.55</c:v>
+                  <c:v>196.94433333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,22 +820,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6188.37</c:v>
+                  <c:v>11026.976666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4126.4799999999996</c:v>
+                  <c:v>5350.5216666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709.11699999999996</c:v>
+                  <c:v>817.63349999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>461.2</c:v>
+                  <c:v>531.43316666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.3</c:v>
+                  <c:v>337.55099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.267</c:v>
+                  <c:v>198.86383333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,22 +869,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6957.82</c:v>
+                  <c:v>9302.8499999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>829.63300000000004</c:v>
+                  <c:v>888.13299999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.25</c:v>
+                  <c:v>519.55566666666675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285.95</c:v>
+                  <c:v>327.77766666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.55000000000001</c:v>
+                  <c:v>195.42766666666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.43299999999999</c:v>
+                  <c:v>116.82766666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,22 +918,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3458.88</c:v>
+                  <c:v>5331.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.35</c:v>
+                  <c:v>419.17766666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.13300000000001</c:v>
+                  <c:v>255.23616666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.78299999999999</c:v>
+                  <c:v>136.78616666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.966700000000003</c:v>
+                  <c:v>101.83895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.4</c:v>
+                  <c:v>38.044566666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1072,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="11500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1344,7 +1341,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1353,10 +1350,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1376,6 +1371,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -1410,27 +1419,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.128195</c:v>
+                  <c:v>0.13459699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.494008</c:v>
+                  <c:v>0.50534733333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.07968</c:v>
+                  <c:v>1.0914566666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9441900000000001</c:v>
+                  <c:v>1.9598133333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0827300000000002</c:v>
+                  <c:v>3.0971333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7920199999999999</c:v>
+                  <c:v>4.8047783333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E72-4D8E-9B02-87871C0BD1AB}"/>
@@ -1570,6 +1579,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1811,7 +1821,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1820,10 +1830,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1843,6 +1851,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet_test_data!$E$2:$E$6</c:f>
@@ -1874,24 +1896,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>174.55</c:v>
+                  <c:v>196.94433333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.25</c:v>
+                  <c:v>162.35266666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1597.87</c:v>
+                  <c:v>4746.9333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2211.8000000000002</c:v>
+                  <c:v>5285.6783333333324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2534.98</c:v>
+                  <c:v>5308.6983333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9DDF-4AE8-B1C0-24BF9805549D}"/>
@@ -2030,7 +2052,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2600"/>
+          <c:max val="5500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2149,7 +2171,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2391,10 +2413,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0637400000000001</c:v>
+                  <c:v>6.0676850000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23036100000000001</c:v>
+                  <c:v>0.21457883333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,16 +2756,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.7920199999999999</c:v>
+                  <c:v>4.8047783333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36239900000000003</c:v>
+                  <c:v>0.35483516666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43077399999999999</c:v>
+                  <c:v>0.42918933333333326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47854699999999983</c:v>
+                  <c:v>0.47888216666666761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,22 +2994,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6188.37</c:v>
+                  <c:v>11026.976666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4126.4799999999996</c:v>
+                  <c:v>5350.5216666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709.11699999999996</c:v>
+                  <c:v>817.63349999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>461.2</c:v>
+                  <c:v>531.43316666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.3</c:v>
+                  <c:v>337.55099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.267</c:v>
+                  <c:v>198.86383333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,22 +3043,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7569.62</c:v>
+                  <c:v>12829.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6133.17</c:v>
+                  <c:v>11287.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4610.3</c:v>
+                  <c:v>9426.7950000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2891.57</c:v>
+                  <c:v>6563.3483333333343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>884.73299999999995</c:v>
+                  <c:v>2122.8733333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.81700000000001</c:v>
+                  <c:v>160.50300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,22 +3092,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8101.95</c:v>
+                  <c:v>13033.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6426.13</c:v>
+                  <c:v>12183.831666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5852.6</c:v>
+                  <c:v>11020.628333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4357.43</c:v>
+                  <c:v>9568.3016666666681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2906.92</c:v>
+                  <c:v>7028.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1581.22</c:v>
+                  <c:v>4720.5316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,22 +3141,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8180.25</c:v>
+                  <c:v>13143.833333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7323.42</c:v>
+                  <c:v>12575.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6152.12</c:v>
+                  <c:v>11647.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4775.6000000000004</c:v>
+                  <c:v>10046.596666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3468.87</c:v>
+                  <c:v>7342.6166666666677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2204.59</c:v>
+                  <c:v>5272.5733333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,22 +3190,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7941.98</c:v>
+                  <c:v>13050.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7427.72</c:v>
+                  <c:v>12669.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6297.9</c:v>
+                  <c:v>11919.828333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4961.33</c:v>
+                  <c:v>10258.158333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3722.87</c:v>
+                  <c:v>7353.9233333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2525.58</c:v>
+                  <c:v>5297.2583333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3344,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3587,7 +3609,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3596,10 +3618,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3619,6 +3639,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -3653,27 +3687,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6188.37</c:v>
+                  <c:v>11026.976666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4126.4799999999996</c:v>
+                  <c:v>5350.5216666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>709.11699999999996</c:v>
+                  <c:v>817.63349999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>461.2</c:v>
+                  <c:v>531.43316666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262.3</c:v>
+                  <c:v>337.55099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.267</c:v>
+                  <c:v>198.86383333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B524-4C94-909A-EDFB0C631022}"/>
@@ -3817,7 +3851,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
+          <c:max val="11500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4050,7 +4085,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4059,10 +4094,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4082,6 +4115,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -4116,27 +4163,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15251300000000001</c:v>
+                  <c:v>0.160639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60048100000000004</c:v>
+                  <c:v>0.60782233333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3480799999999999</c:v>
+                  <c:v>1.3573216666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.42197</c:v>
+                  <c:v>2.434368333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.93458</c:v>
+                  <c:v>3.9253216666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3273299999999999</c:v>
+                  <c:v>6.3444399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB56-4C42-AC79-2531DF04F9C5}"/>
@@ -4520,7 +4567,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4529,10 +4576,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4552,6 +4597,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -4586,27 +4645,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.128746</c:v>
+                  <c:v>0.1323208333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50561100000000003</c:v>
+                  <c:v>0.51130166666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1392100000000001</c:v>
+                  <c:v>1.1451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0425900000000001</c:v>
+                  <c:v>2.0511516666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2438600000000002</c:v>
+                  <c:v>3.2488166666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0709099999999996</c:v>
+                  <c:v>5.0794766666666673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4B5-481E-8285-386ACD217FC8}"/>
@@ -4989,7 +5048,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4998,10 +5057,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5021,6 +5078,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet_test_data!$E$2:$E$6</c:f>
@@ -5052,24 +5123,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>192.267</c:v>
+                  <c:v>198.86383333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.81700000000001</c:v>
+                  <c:v>160.50300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1581.22</c:v>
+                  <c:v>4720.5316666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2204.59</c:v>
+                  <c:v>5272.5733333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2525.58</c:v>
+                  <c:v>5297.2583333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4235-4876-9F75-A94A0D85F44B}"/>
@@ -5208,7 +5279,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2600"/>
+          <c:max val="5500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5327,7 +5398,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5569,10 +5640,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.3273299999999999</c:v>
+                  <c:v>6.3444399999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27427299999999999</c:v>
+                  <c:v>0.21530150000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,22 +5872,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6899.77</c:v>
+                  <c:v>8628.6316666666662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7694.87</c:v>
+                  <c:v>11502.674999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3841.78</c:v>
+                  <c:v>5366.5683333333327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4675.25</c:v>
+                  <c:v>6398.4449999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2167.25</c:v>
+                  <c:v>2931.2216666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159.25</c:v>
+                  <c:v>162.35266666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,22 +5921,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7569.62</c:v>
+                  <c:v>12829.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6133.17</c:v>
+                  <c:v>11287.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4610.3</c:v>
+                  <c:v>9426.7950000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2891.57</c:v>
+                  <c:v>6563.3483333333343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>884.73299999999995</c:v>
+                  <c:v>2122.8733333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.81700000000001</c:v>
+                  <c:v>160.50300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,22 +5970,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7803.1</c:v>
+                  <c:v>12288.316666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6376.35</c:v>
+                  <c:v>9912.7899999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4361.58</c:v>
+                  <c:v>6382.3983333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1052.47</c:v>
+                  <c:v>1102.9855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.833</c:v>
+                  <c:v>134.65833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.616699999999994</c:v>
+                  <c:v>85.444450000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5948,22 +6019,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6089.17</c:v>
+                  <c:v>11085.038333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3503.02</c:v>
+                  <c:v>6243.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.56700000000001</c:v>
+                  <c:v>170.489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.983</c:v>
+                  <c:v>102.90849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.3</c:v>
+                  <c:v>64.477783333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.666699999999999</c:v>
+                  <c:v>41.030099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,7 +6173,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6534,16 +6605,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0709099999999996</c:v>
+                  <c:v>5.0794766666666673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35525899999999999</c:v>
+                  <c:v>0.35579216666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.425481</c:v>
+                  <c:v>0.43054083333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47568000000000055</c:v>
+                  <c:v>0.47863033333333238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6772,22 +6843,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3458.88</c:v>
+                  <c:v>5331.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.35</c:v>
+                  <c:v>419.17766666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.13300000000001</c:v>
+                  <c:v>255.23616666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.78299999999999</c:v>
+                  <c:v>136.78616666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.966700000000003</c:v>
+                  <c:v>101.83895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.4</c:v>
+                  <c:v>38.044566666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6821,22 +6892,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6089.17</c:v>
+                  <c:v>11085.038333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3503.02</c:v>
+                  <c:v>6243.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.56700000000001</c:v>
+                  <c:v>170.489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.983</c:v>
+                  <c:v>102.90849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.3</c:v>
+                  <c:v>64.477783333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.666699999999999</c:v>
+                  <c:v>41.030099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,22 +6941,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6651.95</c:v>
+                  <c:v>12290.783333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5529.33</c:v>
+                  <c:v>10051.859999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4606.78</c:v>
+                  <c:v>6019.2616666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343.3</c:v>
+                  <c:v>411.38316666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.933300000000003</c:v>
+                  <c:v>65.573666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.2333</c:v>
+                  <c:v>41.844450000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6919,22 +6990,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6828.65</c:v>
+                  <c:v>12641.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6842.05</c:v>
+                  <c:v>11001.491666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5363.3</c:v>
+                  <c:v>8201.8666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3343.7</c:v>
+                  <c:v>4466.9949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.416700000000006</c:v>
+                  <c:v>66.262749999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.6</c:v>
+                  <c:v>42.294449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6968,22 +7039,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7071.5</c:v>
+                  <c:v>12618.566666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7081.33</c:v>
+                  <c:v>11498.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5546.38</c:v>
+                  <c:v>9376.3000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4121.1499999999996</c:v>
+                  <c:v>6535.6466666666674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1915.35</c:v>
+                  <c:v>2735.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.85</c:v>
+                  <c:v>42.70556666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7122,7 +7193,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7387,7 +7458,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7396,10 +7467,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7419,6 +7488,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -7453,27 +7536,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3458.88</c:v>
+                  <c:v>5331.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.35</c:v>
+                  <c:v>419.17766666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.13300000000001</c:v>
+                  <c:v>255.23616666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.78299999999999</c:v>
+                  <c:v>136.78616666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.966700000000003</c:v>
+                  <c:v>101.83895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.4</c:v>
+                  <c:v>38.044566666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC05-42E8-A83D-4A74E778B2CD}"/>
@@ -7617,7 +7700,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500"/>
+          <c:max val="5500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7850,7 +7934,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7859,10 +7943,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7882,6 +7964,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -7916,27 +8012,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61111700000000002</c:v>
+                  <c:v>0.6121943333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8833000000000002</c:v>
+                  <c:v>2.9345866666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0126299999999997</c:v>
+                  <c:v>6.2338766666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.456799999999999</c:v>
+                  <c:v>10.658216666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.633700000000001</c:v>
+                  <c:v>16.753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.9069</c:v>
+                  <c:v>26.220116666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B447-4871-BA4B-111C2C41AF19}"/>
@@ -8320,7 +8416,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8329,10 +8425,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8352,6 +8446,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -8386,27 +8494,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.51068000000000002</c:v>
+                  <c:v>0.51198149999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4673400000000001</c:v>
+                  <c:v>2.5164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0496699999999999</c:v>
+                  <c:v>5.2534416666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5655800000000006</c:v>
+                  <c:v>8.7544133333333338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.2395</c:v>
+                  <c:v>13.414733333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0976</c:v>
+                  <c:v>20.35638333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D0A-4647-94B6-C267E2D4FA6E}"/>
@@ -8546,6 +8654,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8784,7 +8893,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8793,10 +8902,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8816,6 +8923,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet_test_data!$E$2:$E$6</c:f>
@@ -8847,24 +8968,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>38.4</c:v>
+                  <c:v>38.044566666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.666699999999999</c:v>
+                  <c:v>41.030099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.2333</c:v>
+                  <c:v>41.844450000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.6</c:v>
+                  <c:v>42.294449999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.85</c:v>
+                  <c:v>42.70556666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C928-44C1-836C-61CF5DC879B0}"/>
@@ -9003,7 +9124,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42.2"/>
+          <c:max val="43"/>
           <c:min val="38"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9364,10 +9485,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.9069</c:v>
+                  <c:v>26.220116666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.219219</c:v>
+                  <c:v>0.22555399999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9707,16 +9828,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.0976</c:v>
+                  <c:v>20.35638333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.40358</c:v>
+                  <c:v>1.4217466666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2975199999999987</c:v>
+                  <c:v>3.320953333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1082000000000001</c:v>
+                  <c:v>1.1210333333333296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9945,22 +10066,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6957.82</c:v>
+                  <c:v>9302.8499999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>829.63300000000004</c:v>
+                  <c:v>888.13299999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.25</c:v>
+                  <c:v>519.55566666666675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285.95</c:v>
+                  <c:v>327.77766666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.55000000000001</c:v>
+                  <c:v>195.42766666666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.43299999999999</c:v>
+                  <c:v>116.82766666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9994,22 +10115,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7803.1</c:v>
+                  <c:v>12288.316666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6376.35</c:v>
+                  <c:v>9912.7899999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4361.58</c:v>
+                  <c:v>6382.3983333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1052.47</c:v>
+                  <c:v>1102.9855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.833</c:v>
+                  <c:v>134.65833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.616699999999994</c:v>
+                  <c:v>85.444450000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10043,22 +10164,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8368.32</c:v>
+                  <c:v>12791.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6885.05</c:v>
+                  <c:v>11484.824999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3752.77</c:v>
+                  <c:v>5391.3566666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4546.3999999999996</c:v>
+                  <c:v>6857.4016666666676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2385.23</c:v>
+                  <c:v>3364.353333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.0167</c:v>
+                  <c:v>87.102700000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10092,22 +10213,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8497.1</c:v>
+                  <c:v>12942.966666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5757.87</c:v>
+                  <c:v>9041.2683333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6388.75</c:v>
+                  <c:v>10588.135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5711.51</c:v>
+                  <c:v>8858.1533333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4426.63</c:v>
+                  <c:v>6408.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1680.3</c:v>
+                  <c:v>2802.7233333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10141,22 +10262,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7994.62</c:v>
+                  <c:v>13016.016666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8551.98</c:v>
+                  <c:v>12299.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6434.1</c:v>
+                  <c:v>11165.841666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6312.87</c:v>
+                  <c:v>9679.4666666666653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5165.7299999999996</c:v>
+                  <c:v>7170.6233333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3368.87</c:v>
+                  <c:v>4914.541666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10295,7 +10416,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10560,7 +10681,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10569,10 +10690,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10592,6 +10711,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -10626,27 +10759,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6957.82</c:v>
+                  <c:v>9302.8499999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>829.63300000000004</c:v>
+                  <c:v>888.13299999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.25</c:v>
+                  <c:v>519.55566666666675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285.95</c:v>
+                  <c:v>327.77766666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.55000000000001</c:v>
+                  <c:v>195.42766666666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>131.43299999999999</c:v>
+                  <c:v>116.82766666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F8C-4C14-9886-D7C47D418329}"/>
@@ -10790,7 +10923,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000"/>
+          <c:max val="9500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11080,22 +11214,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7007.4</c:v>
+                  <c:v>8763.2150000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8446.43</c:v>
+                  <c:v>12411.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6503.32</c:v>
+                  <c:v>11164.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6348.05</c:v>
+                  <c:v>9114.4666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5286.8</c:v>
+                  <c:v>7066.6916666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1597.87</c:v>
+                  <c:v>4746.9333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11129,22 +11263,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8101.95</c:v>
+                  <c:v>13033.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6426.13</c:v>
+                  <c:v>12183.831666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5852.6</c:v>
+                  <c:v>11020.628333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4357.43</c:v>
+                  <c:v>9568.3016666666681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2906.92</c:v>
+                  <c:v>7028.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1581.22</c:v>
+                  <c:v>4720.5316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11178,22 +11312,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8368.32</c:v>
+                  <c:v>12791.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6885.05</c:v>
+                  <c:v>11484.824999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3752.77</c:v>
+                  <c:v>5391.3566666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4546.3999999999996</c:v>
+                  <c:v>6857.4016666666676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2385.23</c:v>
+                  <c:v>3364.353333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.0167</c:v>
+                  <c:v>87.102700000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11227,22 +11361,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6651.95</c:v>
+                  <c:v>12290.783333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5529.33</c:v>
+                  <c:v>10051.859999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4606.78</c:v>
+                  <c:v>6019.2616666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343.3</c:v>
+                  <c:v>411.38316666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.933300000000003</c:v>
+                  <c:v>65.573666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.2333</c:v>
+                  <c:v>41.844450000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11381,7 +11515,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11645,7 +11779,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11654,10 +11788,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -11677,6 +11809,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -11711,27 +11857,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.293464</c:v>
+                  <c:v>0.30040466666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24214</c:v>
+                  <c:v>1.2410566666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5865900000000002</c:v>
+                  <c:v>2.6312066666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5756100000000002</c:v>
+                  <c:v>4.6377433333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2591999999999999</c:v>
+                  <c:v>7.3917016666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.6144</c:v>
+                  <c:v>11.784066666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8B67-48D7-9218-C1DB20CBA26D}"/>
@@ -12115,7 +12261,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12124,10 +12270,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12147,6 +12291,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -12181,27 +12339,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25656299999999999</c:v>
+                  <c:v>0.25995499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0865499999999999</c:v>
+                  <c:v>1.0843016666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2388599999999999</c:v>
+                  <c:v>2.27752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9445299999999999</c:v>
+                  <c:v>3.9957100000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1826499999999998</c:v>
+                  <c:v>6.2786783333333345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6228800000000003</c:v>
+                  <c:v>9.7411249999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C0D6-4592-B3ED-465C5296BD37}"/>
@@ -12341,6 +12499,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12579,7 +12738,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12588,10 +12747,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12611,6 +12768,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet_test_data!$E$2:$E$6</c:f>
@@ -12642,24 +12813,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>131.43299999999999</c:v>
+                  <c:v>116.82766666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.616699999999994</c:v>
+                  <c:v>85.444450000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.0167</c:v>
+                  <c:v>87.102700000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1680.3</c:v>
+                  <c:v>2802.7233333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3368.87</c:v>
+                  <c:v>4914.541666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9009-46EF-BD74-BD185D49107F}"/>
@@ -12798,7 +12969,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3400"/>
+          <c:max val="5000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13159,10 +13330,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11.6144</c:v>
+                  <c:v>11.784066666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22037200000000001</c:v>
+                  <c:v>0.22229933333333338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13502,16 +13673,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6228800000000003</c:v>
+                  <c:v>9.7411249999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69130800000000003</c:v>
+                  <c:v>0.70861583333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83581200000000067</c:v>
+                  <c:v>0.85855916666666587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46439999999999948</c:v>
+                  <c:v>0.47576666666667045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13740,22 +13911,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7029.55</c:v>
+                  <c:v>8822.2333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7986.1</c:v>
+                  <c:v>12747.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7047.32</c:v>
+                  <c:v>11741.516666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6968.5</c:v>
+                  <c:v>9523.7966666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5889.83</c:v>
+                  <c:v>7364.295000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2211.8000000000002</c:v>
+                  <c:v>5285.6783333333324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13789,22 +13960,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8180.25</c:v>
+                  <c:v>13143.833333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7323.42</c:v>
+                  <c:v>12575.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6152.12</c:v>
+                  <c:v>11647.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4775.6000000000004</c:v>
+                  <c:v>10046.596666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3468.87</c:v>
+                  <c:v>7342.6166666666677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2204.59</c:v>
+                  <c:v>5272.5733333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13838,22 +14009,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8497.1</c:v>
+                  <c:v>12942.966666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5757.87</c:v>
+                  <c:v>9041.2683333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6388.75</c:v>
+                  <c:v>10588.135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5711.51</c:v>
+                  <c:v>8858.1533333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4426.63</c:v>
+                  <c:v>6408.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1680.3</c:v>
+                  <c:v>2802.7233333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13887,22 +14058,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6828.65</c:v>
+                  <c:v>12641.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6842.05</c:v>
+                  <c:v>11001.491666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5363.3</c:v>
+                  <c:v>8201.8666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3343.7</c:v>
+                  <c:v>4466.9949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.416700000000006</c:v>
+                  <c:v>66.262749999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.6</c:v>
+                  <c:v>42.294449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14041,7 +14212,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14362,22 +14533,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7232.75</c:v>
+                  <c:v>8588.503333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8237.93</c:v>
+                  <c:v>12834.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6883.48</c:v>
+                  <c:v>12038.483333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7243.45</c:v>
+                  <c:v>9712.5683333333327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5836</c:v>
+                  <c:v>7378.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2534.98</c:v>
+                  <c:v>5308.6983333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14411,22 +14582,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7941.98</c:v>
+                  <c:v>13050.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7427.72</c:v>
+                  <c:v>12669.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6297.9</c:v>
+                  <c:v>11919.828333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4961.33</c:v>
+                  <c:v>10258.158333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3722.87</c:v>
+                  <c:v>7353.9233333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2525.58</c:v>
+                  <c:v>5297.2583333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14460,22 +14631,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7994.62</c:v>
+                  <c:v>13016.016666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8551.98</c:v>
+                  <c:v>12299.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6434.1</c:v>
+                  <c:v>11165.841666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6312.87</c:v>
+                  <c:v>9679.4666666666653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5165.7299999999996</c:v>
+                  <c:v>7170.6233333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3368.87</c:v>
+                  <c:v>4914.541666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14509,22 +14680,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7071.5</c:v>
+                  <c:v>12618.566666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7081.33</c:v>
+                  <c:v>11498.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5546.38</c:v>
+                  <c:v>9376.3000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4121.1499999999996</c:v>
+                  <c:v>6535.6466666666674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1915.35</c:v>
+                  <c:v>2735.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.85</c:v>
+                  <c:v>42.70556666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14663,7 +14834,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14975,16 +15146,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0637400000000001</c:v>
+                  <c:v>6.0676850000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3273299999999999</c:v>
+                  <c:v>6.3444399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.6144</c:v>
+                  <c:v>11.784066666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.9069</c:v>
+                  <c:v>26.220116666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15118,7 +15289,7 @@
         <c:axId val="1464249695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="26"/>
+          <c:max val="27"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15408,22 +15579,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6237.64</c:v>
+                  <c:v>7467.9083333333328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4355.6000000000004</c:v>
+                  <c:v>5239.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>803.95</c:v>
+                  <c:v>771.46383333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.53300000000002</c:v>
+                  <c:v>474.61933333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.56700000000001</c:v>
+                  <c:v>332.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.55</c:v>
+                  <c:v>196.94433333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15457,22 +15628,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6899.77</c:v>
+                  <c:v>8628.6316666666662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7694.87</c:v>
+                  <c:v>11502.674999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3841.78</c:v>
+                  <c:v>5366.5683333333327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4675.25</c:v>
+                  <c:v>6398.4449999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2167.25</c:v>
+                  <c:v>2931.2216666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159.25</c:v>
+                  <c:v>162.35266666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15506,22 +15677,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7007.4</c:v>
+                  <c:v>8763.2150000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8446.43</c:v>
+                  <c:v>12411.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6503.32</c:v>
+                  <c:v>11164.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6348.05</c:v>
+                  <c:v>9114.4666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5286.8</c:v>
+                  <c:v>7066.6916666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1597.87</c:v>
+                  <c:v>4746.9333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15555,22 +15726,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7029.55</c:v>
+                  <c:v>8822.2333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7986.1</c:v>
+                  <c:v>12747.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7047.32</c:v>
+                  <c:v>11741.516666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6968.5</c:v>
+                  <c:v>9523.7966666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5889.83</c:v>
+                  <c:v>7364.295000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2211.8000000000002</c:v>
+                  <c:v>5285.6783333333324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15604,22 +15775,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7232.75</c:v>
+                  <c:v>8588.503333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8237.93</c:v>
+                  <c:v>12834.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6883.48</c:v>
+                  <c:v>12038.483333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7243.45</c:v>
+                  <c:v>9712.5683333333327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5836</c:v>
+                  <c:v>7378.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2534.98</c:v>
+                  <c:v>5308.6983333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15758,7 +15929,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -16027,7 +16198,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16036,10 +16207,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -16059,6 +16228,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -16093,27 +16276,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6237.64</c:v>
+                  <c:v>7467.9083333333328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4355.6000000000004</c:v>
+                  <c:v>5239.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>803.95</c:v>
+                  <c:v>771.46383333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.53300000000002</c:v>
+                  <c:v>474.61933333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.56700000000001</c:v>
+                  <c:v>332.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.55</c:v>
+                  <c:v>196.94433333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3A66-46C0-BD52-8DEBA2BCB96C}"/>
@@ -16257,7 +16440,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
+          <c:max val="7500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16490,7 +16674,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16499,10 +16683,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -16522,6 +16704,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(sheet_test_data!$D$2,sheet_test_data!$D$7,sheet_test_data!$D$12,sheet_test_data!$D$17,sheet_test_data!$D$22,sheet_test_data!$D$27)</c:f>
@@ -16556,27 +16752,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15288399999999999</c:v>
+                  <c:v>0.160774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58996700000000002</c:v>
+                  <c:v>0.60218183333333342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2900400000000001</c:v>
+                  <c:v>1.3046983333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.32247</c:v>
+                  <c:v>2.3463383333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7453599999999998</c:v>
+                  <c:v>3.7802016666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0637400000000001</c:v>
+                  <c:v>6.0676850000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-243A-4828-9D72-A385D64F498F}"/>
@@ -36795,78 +36991,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="flag_test_data"/>
-      <sheetName val="Midpoint"/>
-      <sheetName val="RK4"/>
-      <sheetName val="Verlet"/>
-      <sheetName val="Explicit Euler"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="27">
-          <cell r="K27">
-            <v>119.583</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>121.5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>891.1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>1775.88</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>2207.5700000000002</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="K117">
-            <v>62.4</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="K118">
-            <v>63.633299999999998</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="K119">
-            <v>65.366699999999994</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="K120">
-            <v>90.683300000000003</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="K121">
-            <v>1927.35</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -37166,15 +37290,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S241" sqref="S241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -37238,40 +37362,40 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.128195</v>
+        <v>0.13459699999999999</v>
       </c>
       <c r="G2">
-        <v>5.1448800000000001E-3</v>
+        <v>4.7905150000000004E-3</v>
       </c>
       <c r="H2">
-        <v>8.7077200000000004E-3</v>
+        <v>8.6165516666666664E-3</v>
       </c>
       <c r="I2">
-        <v>0.15288399999999999</v>
+        <v>0.160774</v>
       </c>
       <c r="J2">
-        <v>0.13500699999999999</v>
+        <v>0.1128402</v>
       </c>
       <c r="K2">
-        <v>6237.64</v>
+        <v>7467.9083333333328</v>
       </c>
       <c r="L2">
-        <v>55824</v>
+        <v>56684.833333333336</v>
       </c>
       <c r="M2">
         <f>I2-(H2+G2+F2)</f>
-        <v>1.0836399999999996E-2</v>
+        <v>1.2769933333333344E-2</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2">
         <f>I7/I2</f>
-        <v>3.8589191805551923</v>
+        <v>3.7455175173431861</v>
       </c>
       <c r="Q2">
         <f>K2/K7</f>
-        <v>1.4320966112590687</v>
+        <v>1.4251978246445709</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -37291,40 +37415,40 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.12439500000000001</v>
+        <v>0.13139266666666669</v>
       </c>
       <c r="G3">
-        <v>5.11963E-3</v>
+        <v>4.7680833333333334E-3</v>
       </c>
       <c r="H3">
-        <v>8.7405299999999998E-3</v>
+        <v>8.573618333333333E-3</v>
       </c>
       <c r="I3">
-        <v>0.160498</v>
+        <v>0.17134566666666665</v>
       </c>
       <c r="J3">
-        <v>0.140042</v>
+        <v>0.11305083333333334</v>
       </c>
       <c r="K3">
-        <v>6899.77</v>
+        <v>8628.6316666666662</v>
       </c>
       <c r="L3">
-        <v>11842</v>
+        <v>11886.333333333334</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M61" si="0">I3-(H3+G3+F3)</f>
-        <v>2.2242839999999986E-2</v>
+        <v>2.6611298333333283E-2</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P66" si="1">I8/I3</f>
-        <v>3.6233722538598609</v>
+        <v>3.4520083184673478</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="2">K3/K8</f>
-        <v>0.89667141875041434</v>
+        <v>0.75014130771030807</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -37344,40 +37468,40 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0.120058</v>
+        <v>0.12515066666666666</v>
       </c>
       <c r="G4">
-        <v>5.1391099999999997E-3</v>
+        <v>4.7574466666666666E-3</v>
       </c>
       <c r="H4">
-        <v>8.7593399999999991E-3</v>
+        <v>8.5725616666666657E-3</v>
       </c>
       <c r="I4">
-        <v>0.16719999999999999</v>
+        <v>0.18046633333333331</v>
       </c>
       <c r="J4">
-        <v>0.14006399999999999</v>
+        <v>0.11317833333333333</v>
       </c>
       <c r="K4">
-        <v>7007.4</v>
+        <v>8763.2150000000001</v>
       </c>
       <c r="L4">
-        <v>5965</v>
+        <v>5976.333333333333</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>3.3243549999999983E-2</v>
+        <v>4.1985658333333314E-2</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>3.495209330143541</v>
+        <v>3.3369677446762926</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>0.82962861232497032</v>
+        <v>0.70607029912377883</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -37397,40 +37521,40 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.119375</v>
+        <v>0.12430666666666666</v>
       </c>
       <c r="G5">
-        <v>5.1658499999999996E-3</v>
+        <v>4.7417116666666672E-3</v>
       </c>
       <c r="H5">
-        <v>8.76562E-3</v>
+        <v>8.5527799999999994E-3</v>
       </c>
       <c r="I5">
-        <v>0.177422</v>
+        <v>0.1947575</v>
       </c>
       <c r="J5">
-        <v>0.14033300000000001</v>
+        <v>0.11301116666666668</v>
       </c>
       <c r="K5">
-        <v>7029.55</v>
+        <v>8822.2333333333336</v>
       </c>
       <c r="L5">
-        <v>3985</v>
+        <v>3991.3333333333335</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4.4115530000000014E-2</v>
+        <v>5.7156341666666666E-2</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>3.3478655409137534</v>
+        <v>3.2008420728341651</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>0.88022313770175675</v>
+        <v>0.69208280925995169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -37450,40 +37574,40 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.115108</v>
+        <v>0.12027066666666665</v>
       </c>
       <c r="G6">
-        <v>5.1925799999999996E-3</v>
+        <v>4.7607466666666669E-3</v>
       </c>
       <c r="H6">
-        <v>8.7463599999999999E-3</v>
+        <v>8.5702799999999996E-3</v>
       </c>
       <c r="I6">
-        <v>0.185422</v>
+        <v>0.20425150000000003</v>
       </c>
       <c r="J6">
-        <v>0.136659</v>
+        <v>0.11701433333333333</v>
       </c>
       <c r="K6">
-        <v>7232.75</v>
+        <v>8588.503333333334</v>
       </c>
       <c r="L6">
-        <v>2993</v>
+        <v>2995.6666666666665</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>5.6375060000000005E-2</v>
+        <v>7.0649806666666704E-2</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
       </c>
       <c r="P6">
         <f>I11/I6</f>
-        <v>3.2756684751539726</v>
+        <v>3.1517279758859376</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.87798148321240888</v>
+        <v>0.66915668189001543</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -37503,40 +37627,40 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.494008</v>
+        <v>0.50534733333333326</v>
       </c>
       <c r="G7">
-        <v>2.4864299999999999E-2</v>
+        <v>2.5057116666666667E-2</v>
       </c>
       <c r="H7">
-        <v>3.7046700000000002E-2</v>
+        <v>3.6831733333333332E-2</v>
       </c>
       <c r="I7">
-        <v>0.58996700000000002</v>
+        <v>0.60218183333333342</v>
       </c>
       <c r="J7">
-        <v>0.103023</v>
+        <v>8.3257733333333334E-2</v>
       </c>
       <c r="K7">
-        <v>4355.6000000000004</v>
+        <v>5239.91</v>
       </c>
       <c r="L7">
-        <v>56345</v>
+        <v>57600.666666666664</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3.4047999999999967E-2</v>
+        <v>3.4945650000000161E-2</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
       </c>
       <c r="P7">
         <f>I12/I7</f>
-        <v>2.1866307776536655</v>
+        <v>2.1666185545838728</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>5.4177498600659248</v>
+        <v>6.7921654568814303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -37556,40 +37680,40 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.47416399999999997</v>
+        <v>0.47802916666666673</v>
       </c>
       <c r="G8">
-        <v>2.4895299999999999E-2</v>
+        <v>2.5070466666666666E-2</v>
       </c>
       <c r="H8">
-        <v>3.7001899999999997E-2</v>
+        <v>3.6958033333333327E-2</v>
       </c>
       <c r="I8">
-        <v>0.58154399999999995</v>
+        <v>0.59148666666666661</v>
       </c>
       <c r="J8">
-        <v>0.113658</v>
+        <v>7.764911666666667E-2</v>
       </c>
       <c r="K8">
-        <v>7694.87</v>
+        <v>11502.674999999997</v>
       </c>
       <c r="L8">
-        <v>11867</v>
+        <v>11931.666666666666</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.5482799999999934E-2</v>
+        <v>5.1428999999999836E-2</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>2.2150000687824138</v>
+        <v>2.234910902471738</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>2.0029439478575033</v>
+        <v>2.1433948634462556</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -37609,40 +37733,40 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.46377600000000002</v>
+        <v>0.46694366666666665</v>
       </c>
       <c r="G9">
-        <v>2.4988099999999999E-2</v>
+        <v>2.5083383333333334E-2</v>
       </c>
       <c r="H9">
-        <v>3.7156799999999997E-2</v>
+        <v>3.7050549999999995E-2</v>
       </c>
       <c r="I9">
-        <v>0.584399</v>
+        <v>0.60221033333333329</v>
       </c>
       <c r="J9">
-        <v>0.111234</v>
+        <v>7.6148316666666674E-2</v>
       </c>
       <c r="K9">
-        <v>8446.43</v>
+        <v>12411.25</v>
       </c>
       <c r="L9">
-        <v>5967</v>
+        <v>5985.333333333333</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>5.8478099999999977E-2</v>
+        <v>7.3132733333333366E-2</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>2.2269545293540887</v>
+        <v>2.1884574105060746</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>1.2987873885953638</v>
+        <v>1.1116310938745533</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -37662,40 +37786,40 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.463117</v>
+        <v>0.46673466666666669</v>
       </c>
       <c r="G10">
-        <v>2.5027000000000001E-2</v>
+        <v>2.5103516666666669E-2</v>
       </c>
       <c r="H10">
-        <v>3.7067700000000002E-2</v>
+        <v>3.7099616666666668E-2</v>
       </c>
       <c r="I10">
-        <v>0.59398499999999999</v>
+        <v>0.62338799999999994</v>
       </c>
       <c r="J10">
-        <v>0.11994</v>
+        <v>7.5606999999999994E-2</v>
       </c>
       <c r="K10">
-        <v>7986.1</v>
+        <v>12747.366666666667</v>
       </c>
       <c r="L10">
-        <v>3985</v>
+        <v>3995.5</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>6.8773299999999926E-2</v>
+        <v>9.4450199999999929E-2</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>2.2292145424547756</v>
+        <v>2.1492794214838913</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>1.1332109227337486</v>
+        <v>1.0856661050318597</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -37715,40 +37839,40 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.46368300000000001</v>
+        <v>0.4675488333333333</v>
       </c>
       <c r="G11">
-        <v>2.5016500000000001E-2</v>
+        <v>2.5116416666666669E-2</v>
       </c>
       <c r="H11">
-        <v>3.7092E-2</v>
+        <v>3.7120800000000002E-2</v>
       </c>
       <c r="I11">
-        <v>0.60738099999999995</v>
+        <v>0.6437451666666667</v>
       </c>
       <c r="J11">
-        <v>0.117399</v>
+        <v>7.5902333333333336E-2</v>
       </c>
       <c r="K11">
-        <v>8237.93</v>
+        <v>12834.816666666666</v>
       </c>
       <c r="L11">
-        <v>2993</v>
+        <v>2999.6666666666665</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.1589499999999981E-2</v>
+        <v>0.11395911666666669</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>2.1789124124725672</v>
+        <v>2.114322670642705</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1.1967682044547236</v>
+        <v>1.0661489750231548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -37768,40 +37892,40 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.07968</v>
+        <v>1.0914566666666665</v>
       </c>
       <c r="G12">
-        <v>5.6652599999999997E-2</v>
+        <v>5.6871266666666663E-2</v>
       </c>
       <c r="H12">
-        <v>8.2513199999999995E-2</v>
+        <v>8.3141449999999992E-2</v>
       </c>
       <c r="I12">
-        <v>1.2900400000000001</v>
+        <v>1.3046983333333333</v>
       </c>
       <c r="J12">
-        <v>9.2062599999999994E-2</v>
+        <v>9.9279799999999988E-2</v>
       </c>
       <c r="K12">
-        <v>803.95</v>
+        <v>771.46383333333335</v>
       </c>
       <c r="L12">
-        <v>43409</v>
+        <v>42758.666666666664</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.1194200000000096E-2</v>
+        <v>7.322895000000007E-2</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>1.8003085175653468</v>
+        <v>1.7983761252601176</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>1.88927768234191</v>
+        <v>1.6254370168935384</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -37821,40 +37945,40 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.0693699999999999</v>
+        <v>1.0948683333333333</v>
       </c>
       <c r="G13">
-        <v>5.7040800000000003E-2</v>
+        <v>5.8395616666666671E-2</v>
       </c>
       <c r="H13">
-        <v>8.2892199999999999E-2</v>
+        <v>8.4849816666666647E-2</v>
       </c>
       <c r="I13">
-        <v>1.2881199999999999</v>
+        <v>1.32192</v>
       </c>
       <c r="J13">
-        <v>0.19354099999999999</v>
+        <v>0.13728883333333333</v>
       </c>
       <c r="K13">
-        <v>3841.78</v>
+        <v>5366.5683333333327</v>
       </c>
       <c r="L13">
-        <v>11667</v>
+        <v>11774.5</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>7.8816999999999915E-2</v>
+        <v>8.3806233333333369E-2</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>1.7957643697792132</v>
+        <v>1.7717877531671105</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0.82172718036468639</v>
+        <v>0.83873008728422815</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -37874,40 +37998,40 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1.0668</v>
+        <v>1.0665099999999998</v>
       </c>
       <c r="G14">
-        <v>5.7029299999999998E-2</v>
+        <v>5.7027033333333338E-2</v>
       </c>
       <c r="H14">
-        <v>8.3384899999999998E-2</v>
+        <v>8.3429550000000005E-2</v>
       </c>
       <c r="I14">
-        <v>1.3014300000000001</v>
+        <v>1.3179116666666666</v>
       </c>
       <c r="J14">
-        <v>0.13342200000000001</v>
+        <v>7.8820183333333335E-2</v>
       </c>
       <c r="K14">
-        <v>6503.32</v>
+        <v>11164.9</v>
       </c>
       <c r="L14">
-        <v>5952</v>
+        <v>5978.5</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>9.4215800000000183E-2</v>
+        <v>0.11094508333333342</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>1.7950177881253697</v>
+        <v>1.8086126156659463</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>1.0244594796827371</v>
+        <v>1.2249647081196924</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -37927,40 +38051,40 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1.0746800000000001</v>
+        <v>1.0680516666666666</v>
       </c>
       <c r="G15">
-        <v>5.7959900000000002E-2</v>
+        <v>5.7218949999999998E-2</v>
       </c>
       <c r="H15">
-        <v>8.3966100000000002E-2</v>
+        <v>8.3524366666666669E-2</v>
       </c>
       <c r="I15">
-        <v>1.32412</v>
+        <v>1.3398349999999999</v>
       </c>
       <c r="J15">
-        <v>0.12897900000000001</v>
+        <v>7.8595983333333327E-2</v>
       </c>
       <c r="K15">
-        <v>7047.32</v>
+        <v>11741.516666666668</v>
       </c>
       <c r="L15">
-        <v>3979</v>
+        <v>3993</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.10751399999999989</v>
+        <v>0.13104001666666654</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>1.7907818022535722</v>
+        <v>1.8046189767147947</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>1.0113108990457056</v>
+        <v>1.2328609143622344</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -37980,40 +38104,40 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.0659400000000001</v>
+        <v>1.0691133333333331</v>
       </c>
       <c r="G16">
-        <v>5.7898600000000001E-2</v>
+        <v>5.7360950000000001E-2</v>
       </c>
       <c r="H16">
-        <v>8.33589E-2</v>
+        <v>8.3510699999999993E-2</v>
       </c>
       <c r="I16">
-        <v>1.3234300000000001</v>
+        <v>1.3610849999999999</v>
       </c>
       <c r="J16">
-        <v>0.13541400000000001</v>
+        <v>7.8558866666666657E-2</v>
       </c>
       <c r="K16">
-        <v>6883.48</v>
+        <v>12038.483333333335</v>
       </c>
       <c r="L16">
-        <v>2989</v>
+        <v>2998</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.11623249999999996</v>
+        <v>0.15110001666666673</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>1.8151847849905169</v>
+        <v>1.8018223206730903</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>0.95030406781298959</v>
+        <v>1.2394747630261205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -38033,40 +38157,40 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.9441900000000001</v>
+        <v>1.9598133333333332</v>
       </c>
       <c r="G17">
-        <v>0.102701</v>
+        <v>0.10475316666666666</v>
       </c>
       <c r="H17">
-        <v>0.14780299999999999</v>
+        <v>0.14915300000000001</v>
       </c>
       <c r="I17">
-        <v>2.32247</v>
+        <v>2.3463383333333332</v>
       </c>
       <c r="J17">
-        <v>0.12438399999999999</v>
+        <v>0.13420883333333331</v>
       </c>
       <c r="K17">
-        <v>425.53300000000002</v>
+        <v>474.61933333333337</v>
       </c>
       <c r="L17">
-        <v>24520</v>
+        <v>24193.666666666668</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.12777599999999989</v>
+        <v>0.13261883333333335</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>1.6126623809995391</v>
+        <v>1.6111068096885717</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>1.25316358774557</v>
+        <v>1.4287156331527193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -38086,40 +38210,40 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.92073</v>
+        <v>1.9352366666666667</v>
       </c>
       <c r="G18">
-        <v>0.10424</v>
+        <v>0.10695749999999998</v>
       </c>
       <c r="H18">
-        <v>0.148287</v>
+        <v>0.14991666666666667</v>
       </c>
       <c r="I18">
-        <v>2.3131599999999999</v>
+        <v>2.3421616666666667</v>
       </c>
       <c r="J18">
-        <v>0.115728</v>
+        <v>8.7514599999999998E-2</v>
       </c>
       <c r="K18">
-        <v>4675.25</v>
+        <v>6398.4449999999997</v>
       </c>
       <c r="L18">
-        <v>11834</v>
+        <v>11870.5</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.13990299999999989</v>
+        <v>0.15005083333333324</v>
       </c>
       <c r="O18" t="s">
         <v>24</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>1.6157377786231821</v>
+        <v>1.6069848580051049</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>2.1572269004498787</v>
+        <v>2.1828594789544522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -38139,40 +38263,40 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1.93024</v>
+        <v>1.9519716666666664</v>
       </c>
       <c r="G19">
-        <v>0.10374800000000001</v>
+        <v>0.10811433333333333</v>
       </c>
       <c r="H19">
-        <v>0.148117</v>
+        <v>0.15016883333333333</v>
       </c>
       <c r="I19">
-        <v>2.33609</v>
+        <v>2.3835916666666668</v>
       </c>
       <c r="J19">
-        <v>0.120436</v>
+        <v>8.8372666666666669E-2</v>
       </c>
       <c r="K19">
-        <v>6348.05</v>
+        <v>9114.4666666666672</v>
       </c>
       <c r="L19">
-        <v>5953</v>
+        <v>5972.5</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.15398500000000004</v>
+        <v>0.17333683333333383</v>
       </c>
       <c r="O19" t="s">
         <v>24</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>1.63048512685727</v>
+        <v>1.654845104201992</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>1.2007357948097148</v>
+        <v>1.2897784559724437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -38192,40 +38316,40 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1.9501299999999999</v>
+        <v>1.969336666666667</v>
       </c>
       <c r="G20">
-        <v>0.104648</v>
+        <v>0.1079355</v>
       </c>
       <c r="H20">
-        <v>0.14904800000000001</v>
+        <v>0.15029183333333337</v>
       </c>
       <c r="I20">
-        <v>2.37121</v>
+        <v>2.4178916666666668</v>
       </c>
       <c r="J20">
-        <v>0.120479</v>
+        <v>9.2163266666666674E-2</v>
       </c>
       <c r="K20">
-        <v>6968.5</v>
+        <v>9523.7966666666671</v>
       </c>
       <c r="L20">
-        <v>3978</v>
+        <v>3986.5</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.1673840000000002</v>
+        <v>0.19032766666666667</v>
       </c>
       <c r="O20" t="s">
         <v>24</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>1.6304840144904922</v>
+        <v>1.6580678070081716</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>1.1831411093359232</v>
+        <v>1.2932394297983263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -38245,40 +38369,40 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>1.95451</v>
+        <v>1.9850333333333332</v>
       </c>
       <c r="G21">
-        <v>0.110517</v>
+        <v>0.10905616666666666</v>
       </c>
       <c r="H21">
-        <v>0.15218100000000001</v>
+        <v>0.15069933333333332</v>
       </c>
       <c r="I21">
-        <v>2.4022700000000001</v>
+        <v>2.452433333333333</v>
       </c>
       <c r="J21">
-        <v>0.121104</v>
+        <v>9.4133433333333336E-2</v>
       </c>
       <c r="K21">
-        <v>7243.45</v>
+        <v>9712.5683333333327</v>
       </c>
       <c r="L21">
-        <v>2991</v>
+        <v>2993.3333333333335</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.18506200000000028</v>
+        <v>0.20764449999999979</v>
       </c>
       <c r="O21" t="s">
         <v>24</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>1.6053191356508634</v>
+        <v>1.6476723798132473</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>1.2411668951336532</v>
+        <v>1.3162766314035759</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -38298,40 +38422,40 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3.0827300000000002</v>
+        <v>3.0971333333333333</v>
       </c>
       <c r="G22">
-        <v>0.18096100000000001</v>
+        <v>0.18681166666666668</v>
       </c>
       <c r="H22">
-        <v>0.243561</v>
+        <v>0.24939149999999999</v>
       </c>
       <c r="I22">
-        <v>3.7453599999999998</v>
+        <v>3.7802016666666667</v>
       </c>
       <c r="J22">
-        <v>0.18413199999999999</v>
+        <v>0.19827583333333335</v>
       </c>
       <c r="K22">
-        <v>339.56700000000001</v>
+        <v>332.2</v>
       </c>
       <c r="L22">
-        <v>15269</v>
+        <v>15085.666666666666</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.23810799999999954</v>
+        <v>0.2468651666666668</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>1.6190005767135871</v>
+        <v>1.6051220371399941</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>1.945385276425093</v>
+        <v>1.6867710503644853</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -38351,40 +38475,40 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.0604900000000002</v>
+        <v>3.0706033333333331</v>
       </c>
       <c r="G23">
-        <v>0.185639</v>
+        <v>0.18723116666666664</v>
       </c>
       <c r="H23">
-        <v>0.24550900000000001</v>
+        <v>0.24918949999999998</v>
       </c>
       <c r="I23">
-        <v>3.73746</v>
+        <v>3.763818333333333</v>
       </c>
       <c r="J23">
-        <v>0.121471</v>
+        <v>8.8859516666666652E-2</v>
       </c>
       <c r="K23">
-        <v>2167.25</v>
+        <v>2931.2216666666664</v>
       </c>
       <c r="L23">
-        <v>11766</v>
+        <v>11794.666666666666</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.24582199999999998</v>
+        <v>0.25679433333333312</v>
       </c>
       <c r="O23" t="s">
         <v>24</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>1.6045710188202684</v>
+        <v>1.5858177710489925</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>13.609105180533753</v>
+        <v>18.054656734926841</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -38404,40 +38528,40 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>3.0833400000000002</v>
+        <v>3.1817366666666662</v>
       </c>
       <c r="G24">
-        <v>0.193548</v>
+        <v>0.20270650000000001</v>
       </c>
       <c r="H24">
-        <v>0.254133</v>
+        <v>0.263129</v>
       </c>
       <c r="I24">
-        <v>3.8089599999999999</v>
+        <v>3.9444750000000002</v>
       </c>
       <c r="J24">
-        <v>0.115852</v>
+        <v>8.5159916666666655E-2</v>
       </c>
       <c r="K24">
-        <v>5286.8</v>
+        <v>7066.6916666666666</v>
       </c>
       <c r="L24">
-        <v>5944</v>
+        <v>5958.5</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.27793899999999994</v>
+        <v>0.29690283333333412</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>1.5858055742249852</v>
+        <v>1.5683684140474967</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>3.3086546464981512</v>
+        <v>1.4886856777709117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -38457,40 +38581,40 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>3.09815</v>
+        <v>3.1968350000000001</v>
       </c>
       <c r="G25">
-        <v>0.20081199999999999</v>
+        <v>0.21178300000000003</v>
       </c>
       <c r="H25">
-        <v>0.26136100000000001</v>
+        <v>0.2729266666666666</v>
       </c>
       <c r="I25">
-        <v>3.8662200000000002</v>
+        <v>4.0090283333333332</v>
       </c>
       <c r="J25">
-        <v>0.126023</v>
+        <v>9.9215566666666657E-2</v>
       </c>
       <c r="K25">
-        <v>5889.83</v>
+        <v>7364.295000000001</v>
       </c>
       <c r="L25">
-        <v>3973</v>
+        <v>3976.3333333333335</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.30589700000000031</v>
+        <v>0.32748366666666673</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>1.5719902126624972</v>
+        <v>1.5700288141307723</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>2.6629125599059589</v>
+        <v>1.3932544766408099</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -38510,40 +38634,40 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3.1103800000000001</v>
+        <v>3.2032733333333336</v>
       </c>
       <c r="G26">
-        <v>0.208509</v>
+        <v>0.21388500000000002</v>
       </c>
       <c r="H26">
-        <v>0.24937200000000001</v>
+        <v>0.2768755</v>
       </c>
       <c r="I26">
-        <v>3.8564099999999999</v>
+        <v>4.0408066666666675</v>
       </c>
       <c r="J26">
-        <v>0.13817499999999999</v>
+        <v>0.10788583333333333</v>
       </c>
       <c r="K26">
-        <v>5836</v>
+        <v>7378.82</v>
       </c>
       <c r="L26">
-        <v>2984</v>
+        <v>2988.3333333333335</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.28814899999999977</v>
+        <v>0.34677283333333397</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>1.5746795594866729</v>
+        <v>1.5620581534050129</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
-        <v>2.3021877884638142</v>
+        <v>1.3899490113552633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -38563,40 +38687,40 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4.7920199999999999</v>
+        <v>4.8047783333333332</v>
       </c>
       <c r="G27">
-        <v>0.36239900000000003</v>
+        <v>0.35483516666666665</v>
       </c>
       <c r="H27">
-        <v>0.43077399999999999</v>
+        <v>0.42918933333333326</v>
       </c>
       <c r="I27">
-        <v>6.0637400000000001</v>
+        <v>6.0676850000000009</v>
       </c>
       <c r="J27">
-        <v>0.23036100000000001</v>
+        <v>0.21457883333333336</v>
       </c>
       <c r="K27">
-        <v>174.55</v>
+        <v>196.94433333333333</v>
       </c>
       <c r="L27">
-        <v>9533</v>
+        <v>9551.5</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.47854699999999983</v>
+        <v>0.47888216666666761</v>
       </c>
       <c r="O27" t="s">
         <v>23</v>
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>2.5151639087427891E-2</v>
+        <v>2.6474512107995056E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>2.8206135056565787E-2</v>
+        <v>1.7860229443368125E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -38616,40 +38740,40 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>4.7296500000000004</v>
+        <v>4.7091050000000001</v>
       </c>
       <c r="G28">
-        <v>0.35767599999999999</v>
+        <v>0.35333333333333333</v>
       </c>
       <c r="H28">
-        <v>0.42936400000000002</v>
+        <v>0.42803983333333334</v>
       </c>
       <c r="I28">
-        <v>5.99702</v>
+        <v>5.9687299999999999</v>
       </c>
       <c r="J28">
-        <v>0.27250000000000002</v>
+        <v>0.21266366666666667</v>
       </c>
       <c r="K28">
-        <v>159.25</v>
+        <v>162.35266666666669</v>
       </c>
       <c r="L28">
-        <v>9570</v>
+        <v>9705.1666666666661</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>0.48032999999999948</v>
+        <v>0.47825183333333321</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>2.734674888527969E-2</v>
+        <v>2.9622856676936864E-2</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
-        <v>2.1038044181874389E-2</v>
+        <v>1.2654226125137214E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -38669,40 +38793,40 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>4.7293799999999999</v>
+        <v>4.8422966666666669</v>
       </c>
       <c r="G29">
-        <v>0.37846600000000002</v>
+        <v>0.36996049999999997</v>
       </c>
       <c r="H29">
-        <v>0.43801000000000001</v>
+        <v>0.44457333333333332</v>
       </c>
       <c r="I29">
-        <v>6.0402699999999996</v>
+        <v>6.1863900000000003</v>
       </c>
       <c r="J29">
-        <v>0.25185600000000002</v>
+        <v>8.1219483333333328E-2</v>
       </c>
       <c r="K29">
-        <v>1597.87</v>
+        <v>4746.9333333333334</v>
       </c>
       <c r="L29">
-        <v>5905</v>
+        <v>5952.666666666667</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>0.49441399999999991</v>
+        <v>0.5295595000000004</v>
       </c>
       <c r="O29" t="s">
         <v>24</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>2.9050688131490813E-2</v>
+        <v>3.1768365718941094E-2</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
-        <v>0.19722042224402767</v>
+        <v>0.36420505331698255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -38722,40 +38846,40 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>4.7316399999999996</v>
+        <v>4.8593766666666669</v>
       </c>
       <c r="G30">
-        <v>0.39013900000000001</v>
+        <v>0.39221883333333335</v>
       </c>
       <c r="H30">
-        <v>0.44545200000000001</v>
+        <v>0.46750749999999996</v>
       </c>
       <c r="I30">
-        <v>6.0776599999999998</v>
+        <v>6.2942900000000002</v>
       </c>
       <c r="J30">
-        <v>0.26905600000000002</v>
+        <v>0.1093465</v>
       </c>
       <c r="K30">
-        <v>2211.8000000000002</v>
+        <v>5285.6783333333324</v>
       </c>
       <c r="L30">
-        <v>3958</v>
+        <v>3976.1666666666665</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.51042900000000024</v>
+        <v>0.57518699999999967</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>3.0911567938976516E-2</v>
+        <v>3.4525763297634314E-2</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>0.2703829345068916</v>
+        <v>0.40214130834485112</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -38775,40 +38899,40 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>4.7473200000000002</v>
+        <v>4.855715</v>
       </c>
       <c r="G31">
-        <v>0.37479299999999999</v>
+        <v>0.39651533333333333</v>
       </c>
       <c r="H31">
-        <v>0.44071900000000003</v>
+        <v>0.469192</v>
       </c>
       <c r="I31">
-        <v>6.0726100000000001</v>
+        <v>6.3119750000000003</v>
       </c>
       <c r="J31">
-        <v>0.27439400000000003</v>
+        <v>0.12889466666666669</v>
       </c>
       <c r="K31">
-        <v>2534.98</v>
+        <v>5308.6983333333328</v>
       </c>
       <c r="L31">
-        <v>2976</v>
+        <v>2983.3333333333335</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0.50977799999999984</v>
+        <v>0.59055266666666739</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>3.2684957538850673E-2</v>
+        <v>3.7488715233082094E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>0.31918740666685136</v>
+        <v>0.40678589718538832</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -38828,40 +38952,40 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.128746</v>
+        <v>0.1323208333333333</v>
       </c>
       <c r="G32">
-        <v>4.6126500000000003E-3</v>
+        <v>4.8461833333333336E-3</v>
       </c>
       <c r="H32">
-        <v>8.3425900000000004E-3</v>
+        <v>8.415481666666667E-3</v>
       </c>
       <c r="I32">
-        <v>0.15251300000000001</v>
+        <v>0.160639</v>
       </c>
       <c r="J32">
-        <v>0.137352</v>
+        <v>7.695529999999999E-2</v>
       </c>
       <c r="K32">
-        <v>6188.37</v>
+        <v>11026.976666666667</v>
       </c>
       <c r="L32">
-        <v>55706</v>
+        <v>57704.166666666664</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>1.0811760000000004E-2</v>
+        <v>1.5056501666666694E-2</v>
       </c>
       <c r="O32" t="s">
         <v>23</v>
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>3.9372446938949466</v>
+        <v>3.783778119468705</v>
       </c>
       <c r="Q32">
         <f t="shared" si="2"/>
-        <v>1.4996728446521008</v>
+        <v>2.0609161785782257</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -38881,40 +39005,40 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>0.12811900000000001</v>
+        <v>0.13211699999999998</v>
       </c>
       <c r="G33">
-        <v>4.5932600000000001E-3</v>
+        <v>4.8466999999999998E-3</v>
       </c>
       <c r="H33">
-        <v>8.3787400000000008E-3</v>
+        <v>8.4224999999999994E-3</v>
       </c>
       <c r="I33">
-        <v>0.16399900000000001</v>
+        <v>0.17681083333333336</v>
       </c>
       <c r="J33">
-        <v>0.12710299999999999</v>
+        <v>7.5615283333333339E-2</v>
       </c>
       <c r="K33">
-        <v>7569.62</v>
+        <v>12829.916666666666</v>
       </c>
       <c r="L33">
-        <v>11832</v>
+        <v>11940.833333333334</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>2.2907999999999984E-2</v>
+        <v>3.1424633333333368E-2</v>
       </c>
       <c r="O33" t="s">
         <v>23</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>3.7264251611290309</v>
+        <v>3.5242900840351972</v>
       </c>
       <c r="Q33">
         <f t="shared" si="2"/>
-        <v>1.2342100414630606</v>
+        <v>1.1366190074998441</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -38934,40 +39058,40 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0.127389</v>
+        <v>0.13179750000000001</v>
       </c>
       <c r="G34">
-        <v>4.5897000000000004E-3</v>
+        <v>4.8474566666666672E-3</v>
       </c>
       <c r="H34">
-        <v>8.3638700000000007E-3</v>
+        <v>8.4245183333333338E-3</v>
       </c>
       <c r="I34">
-        <v>0.17547399999999999</v>
+        <v>0.1965315</v>
       </c>
       <c r="J34">
-        <v>0.12099699999999999</v>
+        <v>7.5702033333333349E-2</v>
       </c>
       <c r="K34">
-        <v>8101.95</v>
+        <v>13033.683333333332</v>
       </c>
       <c r="L34">
-        <v>5970</v>
+        <v>5991.833333333333</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>3.5131429999999991E-2</v>
+        <v>5.1462024999999995E-2</v>
       </c>
       <c r="O34" t="s">
         <v>23</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>3.548833445410716</v>
+        <v>3.270095803132492</v>
       </c>
       <c r="Q34">
         <f t="shared" si="2"/>
-        <v>1.2607821503766652</v>
+        <v>1.0697524136837633</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -38987,40 +39111,40 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>0.12772500000000001</v>
+        <v>0.13219999999999998</v>
       </c>
       <c r="G35">
-        <v>4.5822500000000004E-3</v>
+        <v>4.8516366666666666E-3</v>
       </c>
       <c r="H35">
-        <v>8.3687399999999995E-3</v>
+        <v>8.4312016666666673E-3</v>
       </c>
       <c r="I35">
-        <v>0.18787000000000001</v>
+        <v>0.2173151666666667</v>
       </c>
       <c r="J35">
-        <v>0.12041200000000001</v>
+        <v>7.540591666666667E-2</v>
       </c>
       <c r="K35">
-        <v>8180.25</v>
+        <v>13143.833333333334</v>
       </c>
       <c r="L35">
-        <v>3988</v>
+        <v>4000.1666666666665</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>4.7194010000000008E-2</v>
+        <v>7.183232833333339E-2</v>
       </c>
       <c r="O35" t="s">
         <v>23</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>3.1730771278011392</v>
+        <v>2.8692367690244045</v>
       </c>
       <c r="Q35">
         <f t="shared" si="2"/>
-        <v>1.1169986154010012</v>
+        <v>1.0451881558683904</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -39040,40 +39164,40 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>0.12786500000000001</v>
+        <v>0.13221216666666666</v>
       </c>
       <c r="G36">
-        <v>4.5962299999999998E-3</v>
+        <v>4.8553483333333329E-3</v>
       </c>
       <c r="H36">
-        <v>8.3660399999999999E-3</v>
+        <v>8.4415716666666665E-3</v>
       </c>
       <c r="I36">
-        <v>0.19848299999999999</v>
+        <v>0.23662783333333334</v>
       </c>
       <c r="J36">
-        <v>0.124547</v>
+        <v>7.6348216666666649E-2</v>
       </c>
       <c r="K36">
-        <v>7941.98</v>
+        <v>13050.35</v>
       </c>
       <c r="L36">
-        <v>2994</v>
+        <v>3001.8333333333335</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>5.7655729999999988E-2</v>
+        <v>9.1118746666666695E-2</v>
       </c>
       <c r="O36" t="s">
         <v>23</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>3.0676833784253561</v>
+        <v>2.7199477097298357</v>
       </c>
       <c r="Q36">
         <f t="shared" si="2"/>
-        <v>1.0692352431163263</v>
+        <v>1.030067156472608</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -39093,40 +39217,40 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.50561100000000003</v>
+        <v>0.51130166666666665</v>
       </c>
       <c r="G37">
-        <v>2.4907700000000001E-2</v>
+        <v>2.5037833333333332E-2</v>
       </c>
       <c r="H37">
-        <v>3.6442500000000003E-2</v>
+        <v>3.6585816666666666E-2</v>
       </c>
       <c r="I37">
-        <v>0.60048100000000004</v>
+        <v>0.60782233333333335</v>
       </c>
       <c r="J37">
-        <v>0.10656400000000001</v>
+        <v>7.9198366666666672E-2</v>
       </c>
       <c r="K37">
-        <v>4126.4799999999996</v>
+        <v>5350.5216666666674</v>
       </c>
       <c r="L37">
-        <v>56339</v>
+        <v>57788.833333333336</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>3.3519799999999988E-2</v>
+        <v>3.4897016666666669E-2</v>
       </c>
       <c r="O37" t="s">
         <v>23</v>
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>2.2450002581264017</v>
+        <v>2.233089493804933</v>
       </c>
       <c r="Q37">
         <f t="shared" si="2"/>
-        <v>5.8191807557850108</v>
+        <v>6.5439119931689049</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -39146,40 +39270,40 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>0.50675999999999999</v>
+        <v>0.51031150000000014</v>
       </c>
       <c r="G38">
-        <v>2.4950799999999999E-2</v>
+        <v>2.5039166666666668E-2</v>
       </c>
       <c r="H38">
-        <v>3.6625600000000001E-2</v>
+        <v>3.6587149999999999E-2</v>
       </c>
       <c r="I38">
-        <v>0.61112999999999995</v>
+        <v>0.62313266666666667</v>
       </c>
       <c r="J38">
-        <v>0.14208799999999999</v>
+        <v>7.8262433333333326E-2</v>
       </c>
       <c r="K38">
-        <v>6133.17</v>
+        <v>11287.79</v>
       </c>
       <c r="L38">
-        <v>11829</v>
+        <v>11929.333333333334</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>4.2793599999999987E-2</v>
+        <v>5.1194849999999903E-2</v>
       </c>
       <c r="O38" t="s">
         <v>23</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>2.2275620571727783</v>
+        <v>2.203466035590067</v>
       </c>
       <c r="Q38">
         <f t="shared" si="2"/>
-        <v>1.3303190681734376</v>
+        <v>1.1974154524416836</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -39199,40 +39323,40 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.50827299999999997</v>
+        <v>0.50992950000000004</v>
       </c>
       <c r="G39">
-        <v>2.49476E-2</v>
+        <v>2.5052366666666669E-2</v>
       </c>
       <c r="H39">
-        <v>3.6647699999999998E-2</v>
+        <v>3.6658400000000001E-2</v>
       </c>
       <c r="I39">
-        <v>0.62272799999999995</v>
+        <v>0.64267683333333336</v>
       </c>
       <c r="J39">
-        <v>0.14557300000000001</v>
+        <v>7.7778150000000004E-2</v>
       </c>
       <c r="K39">
-        <v>6426.13</v>
+        <v>12183.831666666665</v>
       </c>
       <c r="L39">
-        <v>5960</v>
+        <v>5989.833333333333</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>5.2859699999999954E-2</v>
+        <v>7.103656666666669E-2</v>
       </c>
       <c r="O39" t="s">
         <v>23</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>2.0983800310890151</v>
+        <v>2.0508467060038726</v>
       </c>
       <c r="Q39">
         <f t="shared" si="2"/>
-        <v>1.0979957625670642</v>
+        <v>1.1055478234226512</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -39252,40 +39376,40 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>0.46732899999999999</v>
+        <v>0.46770266666666666</v>
       </c>
       <c r="G40">
-        <v>2.4969100000000001E-2</v>
+        <v>2.5075916666666666E-2</v>
       </c>
       <c r="H40">
-        <v>3.6623500000000003E-2</v>
+        <v>3.6709733333333334E-2</v>
       </c>
       <c r="I40">
-        <v>0.59612600000000004</v>
+        <v>0.62352866666666673</v>
       </c>
       <c r="J40">
-        <v>0.13055</v>
+        <v>7.6645166666666667E-2</v>
       </c>
       <c r="K40">
-        <v>7323.42</v>
+        <v>12575.566666666666</v>
       </c>
       <c r="L40">
-        <v>3982</v>
+        <v>3991.5</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>6.7204400000000053E-2</v>
+        <v>9.4040350000000106E-2</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>2.2302332057316741</v>
+        <v>2.1466000493962851</v>
       </c>
       <c r="Q40">
         <f t="shared" si="2"/>
-        <v>1.1903896542980306</v>
+        <v>1.0796624793771579</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -39305,40 +39429,40 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>0.46820200000000001</v>
+        <v>0.46752516666666666</v>
       </c>
       <c r="G41">
-        <v>2.5100999999999998E-2</v>
+        <v>2.5119833333333331E-2</v>
       </c>
       <c r="H41">
-        <v>3.6711300000000002E-2</v>
+        <v>3.6759016666666665E-2</v>
       </c>
       <c r="I41">
-        <v>0.60888299999999995</v>
+        <v>0.64361533333333332</v>
       </c>
       <c r="J41">
-        <v>0.13025700000000001</v>
+        <v>7.6907216666666667E-2</v>
       </c>
       <c r="K41">
-        <v>7427.72</v>
+        <v>12669.416666666666</v>
       </c>
       <c r="L41">
-        <v>2991</v>
+        <v>2999.5</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>7.8868699999999903E-2</v>
+        <v>0.11421131666666662</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>2.2152531767186803</v>
+        <v>2.1131048255531519</v>
       </c>
       <c r="Q41">
         <f t="shared" si="2"/>
-        <v>1.1793963067054098</v>
+        <v>1.0628858329475381</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -39358,40 +39482,40 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.1392100000000001</v>
+        <v>1.1451</v>
       </c>
       <c r="G42">
-        <v>5.6536400000000001E-2</v>
+        <v>5.6855100000000013E-2</v>
       </c>
       <c r="H42">
-        <v>8.2111799999999999E-2</v>
+        <v>8.2658799999999991E-2</v>
       </c>
       <c r="I42">
-        <v>1.3480799999999999</v>
+        <v>1.3573216666666665</v>
       </c>
       <c r="J42">
-        <v>0.110953</v>
+        <v>9.2286216666666657E-2</v>
       </c>
       <c r="K42">
-        <v>709.11699999999996</v>
+        <v>817.63349999999991</v>
       </c>
       <c r="L42">
-        <v>41120</v>
+        <v>41394.833333333336</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>7.022179999999989E-2</v>
+        <v>7.2707766666666451E-2</v>
       </c>
       <c r="O42" t="s">
         <v>23</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>1.7966070262892411</v>
+        <v>1.7935087850705986</v>
       </c>
       <c r="Q42">
         <f t="shared" si="2"/>
-        <v>1.5375477016478751</v>
+        <v>1.5385443575689508</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -39411,40 +39535,40 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>1.1413899999999999</v>
+        <v>1.1441250000000001</v>
       </c>
       <c r="G43">
-        <v>5.7115800000000001E-2</v>
+        <v>5.6929449999999999E-2</v>
       </c>
       <c r="H43">
-        <v>8.2544500000000007E-2</v>
+        <v>8.2733299999999996E-2</v>
       </c>
       <c r="I43">
-        <v>1.3613299999999999</v>
+        <v>1.3730516666666668</v>
       </c>
       <c r="J43">
-        <v>0.15792300000000001</v>
+        <v>7.7114100000000005E-2</v>
       </c>
       <c r="K43">
-        <v>4610.3</v>
+        <v>9426.7950000000001</v>
       </c>
       <c r="L43">
-        <v>11810</v>
+        <v>11931.166666666666</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>8.0279699999999954E-2</v>
+        <v>8.9263916666666665E-2</v>
       </c>
       <c r="O43" t="s">
         <v>23</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>1.8025019649901202</v>
+        <v>1.794712750551994</v>
       </c>
       <c r="Q43">
         <f t="shared" si="2"/>
-        <v>1.5943933572419136</v>
+        <v>1.4362783325279347</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -39464,40 +39588,40 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>1.0726599999999999</v>
+        <v>1.0668333333333335</v>
       </c>
       <c r="G44">
-        <v>5.8335499999999998E-2</v>
+        <v>5.7048866666666663E-2</v>
       </c>
       <c r="H44">
-        <v>8.3244600000000002E-2</v>
+        <v>8.2842316666666679E-2</v>
       </c>
       <c r="I44">
-        <v>1.3067200000000001</v>
+        <v>1.3180316666666667</v>
       </c>
       <c r="J44">
-        <v>0.14815200000000001</v>
+        <v>7.9896450000000008E-2</v>
       </c>
       <c r="K44">
-        <v>5852.6</v>
+        <v>11020.628333333332</v>
       </c>
       <c r="L44">
-        <v>5947</v>
+        <v>5965.666666666667</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>9.2479900000000059E-2</v>
+        <v>0.1113071499999998</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>1.8014111668911472</v>
+        <v>1.8096315338908144</v>
       </c>
       <c r="Q44">
         <f t="shared" si="2"/>
-        <v>1.3431311575860083</v>
+        <v>1.1517852088345177</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -39517,40 +39641,40 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1.0797099999999999</v>
+        <v>1.0679866666666666</v>
       </c>
       <c r="G45">
-        <v>5.9701999999999998E-2</v>
+        <v>5.7052516666666664E-2</v>
       </c>
       <c r="H45">
-        <v>8.4115899999999993E-2</v>
+        <v>8.286996666666667E-2</v>
       </c>
       <c r="I45">
-        <v>1.3294999999999999</v>
+        <v>1.3384666666666665</v>
       </c>
       <c r="J45">
-        <v>0.14779500000000001</v>
+        <v>7.9360100000000003E-2</v>
       </c>
       <c r="K45">
-        <v>6152.12</v>
+        <v>11647.683333333332</v>
       </c>
       <c r="L45">
-        <v>3978</v>
+        <v>3989.3333333333335</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.10597210000000001</v>
+        <v>0.1305575166666666</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
-        <v>1.7965550959007148</v>
+        <v>1.8115729441649651</v>
       </c>
       <c r="Q45">
         <f t="shared" si="2"/>
-        <v>1.2882402211240471</v>
+        <v>1.1593660738843901</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -39570,40 +39694,40 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.08325</v>
+        <v>1.0693733333333333</v>
       </c>
       <c r="G46">
-        <v>6.1504200000000002E-2</v>
+        <v>5.732898333333334E-2</v>
       </c>
       <c r="H46">
-        <v>8.5089799999999993E-2</v>
+        <v>8.3013000000000003E-2</v>
       </c>
       <c r="I46">
-        <v>1.34883</v>
+        <v>1.3600266666666669</v>
       </c>
       <c r="J46">
-        <v>0.14771599999999999</v>
+        <v>7.9394000000000006E-2</v>
       </c>
       <c r="K46">
-        <v>6297.9</v>
+        <v>11919.828333333333</v>
       </c>
       <c r="L46">
-        <v>2990</v>
+        <v>2995</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.11898600000000004</v>
+        <v>0.1503113500000004</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
-        <v>1.7898697389589495</v>
+        <v>1.8108247877492594</v>
       </c>
       <c r="Q46">
         <f t="shared" si="2"/>
-        <v>1.2693975204229511</v>
+        <v>1.1619852166446378</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -39623,40 +39747,40 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.0425900000000001</v>
+        <v>2.0511516666666667</v>
       </c>
       <c r="G47">
-        <v>0.10302600000000001</v>
+        <v>0.103991</v>
       </c>
       <c r="H47">
-        <v>0.14681900000000001</v>
+        <v>0.14784216666666669</v>
       </c>
       <c r="I47">
-        <v>2.42197</v>
+        <v>2.434368333333333</v>
       </c>
       <c r="J47">
-        <v>0.17207900000000001</v>
+        <v>0.13143400000000002</v>
       </c>
       <c r="K47">
-        <v>461.2</v>
+        <v>531.43316666666669</v>
       </c>
       <c r="L47">
-        <v>23129</v>
+        <v>23387.666666666668</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.12953499999999973</v>
+        <v>0.13138349999999965</v>
       </c>
       <c r="O47" t="s">
         <v>23</v>
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
-        <v>1.6245370504176353</v>
+        <v>1.6124600426804765</v>
       </c>
       <c r="Q47">
         <f t="shared" si="2"/>
-        <v>1.7582920320243993</v>
+        <v>1.5743788839809887</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -39676,40 +39800,40 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2.05389</v>
+        <v>2.0632099999999998</v>
       </c>
       <c r="G48">
-        <v>0.108445</v>
+        <v>0.10575666666666667</v>
       </c>
       <c r="H48">
-        <v>0.14931700000000001</v>
+        <v>0.14837983333333332</v>
       </c>
       <c r="I48">
-        <v>2.4538000000000002</v>
+        <v>2.4642333333333331</v>
       </c>
       <c r="J48">
-        <v>0.176373</v>
+        <v>7.8030866666666657E-2</v>
       </c>
       <c r="K48">
-        <v>2891.57</v>
+        <v>6563.3483333333343</v>
       </c>
       <c r="L48">
-        <v>11804</v>
+        <v>11923.5</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>0.14214800000000016</v>
+        <v>0.1468868333333333</v>
       </c>
       <c r="O48" t="s">
         <v>23</v>
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
-        <v>1.667747982720678</v>
+        <v>1.6605144263936047</v>
       </c>
       <c r="Q48">
         <f t="shared" si="2"/>
-        <v>3.2682967629782098</v>
+        <v>3.0917286633525003</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -39729,40 +39853,40 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1.9463299999999999</v>
+        <v>1.9542283333333337</v>
       </c>
       <c r="G49">
-        <v>0.107614</v>
+        <v>0.1074015</v>
       </c>
       <c r="H49">
-        <v>0.148675</v>
+        <v>0.1490775</v>
       </c>
       <c r="I49">
-        <v>2.3539400000000001</v>
+        <v>2.3851516666666668</v>
       </c>
       <c r="J49">
-        <v>0.17400499999999999</v>
+        <v>8.0204800000000007E-2</v>
       </c>
       <c r="K49">
-        <v>4357.43</v>
+        <v>9568.3016666666681</v>
       </c>
       <c r="L49">
-        <v>5938</v>
+        <v>5962.166666666667</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>0.15132100000000026</v>
+        <v>0.1744443333333332</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
       </c>
       <c r="P49">
         <f t="shared" si="1"/>
-        <v>1.6210226258953073</v>
+        <v>1.6536104272893897</v>
       </c>
       <c r="Q49">
         <f t="shared" si="2"/>
-        <v>1.4989851801907175</v>
+        <v>1.3613904962724668</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -39782,40 +39906,40 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>1.95739</v>
+        <v>1.9709399999999999</v>
       </c>
       <c r="G50">
-        <v>0.113077</v>
+        <v>0.10886049999999999</v>
       </c>
       <c r="H50">
-        <v>0.15168999999999999</v>
+        <v>0.15004316666666664</v>
       </c>
       <c r="I50">
-        <v>2.3885200000000002</v>
+        <v>2.4247299999999998</v>
       </c>
       <c r="J50">
-        <v>0.17595</v>
+        <v>8.3571683333333355E-2</v>
       </c>
       <c r="K50">
-        <v>4775.6000000000004</v>
+        <v>10046.596666666666</v>
       </c>
       <c r="L50">
-        <v>3974</v>
+        <v>3983.3333333333335</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>0.16636300000000004</v>
+        <v>0.19488633333333327</v>
       </c>
       <c r="O50" t="s">
         <v>24</v>
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
-        <v>1.607602197176494</v>
+        <v>1.6513976126551553</v>
       </c>
       <c r="Q50">
         <f t="shared" si="2"/>
-        <v>1.3767019231046422</v>
+        <v>1.3682583638439518</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -39835,40 +39959,40 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>1.9631799999999999</v>
+        <v>1.9878116666666668</v>
       </c>
       <c r="G51">
-        <v>0.11651599999999999</v>
+        <v>0.11023216666666667</v>
       </c>
       <c r="H51">
-        <v>0.15414800000000001</v>
+        <v>0.15078749999999999</v>
       </c>
       <c r="I51">
-        <v>2.4142299999999999</v>
+        <v>2.4627699999999999</v>
       </c>
       <c r="J51">
-        <v>0.176982</v>
+        <v>8.5376766666666659E-2</v>
       </c>
       <c r="K51">
-        <v>4961.33</v>
+        <v>10258.158333333335</v>
       </c>
       <c r="L51">
-        <v>2987</v>
+        <v>2993.8333333333335</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>0.18038599999999994</v>
+        <v>0.2139386666666665</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
       </c>
       <c r="P51">
         <f t="shared" si="1"/>
-        <v>1.6014671344486648</v>
+        <v>1.6353320312764357</v>
       </c>
       <c r="Q51">
         <f t="shared" si="2"/>
-        <v>1.3326627037742387</v>
+        <v>1.3949232087905914</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -39888,40 +40012,40 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>3.2438600000000002</v>
+        <v>3.2488166666666665</v>
       </c>
       <c r="G52">
-        <v>0.19028700000000001</v>
+        <v>0.18721049999999997</v>
       </c>
       <c r="H52">
-        <v>0.24878800000000001</v>
+        <v>0.246474</v>
       </c>
       <c r="I52">
-        <v>3.93458</v>
+        <v>3.9253216666666666</v>
       </c>
       <c r="J52">
-        <v>0.23861399999999999</v>
+        <v>0.18946183333333333</v>
       </c>
       <c r="K52">
-        <v>262.3</v>
+        <v>337.55099999999999</v>
       </c>
       <c r="L52">
-        <v>14377</v>
+        <v>14582.333333333334</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>0.2516449999999999</v>
+        <v>0.24282050000000011</v>
       </c>
       <c r="O52" t="s">
         <v>23</v>
       </c>
       <c r="P52">
         <f t="shared" si="1"/>
-        <v>1.6081335237814456</v>
+        <v>1.6162853744894792</v>
       </c>
       <c r="Q52">
         <f t="shared" si="2"/>
-        <v>1.3642486750196343</v>
+        <v>1.697397633053773</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -39941,40 +40065,40 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>3.3896600000000001</v>
+        <v>3.3846416666666665</v>
       </c>
       <c r="G53">
-        <v>0.192605</v>
+        <v>0.193466</v>
       </c>
       <c r="H53">
-        <v>0.25092900000000001</v>
+        <v>0.25364083333333337</v>
       </c>
       <c r="I53">
-        <v>4.09232</v>
+        <v>4.0918950000000001</v>
       </c>
       <c r="J53">
-        <v>0.26655699999999999</v>
+        <v>8.9529900000000009E-2</v>
       </c>
       <c r="K53">
-        <v>884.73299999999995</v>
+        <v>2122.8733333333334</v>
       </c>
       <c r="L53">
-        <v>11184</v>
+        <v>11858.666666666666</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>0.25912599999999975</v>
+        <v>0.26014650000000028</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
       </c>
       <c r="P53">
         <f t="shared" si="1"/>
-        <v>1.4634339445595652</v>
+        <v>1.4642193083318771</v>
       </c>
       <c r="Q53">
         <f t="shared" si="2"/>
-        <v>5.6418181702238908</v>
+        <v>13.226377907785732</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -39994,40 +40118,40 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>3.08256</v>
+        <v>3.1848416666666668</v>
       </c>
       <c r="G54">
-        <v>0.19867499999999999</v>
+        <v>0.20561516666666668</v>
       </c>
       <c r="H54">
-        <v>0.257324</v>
+        <v>0.261492</v>
       </c>
       <c r="I54">
-        <v>3.8157899999999998</v>
+        <v>3.9441116666666667</v>
       </c>
       <c r="J54">
-        <v>0.21284800000000001</v>
+        <v>8.5588566666666685E-2</v>
       </c>
       <c r="K54">
-        <v>2906.92</v>
+        <v>7028.3300000000008</v>
       </c>
       <c r="L54">
-        <v>5917</v>
+        <v>5953.5</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>0.27723100000000001</v>
+        <v>0.29216283333333326</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
       </c>
       <c r="P54">
         <f t="shared" si="1"/>
-        <v>1.582283092098884</v>
+        <v>1.5711290290547049</v>
       </c>
       <c r="Q54">
         <f t="shared" si="2"/>
-        <v>1.8384032582436347</v>
+        <v>1.488885256215843</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -40047,40 +40171,40 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>3.09131</v>
+        <v>3.1936499999999999</v>
       </c>
       <c r="G55">
-        <v>0.20116000000000001</v>
+        <v>0.20993166666666666</v>
       </c>
       <c r="H55">
-        <v>0.25959199999999999</v>
+        <v>0.27172449999999998</v>
       </c>
       <c r="I55">
-        <v>3.8397899999999998</v>
+        <v>4.0041933333333342</v>
       </c>
       <c r="J55">
-        <v>0.21410599999999999</v>
+        <v>9.9595466666666674E-2</v>
       </c>
       <c r="K55">
-        <v>3468.87</v>
+        <v>7342.6166666666677</v>
       </c>
       <c r="L55">
-        <v>3970</v>
+        <v>3976.6666666666665</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>0.28772799999999998</v>
+        <v>0.32888716666666751</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
-        <v>1.5827011373017796</v>
+        <v>1.5779395433786909</v>
       </c>
       <c r="Q55">
         <f t="shared" si="2"/>
-        <v>1.5734762472840753</v>
+        <v>1.3926058875741891</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -40100,40 +40224,40 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>3.09693</v>
+        <v>3.2035933333333335</v>
       </c>
       <c r="G56">
-        <v>0.208037</v>
+        <v>0.21445616666666664</v>
       </c>
       <c r="H56">
-        <v>0.26278200000000002</v>
+        <v>0.27092749999999999</v>
       </c>
       <c r="I56">
-        <v>3.8663099999999999</v>
+        <v>4.0274466666666671</v>
       </c>
       <c r="J56">
-        <v>0.21625800000000001</v>
+        <v>0.10837216666666667</v>
       </c>
       <c r="K56">
-        <v>3722.87</v>
+        <v>7353.9233333333332</v>
       </c>
       <c r="L56">
-        <v>2981</v>
+        <v>2986.3333333333335</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>0.29856099999999985</v>
+        <v>0.33846966666666667</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>1.5665686403832078</v>
+        <v>1.5713938690684086</v>
       </c>
       <c r="Q56">
         <f t="shared" si="2"/>
-        <v>1.4740653632036997</v>
+        <v>1.3882508404504843</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -40153,40 +40277,40 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5.0709099999999996</v>
+        <v>5.0794766666666673</v>
       </c>
       <c r="G57">
-        <v>0.35525899999999999</v>
+        <v>0.35579216666666663</v>
       </c>
       <c r="H57">
-        <v>0.425481</v>
+        <v>0.43054083333333332</v>
       </c>
       <c r="I57">
-        <v>6.3273299999999999</v>
+        <v>6.3444399999999996</v>
       </c>
       <c r="J57">
-        <v>0.27427299999999999</v>
+        <v>0.21530150000000001</v>
       </c>
       <c r="K57">
-        <v>192.267</v>
+        <v>198.86383333333333</v>
       </c>
       <c r="L57">
-        <v>9089</v>
+        <v>9147</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>0.47568000000000055</v>
+        <v>0.47863033333333238</v>
       </c>
       <c r="O57" t="s">
         <v>23</v>
       </c>
       <c r="P57">
         <f t="shared" si="1"/>
-        <v>9.6583709084242492E-2</v>
+        <v>9.6493044828752955E-2</v>
       </c>
       <c r="Q57">
         <f t="shared" si="2"/>
-        <v>5.5586490424646126E-2</v>
+        <v>3.7300979930586418E-2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -40206,40 +40330,40 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4.7233700000000001</v>
+        <v>4.7234116666666672</v>
       </c>
       <c r="G58">
-        <v>0.35980499999999999</v>
+        <v>0.358489</v>
       </c>
       <c r="H58">
-        <v>0.42857499999999998</v>
+        <v>0.42952666666666661</v>
       </c>
       <c r="I58">
-        <v>5.9888399999999997</v>
+        <v>5.9914316666666663</v>
       </c>
       <c r="J58">
-        <v>0.36450399999999999</v>
+        <v>0.25818583333333328</v>
       </c>
       <c r="K58">
-        <v>156.81700000000001</v>
+        <v>160.50300000000001</v>
       </c>
       <c r="L58">
-        <v>9444</v>
+        <v>9598.6666666666661</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>0.47708999999999957</v>
+        <v>0.48000433333333259</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
       </c>
       <c r="P58">
         <f t="shared" si="1"/>
-        <v>0.12696482123416222</v>
+        <v>0.13021239497849568</v>
       </c>
       <c r="Q58">
         <f t="shared" si="2"/>
-        <v>2.5753427807073872E-2</v>
+        <v>1.4479246275347414E-2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -40259,40 +40383,40 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>4.7311899999999998</v>
+        <v>4.8464499999999999</v>
       </c>
       <c r="G59">
-        <v>0.374585</v>
+        <v>0.37485316666666674</v>
       </c>
       <c r="H59">
-        <v>0.43761299999999997</v>
+        <v>0.44624133333333332</v>
       </c>
       <c r="I59">
-        <v>6.0376599999999998</v>
+        <v>6.1967083333333335</v>
       </c>
       <c r="J59">
-        <v>0.253334</v>
+        <v>8.1648716666666663E-2</v>
       </c>
       <c r="K59">
-        <v>1581.22</v>
+        <v>4720.5316666666668</v>
       </c>
       <c r="L59">
-        <v>5897</v>
+        <v>5940.166666666667</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>0.4942719999999996</v>
+        <v>0.5291638333333335</v>
       </c>
       <c r="O59" t="s">
         <v>24</v>
       </c>
       <c r="P59">
         <f t="shared" si="1"/>
-        <v>0.11546294425323719</v>
+        <v>0.11920363633918545</v>
       </c>
       <c r="Q59">
         <f t="shared" si="2"/>
-        <v>0.2377077398356873</v>
+        <v>0.38407085526146284</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -40312,40 +40436,40 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>4.7398600000000002</v>
+        <v>4.8699800000000009</v>
       </c>
       <c r="G60">
-        <v>0.38445499999999999</v>
+        <v>0.39832466666666666</v>
       </c>
       <c r="H60">
-        <v>0.443467</v>
+        <v>0.47105716666666658</v>
       </c>
       <c r="I60">
-        <v>6.0772399999999998</v>
+        <v>6.3183749999999996</v>
       </c>
       <c r="J60">
-        <v>0.26888099999999998</v>
+        <v>0.10941433333333334</v>
       </c>
       <c r="K60">
-        <v>2204.59</v>
+        <v>5272.5733333333337</v>
       </c>
       <c r="L60">
-        <v>3956</v>
+        <v>3975.5</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>0.50945799999999952</v>
+        <v>0.57901316666666602</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
       </c>
       <c r="P60">
         <f t="shared" si="1"/>
-        <v>0.11336313852999058</v>
+        <v>0.11557225288675227</v>
       </c>
       <c r="Q60">
         <f t="shared" si="2"/>
-        <v>0.32284419321535007</v>
+        <v>0.41709436867807914</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -40365,40 +40489,40 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>4.7392799999999999</v>
+        <v>4.8718283333333332</v>
       </c>
       <c r="G61">
-        <v>0.371695</v>
+        <v>0.39791033333333331</v>
       </c>
       <c r="H61">
-        <v>0.43931999999999999</v>
+        <v>0.47149933333333333</v>
       </c>
       <c r="I61">
-        <v>6.0568400000000002</v>
+        <v>6.3287049999999994</v>
       </c>
       <c r="J61">
-        <v>0.27656900000000001</v>
+        <v>0.12905816666666667</v>
       </c>
       <c r="K61">
-        <v>2525.58</v>
+        <v>5297.2583333333341</v>
       </c>
       <c r="L61">
-        <v>2976</v>
+        <v>2981.3333333333335</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>0.50654500000000002</v>
+        <v>0.5874669999999993</v>
       </c>
       <c r="O61" t="s">
         <v>24</v>
       </c>
       <c r="P61">
         <f t="shared" si="1"/>
-        <v>9.8916596773234888E-2</v>
+        <v>0.10064407594708029</v>
       </c>
       <c r="Q61">
         <f t="shared" si="2"/>
-        <v>0.35714911970586155</v>
+        <v>0.41979873572539939</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -40418,40 +40542,40 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.51068000000000002</v>
+        <v>0.51198149999999998</v>
       </c>
       <c r="G62">
-        <v>2.0445700000000001E-2</v>
+        <v>1.9333666666666662E-2</v>
       </c>
       <c r="H62">
-        <v>0.59206899999999996</v>
+        <v>0.5919133333333334</v>
       </c>
       <c r="I62">
-        <v>0.61111700000000002</v>
+        <v>0.6121943333333334</v>
       </c>
       <c r="J62">
-        <v>0.12787200000000001</v>
+        <v>7.7520966666666677E-2</v>
       </c>
       <c r="K62">
-        <v>3458.88</v>
+        <v>5331.3300000000008</v>
       </c>
       <c r="L62">
-        <v>54640</v>
+        <v>57882.666666666664</v>
       </c>
       <c r="M62">
         <f>I62-H62</f>
-        <v>1.9048000000000065E-2</v>
+        <v>2.0280999999999993E-2</v>
       </c>
       <c r="O62" t="s">
         <v>23</v>
       </c>
       <c r="P62">
         <f t="shared" si="1"/>
-        <v>4.7180818075753086</v>
+        <v>4.7935541165305349</v>
       </c>
       <c r="Q62">
         <f t="shared" si="2"/>
-        <v>8.0937872937872939</v>
+        <v>12.718544960649144</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -40471,40 +40595,40 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.64866299999999999</v>
+        <v>0.66086600000000006</v>
       </c>
       <c r="G63">
-        <v>2.03886E-2</v>
+        <v>1.9747133333333337E-2</v>
       </c>
       <c r="H63">
-        <v>0.72994599999999998</v>
+        <v>0.7415691666666665</v>
       </c>
       <c r="I63">
-        <v>0.76037200000000005</v>
+        <v>0.78015866666666656</v>
       </c>
       <c r="J63">
-        <v>0.13889000000000001</v>
+        <v>7.623951666666666E-2</v>
       </c>
       <c r="K63">
-        <v>6089.17</v>
+        <v>11085.038333333336</v>
       </c>
       <c r="L63">
-        <v>11840</v>
+        <v>11932</v>
       </c>
       <c r="M63">
         <f t="shared" ref="M63:M121" si="3">I63-H63</f>
-        <v>3.0426000000000064E-2</v>
+        <v>3.8589500000000054E-2</v>
       </c>
       <c r="O63" t="s">
         <v>23</v>
       </c>
       <c r="P63">
         <f t="shared" si="1"/>
-        <v>3.3528457123618436</v>
+        <v>3.309657949921299</v>
       </c>
       <c r="Q63">
         <f t="shared" si="2"/>
-        <v>1.7382629845105082</v>
+        <v>1.7755151672411515</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -40524,40 +40648,40 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.57366600000000001</v>
+        <v>0.59827050000000004</v>
       </c>
       <c r="G64">
-        <v>2.03932E-2</v>
+        <v>1.9749033333333336E-2</v>
       </c>
       <c r="H64">
-        <v>0.65498299999999998</v>
+        <v>0.67898800000000004</v>
       </c>
       <c r="I64">
-        <v>0.69712600000000002</v>
+        <v>0.73867016666666663</v>
       </c>
       <c r="J64">
-        <v>0.139515</v>
+        <v>7.5825733333333326E-2</v>
       </c>
       <c r="K64">
-        <v>6651.95</v>
+        <v>12290.783333333335</v>
       </c>
       <c r="L64">
-        <v>5964</v>
+        <v>5991.333333333333</v>
       </c>
       <c r="M64">
         <f t="shared" si="3"/>
-        <v>4.2143000000000042E-2</v>
+        <v>5.9682166666666592E-2</v>
       </c>
       <c r="O64" t="s">
         <v>23</v>
       </c>
       <c r="P64">
         <f t="shared" si="1"/>
-        <v>3.29868632069382</v>
+        <v>3.112568735572327</v>
       </c>
       <c r="Q64">
         <f t="shared" si="2"/>
-        <v>1.2030300235290714</v>
+        <v>1.2227372181201626</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -40577,40 +40701,40 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.55372900000000003</v>
+        <v>0.57045483333333336</v>
       </c>
       <c r="G65">
-        <v>2.0394200000000001E-2</v>
+        <v>1.9748166666666667E-2</v>
       </c>
       <c r="H65">
-        <v>0.63506200000000002</v>
+        <v>0.65119533333333324</v>
       </c>
       <c r="I65">
-        <v>0.68893499999999996</v>
+        <v>0.73022883333333333</v>
       </c>
       <c r="J65">
-        <v>0.139401</v>
+        <v>7.5695349999999995E-2</v>
       </c>
       <c r="K65">
-        <v>6828.65</v>
+        <v>12641.199999999999</v>
       </c>
       <c r="L65">
-        <v>3985</v>
+        <v>3999.6666666666665</v>
       </c>
       <c r="M65">
         <f t="shared" si="3"/>
-        <v>5.3872999999999949E-2</v>
+        <v>7.903350000000009E-2</v>
       </c>
       <c r="O65" t="s">
         <v>23</v>
       </c>
       <c r="P65">
         <f t="shared" si="1"/>
-        <v>3.3506934616473254</v>
+        <v>3.2118584745010295</v>
       </c>
       <c r="Q65">
         <f t="shared" si="2"/>
-        <v>0.99804152264306745</v>
+        <v>1.1490441826449291</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -40630,40 +40754,40 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>0.451156</v>
+        <v>0.448077</v>
       </c>
       <c r="G66">
-        <v>2.0400000000000001E-2</v>
+        <v>1.9745366666666667E-2</v>
       </c>
       <c r="H66">
-        <v>0.53259299999999998</v>
+        <v>0.52884783333333341</v>
       </c>
       <c r="I66">
-        <v>0.59912200000000004</v>
+        <v>0.63694666666666666</v>
       </c>
       <c r="J66">
-        <v>0.136827</v>
+        <v>7.7400183333333331E-2</v>
       </c>
       <c r="K66">
-        <v>7071.5</v>
+        <v>12618.566666666668</v>
       </c>
       <c r="L66">
-        <v>2993</v>
+        <v>3002</v>
       </c>
       <c r="M66">
         <f t="shared" si="3"/>
-        <v>6.652900000000006E-2</v>
+        <v>0.10809883333333326</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
       </c>
       <c r="P66">
         <f t="shared" si="1"/>
-        <v>3.8825481287617545</v>
+        <v>3.7177838018881748</v>
       </c>
       <c r="Q66">
         <f t="shared" si="2"/>
-        <v>0.99861184269056802</v>
+        <v>1.0974257138715755</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -40683,40 +40807,40 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2.4673400000000001</v>
+        <v>2.5164</v>
       </c>
       <c r="G67">
-        <v>9.9452600000000002E-2</v>
+        <v>0.10012138333333336</v>
       </c>
       <c r="H67">
-        <v>2.81833</v>
+        <v>2.8697983333333332</v>
       </c>
       <c r="I67">
-        <v>2.8833000000000002</v>
+        <v>2.9345866666666667</v>
       </c>
       <c r="J67">
-        <v>0.12947800000000001</v>
+        <v>9.7193266666666653E-2</v>
       </c>
       <c r="K67">
-        <v>427.35</v>
+        <v>419.17766666666671</v>
       </c>
       <c r="L67">
-        <v>19915</v>
+        <v>19795.833333333332</v>
       </c>
       <c r="M67">
         <f t="shared" si="3"/>
-        <v>6.4970000000000194E-2</v>
+        <v>6.4788333333333448E-2</v>
       </c>
       <c r="O67" t="s">
         <v>23</v>
       </c>
       <c r="P67">
         <f t="shared" ref="P67:P121" si="4">I72/I67</f>
-        <v>2.0853293101654353</v>
+        <v>2.1242775813970396</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q121" si="5">K67/K72</f>
-        <v>2.0434364734403467</v>
+        <v>1.6423129689692619</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -40736,40 +40860,40 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.1182500000000002</v>
+        <v>2.1458200000000001</v>
       </c>
       <c r="G68">
-        <v>9.9540400000000001E-2</v>
+        <v>0.10019991666666665</v>
       </c>
       <c r="H68">
-        <v>2.4708199999999998</v>
+        <v>2.4994783333333332</v>
       </c>
       <c r="I68">
-        <v>2.54941</v>
+        <v>2.5820583333333338</v>
       </c>
       <c r="J68">
-        <v>0.139874</v>
+        <v>7.8581233333333333E-2</v>
       </c>
       <c r="K68">
-        <v>3503.02</v>
+        <v>6243.28</v>
       </c>
       <c r="L68">
-        <v>11831</v>
+        <v>11919</v>
       </c>
       <c r="M68">
         <f t="shared" si="3"/>
-        <v>7.859000000000016E-2</v>
+        <v>8.2580000000000542E-2</v>
       </c>
       <c r="O68" t="s">
         <v>23</v>
       </c>
       <c r="P68">
         <f t="shared" si="4"/>
-        <v>2.2216042143084085</v>
+        <v>2.2117780711125166</v>
       </c>
       <c r="Q68">
         <f t="shared" si="5"/>
-        <v>20.417795963093134</v>
+        <v>36.61984057622486</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -40789,40 +40913,40 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>1.8536300000000001</v>
+        <v>1.8398233333333334</v>
       </c>
       <c r="G69">
-        <v>9.9611699999999997E-2</v>
+        <v>0.10018121666666667</v>
       </c>
       <c r="H69">
-        <v>2.2078099999999998</v>
+        <v>2.1941283333333335</v>
       </c>
       <c r="I69">
-        <v>2.2995999999999999</v>
+        <v>2.2991616666666665</v>
       </c>
       <c r="J69">
-        <v>0.13801099999999999</v>
+        <v>7.6789666666666659E-2</v>
       </c>
       <c r="K69">
-        <v>5529.33</v>
+        <v>10051.859999999999</v>
       </c>
       <c r="L69">
-        <v>5962</v>
+        <v>5987.833333333333</v>
       </c>
       <c r="M69">
         <f t="shared" si="3"/>
-        <v>9.1790000000000038E-2</v>
+        <v>0.10503333333333309</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
       </c>
       <c r="P69">
         <f t="shared" si="4"/>
-        <v>2.2817881370673163</v>
+        <v>2.2797896624639273</v>
       </c>
       <c r="Q69">
         <f t="shared" si="5"/>
-        <v>1.2002591832038865</v>
+        <v>1.6699489998358048</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -40842,40 +40966,40 @@
         <v>15</v>
       </c>
       <c r="F70">
-        <v>1.85653</v>
+        <v>1.8636616666666665</v>
       </c>
       <c r="G70">
-        <v>9.9848500000000007E-2</v>
+        <v>0.10018260000000001</v>
       </c>
       <c r="H70">
-        <v>2.2096900000000002</v>
+        <v>2.2187816666666667</v>
       </c>
       <c r="I70">
-        <v>2.3084099999999999</v>
+        <v>2.3453916666666665</v>
       </c>
       <c r="J70">
-        <v>0.123459</v>
+        <v>7.7103883333333331E-2</v>
       </c>
       <c r="K70">
-        <v>6842.05</v>
+        <v>11001.491666666667</v>
       </c>
       <c r="L70">
-        <v>3986</v>
+        <v>3995.8333333333335</v>
       </c>
       <c r="M70">
         <f t="shared" si="3"/>
-        <v>9.8719999999999697E-2</v>
+        <v>0.12660999999999989</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
       </c>
       <c r="P70">
         <f t="shared" si="4"/>
-        <v>2.2841869511915132</v>
+        <v>2.2486031117759295</v>
       </c>
       <c r="Q70">
         <f t="shared" si="5"/>
-        <v>1.2757164432345758</v>
+        <v>1.3413399795168579</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -40895,40 +41019,40 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>1.86019</v>
+        <v>1.8630133333333336</v>
       </c>
       <c r="G71">
-        <v>9.99004E-2</v>
+        <v>0.10024086666666669</v>
       </c>
       <c r="H71">
-        <v>2.2145199999999998</v>
+        <v>2.2190733333333337</v>
       </c>
       <c r="I71">
-        <v>2.32612</v>
+        <v>2.3680300000000001</v>
       </c>
       <c r="J71">
-        <v>0.124527</v>
+        <v>7.7203916666666664E-2</v>
       </c>
       <c r="K71">
-        <v>7081.33</v>
+        <v>11498.333333333334</v>
       </c>
       <c r="L71">
-        <v>2992</v>
+        <v>2999</v>
       </c>
       <c r="M71">
         <f t="shared" si="3"/>
-        <v>0.11160000000000014</v>
+        <v>0.1489566666666664</v>
       </c>
       <c r="O71" t="s">
         <v>24</v>
       </c>
       <c r="P71">
         <f t="shared" si="4"/>
-        <v>2.2745086238027272</v>
+        <v>2.2342523813746729</v>
       </c>
       <c r="Q71">
         <f t="shared" si="5"/>
-        <v>1.2767480771241781</v>
+        <v>1.2263188393431665</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -40948,40 +41072,40 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5.0496699999999999</v>
+        <v>5.2534416666666663</v>
       </c>
       <c r="G72">
-        <v>0.22634599999999999</v>
+        <v>0.22754266666666667</v>
       </c>
       <c r="H72">
-        <v>5.8607800000000001</v>
+        <v>6.0747649999999993</v>
       </c>
       <c r="I72">
-        <v>6.0126299999999997</v>
+        <v>6.2338766666666672</v>
       </c>
       <c r="J72">
-        <v>0.15812999999999999</v>
+        <v>0.15884849999999998</v>
       </c>
       <c r="K72">
-        <v>209.13300000000001</v>
+        <v>255.23616666666666</v>
       </c>
       <c r="L72">
-        <v>9724</v>
+        <v>9389.1666666666661</v>
       </c>
       <c r="M72">
         <f t="shared" si="3"/>
-        <v>0.1518499999999996</v>
+        <v>0.15911166666666787</v>
       </c>
       <c r="O72" t="s">
         <v>23</v>
       </c>
       <c r="P72">
         <f t="shared" si="4"/>
-        <v>1.7391391121688844</v>
+        <v>1.7097253020191285</v>
       </c>
       <c r="Q72">
         <f t="shared" si="5"/>
-        <v>1.1829927085749197</v>
+        <v>1.865950138720168</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -41001,40 +41125,40 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>4.6990299999999996</v>
+        <v>4.7342966666666664</v>
       </c>
       <c r="G73">
-        <v>0.22643199999999999</v>
+        <v>0.22745416666666665</v>
       </c>
       <c r="H73">
-        <v>5.5110599999999996</v>
+        <v>5.5535749999999995</v>
       </c>
       <c r="I73">
-        <v>5.66378</v>
+        <v>5.7109399999999999</v>
       </c>
       <c r="J73">
-        <v>0.15883900000000001</v>
+        <v>0.15640866666666667</v>
       </c>
       <c r="K73">
-        <v>171.56700000000001</v>
+        <v>170.489</v>
       </c>
       <c r="L73">
-        <v>10305</v>
+        <v>10226</v>
       </c>
       <c r="M73">
         <f t="shared" si="3"/>
-        <v>0.15272000000000041</v>
+        <v>0.15736500000000042</v>
       </c>
       <c r="O73" t="s">
         <v>23</v>
       </c>
       <c r="P73">
         <f t="shared" si="4"/>
-        <v>1.6922903078862526</v>
+        <v>1.6743046386992919</v>
       </c>
       <c r="Q73">
         <f t="shared" si="5"/>
-        <v>1.6823097967308276</v>
+        <v>1.6567047425625678</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -41054,40 +41178,40 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>4.2505100000000002</v>
+        <v>4.2280566666666664</v>
       </c>
       <c r="G74">
-        <v>0.226406</v>
+        <v>0.22758400000000001</v>
       </c>
       <c r="H74">
-        <v>5.0688199999999997</v>
+        <v>5.0525616666666666</v>
       </c>
       <c r="I74">
-        <v>5.2472000000000003</v>
+        <v>5.2416049999999998</v>
       </c>
       <c r="J74">
-        <v>0.10295</v>
+        <v>7.9824133333333325E-2</v>
       </c>
       <c r="K74">
-        <v>4606.78</v>
+        <v>6019.2616666666663</v>
       </c>
       <c r="L74">
-        <v>5962</v>
+        <v>5972.666666666667</v>
       </c>
       <c r="M74">
         <f t="shared" si="3"/>
-        <v>0.17838000000000065</v>
+        <v>0.18904333333333323</v>
       </c>
       <c r="O74" t="s">
         <v>24</v>
       </c>
       <c r="P74">
         <f t="shared" si="4"/>
-        <v>1.8282302942521724</v>
+        <v>1.8274256326704001</v>
       </c>
       <c r="Q74">
         <f t="shared" si="5"/>
-        <v>13.41910865132537</v>
+        <v>14.631764628191316</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -41107,40 +41231,40 @@
         <v>15</v>
       </c>
       <c r="F75">
-        <v>4.2560200000000004</v>
+        <v>4.228911666666666</v>
       </c>
       <c r="G75">
-        <v>0.226581</v>
+        <v>0.22766783333333332</v>
       </c>
       <c r="H75">
-        <v>5.0771499999999996</v>
+        <v>5.0584283333333335</v>
       </c>
       <c r="I75">
-        <v>5.2728400000000004</v>
+        <v>5.2738550000000002</v>
       </c>
       <c r="J75">
-        <v>0.120421</v>
+        <v>7.9938866666666664E-2</v>
       </c>
       <c r="K75">
-        <v>5363.3</v>
+        <v>8201.8666666666668</v>
       </c>
       <c r="L75">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="M75">
         <f t="shared" si="3"/>
-        <v>0.19569000000000081</v>
+        <v>0.21542666666666666</v>
       </c>
       <c r="O75" t="s">
         <v>24</v>
       </c>
       <c r="P75">
         <f t="shared" si="4"/>
-        <v>1.8298070868829699</v>
+        <v>1.8262365322267422</v>
       </c>
       <c r="Q75">
         <f t="shared" si="5"/>
-        <v>1.6040015551634419</v>
+        <v>1.8361038386357422</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -41160,40 +41284,40 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>4.25847</v>
+        <v>4.2198950000000002</v>
       </c>
       <c r="G76">
-        <v>0.22676499999999999</v>
+        <v>0.22777766666666666</v>
       </c>
       <c r="H76">
-        <v>5.0826900000000004</v>
+        <v>5.0493216666666667</v>
       </c>
       <c r="I76">
-        <v>5.2907799999999998</v>
+        <v>5.2907766666666669</v>
       </c>
       <c r="J76">
-        <v>0.13222800000000001</v>
+        <v>7.9435633333333339E-2</v>
       </c>
       <c r="K76">
-        <v>5546.38</v>
+        <v>9376.3000000000011</v>
       </c>
       <c r="L76">
-        <v>2989</v>
+        <v>2997</v>
       </c>
       <c r="M76">
         <f t="shared" si="3"/>
-        <v>0.20808999999999944</v>
+        <v>0.2414550000000002</v>
       </c>
       <c r="O76" t="s">
         <v>24</v>
       </c>
       <c r="P76">
         <f t="shared" si="4"/>
-        <v>1.8243548210282794</v>
+        <v>1.8305018859864932</v>
       </c>
       <c r="Q76">
         <f t="shared" si="5"/>
-        <v>1.3458330805721705</v>
+        <v>1.4346399795174565</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -41213,40 +41337,40 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8.5655800000000006</v>
+        <v>8.7544133333333338</v>
       </c>
       <c r="G77">
-        <v>0.408445</v>
+        <v>0.41455683333333332</v>
       </c>
       <c r="H77">
-        <v>10.1609</v>
+        <v>10.354383333333333</v>
       </c>
       <c r="I77">
-        <v>10.456799999999999</v>
+        <v>10.658216666666666</v>
       </c>
       <c r="J77">
-        <v>0.203102</v>
+        <v>0.20716116666666665</v>
       </c>
       <c r="K77">
-        <v>176.78299999999999</v>
+        <v>136.78616666666665</v>
       </c>
       <c r="L77">
-        <v>5629</v>
+        <v>5522.833333333333</v>
       </c>
       <c r="M77">
         <f t="shared" si="3"/>
-        <v>0.29589999999999961</v>
+        <v>0.3038333333333334</v>
       </c>
       <c r="O77" t="s">
         <v>23</v>
       </c>
       <c r="P77">
         <f t="shared" si="4"/>
-        <v>1.5907065258970241</v>
+        <v>1.5718389411612013</v>
       </c>
       <c r="Q77">
         <f t="shared" si="5"/>
-        <v>2.7211325186595592</v>
+        <v>1.3431615964880494</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -41266,40 +41390,40 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>7.7092900000000002</v>
+        <v>7.6615366666666667</v>
       </c>
       <c r="G78">
-        <v>0.40895399999999998</v>
+        <v>0.41476183333333339</v>
       </c>
       <c r="H78">
-        <v>9.2865300000000008</v>
+        <v>9.258090000000001</v>
       </c>
       <c r="I78">
-        <v>9.5847599999999993</v>
+        <v>9.5618533333333335</v>
       </c>
       <c r="J78">
-        <v>0.20094600000000001</v>
+        <v>0.20314350000000003</v>
       </c>
       <c r="K78">
-        <v>101.983</v>
+        <v>102.90849999999999</v>
       </c>
       <c r="L78">
-        <v>6131</v>
+        <v>6144.166666666667</v>
       </c>
       <c r="M78">
         <f t="shared" si="3"/>
-        <v>0.29822999999999844</v>
+        <v>0.3037633333333325</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
       </c>
       <c r="P78">
         <f t="shared" si="4"/>
-        <v>1.606873828869998</v>
+        <v>1.6163201973397066</v>
       </c>
       <c r="Q78">
         <f t="shared" si="5"/>
-        <v>1.5860497667185072</v>
+        <v>1.5960303639470648</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -41319,40 +41443,40 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>7.7084299999999999</v>
+        <v>7.6555900000000001</v>
       </c>
       <c r="G79">
-        <v>0.408246</v>
+        <v>0.41467533333333328</v>
       </c>
       <c r="H79">
-        <v>9.2888199999999994</v>
+        <v>9.2594399999999997</v>
       </c>
       <c r="I79">
-        <v>9.5930900000000001</v>
+        <v>9.5786433333333321</v>
       </c>
       <c r="J79">
-        <v>0.13486500000000001</v>
+        <v>0.11423853333333334</v>
       </c>
       <c r="K79">
-        <v>343.3</v>
+        <v>411.38316666666668</v>
       </c>
       <c r="L79">
-        <v>5962</v>
+        <v>5973</v>
       </c>
       <c r="M79">
         <f t="shared" si="3"/>
-        <v>0.30427000000000071</v>
+        <v>0.3192033333333324</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
       </c>
       <c r="P79">
         <f t="shared" si="4"/>
-        <v>1.6081054175453373</v>
+        <v>1.6090448438592384</v>
       </c>
       <c r="Q79">
         <f t="shared" si="5"/>
-        <v>5.2869636996733567</v>
+        <v>6.2736032248717732</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -41372,40 +41496,40 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>7.71509</v>
+        <v>7.6605233333333329</v>
       </c>
       <c r="G80">
-        <v>0.41087899999999999</v>
+        <v>0.41598383333333339</v>
       </c>
       <c r="H80">
-        <v>9.2996400000000001</v>
+        <v>9.2587266666666661</v>
       </c>
       <c r="I80">
-        <v>9.6482799999999997</v>
+        <v>9.6313066666666654</v>
       </c>
       <c r="J80">
-        <v>0.10580000000000001</v>
+        <v>8.1057550000000006E-2</v>
       </c>
       <c r="K80">
-        <v>3343.7</v>
+        <v>4466.9949999999999</v>
       </c>
       <c r="L80">
-        <v>3980</v>
+        <v>3988.8333333333335</v>
       </c>
       <c r="M80">
         <f t="shared" si="3"/>
-        <v>0.34863999999999962</v>
+        <v>0.37257999999999925</v>
       </c>
       <c r="O80" t="s">
         <v>24</v>
       </c>
       <c r="P80">
         <f t="shared" si="4"/>
-        <v>1.5976526386050156</v>
+        <v>1.6011534606588516</v>
       </c>
       <c r="Q80">
         <f t="shared" si="5"/>
-        <v>51.113859305039838</v>
+        <v>67.413365729614299</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -41425,40 +41549,40 @@
         <v>20</v>
       </c>
       <c r="F81">
-        <v>7.6848700000000001</v>
+        <v>7.6786933333333343</v>
       </c>
       <c r="G81">
-        <v>0.41434599999999999</v>
+        <v>0.41762899999999997</v>
       </c>
       <c r="H81">
-        <v>9.2755500000000008</v>
+        <v>9.2779249999999998</v>
       </c>
       <c r="I81">
-        <v>9.6522600000000001</v>
+        <v>9.6847766666666661</v>
       </c>
       <c r="J81">
-        <v>0.124183</v>
+        <v>7.9557833333333328E-2</v>
       </c>
       <c r="K81">
-        <v>4121.1499999999996</v>
+        <v>6535.6466666666674</v>
       </c>
       <c r="L81">
-        <v>2990</v>
+        <v>2994.5</v>
       </c>
       <c r="M81">
         <f t="shared" si="3"/>
-        <v>0.37670999999999921</v>
+        <v>0.40685166666666639</v>
       </c>
       <c r="O81" t="s">
         <v>24</v>
       </c>
       <c r="P81">
         <f t="shared" si="4"/>
-        <v>1.6049194696371627</v>
+        <v>1.617251198014203</v>
       </c>
       <c r="Q81">
         <f t="shared" si="5"/>
-        <v>2.1516433027906126</v>
+        <v>2.3888295954072731</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -41478,40 +41602,40 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>13.2395</v>
+        <v>13.414733333333333</v>
       </c>
       <c r="G82">
-        <v>0.76579699999999995</v>
+        <v>0.73963616666666665</v>
       </c>
       <c r="H82">
-        <v>15.9468</v>
+        <v>16.13035</v>
       </c>
       <c r="I82">
-        <v>16.633700000000001</v>
+        <v>16.753</v>
       </c>
       <c r="J82">
-        <v>0.20593800000000001</v>
+        <v>0.21960100000000002</v>
       </c>
       <c r="K82">
-        <v>64.966700000000003</v>
+        <v>101.83895</v>
       </c>
       <c r="L82">
-        <v>3563</v>
+        <v>3535.6666666666665</v>
       </c>
       <c r="M82">
         <f t="shared" si="3"/>
-        <v>0.6869000000000014</v>
+        <v>0.62265000000000015</v>
       </c>
       <c r="O82" t="s">
         <v>23</v>
       </c>
       <c r="P82">
         <f t="shared" si="4"/>
-        <v>1.5574947245651898</v>
+        <v>1.5650997831234206</v>
       </c>
       <c r="Q82">
         <f t="shared" si="5"/>
-        <v>1.6918411458333336</v>
+        <v>2.6768329599408411</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -41531,40 +41655,40 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>12.142799999999999</v>
+        <v>12.110416666666667</v>
       </c>
       <c r="G83">
-        <v>0.70653100000000002</v>
+        <v>0.74008566666666675</v>
       </c>
       <c r="H83">
-        <v>14.796099999999999</v>
+        <v>14.820599999999999</v>
       </c>
       <c r="I83">
-        <v>15.4015</v>
+        <v>15.455016666666666</v>
       </c>
       <c r="J83">
-        <v>0.217887</v>
+        <v>0.21501700000000001</v>
       </c>
       <c r="K83">
-        <v>64.3</v>
+        <v>64.477783333333335</v>
       </c>
       <c r="L83">
-        <v>3842</v>
+        <v>3828.6666666666665</v>
       </c>
       <c r="M83">
         <f t="shared" si="3"/>
-        <v>0.60540000000000127</v>
+        <v>0.63441666666666663</v>
       </c>
       <c r="O83" t="s">
         <v>24</v>
       </c>
       <c r="P83">
         <f t="shared" si="4"/>
-        <v>1.596493848001818</v>
+        <v>1.5947227491397078</v>
       </c>
       <c r="Q83">
         <f t="shared" si="5"/>
-        <v>1.5811462449620943</v>
+        <v>1.5714751690425648</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -41584,40 +41708,40 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>12.155900000000001</v>
+        <v>12.099516666666666</v>
       </c>
       <c r="G84">
-        <v>0.72119699999999998</v>
+        <v>0.72697966666666669</v>
       </c>
       <c r="H84">
-        <v>14.816000000000001</v>
+        <v>14.787366666666665</v>
       </c>
       <c r="I84">
-        <v>15.4267</v>
+        <v>15.412466666666667</v>
       </c>
       <c r="J84">
-        <v>0.21654300000000001</v>
+        <v>0.21487916666666665</v>
       </c>
       <c r="K84">
-        <v>64.933300000000003</v>
+        <v>65.573666666666668</v>
       </c>
       <c r="L84">
-        <v>3835</v>
+        <v>3838.5</v>
       </c>
       <c r="M84">
         <f t="shared" si="3"/>
-        <v>0.61069999999999958</v>
+        <v>0.62510000000000154</v>
       </c>
       <c r="O84" t="s">
         <v>24</v>
       </c>
       <c r="P84">
         <f t="shared" si="4"/>
-        <v>1.5929265494240503</v>
+        <v>1.5981564707358116</v>
       </c>
       <c r="Q84">
         <f t="shared" si="5"/>
-        <v>1.5747781526096627</v>
+        <v>1.5670815763301147</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -41637,40 +41761,40 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>12.1526</v>
+        <v>12.100133333333334</v>
       </c>
       <c r="G85">
-        <v>0.71535199999999999</v>
+        <v>0.73127816666666678</v>
       </c>
       <c r="H85">
-        <v>14.8108</v>
+        <v>14.801550000000001</v>
       </c>
       <c r="I85">
-        <v>15.4146</v>
+        <v>15.421199999999999</v>
       </c>
       <c r="J85">
-        <v>0.21762300000000001</v>
+        <v>0.21111583333333331</v>
       </c>
       <c r="K85">
-        <v>65.416700000000006</v>
+        <v>66.262749999999997</v>
       </c>
       <c r="L85">
-        <v>3837</v>
+        <v>3836.6666666666665</v>
       </c>
       <c r="M85">
         <f t="shared" si="3"/>
-        <v>0.60379999999999967</v>
+        <v>0.61964999999999826</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
       </c>
       <c r="P85">
         <f t="shared" si="4"/>
-        <v>1.5932038457047213</v>
+        <v>1.5981624862743065</v>
       </c>
       <c r="Q85">
         <f t="shared" si="5"/>
-        <v>1.5725168269230769</v>
+        <v>1.5667008319058411</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -41690,40 +41814,40 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>12.1509</v>
+        <v>12.2052</v>
       </c>
       <c r="G86">
-        <v>0.71873100000000001</v>
+        <v>0.74476866666666675</v>
       </c>
       <c r="H86">
-        <v>14.799799999999999</v>
+        <v>14.937199999999999</v>
       </c>
       <c r="I86">
-        <v>15.491099999999999</v>
+        <v>15.662716666666666</v>
       </c>
       <c r="J86">
-        <v>0.11842</v>
+        <v>8.0251233333333338E-2</v>
       </c>
       <c r="K86">
-        <v>1915.35</v>
+        <v>2735.92</v>
       </c>
       <c r="L86">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="M86">
         <f t="shared" si="3"/>
-        <v>0.69130000000000003</v>
+        <v>0.72551666666666748</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
       </c>
       <c r="P86">
         <f t="shared" si="4"/>
-        <v>1.5910748752509507</v>
+        <v>1.5741319885971252</v>
       </c>
       <c r="Q86">
         <f t="shared" si="5"/>
-        <v>45.767025089605731</v>
+        <v>64.06471599721192</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -41743,44 +41867,44 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>20.0976</v>
+        <v>20.35638333333333</v>
       </c>
       <c r="G87">
-        <v>1.40358</v>
+        <v>1.4217466666666665</v>
       </c>
       <c r="H87">
-        <v>24.7987</v>
+        <v>25.099083333333336</v>
       </c>
       <c r="I87">
-        <v>25.9069</v>
+        <v>26.220116666666666</v>
       </c>
       <c r="J87">
-        <v>0.219219</v>
+        <v>0.22555399999999995</v>
       </c>
       <c r="K87">
-        <v>38.4</v>
+        <v>38.044566666666668</v>
       </c>
       <c r="L87">
-        <v>2297</v>
+        <v>2269.3333333333335</v>
       </c>
       <c r="M87">
         <f t="shared" si="3"/>
-        <v>1.1082000000000001</v>
+        <v>1.1210333333333296</v>
       </c>
       <c r="N87">
         <f>H87-(G87+F87)</f>
-        <v>3.2975199999999987</v>
+        <v>3.320953333333339</v>
       </c>
       <c r="O87" t="s">
         <v>23</v>
       </c>
       <c r="P87">
         <f t="shared" si="4"/>
-        <v>1.1327638582771386E-2</v>
+        <v>1.1457030130173587E-2</v>
       </c>
       <c r="Q87">
         <f t="shared" si="5"/>
-        <v>5.5189700222196035E-3</v>
+        <v>4.0895603677009382E-3</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -41800,40 +41924,40 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>18.8291</v>
+        <v>18.794699999999999</v>
       </c>
       <c r="G88">
-        <v>1.3758900000000001</v>
+        <v>1.4081533333333331</v>
       </c>
       <c r="H88">
-        <v>23.486000000000001</v>
+        <v>23.526250000000001</v>
       </c>
       <c r="I88">
-        <v>24.5884</v>
+        <v>24.646466666666669</v>
       </c>
       <c r="J88">
-        <v>0.221696</v>
+        <v>0.22082533333333335</v>
       </c>
       <c r="K88">
-        <v>40.666699999999999</v>
+        <v>41.030099999999997</v>
       </c>
       <c r="L88">
-        <v>2419</v>
+        <v>2412.8333333333335</v>
       </c>
       <c r="M88">
         <f t="shared" si="3"/>
-        <v>1.1023999999999994</v>
+        <v>1.1202166666666677</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
       </c>
       <c r="P88">
         <f t="shared" si="4"/>
-        <v>1.3722893722243008E-2</v>
+        <v>1.4270639199127931E-2</v>
       </c>
       <c r="Q88">
         <f t="shared" si="5"/>
-        <v>5.2116082069946553E-3</v>
+        <v>3.3389520398101717E-3</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -41853,40 +41977,40 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>18.808800000000002</v>
+        <v>18.786749999999998</v>
       </c>
       <c r="G89">
-        <v>1.38436</v>
+        <v>1.4045949999999998</v>
       </c>
       <c r="H89">
-        <v>23.463100000000001</v>
+        <v>23.509216666666664</v>
       </c>
       <c r="I89">
-        <v>24.573599999999999</v>
+        <v>24.631533333333337</v>
       </c>
       <c r="J89">
-        <v>0.22115499999999999</v>
+        <v>0.21890916666666668</v>
       </c>
       <c r="K89">
-        <v>41.2333</v>
+        <v>41.844450000000002</v>
       </c>
       <c r="L89">
-        <v>2420</v>
+        <v>2414.1666666666665</v>
       </c>
       <c r="M89">
         <f t="shared" si="3"/>
-        <v>1.1104999999999983</v>
+        <v>1.1223166666666735</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
       </c>
       <c r="P89">
         <f t="shared" si="4"/>
-        <v>1.2626639971351369E-2</v>
+        <v>1.3488353682136446E-2</v>
       </c>
       <c r="Q89">
         <f t="shared" si="5"/>
-        <v>4.9273091851172041E-3</v>
+        <v>3.2713339196716509E-3</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -41906,40 +42030,40 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>18.793900000000001</v>
+        <v>18.791016666666668</v>
       </c>
       <c r="G90">
-        <v>1.3814900000000001</v>
+        <v>1.4109383333333334</v>
       </c>
       <c r="H90">
-        <v>23.447800000000001</v>
+        <v>23.522066666666671</v>
       </c>
       <c r="I90">
-        <v>24.558599999999998</v>
+        <v>24.645583333333335</v>
       </c>
       <c r="J90">
-        <v>0.220416</v>
+        <v>0.21860500000000002</v>
       </c>
       <c r="K90">
-        <v>41.6</v>
+        <v>42.294449999999998</v>
       </c>
       <c r="L90">
-        <v>2421</v>
+        <v>2412.6666666666665</v>
       </c>
       <c r="M90">
         <f t="shared" si="3"/>
-        <v>1.1107999999999976</v>
+        <v>1.1235166666666636</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
       </c>
       <c r="P90">
         <f t="shared" si="4"/>
-        <v>1.2858346974176052E-2</v>
+        <v>1.3935478635455302E-2</v>
       </c>
       <c r="Q90">
         <f t="shared" si="5"/>
-        <v>4.8957879747207871E-3</v>
+        <v>3.2677554604946318E-3</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -41959,40 +42083,40 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>18.844799999999999</v>
+        <v>18.802366666666664</v>
       </c>
       <c r="G91">
-        <v>1.40065</v>
+        <v>1.4056466666666667</v>
       </c>
       <c r="H91">
-        <v>23.5396</v>
+        <v>23.531933333333331</v>
       </c>
       <c r="I91">
-        <v>24.647500000000001</v>
+        <v>24.655183333333337</v>
       </c>
       <c r="J91">
-        <v>0.21726100000000001</v>
+        <v>0.21857266666666664</v>
       </c>
       <c r="K91">
-        <v>41.85</v>
+        <v>42.70556666666667</v>
       </c>
       <c r="L91">
-        <v>2413</v>
+        <v>2411.3333333333335</v>
       </c>
       <c r="M91">
         <f t="shared" si="3"/>
-        <v>1.1079000000000008</v>
+        <v>1.1232500000000059</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
       </c>
       <c r="P91">
         <f t="shared" si="4"/>
-        <v>1.3116705548230044E-2</v>
+        <v>1.4581396339241711E-2</v>
       </c>
       <c r="Q91">
         <f t="shared" si="5"/>
-        <v>5.2347703830826235E-3</v>
+        <v>3.2810012279742519E-3</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -42012,40 +42136,40 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.25656299999999999</v>
+        <v>0.25995499999999999</v>
       </c>
       <c r="G92">
-        <v>9.0779299999999997E-3</v>
+        <v>9.4975216666666664E-3</v>
       </c>
       <c r="H92">
-        <v>0.28254200000000002</v>
+        <v>0.28653033333333333</v>
       </c>
       <c r="I92">
-        <v>0.293464</v>
+        <v>0.30040466666666665</v>
       </c>
       <c r="J92">
-        <v>0.10206999999999999</v>
+        <v>7.6304433333333324E-2</v>
       </c>
       <c r="K92">
-        <v>6957.82</v>
+        <v>9302.8499999999985</v>
       </c>
       <c r="L92">
-        <v>56869</v>
+        <v>57826</v>
       </c>
       <c r="M92">
         <f t="shared" si="3"/>
-        <v>1.0921999999999987E-2</v>
+        <v>1.3874333333333322E-2</v>
       </c>
       <c r="O92" t="s">
         <v>23</v>
       </c>
       <c r="P92">
         <f t="shared" si="4"/>
-        <v>4.2326827140637349</v>
+        <v>4.1312829139360909</v>
       </c>
       <c r="Q92">
         <f t="shared" si="5"/>
-        <v>8.3866239650544276</v>
+        <v>10.474613599539708</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -42065,40 +42189,40 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.28825600000000001</v>
+        <v>0.29444533333333334</v>
       </c>
       <c r="G93">
-        <v>9.0940799999999992E-3</v>
+        <v>9.5043899999999997E-3</v>
       </c>
       <c r="H93">
-        <v>0.31427300000000002</v>
+        <v>0.32104899999999997</v>
       </c>
       <c r="I93">
-        <v>0.337424</v>
+        <v>0.35172083333333326</v>
       </c>
       <c r="J93">
-        <v>0.118835</v>
+        <v>7.6077816666666673E-2</v>
       </c>
       <c r="K93">
-        <v>7803.1</v>
+        <v>12288.316666666668</v>
       </c>
       <c r="L93">
-        <v>11864</v>
+        <v>11933.166666666666</v>
       </c>
       <c r="M93">
         <f t="shared" si="3"/>
-        <v>2.3150999999999977E-2</v>
+        <v>3.0671833333333287E-2</v>
       </c>
       <c r="O93" t="s">
         <v>23</v>
       </c>
       <c r="P93">
         <f t="shared" si="4"/>
-        <v>3.2939862013371899</v>
+        <v>3.2200206129387663</v>
       </c>
       <c r="Q93">
         <f t="shared" si="5"/>
-        <v>1.2237565378312043</v>
+        <v>1.2396425896913652</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -42118,40 +42242,40 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.24843399999999999</v>
+        <v>0.25477366666666668</v>
       </c>
       <c r="G94">
-        <v>9.0622700000000007E-3</v>
+        <v>9.5073099999999997E-3</v>
       </c>
       <c r="H94">
-        <v>0.27438899999999999</v>
+        <v>0.28138449999999998</v>
       </c>
       <c r="I94">
-        <v>0.310282</v>
+        <v>0.33223883333333332</v>
       </c>
       <c r="J94">
-        <v>0.115581</v>
+        <v>7.6266066666666674E-2</v>
       </c>
       <c r="K94">
-        <v>8368.32</v>
+        <v>12791.25</v>
       </c>
       <c r="L94">
-        <v>5972</v>
+        <v>5991.666666666667</v>
       </c>
       <c r="M94">
         <f t="shared" si="3"/>
-        <v>3.5893000000000008E-2</v>
+        <v>5.0854333333333335E-2</v>
       </c>
       <c r="O94" t="s">
         <v>23</v>
       </c>
       <c r="P94">
         <f t="shared" si="4"/>
-        <v>3.6056232717334553</v>
+        <v>3.4541065588861022</v>
       </c>
       <c r="Q94">
         <f t="shared" si="5"/>
-        <v>1.2154334391180892</v>
+        <v>1.1137522774617812</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -42171,40 +42295,40 @@
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.24130199999999999</v>
+        <v>0.24570166666666668</v>
       </c>
       <c r="G95">
-        <v>9.0853400000000008E-3</v>
+        <v>9.5039849999999995E-3</v>
       </c>
       <c r="H95">
-        <v>0.26729000000000003</v>
+        <v>0.27232666666666666</v>
       </c>
       <c r="I95">
-        <v>0.31578299999999998</v>
+        <v>0.34344799999999998</v>
       </c>
       <c r="J95">
-        <v>0.11502800000000001</v>
+        <v>7.6131550000000006E-2</v>
       </c>
       <c r="K95">
-        <v>8497.1</v>
+        <v>12942.966666666665</v>
       </c>
       <c r="L95">
-        <v>3990</v>
+        <v>3999.6666666666665</v>
       </c>
       <c r="M95">
         <f t="shared" si="3"/>
-        <v>4.8492999999999953E-2</v>
+        <v>7.1121333333333314E-2</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
       </c>
       <c r="P95">
         <f t="shared" si="4"/>
-        <v>3.553452845783339</v>
+        <v>3.4283161740156682</v>
       </c>
       <c r="Q95">
         <f t="shared" si="5"/>
-        <v>1.4757366873513991</v>
+        <v>1.4315432513985407</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -42224,40 +42348,40 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.23897599999999999</v>
+        <v>0.24186533333333329</v>
       </c>
       <c r="G96">
-        <v>9.1094899999999996E-3</v>
+        <v>9.507284999999999E-3</v>
       </c>
       <c r="H96">
-        <v>0.26503900000000002</v>
+        <v>0.26849566666666663</v>
       </c>
       <c r="I96">
-        <v>0.32329400000000003</v>
+        <v>0.35950699999999997</v>
       </c>
       <c r="J96">
-        <v>0.12279900000000001</v>
+        <v>7.6011666666666672E-2</v>
       </c>
       <c r="K96">
-        <v>7994.62</v>
+        <v>13016.016666666668</v>
       </c>
       <c r="L96">
-        <v>2994</v>
+        <v>3002.1666666666665</v>
       </c>
       <c r="M96">
         <f t="shared" si="3"/>
-        <v>5.8255000000000001E-2</v>
+        <v>9.1011333333333333E-2</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
       </c>
       <c r="P96">
         <f t="shared" si="4"/>
-        <v>3.5007454515085334</v>
+        <v>3.2530984561264922</v>
       </c>
       <c r="Q96">
         <f t="shared" si="5"/>
-        <v>0.93482678865011382</v>
+        <v>1.0582672278518408</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -42277,40 +42401,40 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.0865499999999999</v>
+        <v>1.0843016666666667</v>
       </c>
       <c r="G97">
-        <v>5.0017699999999998E-2</v>
+        <v>5.0030966666666669E-2</v>
       </c>
       <c r="H97">
-        <v>1.20983</v>
+        <v>1.20831</v>
       </c>
       <c r="I97">
-        <v>1.24214</v>
+        <v>1.2410566666666667</v>
       </c>
       <c r="J97">
-        <v>8.8563199999999995E-2</v>
+        <v>9.2669916666666671E-2</v>
       </c>
       <c r="K97">
-        <v>829.63300000000004</v>
+        <v>888.13299999999992</v>
       </c>
       <c r="L97">
-        <v>45085</v>
+        <v>45012.666666666664</v>
       </c>
       <c r="M97">
         <f t="shared" si="3"/>
-        <v>3.2310000000000061E-2</v>
+        <v>3.2746666666666702E-2</v>
       </c>
       <c r="O97" t="s">
         <v>23</v>
       </c>
       <c r="P97">
         <f t="shared" si="4"/>
-        <v>2.0823659168853754</v>
+        <v>2.1201341867279764</v>
       </c>
       <c r="Q97">
         <f t="shared" si="5"/>
-        <v>2.032169014084507</v>
+        <v>1.7094087447799944</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -42330,40 +42454,40 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.94501199999999996</v>
+        <v>0.95927933333333326</v>
       </c>
       <c r="G98">
-        <v>5.0173000000000002E-2</v>
+        <v>5.0066350000000003E-2</v>
       </c>
       <c r="H98">
-        <v>1.0687800000000001</v>
+        <v>1.0835233333333334</v>
       </c>
       <c r="I98">
-        <v>1.11147</v>
+        <v>1.1325483333333335</v>
       </c>
       <c r="J98">
-        <v>0.120925</v>
+        <v>7.8726066666666664E-2</v>
       </c>
       <c r="K98">
-        <v>6376.35</v>
+        <v>9912.7899999999991</v>
       </c>
       <c r="L98">
-        <v>11856</v>
+        <v>11930.5</v>
       </c>
       <c r="M98">
         <f t="shared" si="3"/>
-        <v>4.2689999999999895E-2</v>
+        <v>4.9025000000000096E-2</v>
       </c>
       <c r="O98" t="s">
         <v>24</v>
       </c>
       <c r="P98">
         <f t="shared" si="4"/>
-        <v>2.2557423952063487</v>
+        <v>2.2320121731375702</v>
       </c>
       <c r="Q98">
         <f t="shared" si="5"/>
-        <v>1.4619358122515236</v>
+        <v>1.5531449906892365</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -42383,40 +42507,40 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.94132000000000005</v>
+        <v>0.95472299999999999</v>
       </c>
       <c r="G99">
-        <v>5.0164599999999997E-2</v>
+        <v>5.0099633333333338E-2</v>
       </c>
       <c r="H99">
-        <v>1.0651600000000001</v>
+        <v>1.0789533333333334</v>
       </c>
       <c r="I99">
-        <v>1.11876</v>
+        <v>1.1475883333333332</v>
       </c>
       <c r="J99">
-        <v>0.128472</v>
+        <v>7.8207650000000004E-2</v>
       </c>
       <c r="K99">
-        <v>6885.05</v>
+        <v>11484.824999999999</v>
       </c>
       <c r="L99">
-        <v>5968</v>
+        <v>5989.5</v>
       </c>
       <c r="M99">
         <f t="shared" si="3"/>
-        <v>5.359999999999987E-2</v>
+        <v>6.863499999999978E-2</v>
       </c>
       <c r="O99" t="s">
         <v>24</v>
       </c>
       <c r="P99">
         <f t="shared" si="4"/>
-        <v>2.2426436411741575</v>
+        <v>2.240332988165036</v>
       </c>
       <c r="Q99">
         <f t="shared" si="5"/>
-        <v>1.8346581325261075</v>
+        <v>2.1302291260022987</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -42436,40 +42560,40 @@
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.93856499999999998</v>
+        <v>0.97263066666666675</v>
       </c>
       <c r="G100">
-        <v>5.0398400000000003E-2</v>
+        <v>5.1377383333333332E-2</v>
       </c>
       <c r="H100">
-        <v>1.0628200000000001</v>
+        <v>1.1007583333333335</v>
       </c>
       <c r="I100">
-        <v>1.12212</v>
+        <v>1.1774483333333332</v>
       </c>
       <c r="J100">
-        <v>0.16084300000000001</v>
+        <v>0.10207661666666668</v>
       </c>
       <c r="K100">
-        <v>5757.87</v>
+        <v>9041.2683333333334</v>
       </c>
       <c r="L100">
-        <v>3980</v>
+        <v>3992.1666666666665</v>
       </c>
       <c r="M100">
         <f t="shared" si="3"/>
-        <v>5.9299999999999908E-2</v>
+        <v>7.6689999999999703E-2</v>
       </c>
       <c r="O100" t="s">
         <v>24</v>
       </c>
       <c r="P100">
         <f t="shared" si="4"/>
-        <v>2.2338787295476417</v>
+        <v>2.1524723660910814</v>
       </c>
       <c r="Q100">
         <f t="shared" si="5"/>
-        <v>0.90125141850909796</v>
+        <v>0.85390565319891876</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -42489,40 +42613,40 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>0.92530299999999999</v>
+        <v>0.93291083333333324</v>
       </c>
       <c r="G101">
-        <v>4.9997899999999998E-2</v>
+        <v>5.0126783333333334E-2</v>
       </c>
       <c r="H101">
-        <v>1.04853</v>
+        <v>1.057355</v>
       </c>
       <c r="I101">
-        <v>1.1317699999999999</v>
+        <v>1.1695116666666667</v>
       </c>
       <c r="J101">
-        <v>0.11002199999999999</v>
+        <v>7.7046266666666668E-2</v>
       </c>
       <c r="K101">
-        <v>8551.98</v>
+        <v>12299.366666666667</v>
       </c>
       <c r="L101">
-        <v>2994</v>
+        <v>3000.3333333333335</v>
       </c>
       <c r="M101">
         <f t="shared" si="3"/>
-        <v>8.3239999999999981E-2</v>
+        <v>0.11215666666666668</v>
       </c>
       <c r="O101" t="s">
         <v>24</v>
       </c>
       <c r="P101">
         <f t="shared" si="4"/>
-        <v>2.2238617386924906</v>
+        <v>2.185463448419354</v>
       </c>
       <c r="Q101">
         <f t="shared" si="5"/>
-        <v>1.3291649181703733</v>
+        <v>1.101517201644002</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -42542,40 +42666,40 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2388599999999999</v>
+        <v>2.27752</v>
       </c>
       <c r="G102">
-        <v>0.113151</v>
+        <v>0.11366649999999999</v>
       </c>
       <c r="H102">
-        <v>2.5164200000000001</v>
+        <v>2.5581133333333335</v>
       </c>
       <c r="I102">
-        <v>2.5865900000000002</v>
+        <v>2.6312066666666669</v>
       </c>
       <c r="J102">
-        <v>0.102196</v>
+        <v>0.10546270000000002</v>
       </c>
       <c r="K102">
-        <v>408.25</v>
+        <v>519.55566666666675</v>
       </c>
       <c r="L102">
-        <v>22314</v>
+        <v>21926.666666666668</v>
       </c>
       <c r="M102">
         <f t="shared" si="3"/>
-        <v>7.0170000000000066E-2</v>
+        <v>7.3093333333333455E-2</v>
       </c>
       <c r="O102" t="s">
         <v>23</v>
       </c>
       <c r="P102">
         <f t="shared" si="4"/>
-        <v>1.7689738226777341</v>
+        <v>1.7625918146553796</v>
       </c>
       <c r="Q102">
         <f t="shared" si="5"/>
-        <v>1.4276971498513726</v>
+        <v>1.585085622062923</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -42595,40 +42719,40 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>2.1502400000000002</v>
+        <v>2.16154</v>
       </c>
       <c r="G103">
-        <v>0.113303</v>
+        <v>0.1138575</v>
       </c>
       <c r="H103">
-        <v>2.42835</v>
+        <v>2.4425816666666669</v>
       </c>
       <c r="I103">
-        <v>2.50719</v>
+        <v>2.5278616666666669</v>
       </c>
       <c r="J103">
-        <v>0.114928</v>
+        <v>7.7975416666666672E-2</v>
       </c>
       <c r="K103">
-        <v>4361.58</v>
+        <v>6382.3983333333335</v>
       </c>
       <c r="L103">
-        <v>11861</v>
+        <v>11921.333333333334</v>
       </c>
       <c r="M103">
         <f t="shared" si="3"/>
-        <v>7.8840000000000021E-2</v>
+        <v>8.5280000000000022E-2</v>
       </c>
       <c r="O103" t="s">
         <v>24</v>
       </c>
       <c r="P103">
         <f t="shared" si="4"/>
-        <v>1.7883726402865359</v>
+        <v>1.7991299629396915</v>
       </c>
       <c r="Q103">
         <f t="shared" si="5"/>
-        <v>4.1441371250486947</v>
+        <v>5.7864752830688468</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -42648,40 +42772,40 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>2.1459199999999998</v>
+        <v>2.1902666666666666</v>
       </c>
       <c r="G104">
-        <v>0.11357299999999999</v>
+        <v>0.11636133333333333</v>
       </c>
       <c r="H104">
-        <v>2.4243399999999999</v>
+        <v>2.4768866666666667</v>
       </c>
       <c r="I104">
-        <v>2.5089800000000002</v>
+        <v>2.57098</v>
       </c>
       <c r="J104">
-        <v>0.20012199999999999</v>
+        <v>0.13792450000000001</v>
       </c>
       <c r="K104">
-        <v>3752.77</v>
+        <v>5391.3566666666666</v>
       </c>
       <c r="L104">
-        <v>5919</v>
+        <v>5948.833333333333</v>
       </c>
       <c r="M104">
         <f t="shared" si="3"/>
-        <v>8.4640000000000271E-2</v>
+        <v>9.4093333333333362E-2</v>
       </c>
       <c r="O104" t="s">
         <v>24</v>
       </c>
       <c r="P104">
         <f t="shared" si="4"/>
-        <v>1.7944184489314381</v>
+        <v>1.7653949077783571</v>
       </c>
       <c r="Q104">
         <f t="shared" si="5"/>
-        <v>0.82543770895653712</v>
+        <v>0.78620983992722204</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -42701,40 +42825,40 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <v>2.1248499999999999</v>
+        <v>2.1262966666666667</v>
       </c>
       <c r="G105">
-        <v>0.11430899999999999</v>
+        <v>0.11417933333333334</v>
       </c>
       <c r="H105">
-        <v>2.4044300000000001</v>
+        <v>2.4076883333333332</v>
       </c>
       <c r="I105">
-        <v>2.5066799999999998</v>
+        <v>2.5344250000000001</v>
       </c>
       <c r="J105">
-        <v>0.130105</v>
+        <v>7.9606116666666657E-2</v>
       </c>
       <c r="K105">
-        <v>6388.75</v>
+        <v>10588.135</v>
       </c>
       <c r="L105">
-        <v>3980</v>
+        <v>3990.3333333333335</v>
       </c>
       <c r="M105">
         <f t="shared" si="3"/>
-        <v>0.10224999999999973</v>
+        <v>0.12673666666666694</v>
       </c>
       <c r="O105" t="s">
         <v>24</v>
       </c>
       <c r="P105">
         <f t="shared" si="4"/>
-        <v>1.8010236647677407</v>
+        <v>1.8061131551864162</v>
       </c>
       <c r="Q105">
         <f t="shared" si="5"/>
-        <v>1.1185745976107895</v>
+        <v>1.1952982299546255</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -42754,40 +42878,40 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2.1240999999999999</v>
+        <v>2.1274016666666666</v>
       </c>
       <c r="G106">
-        <v>0.11462600000000001</v>
+        <v>0.1142765</v>
       </c>
       <c r="H106">
-        <v>2.40469</v>
+        <v>2.4089066666666663</v>
       </c>
       <c r="I106">
-        <v>2.5169000000000001</v>
+        <v>2.5559249999999998</v>
       </c>
       <c r="J106">
-        <v>0.135522</v>
+        <v>7.9269166666666668E-2</v>
       </c>
       <c r="K106">
-        <v>6434.1</v>
+        <v>11165.841666666667</v>
       </c>
       <c r="L106">
-        <v>2988</v>
+        <v>2997</v>
       </c>
       <c r="M106">
         <f t="shared" si="3"/>
-        <v>0.11221000000000014</v>
+        <v>0.14701833333333347</v>
       </c>
       <c r="O106" t="s">
         <v>24</v>
       </c>
       <c r="P106">
         <f t="shared" si="4"/>
-        <v>1.8015376057848942</v>
+        <v>1.8092758329502368</v>
       </c>
       <c r="Q106">
         <f t="shared" si="5"/>
-        <v>1.0192036268765237</v>
+        <v>1.1535595969474903</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -42807,40 +42931,40 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3.9445299999999999</v>
+        <v>3.9957100000000003</v>
       </c>
       <c r="G107">
-        <v>0.20474500000000001</v>
+        <v>0.20790883333333332</v>
       </c>
       <c r="H107">
-        <v>4.4440799999999996</v>
+        <v>4.5015583333333327</v>
       </c>
       <c r="I107">
-        <v>4.5756100000000002</v>
+        <v>4.6377433333333329</v>
       </c>
       <c r="J107">
-        <v>0.15506800000000001</v>
+        <v>0.15812000000000001</v>
       </c>
       <c r="K107">
-        <v>285.95</v>
+        <v>327.77766666666668</v>
       </c>
       <c r="L107">
-        <v>12683</v>
+        <v>12511.5</v>
       </c>
       <c r="M107">
         <f t="shared" si="3"/>
-        <v>0.13153000000000059</v>
+        <v>0.13618500000000022</v>
       </c>
       <c r="O107" t="s">
         <v>23</v>
       </c>
       <c r="P107">
         <f t="shared" si="4"/>
-        <v>1.58649884933375</v>
+        <v>1.5938143048019764</v>
       </c>
       <c r="Q107">
         <f t="shared" si="5"/>
-        <v>1.8383156541305044</v>
+        <v>1.6772326675001668</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -42860,40 +42984,40 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3.8495499999999998</v>
+        <v>3.9030883333333328</v>
       </c>
       <c r="G108">
-        <v>0.20605299999999999</v>
+        <v>0.20840883333333335</v>
       </c>
       <c r="H108">
-        <v>4.35025</v>
+        <v>4.4094083333333334</v>
       </c>
       <c r="I108">
-        <v>4.4837899999999999</v>
+        <v>4.5479516666666671</v>
       </c>
       <c r="J108">
-        <v>0.105419</v>
+        <v>8.8210483333333325E-2</v>
       </c>
       <c r="K108">
-        <v>1052.47</v>
+        <v>1102.9855</v>
       </c>
       <c r="L108">
-        <v>11878</v>
+        <v>11916.5</v>
       </c>
       <c r="M108">
         <f t="shared" si="3"/>
-        <v>0.13353999999999999</v>
+        <v>0.13854333333333368</v>
       </c>
       <c r="O108" t="s">
         <v>24</v>
       </c>
       <c r="P108">
         <f t="shared" si="4"/>
-        <v>1.6000637853244688</v>
+        <v>1.5954039382564531</v>
       </c>
       <c r="Q108">
         <f t="shared" si="5"/>
-        <v>7.7482644129188047</v>
+        <v>8.1909932545330779</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -42913,40 +43037,40 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>3.8466399999999998</v>
+        <v>3.8638049999999997</v>
       </c>
       <c r="G109">
-        <v>0.20910799999999999</v>
+        <v>0.2112428333333333</v>
       </c>
       <c r="H109">
-        <v>4.3521799999999997</v>
+        <v>4.3747033333333327</v>
       </c>
       <c r="I109">
-        <v>4.5021599999999999</v>
+        <v>4.5387950000000004</v>
       </c>
       <c r="J109">
-        <v>0.119751</v>
+        <v>7.9923983333333337E-2</v>
       </c>
       <c r="K109">
-        <v>4546.3999999999996</v>
+        <v>6857.4016666666676</v>
       </c>
       <c r="L109">
-        <v>5958</v>
+        <v>5975.5</v>
       </c>
       <c r="M109">
         <f t="shared" si="3"/>
-        <v>0.14998000000000022</v>
+        <v>0.16409166666666763</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
       </c>
       <c r="P109">
         <f t="shared" si="4"/>
-        <v>1.5896725127494358</v>
+        <v>1.603041115538375</v>
       </c>
       <c r="Q109">
         <f t="shared" si="5"/>
-        <v>1.9060635661969703</v>
+        <v>2.0382525220299894</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -42966,40 +43090,40 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>3.8399000000000001</v>
+        <v>3.8782700000000001</v>
       </c>
       <c r="G110">
-        <v>0.21232799999999999</v>
+        <v>0.21228483333333334</v>
       </c>
       <c r="H110">
-        <v>4.3506799999999997</v>
+        <v>4.3903383333333332</v>
       </c>
       <c r="I110">
-        <v>4.5145900000000001</v>
+        <v>4.5774583333333334</v>
       </c>
       <c r="J110">
-        <v>0.121527</v>
+        <v>7.9377699999999995E-2</v>
       </c>
       <c r="K110">
-        <v>5711.51</v>
+        <v>8858.1533333333336</v>
       </c>
       <c r="L110">
-        <v>3979</v>
+        <v>3988.5</v>
       </c>
       <c r="M110">
         <f t="shared" si="3"/>
-        <v>0.16391000000000044</v>
+        <v>0.18712000000000018</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
       </c>
       <c r="P110">
         <f t="shared" si="4"/>
-        <v>1.6136747744534941</v>
+        <v>1.6270885407658906</v>
       </c>
       <c r="Q110">
         <f t="shared" si="5"/>
-        <v>1.2902614404185577</v>
+        <v>1.3821881093518953</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -43019,40 +43143,40 @@
         <v>20</v>
       </c>
       <c r="F111">
-        <v>3.84578</v>
+        <v>3.8999833333333331</v>
       </c>
       <c r="G111">
-        <v>0.213642</v>
+        <v>0.214781</v>
       </c>
       <c r="H111">
-        <v>4.35853</v>
+        <v>4.41594</v>
       </c>
       <c r="I111">
-        <v>4.5342900000000004</v>
+        <v>4.6243733333333337</v>
       </c>
       <c r="J111">
-        <v>0.122335</v>
+        <v>8.0110216666666664E-2</v>
       </c>
       <c r="K111">
-        <v>6312.87</v>
+        <v>9679.4666666666653</v>
       </c>
       <c r="L111">
-        <v>2987</v>
+        <v>2995.3333333333335</v>
       </c>
       <c r="M111">
         <f t="shared" si="3"/>
-        <v>0.17576000000000036</v>
+        <v>0.20843333333333369</v>
       </c>
       <c r="O111" t="s">
         <v>24</v>
       </c>
       <c r="P111">
         <f t="shared" si="4"/>
-        <v>1.6066065470007431</v>
+        <v>1.6432749086002283</v>
       </c>
       <c r="Q111">
         <f t="shared" si="5"/>
-        <v>1.2220673554366954</v>
+        <v>1.3498779975892377</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -43072,40 +43196,40 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6.1826499999999998</v>
+        <v>6.2786783333333345</v>
       </c>
       <c r="G112">
-        <v>0.356321</v>
+        <v>0.36896233333333334</v>
       </c>
       <c r="H112">
-        <v>7.0222199999999999</v>
+        <v>7.1445483333333337</v>
       </c>
       <c r="I112">
-        <v>7.2591999999999999</v>
+        <v>7.3917016666666671</v>
       </c>
       <c r="J112">
-        <v>0.202012</v>
+        <v>0.20431750000000001</v>
       </c>
       <c r="K112">
-        <v>155.55000000000001</v>
+        <v>195.42766666666662</v>
       </c>
       <c r="L112">
-        <v>8042</v>
+        <v>7899.333333333333</v>
       </c>
       <c r="M112">
         <f t="shared" si="3"/>
-        <v>0.23697999999999997</v>
+        <v>0.24715333333333334</v>
       </c>
       <c r="O112" t="s">
         <v>23</v>
       </c>
       <c r="P112">
         <f t="shared" si="4"/>
-        <v>1.599955918007494</v>
+        <v>1.5942292043262027</v>
       </c>
       <c r="Q112">
         <f t="shared" si="5"/>
-        <v>1.1834927301362672</v>
+        <v>1.6727858412533556</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -43125,40 +43249,40 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>6.07707</v>
+        <v>6.1344516666666671</v>
       </c>
       <c r="G113">
-        <v>0.36355799999999999</v>
+        <v>0.37173283333333335</v>
       </c>
       <c r="H113">
-        <v>6.9307400000000001</v>
+        <v>7.0062000000000006</v>
       </c>
       <c r="I113">
-        <v>7.1743499999999996</v>
+        <v>7.2558199999999999</v>
       </c>
       <c r="J113">
-        <v>0.19983200000000001</v>
+        <v>0.20261499999999999</v>
       </c>
       <c r="K113">
-        <v>135.833</v>
+        <v>134.65833333333333</v>
       </c>
       <c r="L113">
-        <v>8136</v>
+        <v>8043.833333333333</v>
       </c>
       <c r="M113">
         <f t="shared" si="3"/>
-        <v>0.24360999999999944</v>
+        <v>0.24961999999999929</v>
       </c>
       <c r="O113" t="s">
         <v>24</v>
       </c>
       <c r="P113">
         <f t="shared" si="4"/>
-        <v>1.5991274470857988</v>
+        <v>1.5966584985110805</v>
       </c>
       <c r="Q113">
         <f t="shared" si="5"/>
-        <v>1.5865245915808481</v>
+        <v>1.5759751901186481</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -43178,40 +43302,40 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>6.0501699999999996</v>
+        <v>6.1437616666666663</v>
       </c>
       <c r="G114">
-        <v>0.36616100000000001</v>
+        <v>0.37765266666666664</v>
       </c>
       <c r="H114">
-        <v>6.9064399999999999</v>
+        <v>7.0166183333333336</v>
       </c>
       <c r="I114">
-        <v>7.1569599999999998</v>
+        <v>7.2758749999999992</v>
       </c>
       <c r="J114">
-        <v>0.121951</v>
+        <v>8.3394466666666667E-2</v>
       </c>
       <c r="K114">
-        <v>2385.23</v>
+        <v>3364.353333333333</v>
       </c>
       <c r="L114">
-        <v>5928</v>
+        <v>5939.833333333333</v>
       </c>
       <c r="M114">
         <f t="shared" si="3"/>
-        <v>0.25051999999999985</v>
+        <v>0.25925666666666558</v>
       </c>
       <c r="O114" t="s">
         <v>24</v>
       </c>
       <c r="P114">
         <f t="shared" si="4"/>
-        <v>1.5874617155887416</v>
+        <v>1.5736801415637296</v>
       </c>
       <c r="Q114">
         <f t="shared" si="5"/>
-        <v>27.411175096274622</v>
+        <v>38.625132554253</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -43231,40 +43355,40 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>6.1182100000000004</v>
+        <v>6.2488649999999994</v>
       </c>
       <c r="G115">
-        <v>0.41272300000000001</v>
+        <v>0.39104800000000006</v>
       </c>
       <c r="H115">
-        <v>7.0253500000000004</v>
+        <v>7.1581049999999991</v>
       </c>
       <c r="I115">
-        <v>7.2850799999999998</v>
+        <v>7.4479299999999995</v>
       </c>
       <c r="J115">
-        <v>0.11590499999999999</v>
+        <v>7.8767616666666665E-2</v>
       </c>
       <c r="K115">
-        <v>4426.63</v>
+        <v>6408.79</v>
       </c>
       <c r="L115">
-        <v>3973</v>
+        <v>3985.1666666666665</v>
       </c>
       <c r="M115">
         <f t="shared" si="3"/>
-        <v>0.25972999999999935</v>
+        <v>0.28982500000000044</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
       </c>
       <c r="P115">
         <f t="shared" si="4"/>
-        <v>1.6359737985032423</v>
+        <v>1.5608453176475434</v>
       </c>
       <c r="Q115">
         <f t="shared" si="5"/>
-        <v>2.6344283758852587</v>
+        <v>2.2866295519714752</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -43284,40 +43408,40 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <v>6.1136600000000003</v>
+        <v>6.3482133333333328</v>
       </c>
       <c r="G116">
-        <v>0.39471400000000001</v>
+        <v>0.40506533333333333</v>
       </c>
       <c r="H116">
-        <v>7.0100800000000003</v>
+        <v>7.2839533333333328</v>
       </c>
       <c r="I116">
-        <v>7.2848199999999999</v>
+        <v>7.5991166666666672</v>
       </c>
       <c r="J116">
-        <v>0.12267400000000001</v>
+        <v>8.5931066666666667E-2</v>
       </c>
       <c r="K116">
-        <v>5165.7299999999996</v>
+        <v>7170.6233333333339</v>
       </c>
       <c r="L116">
-        <v>2984</v>
+        <v>2987.6666666666665</v>
       </c>
       <c r="M116">
         <f t="shared" si="3"/>
-        <v>0.27473999999999954</v>
+        <v>0.31516333333333435</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
       </c>
       <c r="P116">
         <f t="shared" si="4"/>
-        <v>1.5825922946620508</v>
+        <v>1.563058864297824</v>
       </c>
       <c r="Q116">
         <f t="shared" si="5"/>
-        <v>1.5333717240499039</v>
+        <v>1.4590624761549484</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -43337,33 +43461,33 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>9.6228800000000003</v>
+        <v>9.7411249999999985</v>
       </c>
       <c r="G117">
-        <v>0.69130800000000003</v>
+        <v>0.70861583333333333</v>
       </c>
       <c r="H117">
-        <v>11.15</v>
+        <v>11.308299999999997</v>
       </c>
       <c r="I117">
-        <v>11.6144</v>
+        <v>11.784066666666668</v>
       </c>
       <c r="J117">
-        <v>0.22037200000000001</v>
+        <v>0.22229933333333338</v>
       </c>
       <c r="K117">
-        <v>131.43299999999999</v>
+        <v>116.82766666666667</v>
       </c>
       <c r="L117">
-        <v>5070</v>
+        <v>4997.833333333333</v>
       </c>
       <c r="M117">
         <f t="shared" si="3"/>
-        <v>0.46439999999999948</v>
+        <v>0.47576666666667045</v>
       </c>
       <c r="N117">
         <f>H117-(G117+F117)</f>
-        <v>0.83581200000000067</v>
+        <v>0.85855916666666587</v>
       </c>
       <c r="O117" t="s">
         <v>23</v>
@@ -43394,29 +43518,29 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>9.4774200000000004</v>
+        <v>9.546028333333334</v>
       </c>
       <c r="G118">
-        <v>0.696025</v>
+        <v>0.70778600000000003</v>
       </c>
       <c r="H118">
-        <v>11.0107</v>
+        <v>11.1111</v>
       </c>
       <c r="I118">
-        <v>11.4727</v>
+        <v>11.585066666666668</v>
       </c>
       <c r="J118">
-        <v>0.217002</v>
+        <v>0.22052416666666666</v>
       </c>
       <c r="K118">
-        <v>85.616699999999994</v>
+        <v>85.444450000000003</v>
       </c>
       <c r="L118">
-        <v>5133</v>
+        <v>5081.833333333333</v>
       </c>
       <c r="M118">
         <f t="shared" si="3"/>
-        <v>0.46199999999999974</v>
+        <v>0.47396666666666754</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
@@ -43447,29 +43571,29 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>9.3773900000000001</v>
+        <v>9.4198183333333336</v>
       </c>
       <c r="G119">
-        <v>0.68903700000000001</v>
+        <v>0.70210550000000005</v>
       </c>
       <c r="H119">
-        <v>10.8979</v>
+        <v>10.975783333333332</v>
       </c>
       <c r="I119">
-        <v>11.3614</v>
+        <v>11.4499</v>
       </c>
       <c r="J119">
-        <v>0.21559400000000001</v>
+        <v>0.21920366666666669</v>
       </c>
       <c r="K119">
-        <v>87.0167</v>
+        <v>87.102700000000013</v>
       </c>
       <c r="L119">
-        <v>5182</v>
+        <v>5140.5</v>
       </c>
       <c r="M119">
         <f t="shared" si="3"/>
-        <v>0.4634999999999998</v>
+        <v>0.47411666666666719</v>
       </c>
       <c r="O119" t="s">
         <v>24</v>
@@ -43500,29 +43624,29 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>9.9124999999999996</v>
+        <v>9.538668333333332</v>
       </c>
       <c r="G120">
-        <v>0.686581</v>
+        <v>0.71826033333333328</v>
       </c>
       <c r="H120">
-        <v>11.440099999999999</v>
+        <v>11.127549999999999</v>
       </c>
       <c r="I120">
-        <v>11.918200000000001</v>
+        <v>11.625066666666667</v>
       </c>
       <c r="J120">
-        <v>0.123752</v>
+        <v>8.2014249999999997E-2</v>
       </c>
       <c r="K120">
-        <v>1680.3</v>
+        <v>2802.7233333333334</v>
       </c>
       <c r="L120">
-        <v>3971</v>
+        <v>3978.1666666666665</v>
       </c>
       <c r="M120">
         <f t="shared" si="3"/>
-        <v>0.4781000000000013</v>
+        <v>0.49751666666666772</v>
       </c>
       <c r="O120" t="s">
         <v>24</v>
@@ -43553,29 +43677,29 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>9.4396299999999993</v>
+        <v>9.6800900000000016</v>
       </c>
       <c r="G121">
-        <v>0.72722799999999999</v>
+        <v>0.75181699999999996</v>
       </c>
       <c r="H121">
-        <v>11.036899999999999</v>
+        <v>11.339416666666667</v>
       </c>
       <c r="I121">
-        <v>11.5289</v>
+        <v>11.877866666666668</v>
       </c>
       <c r="J121">
-        <v>0.124614</v>
+        <v>8.2765199999999997E-2</v>
       </c>
       <c r="K121">
-        <v>3368.87</v>
+        <v>4914.541666666667</v>
       </c>
       <c r="L121">
-        <v>2981</v>
+        <v>2979.1666666666665</v>
       </c>
       <c r="M121">
         <f t="shared" si="3"/>
-        <v>0.49200000000000088</v>
+        <v>0.53845000000000098</v>
       </c>
       <c r="O121" t="s">
         <v>24</v>
@@ -43599,13 +43723,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="AM25" workbookViewId="0">
-      <selection activeCell="AJ64" sqref="AJ64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -43978,8 +44102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AX22" workbookViewId="0">
-      <selection activeCell="AV59" sqref="AV59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44324,8 +44448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="AD16" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44670,8 +44794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -3038,7 +3038,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$K$53,sheet_test_data!$K$58)</c:f>
+              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$N$33,sheet_test_data!$N$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3053,12 +3053,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6563.3483333333343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2122.8733333333334</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160.50300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,7 +3081,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$K$44,sheet_test_data!$K$49,sheet_test_data!$K$54,sheet_test_data!$K$59)</c:f>
+              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$N$34,sheet_test_data!$N$35,sheet_test_data!$N$36,sheet_test_data!$N$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3096,18 +3090,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12183.831666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11020.628333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9568.3016666666681</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7028.3300000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4720.5316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,27 +3118,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$35,sheet_test_data!$K$40,sheet_test_data!$K$45,sheet_test_data!$K$50,sheet_test_data!$K$55,sheet_test_data!$K$60)</c:f>
+              <c:f>(sheet_test_data!$K$35,sheet_test_data!$N$35,sheet_test_data!$N$36,sheet_test_data!$N$37,sheet_test_data!$N$38,sheet_test_data!$N$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13143.833333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12575.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11647.683333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10046.596666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7342.6166666666677</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5272.5733333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,27 +3152,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$36,sheet_test_data!$K$41,sheet_test_data!$K$46,sheet_test_data!$K$51,sheet_test_data!$K$56,sheet_test_data!$K$61)</c:f>
+              <c:f>(sheet_test_data!$K$36,sheet_test_data!$N$36,sheet_test_data!$N$37,sheet_test_data!$N$38,sheet_test_data!$N$40,sheet_test_data!$N$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13050.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12669.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11919.828333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10258.158333333335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7353.9233333333332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5297.2583333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5867,27 +5819,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$3,sheet_test_data!$K$8,sheet_test_data!$K$13,sheet_test_data!$K$18,sheet_test_data!$K$23,sheet_test_data!$K$28)</c:f>
+              <c:f>(sheet_test_data!$K$3,sheet_test_data!$N$3,sheet_test_data!$N$4,sheet_test_data!$N$5,sheet_test_data!$N$6,sheet_test_data!$N$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8628.6316666666662</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11502.674999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5366.5683333333327</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6398.4449999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2931.2216666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162.35266666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5916,7 +5853,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$K$53,sheet_test_data!$K$58)</c:f>
+              <c:f>(sheet_test_data!$K$33,sheet_test_data!$K$38,sheet_test_data!$K$43,sheet_test_data!$K$48,sheet_test_data!$N$33,sheet_test_data!$N$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5931,12 +5868,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6563.3483333333343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2122.8733333333334</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160.50300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,27 +5896,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$93,sheet_test_data!$K$98,sheet_test_data!$K$103,sheet_test_data!$K$108,sheet_test_data!$K$113,sheet_test_data!$K$118)</c:f>
+              <c:f>(sheet_test_data!$K$93,sheet_test_data!$N$93,sheet_test_data!$N$94,sheet_test_data!$N$95,sheet_test_data!$N$96,sheet_test_data!$N$97)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12288.316666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9912.7899999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6382.3983333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1102.9855</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134.65833333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.444450000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,7 +5930,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$K$78,sheet_test_data!$K$83,sheet_test_data!$K$88)</c:f>
+              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$N$63,sheet_test_data!$N$64,sheet_test_data!$N$65)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6026,15 +5942,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>170.489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.90849999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.477783333333335</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.030099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6887,7 +6794,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$K$78,sheet_test_data!$K$83,sheet_test_data!$K$88)</c:f>
+              <c:f>(sheet_test_data!$K$63,sheet_test_data!$K$68,sheet_test_data!$K$73,sheet_test_data!$N$63,sheet_test_data!$N$64,sheet_test_data!$N$65)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6899,15 +6806,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>170.489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.90849999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.477783333333335</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.030099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,27 +6834,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$64,sheet_test_data!$K$69,sheet_test_data!$K$74,sheet_test_data!$K$79,sheet_test_data!$K$84,sheet_test_data!$K$89)</c:f>
+              <c:f>(sheet_test_data!$K$64,sheet_test_data!$N$64,sheet_test_data!$N$65,sheet_test_data!$N$66,sheet_test_data!$N$67,sheet_test_data!$N$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12290.783333333335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10051.859999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6019.2616666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>411.38316666666668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.573666666666668</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.844450000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6985,27 +6868,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$65,sheet_test_data!$K$70,sheet_test_data!$K$75,sheet_test_data!$K$80,sheet_test_data!$K$85,sheet_test_data!$K$90)</c:f>
+              <c:f>(sheet_test_data!$K$65,sheet_test_data!$N$65,sheet_test_data!$N$66,sheet_test_data!$N$67,sheet_test_data!$N$68,sheet_test_data!$N$69)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12641.199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11001.491666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8201.8666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4466.9949999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.262749999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.294449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7034,28 +6902,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$66,sheet_test_data!$K$71,sheet_test_data!$K$76,sheet_test_data!$K$81,sheet_test_data!$K$86,sheet_test_data!$K$91)</c:f>
+              <c:f>sheet_test_data!$N$66:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12618.566666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11498.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9376.3000000000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6535.6466666666674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2735.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.70556666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10110,27 +9960,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$93,sheet_test_data!$K$98,sheet_test_data!$K$103,sheet_test_data!$K$108,sheet_test_data!$K$113,sheet_test_data!$K$118)</c:f>
+              <c:f>(sheet_test_data!$K$93,sheet_test_data!$N$93,sheet_test_data!$N$94,sheet_test_data!$N$95,sheet_test_data!$N$96,sheet_test_data!$N$97)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12288.316666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9912.7899999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6382.3983333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1102.9855</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134.65833333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.444450000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10159,27 +9994,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$94,sheet_test_data!$K$99,sheet_test_data!$K$104,sheet_test_data!$K$109,sheet_test_data!$K$114,sheet_test_data!$K$119)</c:f>
+              <c:f>(sheet_test_data!$K$94,sheet_test_data!$N$94,sheet_test_data!$N$95,sheet_test_data!$N$96,sheet_test_data!$N$97,sheet_test_data!$N$98)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12791.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11484.824999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5391.3566666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6857.4016666666676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3364.353333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.102700000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10208,28 +10028,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$95,sheet_test_data!$K$100,sheet_test_data!$K$105,sheet_test_data!$K$110,sheet_test_data!$K$115,sheet_test_data!$K$120)</c:f>
+              <c:f>sheet_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12942.966666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9041.2683333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10588.135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8858.1533333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6408.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2802.7233333333334</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10257,28 +10059,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$96,sheet_test_data!$K$101,sheet_test_data!$K$106,sheet_test_data!$K$111,sheet_test_data!$K$116,sheet_test_data!$K$121)</c:f>
+              <c:f>sheet_test_data!$N$96:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13016.016666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12299.366666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11165.841666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9679.4666666666653</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7170.6233333333339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4914.541666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11209,28 +10993,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$4,sheet_test_data!$K$9,sheet_test_data!$K$14,sheet_test_data!$K$19,sheet_test_data!$K$24,sheet_test_data!$K$29)</c:f>
+              <c:f>sheet_test_data!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8763.2150000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12411.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11164.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9114.4666666666672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7066.6916666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4746.9333333333334</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11258,7 +11024,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$K$44,sheet_test_data!$K$49,sheet_test_data!$K$54,sheet_test_data!$K$59)</c:f>
+              <c:f>(sheet_test_data!$K$34,sheet_test_data!$K$39,sheet_test_data!$N$34,sheet_test_data!$N$35,sheet_test_data!$N$36,sheet_test_data!$N$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11267,18 +11033,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12183.831666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11020.628333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9568.3016666666681</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7028.3300000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4720.5316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11307,27 +11061,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$94,sheet_test_data!$K$99,sheet_test_data!$K$104,sheet_test_data!$K$109,sheet_test_data!$K$114,sheet_test_data!$K$119)</c:f>
+              <c:f>(sheet_test_data!$K$94,sheet_test_data!$N$94,sheet_test_data!$N$95,sheet_test_data!$N$96,sheet_test_data!$N$97,sheet_test_data!$N$98)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12791.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11484.824999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5391.3566666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6857.4016666666676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3364.353333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.102700000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11356,27 +11095,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$64,sheet_test_data!$K$69,sheet_test_data!$K$74,sheet_test_data!$K$79,sheet_test_data!$K$84,sheet_test_data!$K$89)</c:f>
+              <c:f>(sheet_test_data!$K$64,sheet_test_data!$N$64,sheet_test_data!$N$65,sheet_test_data!$N$66,sheet_test_data!$N$67,sheet_test_data!$N$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12290.783333333335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10051.859999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6019.2616666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>411.38316666666668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.573666666666668</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.844450000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13906,28 +13630,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$5,sheet_test_data!$K$10,sheet_test_data!$K$15,sheet_test_data!$K$20,sheet_test_data!$K$25,sheet_test_data!$K$30)</c:f>
+              <c:f>sheet_test_data!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8822.2333333333336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12747.366666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11741.516666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9523.7966666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7364.295000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5285.6783333333324</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13955,27 +13661,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$35,sheet_test_data!$K$40,sheet_test_data!$K$45,sheet_test_data!$K$50,sheet_test_data!$K$55,sheet_test_data!$K$60)</c:f>
+              <c:f>(sheet_test_data!$K$35,sheet_test_data!$N$35,sheet_test_data!$N$36,sheet_test_data!$N$37,sheet_test_data!$N$38,sheet_test_data!$N$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13143.833333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12575.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11647.683333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10046.596666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7342.6166666666677</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5272.5733333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14004,28 +13695,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$95,sheet_test_data!$K$100,sheet_test_data!$K$105,sheet_test_data!$K$110,sheet_test_data!$K$115,sheet_test_data!$K$120)</c:f>
+              <c:f>sheet_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12942.966666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9041.2683333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10588.135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8858.1533333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6408.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2802.7233333333334</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14053,27 +13726,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$65,sheet_test_data!$K$70,sheet_test_data!$K$75,sheet_test_data!$K$80,sheet_test_data!$K$85,sheet_test_data!$K$90)</c:f>
+              <c:f>(sheet_test_data!$K$65,sheet_test_data!$N$65,sheet_test_data!$N$66,sheet_test_data!$N$67,sheet_test_data!$N$68,sheet_test_data!$N$69)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12641.199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11001.491666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8201.8666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4466.9949999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.262749999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.294449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14528,28 +14186,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$6,sheet_test_data!$K$11,sheet_test_data!$K$16,sheet_test_data!$K$21,sheet_test_data!$K$26,sheet_test_data!$K$31)</c:f>
+              <c:f>sheet_test_data!$N$20:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8588.503333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12834.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12038.483333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9712.5683333333327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7378.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5308.6983333333328</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14577,27 +14217,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$36,sheet_test_data!$K$41,sheet_test_data!$K$46,sheet_test_data!$K$51,sheet_test_data!$K$56,sheet_test_data!$K$61)</c:f>
+              <c:f>(sheet_test_data!$K$36,sheet_test_data!$N$36,sheet_test_data!$N$37,sheet_test_data!$N$38,sheet_test_data!$N$39,sheet_test_data!$N$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13050.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12669.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11919.828333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10258.158333333335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7353.9233333333332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5297.2583333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14626,28 +14251,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$96,sheet_test_data!$K$101,sheet_test_data!$K$106,sheet_test_data!$K$111,sheet_test_data!$K$116,sheet_test_data!$K$121)</c:f>
+              <c:f>sheet_test_data!$N$96:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13016.016666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12299.366666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11165.841666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9679.4666666666653</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7170.6233333333339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4914.541666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14675,28 +14282,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$66,sheet_test_data!$K$71,sheet_test_data!$K$76,sheet_test_data!$K$81,sheet_test_data!$K$86,sheet_test_data!$K$91)</c:f>
+              <c:f>sheet_test_data!$N$65:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12618.566666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11498.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9376.3000000000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6535.6466666666674</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2735.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.70556666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15623,27 +15212,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$3,sheet_test_data!$K$8,sheet_test_data!$K$13,sheet_test_data!$K$18,sheet_test_data!$K$23,sheet_test_data!$K$28)</c:f>
+              <c:f>(sheet_test_data!$K$3,sheet_test_data!$N$3,sheet_test_data!$N$4,sheet_test_data!$N$5,sheet_test_data!$N$6,sheet_test_data!$N$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8628.6316666666662</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11502.674999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5366.5683333333327</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6398.4449999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2931.2216666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162.35266666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15672,28 +15246,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$4,sheet_test_data!$K$9,sheet_test_data!$K$14,sheet_test_data!$K$19,sheet_test_data!$K$24,sheet_test_data!$K$29)</c:f>
+              <c:f>sheet_test_data!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8763.2150000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12411.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11164.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9114.4666666666672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7066.6916666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4746.9333333333334</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15721,28 +15277,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$5,sheet_test_data!$K$10,sheet_test_data!$K$15,sheet_test_data!$K$20,sheet_test_data!$K$25,sheet_test_data!$K$30)</c:f>
+              <c:f>sheet_test_data!$N$5:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8822.2333333333336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12747.366666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11741.516666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9523.7966666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7364.295000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5285.6783333333324</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15770,28 +15308,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(sheet_test_data!$K$6,sheet_test_data!$K$11,sheet_test_data!$K$16,sheet_test_data!$K$21,sheet_test_data!$K$26,sheet_test_data!$K$31)</c:f>
+              <c:f>sheet_test_data!$N$6:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8588.503333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12834.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12038.483333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9712.5683333333327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7378.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5308.6983333333328</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -37290,8 +36810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S241" sqref="S241"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44103,7 +43623,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44449,7 +43969,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44794,8 +44314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Explicit Euler" sheetId="2" r:id="rId2"/>
-    <sheet name="Verlet" sheetId="3" r:id="rId3"/>
-    <sheet name="RK4" sheetId="4" r:id="rId4"/>
-    <sheet name="Midpoint" sheetId="5" r:id="rId5"/>
+    <sheet name="Rank Coefficients" sheetId="6" r:id="rId2"/>
+    <sheet name="Explicit Euler" sheetId="2" r:id="rId3"/>
+    <sheet name="Verlet" sheetId="3" r:id="rId4"/>
+    <sheet name="RK4" sheetId="4" r:id="rId5"/>
+    <sheet name="Midpoint" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="48">
   <si>
     <t>Test ID</t>
   </si>
@@ -98,6 +99,75 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs fps)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs fps)</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Rank (fps)</t>
+  </si>
+  <si>
+    <t>Rank (size)</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Rank (update)</t>
+  </si>
+  <si>
+    <t>Rank (internal)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs internal)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs internal)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs update)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs update)</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>Rank (step)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (step vs fps)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (step vs fps)</t>
+  </si>
+  <si>
+    <t>Verlet</t>
+  </si>
+  <si>
+    <t>Midpoint</t>
+  </si>
+  <si>
+    <t>RK4</t>
   </si>
 </sst>
 </file>
@@ -36808,10 +36878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K87" activeCellId="17" sqref="F62 I62 K62 F67 I67 K67 F72 I72 K72 F77 I77 K77 F82 I82 K82 F87 I87 K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36819,9 +36889,10 @@
     <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36865,7 +36936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -36917,8 +36988,11 @@
         <f>K2/K7</f>
         <v>1.4251978246445709</v>
       </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -36970,8 +37044,11 @@
         <f t="shared" ref="Q3:Q66" si="2">K3/K8</f>
         <v>0.75014130771030807</v>
       </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37024,7 +37101,7 @@
         <v>0.70607029912377883</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37077,7 +37154,7 @@
         <v>0.69208280925995169</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37130,7 +37207,7 @@
         <v>0.66915668189001543</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37183,7 +37260,7 @@
         <v>6.7921654568814303</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37236,7 +37313,7 @@
         <v>2.1433948634462556</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37289,7 +37366,7 @@
         <v>1.1116310938745533</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37342,7 +37419,7 @@
         <v>1.0856661050318597</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37395,7 +37472,7 @@
         <v>1.0661489750231548</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37448,7 +37525,7 @@
         <v>1.6254370168935384</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -37501,7 +37578,7 @@
         <v>0.83873008728422815</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -37554,7 +37631,7 @@
         <v>1.2249647081196924</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -37607,7 +37684,7 @@
         <v>1.2328609143622344</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -43241,9 +43318,1481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>4.7905150000000004E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.160774</v>
+      </c>
+      <c r="D3">
+        <v>7467.9083333333328</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.RANK.AVG(A3,A3:A8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.RANK.AVG(B3,B3:B8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.RANK.AVG(C3,C3:C8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.RANK.AVG(D3,D3:D8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <f>CORREL(A3:A8, D3:D8)</f>
+        <v>-0.87510311183715417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>2.5057116666666667E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.60218183333333342</v>
+      </c>
+      <c r="D4">
+        <v>5239.91</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.RANK.AVG(A4,A3:A8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.RANK.AVG(B4,B3:B8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.RANK.AVG(C4,C3:C8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.RANK.AVG(D4,D3:D8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <f>CORREL(E3:E8, H3:H8)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>5.6871266666666663E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.3046983333333333</v>
+      </c>
+      <c r="D5">
+        <v>771.46383333333335</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.RANK.AVG(A5,A3:A8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.RANK.AVG(B5,B3:B8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.RANK.AVG(C5,C3:C8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.RANK.AVG(D5,D3:D8, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>0.10475316666666666</v>
+      </c>
+      <c r="C6">
+        <v>2.3463383333333332</v>
+      </c>
+      <c r="D6">
+        <v>474.61933333333337</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.RANK.AVG(A6, A3:A8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.RANK.AVG(B6, B3:B8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.RANK.AVG(C6, C3:C8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.RANK.AVG(D6, D3:D8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <f>CORREL(A3:A8, B3:B8)</f>
+        <v>0.93015723148704998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>0.18681166666666668</v>
+      </c>
+      <c r="C7">
+        <v>3.7802016666666667</v>
+      </c>
+      <c r="D7">
+        <v>332.2</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.RANK.AVG(A7, A3:A8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.RANK.AVG(B7, B3:B8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.RANK.AVG(C7, C3:C8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.RANK.AVG(D7, D3:D8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <f>CORREL(E3:E8, F3:F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>0.35483516666666665</v>
+      </c>
+      <c r="C8">
+        <v>6.0676850000000009</v>
+      </c>
+      <c r="D8">
+        <v>196.94433333333333</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.RANK.AVG(A8, A3:A8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.RANK.AVG(B8, B3:B8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.RANK.AVG(C8, C3:C8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.RANK.AVG(D8, D3:D8, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <f>CORREL(A3:A8, C3:C8)</f>
+        <v>0.96262764102787102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <f>CORREL(E3:E8, G3:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>196.94433333333333</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.RANK.AVG(A11,A11:A16, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.RANK.AVG(B11,B11:B16, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>162.35266666666669</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.RANK.AVG(A12,A11:A16, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.RANK.AVG(B12,B11:B16, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <f>CORREL(A11:A15, B11:B15)</f>
+        <v>0.89553677609405435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4746.9333333333334</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.RANK.AVG(A13,A11:A16, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.RANK.AVG(B13,B11:B16, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <f>CORREL(E11:E15, F11:F15)</f>
+        <v>0.8999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>5285.6783333333324</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.RANK.AVG(A14, A11:A16, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.RANK.AVG(B14, B11:B16, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>5308.6983333333328</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.RANK.AVG(A15, A11:A16, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.RANK.AVG(B15, B11:B16, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.1323208333333333</v>
+      </c>
+      <c r="C20">
+        <v>0.160639</v>
+      </c>
+      <c r="D20">
+        <v>11026.976666666667</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.RANK.AVG(A20,A20:A25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>_xlfn.RANK.AVG(B20,B20:B25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.RANK.AVG(C20,C20:C25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.RANK.AVG(D20,D20:D25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <f>CORREL(A20:A25, D20:D25)</f>
+        <v>-0.84855619139898353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>0.51130166666666665</v>
+      </c>
+      <c r="C21">
+        <v>0.60782233333333335</v>
+      </c>
+      <c r="D21">
+        <v>5350.5216666666674</v>
+      </c>
+      <c r="E21">
+        <f>_xlfn.RANK.AVG(A21,A20:A25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>_xlfn.RANK.AVG(B21,B20:B25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.RANK.AVG(C21,C20:C25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.RANK.AVG(D21,D20:D25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <f>CORREL(E20:E25, H20:H25)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>1.1451</v>
+      </c>
+      <c r="C22">
+        <v>1.3573216666666665</v>
+      </c>
+      <c r="D22">
+        <v>817.63349999999991</v>
+      </c>
+      <c r="E22">
+        <f>_xlfn.RANK.AVG(A22,A20:A25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.RANK.AVG(B22,B20:B25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.RANK.AVG(C22,C20:C25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.RANK.AVG(D22,D20:D25, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>2.0511516666666667</v>
+      </c>
+      <c r="C23">
+        <v>2.434368333333333</v>
+      </c>
+      <c r="D23">
+        <v>531.43316666666669</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.RANK.AVG(A23, A20:A25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>_xlfn.RANK.AVG(B23, B20:B25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.RANK.AVG(C23, C20:C25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.RANK.AVG(D23, D20:D25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <f>CORREL(A20:A25, B20:B25)</f>
+        <v>0.96793391248181959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>3.2488166666666665</v>
+      </c>
+      <c r="C24">
+        <v>3.9253216666666666</v>
+      </c>
+      <c r="D24">
+        <v>337.55099999999999</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.RANK.AVG(A24, A20:A25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>_xlfn.RANK.AVG(B24, B20:B25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.RANK.AVG(C24, C20:C25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.RANK.AVG(D24, D20:D25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <f>CORREL(E20:E25, F20:F25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>5.0794766666666673</v>
+      </c>
+      <c r="C25">
+        <v>6.3444399999999996</v>
+      </c>
+      <c r="D25">
+        <v>198.86383333333333</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.RANK.AVG(A25, A20:A25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f>_xlfn.RANK.AVG(B25, B20:B25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f>_xlfn.RANK.AVG(C25, C20:C25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f>_xlfn.RANK.AVG(D25, D20:D25, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <f>CORREL(A20:A25, C20:C25)</f>
+        <v>0.96189541124398159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27">
+        <f>CORREL(E20:E25, G20:G25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>198.86383333333333</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.RANK.AVG(A28,A28:A33, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.RANK.AVG(B28,B28:B33, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>160.50300000000001</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.RANK.AVG(A29,A28:A33, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>_xlfn.RANK.AVG(B29,B28:B33, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <f>CORREL(A28:A32, B28:B32)</f>
+        <v>0.89628589999876807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>4720.5316666666668</v>
+      </c>
+      <c r="E30">
+        <f>_xlfn.RANK.AVG(A30,A28:A33, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>_xlfn.RANK.AVG(B30,B28:B33, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <f>CORREL(E28:E32, F28:F32)</f>
+        <v>0.8999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>5272.5733333333337</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.RANK.AVG(A31, A28:A33, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.RANK.AVG(B31, B28:B33, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>5297.2583333333341</v>
+      </c>
+      <c r="E32">
+        <f>_xlfn.RANK.AVG(A32, A28:A33, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f>_xlfn.RANK.AVG(B32, B28:B33, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.25995499999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.30040466666666665</v>
+      </c>
+      <c r="D37">
+        <v>9302.8499999999985</v>
+      </c>
+      <c r="E37">
+        <f>_xlfn.RANK.AVG(A37,A37:A42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>_xlfn.RANK.AVG(B37,B37:B42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>_xlfn.RANK.AVG(C37,C37:C42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>_xlfn.RANK.AVG(D37,D37:D42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <f>CORREL(A37:A42, D37:D42)</f>
+        <v>-0.70758592212637572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>1.0843016666666667</v>
+      </c>
+      <c r="C38">
+        <v>1.2410566666666667</v>
+      </c>
+      <c r="D38">
+        <v>888.13299999999992</v>
+      </c>
+      <c r="E38">
+        <f>_xlfn.RANK.AVG(A38,A37:A42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>_xlfn.RANK.AVG(B38,B37:B42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f>_xlfn.RANK.AVG(C38,C37:C42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f>_xlfn.RANK.AVG(D38,D37:D42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <f>CORREL(E37:E42, H37:H42)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>150</v>
+      </c>
+      <c r="B39">
+        <v>2.27752</v>
+      </c>
+      <c r="C39">
+        <v>2.6312066666666669</v>
+      </c>
+      <c r="D39">
+        <v>519.55566666666675</v>
+      </c>
+      <c r="E39">
+        <f>_xlfn.RANK.AVG(A39,A37:A42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>_xlfn.RANK.AVG(B39,B37:B42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f>_xlfn.RANK.AVG(C39,C37:C42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f>_xlfn.RANK.AVG(D39,D37:D42, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>3.9957100000000003</v>
+      </c>
+      <c r="C40">
+        <v>4.6377433333333329</v>
+      </c>
+      <c r="D40">
+        <v>327.77766666666668</v>
+      </c>
+      <c r="E40">
+        <f>_xlfn.RANK.AVG(A40, A37:A42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f>_xlfn.RANK.AVG(B40, B37:B42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f>_xlfn.RANK.AVG(C40, C37:C42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f>_xlfn.RANK.AVG(D40, D37:D42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <f>CORREL(A37:A42, B37:B42)</f>
+        <v>0.96988153846349356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>6.2786783333333345</v>
+      </c>
+      <c r="C41">
+        <v>7.3917016666666671</v>
+      </c>
+      <c r="D41">
+        <v>195.42766666666662</v>
+      </c>
+      <c r="E41">
+        <f>_xlfn.RANK.AVG(A41, A37:A42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f>_xlfn.RANK.AVG(B41, B37:B42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f>_xlfn.RANK.AVG(C41, C37:C42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <f>_xlfn.RANK.AVG(D41, D37:D42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <f>CORREL(E37:E42, F37:F42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>9.7411249999999985</v>
+      </c>
+      <c r="C42">
+        <v>11.784066666666668</v>
+      </c>
+      <c r="D42">
+        <v>116.82766666666667</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.RANK.AVG(A42, A37:A42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.RANK.AVG(B42, B37:B42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <f>_xlfn.RANK.AVG(C42, C37:C42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f>_xlfn.RANK.AVG(D42, D37:D42, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43">
+        <f>CORREL(A37:A42, C37:C42)</f>
+        <v>0.96506475612441245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44">
+        <f>CORREL(E37:E42, G37:G42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>116.82766666666667</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.RANK.AVG(A45,A45:A50, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f>_xlfn.RANK.AVG(B45,B45:B50, 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>85.444450000000003</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.RANK.AVG(A46,A45:A50, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>_xlfn.RANK.AVG(B46,B45:B50, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <f>CORREL(A45:A49, B45:B49)</f>
+        <v>0.90215659836970352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>87.102700000000013</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.RANK.AVG(A47,A45:A50, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>_xlfn.RANK.AVG(B47,B45:B50, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <f>CORREL(E45:E49, F45:F49)</f>
+        <v>0.69999999999999984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>2802.7233333333334</v>
+      </c>
+      <c r="E48">
+        <f>_xlfn.RANK.AVG(A48, A45:A50, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>_xlfn.RANK.AVG(B48, B45:B50, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>4914.541666666667</v>
+      </c>
+      <c r="E49">
+        <f>_xlfn.RANK.AVG(A49, A45:A50, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f>_xlfn.RANK.AVG(B49, B45:B50, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>0.51198149999999998</v>
+      </c>
+      <c r="C54">
+        <v>0.6121943333333334</v>
+      </c>
+      <c r="D54">
+        <v>5331.3300000000008</v>
+      </c>
+      <c r="E54">
+        <f>_xlfn.RANK.AVG(A54,A54:A59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>_xlfn.RANK.AVG(B54,B54:B59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f>_xlfn.RANK.AVG(C54,C54:C59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f>_xlfn.RANK.AVG(D54,D54:D59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <f>CORREL(A54:A59, D54:D59)</f>
+        <v>-0.69985690711911597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>2.5164</v>
+      </c>
+      <c r="C55">
+        <v>2.9345866666666667</v>
+      </c>
+      <c r="D55">
+        <v>419.17766666666671</v>
+      </c>
+      <c r="E55">
+        <f>_xlfn.RANK.AVG(A55,A54:A59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f>_xlfn.RANK.AVG(B55,B54:B59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f>_xlfn.RANK.AVG(C55,C54:C59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f>_xlfn.RANK.AVG(D55,D54:D59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <f>CORREL(E54:E59, H54:H59)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56">
+        <v>5.2534416666666663</v>
+      </c>
+      <c r="C56">
+        <v>6.2338766666666672</v>
+      </c>
+      <c r="D56">
+        <v>255.23616666666666</v>
+      </c>
+      <c r="E56">
+        <f>_xlfn.RANK.AVG(A56,A54:A59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f>_xlfn.RANK.AVG(B56,B54:B59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <f>_xlfn.RANK.AVG(C56,C54:C59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f>_xlfn.RANK.AVG(D56,D54:D59, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>200</v>
+      </c>
+      <c r="B57">
+        <v>8.7544133333333338</v>
+      </c>
+      <c r="C57">
+        <v>10.658216666666666</v>
+      </c>
+      <c r="D57">
+        <v>136.78616666666665</v>
+      </c>
+      <c r="E57">
+        <f>_xlfn.RANK.AVG(A57, A54:A59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f>_xlfn.RANK.AVG(B57, B54:B59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f>_xlfn.RANK.AVG(C57, C54:C59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f>_xlfn.RANK.AVG(D57, D54:D59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57">
+        <f>CORREL(A54:A59, B54:B59)</f>
+        <v>0.9761332895534599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>13.414733333333333</v>
+      </c>
+      <c r="C58">
+        <v>16.753</v>
+      </c>
+      <c r="D58">
+        <v>101.83895</v>
+      </c>
+      <c r="E58">
+        <f>_xlfn.RANK.AVG(A58, A54:A59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <f>_xlfn.RANK.AVG(B58, B54:B59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f>_xlfn.RANK.AVG(C58, C54:C59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <f>_xlfn.RANK.AVG(D58, D54:D59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58">
+        <f>CORREL(E54:E59, F54:F59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>300</v>
+      </c>
+      <c r="B59">
+        <v>20.35638333333333</v>
+      </c>
+      <c r="C59">
+        <v>26.220116666666666</v>
+      </c>
+      <c r="D59">
+        <v>38.044566666666668</v>
+      </c>
+      <c r="E59">
+        <f>_xlfn.RANK.AVG(A59, A54:A59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <f>_xlfn.RANK.AVG(B59, B54:B59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <f>_xlfn.RANK.AVG(C59, C54:C59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <f>_xlfn.RANK.AVG(D59, D54:D59, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60">
+        <f>CORREL(A54:A59, C54:C59)</f>
+        <v>0.96982240313143919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61">
+        <f>CORREL(E54:E59, G54:G59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>38.044566666666668</v>
+      </c>
+      <c r="E62">
+        <f>_xlfn.RANK.AVG(A62,A62:A67, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>_xlfn.RANK.AVG(B62,B62:B67, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>41.030099999999997</v>
+      </c>
+      <c r="E63">
+        <f>_xlfn.RANK.AVG(A63,A62:A67, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <f>_xlfn.RANK.AVG(B63,B62:B67, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63">
+        <f>CORREL(A62:A66, B62:B66)</f>
+        <v>0.88023527027511261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>41.844450000000002</v>
+      </c>
+      <c r="E64">
+        <f>_xlfn.RANK.AVG(A64,A62:A67, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <f>_xlfn.RANK.AVG(B64,B62:B67, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64">
+        <f>CORREL(E62:E66, F62:F66)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>42.294449999999998</v>
+      </c>
+      <c r="E65">
+        <f>_xlfn.RANK.AVG(A65, A62:A67, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <f>_xlfn.RANK.AVG(B65, B62:B67, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>42.70556666666667</v>
+      </c>
+      <c r="E66">
+        <f>_xlfn.RANK.AVG(A66, A62:A67, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <f>_xlfn.RANK.AVG(B66, B62:B67, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
@@ -43618,7 +45167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -43964,7 +45513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -44310,7 +45859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_test_data" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Time Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average time calcSpringForce (ms)</t>
   </si>
   <si>
     <t xml:space="preserve"> Average time integrate (ms)</t>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>RK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average time internal force (ms)</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Euler Mesh Size vs calcSpringForce Time</a:t>
+              <a:t> Euler Mesh Size vs Internal Force Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1688,11 +1688,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Average calcSpringForce</a:t>
+                  <a:t>Average Internal</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Time (ms)</a:t>
+                  <a:t> Force Time (ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -2323,7 +2323,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Explicit Euler Average Time Breakdown per Update Frame</a:t>
+              <a:t>Explicit Euler Average Time Breakdown per Frame</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2805,7 +2805,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -4550,7 +4550,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Verlet Mesh Size vs calcSpringForce Time</a:t>
+              <a:t>Verlet Mesh Size vs Internal Force Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4866,7 +4866,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Average calcSpringForce</a:t>
+                  <a:t>Average Internal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Force</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
@@ -5502,7 +5510,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Verlet Average Time Breakdown per Update Frame</a:t>
+              <a:t>Verlet Average Time Breakdown per Frame</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -6561,7 +6569,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -9727,7 +9735,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -13446,7 +13454,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -36880,8 +36888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K87" activeCellId="17" sqref="F62 I62 K62 F67 I67 K67 F72 I72 K72 F77 I77 K77 F82 I82 K82 F87 I87 K87"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36909,31 +36917,31 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -36941,7 +36949,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -36978,7 +36986,7 @@
         <v>1.2769933333333344E-2</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <f>I7/I2</f>
@@ -36989,7 +36997,7 @@
         <v>1.4251978246445709</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -36997,7 +37005,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -37034,7 +37042,7 @@
         <v>2.6611298333333283E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P66" si="1">I8/I3</f>
@@ -37045,7 +37053,7 @@
         <v>0.75014130771030807</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -37053,7 +37061,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -37090,7 +37098,7 @@
         <v>4.1985658333333314E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
@@ -37106,7 +37114,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -37143,7 +37151,7 @@
         <v>5.7156341666666666E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
@@ -37159,7 +37167,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -37196,7 +37204,7 @@
         <v>7.0649806666666704E-2</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6">
         <f>I11/I6</f>
@@ -37212,7 +37220,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -37249,7 +37257,7 @@
         <v>3.4945650000000161E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7">
         <f>I12/I7</f>
@@ -37265,7 +37273,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -37302,7 +37310,7 @@
         <v>5.1428999999999836E-2</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
@@ -37318,7 +37326,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -37355,7 +37363,7 @@
         <v>7.3132733333333366E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
@@ -37371,7 +37379,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -37408,7 +37416,7 @@
         <v>9.4450199999999929E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
@@ -37424,7 +37432,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -37461,7 +37469,7 @@
         <v>0.11395911666666669</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
@@ -37477,7 +37485,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -37514,7 +37522,7 @@
         <v>7.322895000000007E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
@@ -37530,7 +37538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -37567,7 +37575,7 @@
         <v>8.3806233333333369E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
@@ -37583,7 +37591,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>150</v>
@@ -37620,7 +37628,7 @@
         <v>0.11094508333333342</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
@@ -37636,7 +37644,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -37673,7 +37681,7 @@
         <v>0.13104001666666654</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
@@ -37689,7 +37697,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>150</v>
@@ -37726,7 +37734,7 @@
         <v>0.15110001666666673</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
@@ -37742,7 +37750,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -37779,7 +37787,7 @@
         <v>0.13261883333333335</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
@@ -37795,7 +37803,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -37832,7 +37840,7 @@
         <v>0.15005083333333324</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
@@ -37848,7 +37856,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -37885,7 +37893,7 @@
         <v>0.17333683333333383</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
@@ -37901,7 +37909,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -37938,7 +37946,7 @@
         <v>0.19032766666666667</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
@@ -37954,7 +37962,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -37991,7 +37999,7 @@
         <v>0.20764449999999979</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
@@ -38007,7 +38015,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>250</v>
@@ -38044,7 +38052,7 @@
         <v>0.2468651666666668</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
@@ -38060,7 +38068,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -38097,7 +38105,7 @@
         <v>0.25679433333333312</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
@@ -38113,7 +38121,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>250</v>
@@ -38150,7 +38158,7 @@
         <v>0.29690283333333412</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
@@ -38166,7 +38174,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>250</v>
@@ -38203,7 +38211,7 @@
         <v>0.32748366666666673</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
@@ -38219,7 +38227,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>250</v>
@@ -38256,7 +38264,7 @@
         <v>0.34677283333333397</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
@@ -38272,7 +38280,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -38309,7 +38317,7 @@
         <v>0.47888216666666761</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
@@ -38325,7 +38333,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>300</v>
@@ -38362,7 +38370,7 @@
         <v>0.47825183333333321</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
@@ -38378,7 +38386,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>300</v>
@@ -38415,7 +38423,7 @@
         <v>0.5295595000000004</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
@@ -38431,7 +38439,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>300</v>
@@ -38468,7 +38476,7 @@
         <v>0.57518699999999967</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
@@ -38484,7 +38492,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>300</v>
@@ -38521,7 +38529,7 @@
         <v>0.59055266666666739</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
@@ -38537,7 +38545,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -38574,7 +38582,7 @@
         <v>1.5056501666666694E-2</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
@@ -38590,7 +38598,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -38627,7 +38635,7 @@
         <v>3.1424633333333368E-2</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
@@ -38643,7 +38651,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -38680,7 +38688,7 @@
         <v>5.1462024999999995E-2</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
@@ -38696,7 +38704,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>50</v>
@@ -38733,7 +38741,7 @@
         <v>7.183232833333339E-2</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
@@ -38749,7 +38757,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -38786,7 +38794,7 @@
         <v>9.1118746666666695E-2</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
@@ -38802,7 +38810,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -38839,7 +38847,7 @@
         <v>3.4897016666666669E-2</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
@@ -38855,7 +38863,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -38892,7 +38900,7 @@
         <v>5.1194849999999903E-2</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
@@ -38908,7 +38916,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -38945,7 +38953,7 @@
         <v>7.103656666666669E-2</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
@@ -38961,7 +38969,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -38998,7 +39006,7 @@
         <v>9.4040350000000106E-2</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
@@ -39014,7 +39022,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -39051,7 +39059,7 @@
         <v>0.11421131666666662</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
@@ -39067,7 +39075,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>150</v>
@@ -39104,7 +39112,7 @@
         <v>7.2707766666666451E-2</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
@@ -39120,7 +39128,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>150</v>
@@ -39157,7 +39165,7 @@
         <v>8.9263916666666665E-2</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
@@ -39173,7 +39181,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -39210,7 +39218,7 @@
         <v>0.1113071499999998</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
@@ -39226,7 +39234,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>150</v>
@@ -39263,7 +39271,7 @@
         <v>0.1305575166666666</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
@@ -39279,7 +39287,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -39316,7 +39324,7 @@
         <v>0.1503113500000004</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
@@ -39332,7 +39340,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -39369,7 +39377,7 @@
         <v>0.13138349999999965</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
@@ -39385,7 +39393,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>200</v>
@@ -39422,7 +39430,7 @@
         <v>0.1468868333333333</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
@@ -39438,7 +39446,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>200</v>
@@ -39475,7 +39483,7 @@
         <v>0.1744443333333332</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P49">
         <f t="shared" si="1"/>
@@ -39491,7 +39499,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>200</v>
@@ -39528,7 +39536,7 @@
         <v>0.19488633333333327</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
@@ -39544,7 +39552,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>200</v>
@@ -39581,7 +39589,7 @@
         <v>0.2139386666666665</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P51">
         <f t="shared" si="1"/>
@@ -39597,7 +39605,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>250</v>
@@ -39634,7 +39642,7 @@
         <v>0.24282050000000011</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P52">
         <f t="shared" si="1"/>
@@ -39650,7 +39658,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>250</v>
@@ -39687,7 +39695,7 @@
         <v>0.26014650000000028</v>
       </c>
       <c r="O53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P53">
         <f t="shared" si="1"/>
@@ -39703,7 +39711,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>250</v>
@@ -39740,7 +39748,7 @@
         <v>0.29216283333333326</v>
       </c>
       <c r="O54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P54">
         <f t="shared" si="1"/>
@@ -39756,7 +39764,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>250</v>
@@ -39793,7 +39801,7 @@
         <v>0.32888716666666751</v>
       </c>
       <c r="O55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
@@ -39809,7 +39817,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>250</v>
@@ -39846,7 +39854,7 @@
         <v>0.33846966666666667</v>
       </c>
       <c r="O56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
@@ -39862,7 +39870,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>300</v>
@@ -39899,7 +39907,7 @@
         <v>0.47863033333333238</v>
       </c>
       <c r="O57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P57">
         <f t="shared" si="1"/>
@@ -39915,7 +39923,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <v>300</v>
@@ -39952,7 +39960,7 @@
         <v>0.48000433333333259</v>
       </c>
       <c r="O58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P58">
         <f t="shared" si="1"/>
@@ -39968,7 +39976,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>300</v>
@@ -40005,7 +40013,7 @@
         <v>0.5291638333333335</v>
       </c>
       <c r="O59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P59">
         <f t="shared" si="1"/>
@@ -40021,7 +40029,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>300</v>
@@ -40058,7 +40066,7 @@
         <v>0.57901316666666602</v>
       </c>
       <c r="O60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P60">
         <f t="shared" si="1"/>
@@ -40074,7 +40082,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>300</v>
@@ -40111,7 +40119,7 @@
         <v>0.5874669999999993</v>
       </c>
       <c r="O61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P61">
         <f t="shared" si="1"/>
@@ -40127,7 +40135,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -40164,7 +40172,7 @@
         <v>2.0280999999999993E-2</v>
       </c>
       <c r="O62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P62">
         <f t="shared" si="1"/>
@@ -40180,7 +40188,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -40217,7 +40225,7 @@
         <v>3.8589500000000054E-2</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P63">
         <f t="shared" si="1"/>
@@ -40233,7 +40241,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -40270,7 +40278,7 @@
         <v>5.9682166666666592E-2</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P64">
         <f t="shared" si="1"/>
@@ -40286,7 +40294,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65">
         <v>50</v>
@@ -40323,7 +40331,7 @@
         <v>7.903350000000009E-2</v>
       </c>
       <c r="O65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P65">
         <f t="shared" si="1"/>
@@ -40339,7 +40347,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -40376,7 +40384,7 @@
         <v>0.10809883333333326</v>
       </c>
       <c r="O66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P66">
         <f t="shared" si="1"/>
@@ -40392,7 +40400,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -40429,7 +40437,7 @@
         <v>6.4788333333333448E-2</v>
       </c>
       <c r="O67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P67">
         <f t="shared" ref="P67:P121" si="4">I72/I67</f>
@@ -40445,7 +40453,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -40482,7 +40490,7 @@
         <v>8.2580000000000542E-2</v>
       </c>
       <c r="O68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P68">
         <f t="shared" si="4"/>
@@ -40498,7 +40506,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>100</v>
@@ -40535,7 +40543,7 @@
         <v>0.10503333333333309</v>
       </c>
       <c r="O69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P69">
         <f t="shared" si="4"/>
@@ -40551,7 +40559,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>100</v>
@@ -40588,7 +40596,7 @@
         <v>0.12660999999999989</v>
       </c>
       <c r="O70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P70">
         <f t="shared" si="4"/>
@@ -40604,7 +40612,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>100</v>
@@ -40641,7 +40649,7 @@
         <v>0.1489566666666664</v>
       </c>
       <c r="O71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P71">
         <f t="shared" si="4"/>
@@ -40657,7 +40665,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -40694,7 +40702,7 @@
         <v>0.15911166666666787</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P72">
         <f t="shared" si="4"/>
@@ -40710,7 +40718,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>150</v>
@@ -40747,7 +40755,7 @@
         <v>0.15736500000000042</v>
       </c>
       <c r="O73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P73">
         <f t="shared" si="4"/>
@@ -40763,7 +40771,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>150</v>
@@ -40800,7 +40808,7 @@
         <v>0.18904333333333323</v>
       </c>
       <c r="O74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P74">
         <f t="shared" si="4"/>
@@ -40816,7 +40824,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>150</v>
@@ -40853,7 +40861,7 @@
         <v>0.21542666666666666</v>
       </c>
       <c r="O75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P75">
         <f t="shared" si="4"/>
@@ -40869,7 +40877,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>150</v>
@@ -40906,7 +40914,7 @@
         <v>0.2414550000000002</v>
       </c>
       <c r="O76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P76">
         <f t="shared" si="4"/>
@@ -40922,7 +40930,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>200</v>
@@ -40959,7 +40967,7 @@
         <v>0.3038333333333334</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P77">
         <f t="shared" si="4"/>
@@ -40975,7 +40983,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>200</v>
@@ -41012,7 +41020,7 @@
         <v>0.3037633333333325</v>
       </c>
       <c r="O78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P78">
         <f t="shared" si="4"/>
@@ -41028,7 +41036,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>200</v>
@@ -41065,7 +41073,7 @@
         <v>0.3192033333333324</v>
       </c>
       <c r="O79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P79">
         <f t="shared" si="4"/>
@@ -41081,7 +41089,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>200</v>
@@ -41118,7 +41126,7 @@
         <v>0.37257999999999925</v>
       </c>
       <c r="O80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P80">
         <f t="shared" si="4"/>
@@ -41134,7 +41142,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>200</v>
@@ -41171,7 +41179,7 @@
         <v>0.40685166666666639</v>
       </c>
       <c r="O81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P81">
         <f t="shared" si="4"/>
@@ -41187,7 +41195,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>250</v>
@@ -41224,7 +41232,7 @@
         <v>0.62265000000000015</v>
       </c>
       <c r="O82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P82">
         <f t="shared" si="4"/>
@@ -41240,7 +41248,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>250</v>
@@ -41277,7 +41285,7 @@
         <v>0.63441666666666663</v>
       </c>
       <c r="O83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P83">
         <f t="shared" si="4"/>
@@ -41293,7 +41301,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>250</v>
@@ -41330,7 +41338,7 @@
         <v>0.62510000000000154</v>
       </c>
       <c r="O84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P84">
         <f t="shared" si="4"/>
@@ -41346,7 +41354,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>250</v>
@@ -41383,7 +41391,7 @@
         <v>0.61964999999999826</v>
       </c>
       <c r="O85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P85">
         <f t="shared" si="4"/>
@@ -41399,7 +41407,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>250</v>
@@ -41436,7 +41444,7 @@
         <v>0.72551666666666748</v>
       </c>
       <c r="O86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P86">
         <f t="shared" si="4"/>
@@ -41452,7 +41460,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>300</v>
@@ -41493,7 +41501,7 @@
         <v>3.320953333333339</v>
       </c>
       <c r="O87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P87">
         <f t="shared" si="4"/>
@@ -41509,7 +41517,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>300</v>
@@ -41546,7 +41554,7 @@
         <v>1.1202166666666677</v>
       </c>
       <c r="O88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P88">
         <f t="shared" si="4"/>
@@ -41562,7 +41570,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>300</v>
@@ -41599,7 +41607,7 @@
         <v>1.1223166666666735</v>
       </c>
       <c r="O89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P89">
         <f t="shared" si="4"/>
@@ -41615,7 +41623,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>300</v>
@@ -41652,7 +41660,7 @@
         <v>1.1235166666666636</v>
       </c>
       <c r="O90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P90">
         <f t="shared" si="4"/>
@@ -41668,7 +41676,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>300</v>
@@ -41705,7 +41713,7 @@
         <v>1.1232500000000059</v>
       </c>
       <c r="O91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P91">
         <f t="shared" si="4"/>
@@ -41721,7 +41729,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>50</v>
@@ -41758,7 +41766,7 @@
         <v>1.3874333333333322E-2</v>
       </c>
       <c r="O92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P92">
         <f t="shared" si="4"/>
@@ -41774,7 +41782,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>50</v>
@@ -41811,7 +41819,7 @@
         <v>3.0671833333333287E-2</v>
       </c>
       <c r="O93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P93">
         <f t="shared" si="4"/>
@@ -41827,7 +41835,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>50</v>
@@ -41864,7 +41872,7 @@
         <v>5.0854333333333335E-2</v>
       </c>
       <c r="O94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P94">
         <f t="shared" si="4"/>
@@ -41880,7 +41888,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>50</v>
@@ -41917,7 +41925,7 @@
         <v>7.1121333333333314E-2</v>
       </c>
       <c r="O95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P95">
         <f t="shared" si="4"/>
@@ -41933,7 +41941,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -41970,7 +41978,7 @@
         <v>9.1011333333333333E-2</v>
       </c>
       <c r="O96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P96">
         <f t="shared" si="4"/>
@@ -41986,7 +41994,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -42023,7 +42031,7 @@
         <v>3.2746666666666702E-2</v>
       </c>
       <c r="O97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P97">
         <f t="shared" si="4"/>
@@ -42039,7 +42047,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>100</v>
@@ -42076,7 +42084,7 @@
         <v>4.9025000000000096E-2</v>
       </c>
       <c r="O98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P98">
         <f t="shared" si="4"/>
@@ -42092,7 +42100,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>100</v>
@@ -42129,7 +42137,7 @@
         <v>6.863499999999978E-2</v>
       </c>
       <c r="O99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P99">
         <f t="shared" si="4"/>
@@ -42145,7 +42153,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>100</v>
@@ -42182,7 +42190,7 @@
         <v>7.6689999999999703E-2</v>
       </c>
       <c r="O100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P100">
         <f t="shared" si="4"/>
@@ -42198,7 +42206,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -42235,7 +42243,7 @@
         <v>0.11215666666666668</v>
       </c>
       <c r="O101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P101">
         <f t="shared" si="4"/>
@@ -42251,7 +42259,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>150</v>
@@ -42288,7 +42296,7 @@
         <v>7.3093333333333455E-2</v>
       </c>
       <c r="O102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P102">
         <f t="shared" si="4"/>
@@ -42304,7 +42312,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>150</v>
@@ -42341,7 +42349,7 @@
         <v>8.5280000000000022E-2</v>
       </c>
       <c r="O103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P103">
         <f t="shared" si="4"/>
@@ -42357,7 +42365,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>150</v>
@@ -42394,7 +42402,7 @@
         <v>9.4093333333333362E-2</v>
       </c>
       <c r="O104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P104">
         <f t="shared" si="4"/>
@@ -42410,7 +42418,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>150</v>
@@ -42447,7 +42455,7 @@
         <v>0.12673666666666694</v>
       </c>
       <c r="O105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P105">
         <f t="shared" si="4"/>
@@ -42463,7 +42471,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>150</v>
@@ -42500,7 +42508,7 @@
         <v>0.14701833333333347</v>
       </c>
       <c r="O106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P106">
         <f t="shared" si="4"/>
@@ -42516,7 +42524,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>200</v>
@@ -42553,7 +42561,7 @@
         <v>0.13618500000000022</v>
       </c>
       <c r="O107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P107">
         <f t="shared" si="4"/>
@@ -42569,7 +42577,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>200</v>
@@ -42606,7 +42614,7 @@
         <v>0.13854333333333368</v>
       </c>
       <c r="O108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P108">
         <f t="shared" si="4"/>
@@ -42622,7 +42630,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>200</v>
@@ -42659,7 +42667,7 @@
         <v>0.16409166666666763</v>
       </c>
       <c r="O109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P109">
         <f t="shared" si="4"/>
@@ -42675,7 +42683,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <v>200</v>
@@ -42712,7 +42720,7 @@
         <v>0.18712000000000018</v>
       </c>
       <c r="O110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P110">
         <f t="shared" si="4"/>
@@ -42728,7 +42736,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>200</v>
@@ -42765,7 +42773,7 @@
         <v>0.20843333333333369</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P111">
         <f t="shared" si="4"/>
@@ -42781,7 +42789,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <v>250</v>
@@ -42818,7 +42826,7 @@
         <v>0.24715333333333334</v>
       </c>
       <c r="O112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P112">
         <f t="shared" si="4"/>
@@ -42834,7 +42842,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113">
         <v>250</v>
@@ -42871,7 +42879,7 @@
         <v>0.24961999999999929</v>
       </c>
       <c r="O113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P113">
         <f t="shared" si="4"/>
@@ -42887,7 +42895,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114">
         <v>250</v>
@@ -42924,7 +42932,7 @@
         <v>0.25925666666666558</v>
       </c>
       <c r="O114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P114">
         <f t="shared" si="4"/>
@@ -42940,7 +42948,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <v>250</v>
@@ -42977,7 +42985,7 @@
         <v>0.28982500000000044</v>
       </c>
       <c r="O115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P115">
         <f t="shared" si="4"/>
@@ -42993,7 +43001,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116">
         <v>250</v>
@@ -43030,7 +43038,7 @@
         <v>0.31516333333333435</v>
       </c>
       <c r="O116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P116">
         <f t="shared" si="4"/>
@@ -43046,7 +43054,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117">
         <v>300</v>
@@ -43087,7 +43095,7 @@
         <v>0.85855916666666587</v>
       </c>
       <c r="O117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P117">
         <f t="shared" si="4"/>
@@ -43103,7 +43111,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>300</v>
@@ -43140,7 +43148,7 @@
         <v>0.47396666666666754</v>
       </c>
       <c r="O118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P118">
         <f t="shared" si="4"/>
@@ -43156,7 +43164,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119">
         <v>300</v>
@@ -43193,7 +43201,7 @@
         <v>0.47411666666666719</v>
       </c>
       <c r="O119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P119">
         <f t="shared" si="4"/>
@@ -43209,7 +43217,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120">
         <v>300</v>
@@ -43246,7 +43254,7 @@
         <v>0.49751666666666772</v>
       </c>
       <c r="O120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P120">
         <f t="shared" si="4"/>
@@ -43262,7 +43270,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121">
         <v>300</v>
@@ -43299,7 +43307,7 @@
         <v>0.53845000000000098</v>
       </c>
       <c r="O121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P121">
         <f t="shared" si="4"/>
@@ -43320,7 +43328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -43333,33 +43341,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -43392,7 +43400,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <f>CORREL(A3:A8, D3:D8)</f>
@@ -43429,7 +43437,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <f>CORREL(E3:E8, H3:H8)</f>
@@ -43496,7 +43504,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <f>CORREL(A3:A8, B3:B8)</f>
@@ -43533,7 +43541,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <f>CORREL(E3:E8, F3:F8)</f>
@@ -43572,7 +43580,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <f>CORREL(A3:A8, C3:C8)</f>
@@ -43581,19 +43589,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <f>CORREL(E3:E8, G3:G8)</f>
@@ -43632,7 +43640,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <f>CORREL(A11:A15, B11:B15)</f>
@@ -43655,7 +43663,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <f>CORREL(E11:E15, F11:F15)</f>
@@ -43696,33 +43704,33 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -43755,7 +43763,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <f>CORREL(A20:A25, D20:D25)</f>
@@ -43792,7 +43800,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <f>CORREL(E20:E25, H20:H25)</f>
@@ -43859,7 +43867,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <f>CORREL(A20:A25, B20:B25)</f>
@@ -43896,7 +43904,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24">
         <f>CORREL(E20:E25, F20:F25)</f>
@@ -43935,7 +43943,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26">
         <f>CORREL(A20:A25, C20:C25)</f>
@@ -43944,19 +43952,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>41</v>
       </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <f>CORREL(E20:E25, G20:G25)</f>
@@ -43995,7 +44003,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <f>CORREL(A28:A32, B28:B32)</f>
@@ -44018,7 +44026,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <f>CORREL(E28:E32, F28:F32)</f>
@@ -44059,33 +44067,33 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -44118,7 +44126,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37">
         <f>CORREL(A37:A42, D37:D42)</f>
@@ -44155,7 +44163,7 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J38">
         <f>CORREL(E37:E42, H37:H42)</f>
@@ -44222,7 +44230,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <f>CORREL(A37:A42, B37:B42)</f>
@@ -44259,7 +44267,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <f>CORREL(E37:E42, F37:F42)</f>
@@ -44298,7 +44306,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <f>CORREL(A37:A42, C37:C42)</f>
@@ -44307,19 +44315,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <f>CORREL(E37:E42, G37:G42)</f>
@@ -44358,7 +44366,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <f>CORREL(A45:A49, B45:B49)</f>
@@ -44381,7 +44389,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <f>CORREL(E45:E49, F45:F49)</f>
@@ -44422,33 +44430,33 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
         <v>28</v>
       </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>33</v>
       </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -44481,7 +44489,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54">
         <f>CORREL(A54:A59, D54:D59)</f>
@@ -44518,7 +44526,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J55">
         <f>CORREL(E54:E59, H54:H59)</f>
@@ -44585,7 +44593,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <f>CORREL(A54:A59, B54:B59)</f>
@@ -44622,7 +44630,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J58">
         <f>CORREL(E54:E59, F54:F59)</f>
@@ -44661,7 +44669,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <f>CORREL(A54:A59, C54:C59)</f>
@@ -44670,19 +44678,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>41</v>
       </c>
-      <c r="E61" t="s">
-        <v>42</v>
-      </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <f>CORREL(E54:E59, G54:G59)</f>
@@ -44721,7 +44729,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <f>CORREL(A62:A66, B62:B66)</f>
@@ -44744,7 +44752,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <f>CORREL(E62:E66, F62:F66)</f>
@@ -44792,8 +44800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView topLeftCell="AM28" workbookViewId="0">
+      <selection activeCell="AW37" sqref="AW37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45133,32 +45141,32 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -45171,8 +45179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/sheet_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_test_data" sheetId="1" r:id="rId1"/>
@@ -15527,7 +15527,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13000"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -43328,7 +43328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -44800,8 +44800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="AM28" workbookViewId="0">
-      <selection activeCell="AW37" sqref="AW37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45179,7 +45179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
+    <sheetView topLeftCell="Y16" workbookViewId="0">
       <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
